--- a/lod_analysis/excels/tracks.xlsx
+++ b/lod_analysis/excels/tracks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="612">
   <si>
     <t>track_id</t>
   </si>
@@ -46,1282 +46,1810 @@
     <t>geonames_download_time</t>
   </si>
   <si>
-    <t>61mWefnWQOLf90gepjOCb3</t>
-  </si>
-  <si>
-    <t>5anCkDvJ17aznvK5TED5uo</t>
-  </si>
-  <si>
-    <t>2SgbR6ttzoNlCRGQOKjrop</t>
-  </si>
-  <si>
-    <t>7MeXwzhSDGfqNfuFANgzVC</t>
+    <t>2mt1IqcFyY1zmYZT8Q3xw9</t>
+  </si>
+  <si>
+    <t>1QEEqeFIZktqIpPI4jSVSF</t>
+  </si>
+  <si>
+    <t>01z3wyn02forxUQHEDAa0R</t>
+  </si>
+  <si>
+    <t>1yKu2MhpwzDXXH2tzG6xoa</t>
+  </si>
+  <si>
+    <t>5Z9KJZvQzH6PFmb8SNkxuk</t>
+  </si>
+  <si>
+    <t>4do0Z0rHdFUV3RSMxMQsdq</t>
+  </si>
+  <si>
+    <t>2aI21FnmY7TJVKeMaoQZ0t</t>
+  </si>
+  <si>
+    <t>086myS9r57YsLbJpU0TgK9</t>
+  </si>
+  <si>
+    <t>4zyHANHgTs2XZfZtw7QFoR</t>
+  </si>
+  <si>
+    <t>0M3adYbGtyRHACP86dey1H</t>
+  </si>
+  <si>
+    <t>5oPUBUzrAnwvlmMzl1VW7Y</t>
+  </si>
+  <si>
+    <t>1H5VQuShs4qfwBXyHF0PeH</t>
+  </si>
+  <si>
+    <t>0C2eEsMBj78CLkHNJPjohc</t>
+  </si>
+  <si>
+    <t>25jSwur7S47WCiH0hQNUAo</t>
+  </si>
+  <si>
+    <t>1Z6lKdYhwp8WYoBqGCKxlM</t>
+  </si>
+  <si>
+    <t>7Jb0dd0swg2VtD4cf18MCa</t>
   </si>
   <si>
     <t>5sFDReWLrZHLFZFjHsjUTS</t>
   </si>
   <si>
-    <t>6ursmCnbc9oDRGa2yHKkoZ</t>
-  </si>
-  <si>
-    <t>4ImIJRZNJhNQLLdUFSYJoS</t>
-  </si>
-  <si>
-    <t>3NW1h8l6EY5N6HNBL83S4V</t>
-  </si>
-  <si>
-    <t>1Krtfh550kyhfWPcRp6SnD</t>
-  </si>
-  <si>
-    <t>60fUDmIWuKhngaeBIVhqIV</t>
-  </si>
-  <si>
-    <t>5j3iBuHq6vv7VcBo4Y2QrK</t>
-  </si>
-  <si>
-    <t>3cwDSDzTiWr5H5xMQhQ6Mx</t>
-  </si>
-  <si>
-    <t>3H0ZY55seypgo0zXI6zwRk</t>
-  </si>
-  <si>
-    <t>1158ckiB5S4cpsdYHDB9IF</t>
-  </si>
-  <si>
-    <t>5hQfs9spSyXUavvPe7jmgn</t>
-  </si>
-  <si>
-    <t>3jagGO7eHHuaD53ibehkux</t>
-  </si>
-  <si>
-    <t>3XEMhKdne3ySYevbEYllEr</t>
-  </si>
-  <si>
-    <t>5siM4eG36axvG3alLNnsAx</t>
-  </si>
-  <si>
-    <t>6zKF4293k44ItKWJJgrhXv</t>
-  </si>
-  <si>
-    <t>15zUfY9L1p7bN9JsgaTAP0</t>
-  </si>
-  <si>
-    <t>2MvIMgtWyK88OiPi0J8Dg3</t>
-  </si>
-  <si>
-    <t>3xktQXIr1OD3ENc19viwDP</t>
-  </si>
-  <si>
-    <t>6RJdYpFQwLyNfDc5FbjkgV</t>
-  </si>
-  <si>
-    <t>6CDhfV6K4yplWYFR8Ip82v</t>
-  </si>
-  <si>
-    <t>1KCAEG6JcsTzi8ddZzs0nk</t>
-  </si>
-  <si>
-    <t>1pr9TZGOXeJUggIal1Wq3R</t>
-  </si>
-  <si>
-    <t>7fcfNW0XxTWlwVlftzfDOR</t>
-  </si>
-  <si>
-    <t>0EYOdF5FCkgOJJla8DI2Md</t>
-  </si>
-  <si>
-    <t>2F6FfZ4w8z3eJpSxPotVO5</t>
-  </si>
-  <si>
-    <t>77VW8u6inET54YAKN1RSnd</t>
-  </si>
-  <si>
-    <t>12E3xswOlcYnpbxtoewDbm</t>
-  </si>
-  <si>
-    <t>77669gz00MpURvunPKsS3x</t>
-  </si>
-  <si>
-    <t>6VmiiNjRMGrl4UhDblZ5QV</t>
-  </si>
-  <si>
-    <t>6p2liQLGoDaLXgND68bfVt</t>
-  </si>
-  <si>
-    <t>6kAA9qAGB9KXfdwOJBh3LZ</t>
-  </si>
-  <si>
-    <t>437ShA8eBSfBmezIP9MeX1</t>
-  </si>
-  <si>
-    <t>2cYPwfYnnG4UMsqgitDKDz</t>
-  </si>
-  <si>
-    <t>2AsTgVcWojYwQAvzgacYWy</t>
-  </si>
-  <si>
-    <t>2WSWm0zlL3CJRACHS5KXbB</t>
-  </si>
-  <si>
-    <t>6W21LNLz9Sw7sUSNWMSHRu</t>
-  </si>
-  <si>
-    <t>6nJPHXRpKYv2yqtalEjKy5</t>
-  </si>
-  <si>
-    <t>25EgA1A1OZBRw25Mjyw08g</t>
-  </si>
-  <si>
-    <t>3iTGqLgYo57UjTHAieDOlA</t>
-  </si>
-  <si>
-    <t>2Tibxka4w154ISDA6Z4mnB</t>
-  </si>
-  <si>
-    <t>2TNPagu8Z4zvDOpmnktF00</t>
-  </si>
-  <si>
-    <t>1HD8mFfpSGLJnwv6UTLaIv</t>
-  </si>
-  <si>
-    <t>42ZVk59gT4tMlrZmd8Ijxf</t>
-  </si>
-  <si>
-    <t>5cxp9kjCFyJwzv3lzeX7ku</t>
-  </si>
-  <si>
-    <t>5hkgrWxkobGtg30I7DsfVu</t>
-  </si>
-  <si>
-    <t>4ClGNWLK9vZMBtO0CpnyOE</t>
-  </si>
-  <si>
-    <t>2QZxpZDfJjhEGclSszvMVX</t>
-  </si>
-  <si>
-    <t>5PZ2cqh9Yem2g6cTSOLllz</t>
-  </si>
-  <si>
-    <t>56sk7jBpZV0CD31G9hEU3b</t>
-  </si>
-  <si>
-    <t>3HE50TVRquwXe9yv2HFoNL</t>
-  </si>
-  <si>
-    <t>1Q2fYlSdwuutWj3QplhY9q</t>
-  </si>
-  <si>
-    <t>6NAmbftWAovcMCnJzDCFsU</t>
-  </si>
-  <si>
-    <t>6Dtq63g5m2sMIVd1Aw9ZDD</t>
-  </si>
-  <si>
-    <t>7piw04hPQZ1OHZ9Fq9JOXR</t>
-  </si>
-  <si>
-    <t>1cYtqvYDbuzjgSJsAkTRaH</t>
-  </si>
-  <si>
-    <t>4urxRqBRiaH0i20OKBsgxc</t>
-  </si>
-  <si>
-    <t>55KYlnsC6nYnr3IykbmJwE</t>
-  </si>
-  <si>
-    <t>3umZYbgTkZEnZCae8HKqZh</t>
-  </si>
-  <si>
-    <t>0Cx5QWilR60IyyUvGZQtDC</t>
-  </si>
-  <si>
-    <t>3RscvSCPYxDBeOseQBvV6F</t>
-  </si>
-  <si>
-    <t>7pDHM9huHHpRc9CrxZElsW</t>
-  </si>
-  <si>
-    <t>7DFOkiPIVq5vWyReXnT4JN</t>
-  </si>
-  <si>
-    <t>5pvJ59i7JxylN8VB24xdMs</t>
-  </si>
-  <si>
-    <t>59TLlOD6sH4cCTSF6ITRkA</t>
-  </si>
-  <si>
-    <t>6HDBZFpozQsnYZ88ic250y</t>
-  </si>
-  <si>
-    <t>10ASBwZsp7oUUDsJEYz3uS</t>
-  </si>
-  <si>
-    <t>0FCCTnUJEczeSspOHfEmW8</t>
-  </si>
-  <si>
-    <t>4u9UZQxoVkabuLZldQGHi6</t>
-  </si>
-  <si>
-    <t>1ZFm5SAlmVzufSu1CYWiBN</t>
-  </si>
-  <si>
-    <t>6wDVNn4STCopwfQ9lFO2iR</t>
-  </si>
-  <si>
-    <t>4lhrVGMeZcHB8SfAMo7JuA</t>
-  </si>
-  <si>
-    <t>2E7YtO788L7WRMsTfO6uQB</t>
-  </si>
-  <si>
-    <t>5lVBP1Ztfbw41KoZlTPfZg</t>
-  </si>
-  <si>
-    <t>2g6uwKdzrj6anXMvc95vSg</t>
-  </si>
-  <si>
-    <t>648fQrTDPYRbRUe5l6UM9x</t>
-  </si>
-  <si>
-    <t>6qqDeGDkNvcPmumiQUQzAB</t>
-  </si>
-  <si>
-    <t>5Y9e5xIZnp2dDMKpGyaaZ3</t>
-  </si>
-  <si>
-    <t>58ubvrlEOugu8SunT0qZIv</t>
-  </si>
-  <si>
-    <t>6c6uAJ0wpgmTgCM4gQQNyT</t>
-  </si>
-  <si>
-    <t>4pJEKilWKOHgNedKVkC1bz</t>
-  </si>
-  <si>
-    <t>7d3YcXq9tEnjBRuFuKSM3Q</t>
-  </si>
-  <si>
-    <t>5EPaxkMLaYyf3O9QZvusDu</t>
-  </si>
-  <si>
-    <t>5hmi2Y21eURv0gUZEnfZtN</t>
-  </si>
-  <si>
-    <t>7wZhExGIvoGbwR71Hd6GAX</t>
-  </si>
-  <si>
-    <t>2rAqKxA6LBGhICasIlwNlJ</t>
-  </si>
-  <si>
-    <t>66F03GQ6Q6MXXHp2JKhKNE</t>
-  </si>
-  <si>
-    <t>1L82mjibDdF0YAv9FWp00s</t>
-  </si>
-  <si>
-    <t>1yFz5j1B9TqIVwblu6QSUi</t>
-  </si>
-  <si>
-    <t>0NIkKL6wsLK5V2vX97zOTr</t>
-  </si>
-  <si>
-    <t>4EJZgvebpQvxvoPTRUvWrK</t>
-  </si>
-  <si>
-    <t>2YdkZa3Fg7KLA06oWdgGxY</t>
-  </si>
-  <si>
-    <t>3ASqLQWbgejOEJzxP4mrfY</t>
-  </si>
-  <si>
-    <t>7zyJ2g9o0nVOBbDavVveCl</t>
-  </si>
-  <si>
-    <t>3I94qxxiGfzRQlmTwjZWS4</t>
-  </si>
-  <si>
-    <t>78mffX1VgHOhgkw73hKn9B</t>
-  </si>
-  <si>
-    <t>2DOR01aOsurJWQ1N9U5ng9</t>
-  </si>
-  <si>
-    <t>Duality</t>
-  </si>
-  <si>
-    <t>Hail to the King</t>
-  </si>
-  <si>
-    <t>Cowboys from Hell</t>
-  </si>
-  <si>
-    <t>Toxicity</t>
+    <t>1qAuIPMALdFtGv2Ymjy5l0</t>
+  </si>
+  <si>
+    <t>2ri1QFlmi2PRyzJ6bMjYg9</t>
+  </si>
+  <si>
+    <t>4avSaixVwu8uqfSs7zgoj3</t>
+  </si>
+  <si>
+    <t>5SEBSAio1N77Vbrj1cAEGb</t>
+  </si>
+  <si>
+    <t>3S0OXQeoh0w6AY8WQVckRW</t>
+  </si>
+  <si>
+    <t>2OBKvpCTPo0q4qQELJ1n7h</t>
+  </si>
+  <si>
+    <t>2RaA6kIcvomt77qlIgGhCT</t>
+  </si>
+  <si>
+    <t>1euDTbMNRPNfKd8zZz4zTT</t>
+  </si>
+  <si>
+    <t>6IVlHRrjTKep5SS9kbcpTa</t>
+  </si>
+  <si>
+    <t>3EAFamlgsYPA3HijLUPszI</t>
+  </si>
+  <si>
+    <t>3CRDbSIZ4r5MsZ0YwxuEkn</t>
+  </si>
+  <si>
+    <t>7BKLCZ1jbUBVqRi2FVlTVw</t>
+  </si>
+  <si>
+    <t>0BxfFnk0YzONqvmrkO0QrB</t>
+  </si>
+  <si>
+    <t>3M1q2Wy2dAKiWV6oE6Koou</t>
+  </si>
+  <si>
+    <t>5fpizYGbi5IQoEraj6FP0R</t>
+  </si>
+  <si>
+    <t>5BP0oaQ1VhuaznT77CBXQp</t>
+  </si>
+  <si>
+    <t>6hADH7b57N5666cGv624vg</t>
+  </si>
+  <si>
+    <t>6EsBn1Md8C5YdbCzvwvZq8</t>
+  </si>
+  <si>
+    <t>30FURVTCpbKyykjSEQzGkH</t>
+  </si>
+  <si>
+    <t>4EchqUKQ3qAQuRNKmeIpnf</t>
+  </si>
+  <si>
+    <t>26D1PRJjD9Jj1JGRk88KVc</t>
+  </si>
+  <si>
+    <t>0P7yKadIJtft3LYWTQ6Y4n</t>
+  </si>
+  <si>
+    <t>6xE6ZWzK1YDDSYzqOCoQlz</t>
+  </si>
+  <si>
+    <t>2ojhyfZMmaXQFqA1YLofwo</t>
+  </si>
+  <si>
+    <t>06DSI8L6IT8SizCw3JLckz</t>
+  </si>
+  <si>
+    <t>2kulOHR2XY6YDZCWXb38hn</t>
+  </si>
+  <si>
+    <t>4h8VwCb1MTGoLKueQ1WgbD</t>
+  </si>
+  <si>
+    <t>663Karu2rvKLdnY0eo1n3M</t>
+  </si>
+  <si>
+    <t>2DTQUOfYJAjdo7utgjnU4u</t>
+  </si>
+  <si>
+    <t>2ijit5crURH5jhIc4YoKgA</t>
+  </si>
+  <si>
+    <t>6tp27J7xy18DQiQXut3GsF</t>
+  </si>
+  <si>
+    <t>6WEBIVqiEsevfgJefTyuQQ</t>
+  </si>
+  <si>
+    <t>09BINxFxiDeywjfC39nRFi</t>
+  </si>
+  <si>
+    <t>5GorCbAP4aL0EJ16frG2hd</t>
+  </si>
+  <si>
+    <t>1ENLIbxO4Uma773neTHxbp</t>
+  </si>
+  <si>
+    <t>1yrNoXJopuBtsL5Vj62ESi</t>
+  </si>
+  <si>
+    <t>18lR4BzEs7e3qzc0KVkTpU</t>
+  </si>
+  <si>
+    <t>2gam98EZKrF9XuOkU13ApN</t>
+  </si>
+  <si>
+    <t>2wnsBaxrmkthIFAm6vqCuX</t>
+  </si>
+  <si>
+    <t>1KU5EHSz04JhGg3rReGJ0N</t>
+  </si>
+  <si>
+    <t>1MQTmpYOZ6fcMQc56Hdo7T</t>
+  </si>
+  <si>
+    <t>6zeDYmP3ARpURvpK29Q09P</t>
+  </si>
+  <si>
+    <t>6ZCyDN2ArlWB4GKAj644Cd</t>
+  </si>
+  <si>
+    <t>3ZfMci7n6qk9nRodX8BfIb</t>
+  </si>
+  <si>
+    <t>1hGy2eLcmC8eKx7qr1tOqx</t>
+  </si>
+  <si>
+    <t>7iAqvWLgZzXvH38lA06QZg</t>
+  </si>
+  <si>
+    <t>6fNhZRFEkBfgW39W3wKARJ</t>
+  </si>
+  <si>
+    <t>1x9iOd3K1JC6tdjGZJpFgZ</t>
+  </si>
+  <si>
+    <t>5ka2ajep9OAvU5Sgduhiex</t>
+  </si>
+  <si>
+    <t>5hE3T2329sdMmIrHxjhQDL</t>
+  </si>
+  <si>
+    <t>2HAVFycrhtbmLxyyxpm6JI</t>
+  </si>
+  <si>
+    <t>3aTb5EUBOlNDSEcaTFI7Jj</t>
+  </si>
+  <si>
+    <t>06hsdMbBxWGqBO0TV0Zrkf</t>
+  </si>
+  <si>
+    <t>1HRtVWNhS9tEvDQyOKD9Fs</t>
+  </si>
+  <si>
+    <t>1M3Q6JBxczHas388EfotPV</t>
+  </si>
+  <si>
+    <t>2cGxRwrMyEAp8dEbuZaVv6</t>
+  </si>
+  <si>
+    <t>2hrUO4drrO63i7FYbCLBl2</t>
+  </si>
+  <si>
+    <t>1c0zagykmGPDYuxJeDqZhJ</t>
+  </si>
+  <si>
+    <t>5CeL9C3bsoe4yzYS1Qz8cw</t>
+  </si>
+  <si>
+    <t>4Hn14NabX651eOOzsLL8Uc</t>
+  </si>
+  <si>
+    <t>1PhLYngBKbeDtdmDzCg3Pb</t>
+  </si>
+  <si>
+    <t>6RNDeRnWsRMjPdNVgupZCs</t>
+  </si>
+  <si>
+    <t>6ic8OlLUNEATToEFU3xmaH</t>
+  </si>
+  <si>
+    <t>7y7w4tl4MaRC2UMEj1mPtr</t>
+  </si>
+  <si>
+    <t>0DiWol3AO6WpXZgp0goxAV</t>
+  </si>
+  <si>
+    <t>4VIDVd87GQcBSbofvDp8Pj</t>
+  </si>
+  <si>
+    <t>7MmG8p0F9N3C4AXdK6o6Eb</t>
+  </si>
+  <si>
+    <t>4kqhpdBNKywstQpWMnEglC</t>
+  </si>
+  <si>
+    <t>5DiXcVovI0FcY2s0icWWUu</t>
+  </si>
+  <si>
+    <t>3q2gRjU2UdOYRDY1p4cNHr</t>
+  </si>
+  <si>
+    <t>0n2SEXB2qoRQg171q7XqeW</t>
+  </si>
+  <si>
+    <t>5tJjo5JDF9zhzYD7yQfATH</t>
+  </si>
+  <si>
+    <t>0ql91Km4bA2AIHRCHhs3nS</t>
+  </si>
+  <si>
+    <t>6Kzi4F77twuPRkNhxonUET</t>
+  </si>
+  <si>
+    <t>7HDWE2Ib7cjkhzULV4K8y3</t>
+  </si>
+  <si>
+    <t>2iJuuzV8P9Yz0VSurttIV5</t>
+  </si>
+  <si>
+    <t>6qn9YLKt13AGvpq9jfO8py</t>
+  </si>
+  <si>
+    <t>1YhiWWFrbdd3kAVhSYDhZ7</t>
+  </si>
+  <si>
+    <t>3CKCZ9pfwAfoMZlMncA1Nc</t>
+  </si>
+  <si>
+    <t>16wAOAZ2OkqoIDN7TpChjR</t>
+  </si>
+  <si>
+    <t>3UygY7qW2cvG9Llkay6i1i</t>
+  </si>
+  <si>
+    <t>4N3hMqfpyJl4MB2EVrUDAR</t>
+  </si>
+  <si>
+    <t>2VOomzT6VavJOGBeySqaMc</t>
+  </si>
+  <si>
+    <t>hot girl bummer</t>
+  </si>
+  <si>
+    <t>More Than a Feeling</t>
+  </si>
+  <si>
+    <t>What's This Life For</t>
+  </si>
+  <si>
+    <t>Beverly Hills</t>
+  </si>
+  <si>
+    <t>INDUSTRY BABY (feat. Jack Harlow)</t>
+  </si>
+  <si>
+    <t>Crimson and Clover</t>
+  </si>
+  <si>
+    <t>Say It Right</t>
+  </si>
+  <si>
+    <t>Why'd You Only Call Me When You're High?</t>
+  </si>
+  <si>
+    <t>I'm A Believer - Radio Edit</t>
+  </si>
+  <si>
+    <t>Throne</t>
+  </si>
+  <si>
+    <t>Breathe</t>
+  </si>
+  <si>
+    <t>Narcotic - Radio Edit</t>
+  </si>
+  <si>
+    <t>Boys Don't Cry</t>
+  </si>
+  <si>
+    <t>Words As Weapons</t>
+  </si>
+  <si>
+    <t>Unskinny Bop</t>
+  </si>
+  <si>
+    <t>Special</t>
   </si>
   <si>
     <t>Would?</t>
   </si>
   <si>
-    <t>Roots Bloody Roots</t>
-  </si>
-  <si>
-    <t>Down with the Sickness</t>
-  </si>
-  <si>
-    <t>1000hp</t>
-  </si>
-  <si>
-    <t>Overkill</t>
-  </si>
-  <si>
-    <t>Stranded</t>
-  </si>
-  <si>
-    <t>Cirice</t>
-  </si>
-  <si>
-    <t>Du hast</t>
-  </si>
-  <si>
-    <t>Dig</t>
-  </si>
-  <si>
-    <t>My Own Summer (Shove It)</t>
-  </si>
-  <si>
-    <t>Looking Down the Barrel of Today</t>
-  </si>
-  <si>
-    <t>Blood and Thunder</t>
-  </si>
-  <si>
-    <t>The Beautiful People</t>
-  </si>
-  <si>
-    <t>Sonne</t>
-  </si>
-  <si>
-    <t>My Curse</t>
-  </si>
-  <si>
-    <t>Strife</t>
-  </si>
-  <si>
-    <t>Psychosocial</t>
-  </si>
-  <si>
-    <t>Bodies</t>
-  </si>
-  <si>
-    <t>Stricken</t>
-  </si>
-  <si>
-    <t>Dragula</t>
-  </si>
-  <si>
-    <t>You Want a Battle? (Here's a War)</t>
-  </si>
-  <si>
-    <t>Blind</t>
-  </si>
-  <si>
-    <t>Walk</t>
-  </si>
-  <si>
-    <t>B.Y.O.B.</t>
-  </si>
-  <si>
-    <t>Falling Away from Me</t>
-  </si>
-  <si>
-    <t>Twisted Transistor</t>
-  </si>
-  <si>
-    <t>Politics</t>
-  </si>
-  <si>
-    <t>Hypocrites</t>
-  </si>
-  <si>
-    <t>Love Song</t>
-  </si>
-  <si>
-    <t>Coming Undone</t>
-  </si>
-  <si>
-    <t>Liar</t>
-  </si>
-  <si>
-    <t>Right Now</t>
-  </si>
-  <si>
-    <t>Here It Comes Again</t>
-  </si>
-  <si>
-    <t>Did My Time</t>
-  </si>
-  <si>
-    <t>Y'all Want a Single</t>
-  </si>
-  <si>
-    <t>Freak On a Leash</t>
-  </si>
-  <si>
-    <t>Got the Life</t>
-  </si>
-  <si>
-    <t>Get Up! (feat. Skrillex)</t>
-  </si>
-  <si>
-    <t>Shout 2000</t>
-  </si>
-  <si>
-    <t>Meaning of Life</t>
-  </si>
-  <si>
-    <t>Warrior</t>
-  </si>
-  <si>
-    <t>The Animal</t>
-  </si>
-  <si>
-    <t>Indestructible</t>
-  </si>
-  <si>
-    <t>Inside the Fire</t>
-  </si>
-  <si>
-    <t>Ten Thousand Fists</t>
-  </si>
-  <si>
-    <t>Land of Confusion</t>
-  </si>
-  <si>
-    <t>It's All Over</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>Animal I Have Become</t>
-  </si>
-  <si>
-    <t>Never Too Late</t>
-  </si>
-  <si>
-    <t>Riot</t>
-  </si>
-  <si>
-    <t>Let It Die</t>
-  </si>
-  <si>
-    <t>Over and Over</t>
-  </si>
-  <si>
-    <t>Time of Dying</t>
-  </si>
-  <si>
-    <t>Bitter Taste</t>
-  </si>
-  <si>
-    <t>Break</t>
-  </si>
-  <si>
-    <t>The Good Life</t>
-  </si>
-  <si>
-    <t>Bully</t>
-  </si>
-  <si>
-    <t>Polyamorous</t>
-  </si>
-  <si>
-    <t>Shallow Bay</t>
-  </si>
-  <si>
-    <t>Firefly</t>
-  </si>
-  <si>
-    <t>Breakdown</t>
-  </si>
-  <si>
-    <t>The Diary of Jane - Single Version</t>
-  </si>
-  <si>
-    <t>Breath</t>
-  </si>
-  <si>
-    <t>Evil Angel</t>
-  </si>
-  <si>
-    <t>Dance With The Devil</t>
-  </si>
-  <si>
-    <t>Topless</t>
-  </si>
-  <si>
-    <t>Unknown Soldier</t>
-  </si>
-  <si>
-    <t>I Will Not Bow</t>
-  </si>
-  <si>
-    <t>Blow Me Away - Featuring Valora</t>
-  </si>
-  <si>
-    <t>Ashes</t>
-  </si>
-  <si>
-    <t>The Way of the Fist</t>
-  </si>
-  <si>
-    <t>The Bleeding</t>
-  </si>
-  <si>
-    <t>White Knuckles</t>
-  </si>
-  <si>
-    <t>Death Before Dishonor</t>
-  </si>
-  <si>
-    <t>Meet the Monster</t>
-  </si>
-  <si>
-    <t>Never Enough</t>
-  </si>
-  <si>
-    <t>American Capitalist</t>
-  </si>
-  <si>
-    <t>Under and Over It</t>
-  </si>
-  <si>
-    <t>The Pride</t>
-  </si>
-  <si>
-    <t>Coming Down</t>
-  </si>
-  <si>
-    <t>Menace</t>
-  </si>
-  <si>
-    <t>Generation Dead</t>
-  </si>
-  <si>
-    <t>Back for More</t>
-  </si>
-  <si>
-    <t>Wicked Ways</t>
-  </si>
-  <si>
-    <t>100 Ways to Hate</t>
-  </si>
-  <si>
-    <t>Lift Me Up</t>
-  </si>
-  <si>
-    <t>Watch You Bleed</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>Burn MF</t>
-  </si>
-  <si>
-    <t>I.M.Sin</t>
-  </si>
-  <si>
-    <t>Anywhere But Here (feat. Maria Brink)</t>
-  </si>
-  <si>
-    <t>Dot Your Eyes</t>
-  </si>
-  <si>
-    <t>Here To Die</t>
-  </si>
-  <si>
-    <t>05fG473iIaoy82BF1aGhL8</t>
-  </si>
-  <si>
-    <t>0nmQIMXWTXfhgOBdNzhGOs</t>
-  </si>
-  <si>
-    <t>14pVkFUHDL207LzLHtSA18</t>
-  </si>
-  <si>
-    <t>5eAWCfyUhZtHHtBdNk56l1</t>
+    <t>MONSTERS</t>
+  </si>
+  <si>
+    <t>Hit Me With Your Best Shot</t>
+  </si>
+  <si>
+    <t>Livin' On The Edge</t>
+  </si>
+  <si>
+    <t>N 2 Gether Now</t>
+  </si>
+  <si>
+    <t>I'm Yours</t>
+  </si>
+  <si>
+    <t>Sexy And I Know It</t>
+  </si>
+  <si>
+    <t>Breaking the Law</t>
+  </si>
+  <si>
+    <t>Give In to Me</t>
+  </si>
+  <si>
+    <t>This Is The Last Time</t>
+  </si>
+  <si>
+    <t>She Sells Sanctuary (2009 Re-master)</t>
+  </si>
+  <si>
+    <t>Stressed Out</t>
+  </si>
+  <si>
+    <t>Closer</t>
+  </si>
+  <si>
+    <t>Don't Cha</t>
+  </si>
+  <si>
+    <t>Saturday Night - Radio Edit</t>
+  </si>
+  <si>
+    <t>Intergalactic - Remastered 2009</t>
+  </si>
+  <si>
+    <t>Where Is My Mind?</t>
+  </si>
+  <si>
+    <t>Right Action</t>
+  </si>
+  <si>
+    <t>Self Esteem</t>
+  </si>
+  <si>
+    <t>Back To Black</t>
+  </si>
+  <si>
+    <t>The Kids Aren't Alright</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Ready or Not</t>
+  </si>
+  <si>
+    <t>Last Train to London</t>
+  </si>
+  <si>
+    <t>Rat In Mi Kitchen</t>
+  </si>
+  <si>
+    <t>Cantaloop (Flip Fantasia)</t>
+  </si>
+  <si>
+    <t>Wanna Be Startin' Somethin'</t>
+  </si>
+  <si>
+    <t>Wake Me Up</t>
+  </si>
+  <si>
+    <t>Call Me When You're Sober</t>
+  </si>
+  <si>
+    <t>Baker Street</t>
+  </si>
+  <si>
+    <t>Love Me Like You</t>
+  </si>
+  <si>
+    <t>Don't Lie</t>
+  </si>
+  <si>
+    <t>Too Shy</t>
+  </si>
+  <si>
+    <t>Another Brick in the Wall, Pt. 2</t>
+  </si>
+  <si>
+    <t>Boulevard of Broken Dreams</t>
+  </si>
+  <si>
+    <t>Sweet Dreams (Are Made Of This)</t>
+  </si>
+  <si>
+    <t>Englishman In New York</t>
+  </si>
+  <si>
+    <t>What I've Done</t>
+  </si>
+  <si>
+    <t>Promiscuous</t>
+  </si>
+  <si>
+    <t>So Lonely</t>
+  </si>
+  <si>
+    <t>Black Velvet</t>
+  </si>
+  <si>
+    <t>Sleep Now In the Fire</t>
+  </si>
+  <si>
+    <t>Someday</t>
+  </si>
+  <si>
+    <t>Strangelove</t>
+  </si>
+  <si>
+    <t>Girl Gone Wild</t>
+  </si>
+  <si>
+    <t>Beautiful Girls</t>
+  </si>
+  <si>
+    <t>I Want To Break Free</t>
+  </si>
+  <si>
+    <t>Pompeii</t>
+  </si>
+  <si>
+    <t>You Can Leave Your Hat On</t>
+  </si>
+  <si>
+    <t>Applause</t>
+  </si>
+  <si>
+    <t>Selling The Drama</t>
+  </si>
+  <si>
+    <t>Killing Me Softly With His Song</t>
+  </si>
+  <si>
+    <t>Bodyrock</t>
+  </si>
+  <si>
+    <t>Cotton Eye Joe</t>
+  </si>
+  <si>
+    <t>Don't Stop 'Til You Get Enough - 2003 Edit</t>
+  </si>
+  <si>
+    <t>Mope</t>
+  </si>
+  <si>
+    <t>Instant Crush (feat. Julian Casablancas)</t>
+  </si>
+  <si>
+    <t>Rockabye (feat. Sean Paul &amp; Anne-Marie)</t>
+  </si>
+  <si>
+    <t>World Hold on (Children of the Sky) [Radio Edit]</t>
+  </si>
+  <si>
+    <t>Girls &amp; Boys</t>
+  </si>
+  <si>
+    <t>How Do You Do!</t>
+  </si>
+  <si>
+    <t>Sad But True</t>
+  </si>
+  <si>
+    <t>I Just Called To Say I Love You</t>
+  </si>
+  <si>
+    <t>Gimme More</t>
+  </si>
+  <si>
+    <t>Come &amp; Go (with Marshmello)</t>
+  </si>
+  <si>
+    <t>One More Time</t>
+  </si>
+  <si>
+    <t>Bad Things</t>
+  </si>
+  <si>
+    <t>Outside (feat. Ellie Goulding)</t>
+  </si>
+  <si>
+    <t>Don't Tell Me</t>
+  </si>
+  <si>
+    <t>Mr. Jones</t>
+  </si>
+  <si>
+    <t>It Must Be Love</t>
+  </si>
+  <si>
+    <t>Smooth (feat. Rob Thomas)</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Salvation</t>
+  </si>
+  <si>
+    <t>One in a Million</t>
+  </si>
+  <si>
+    <t>It's No Good</t>
+  </si>
+  <si>
+    <t>Scream &amp; Shout</t>
+  </si>
+  <si>
+    <t>We Found Love</t>
+  </si>
+  <si>
+    <t>American Life</t>
+  </si>
+  <si>
+    <t>Set Fire to the Rain</t>
+  </si>
+  <si>
+    <t>Yummy</t>
+  </si>
+  <si>
+    <t>Going Under</t>
+  </si>
+  <si>
+    <t>Domino Dancing - 2003 Remaster</t>
+  </si>
+  <si>
+    <t>Disturbia</t>
+  </si>
+  <si>
+    <t>2cFrymmkijnjDg9SS92EPM</t>
+  </si>
+  <si>
+    <t>29kkCKKGXheHuoO829FxWK</t>
+  </si>
+  <si>
+    <t>43sZBwHjahUvgbx1WNIkIz</t>
+  </si>
+  <si>
+    <t>3jOstUTkEu2JkjvRdBA5Gu</t>
+  </si>
+  <si>
+    <t>7jVv8c5Fj3E9VhNjxT4snq</t>
+  </si>
+  <si>
+    <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
+  </si>
+  <si>
+    <t>2jw70GZXlAI8QzWeY2bgRc</t>
+  </si>
+  <si>
+    <t>7Ln80lUS6He07XvHI8qqHH</t>
+  </si>
+  <si>
+    <t>2iEvnFsWxR0Syqu2JNopAd</t>
+  </si>
+  <si>
+    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
+  </si>
+  <si>
+    <t>4k1ELeJKT1ISyDv8JivPpB</t>
+  </si>
+  <si>
+    <t>0wgLwvDNCHdJ9FblyyD4Dc</t>
+  </si>
+  <si>
+    <t>7bu3H8JO7d0UbMoVzbo70s</t>
+  </si>
+  <si>
+    <t>6B5c4sch27tWHAGdarpPaW</t>
+  </si>
+  <si>
+    <t>1fBCIkoPOPCDLUxGuWNvyo</t>
+  </si>
+  <si>
+    <t>6S0GHTqz5sxK5f9HtLXn9q</t>
   </si>
   <si>
     <t>64tNsm6TnZe2zpcMVMOoHL</t>
   </si>
   <si>
-    <t>6JW8wliOEwaDZ231ZY7cf4</t>
-  </si>
-  <si>
-    <t>3TOqt5oJwL9BE2NG9MEwDa</t>
-  </si>
-  <si>
-    <t>6gZq1Q6bdOxsUPUG1TaFbF</t>
-  </si>
-  <si>
-    <t>1DFr97A9HnbV3SKTJFu62M</t>
-  </si>
-  <si>
-    <t>0GDGKpJFhVpcjIGF8N6Ewt</t>
-  </si>
-  <si>
-    <t>1Qp56T7n950O3EGMsSl81D</t>
-  </si>
-  <si>
-    <t>6wWVKhxIU2cEi0K81v7HvP</t>
-  </si>
-  <si>
-    <t>2Pfv2w8a20xzC7Dr7QXRqM</t>
-  </si>
-  <si>
-    <t>6Ghvu1VvMGScGpOUJBAHNH</t>
-  </si>
-  <si>
-    <t>17Mb968quDHpjCkIyq30QV</t>
-  </si>
-  <si>
-    <t>1Dvfqq39HxvCJ3GvfeIFuT</t>
+    <t>70BYFdaZbEKbeauJ670ysI</t>
+  </si>
+  <si>
+    <t>43mhFhQ4JAknA7Ik1bOZuV</t>
+  </si>
+  <si>
+    <t>7Ey4PD4MYsKc5I2dolUwbH</t>
+  </si>
+  <si>
+    <t>165ZgPlLkK7bf5bDoFc6Sb</t>
+  </si>
+  <si>
+    <t>4phGZZrJZRo4ElhRtViYdl</t>
+  </si>
+  <si>
+    <t>3sgFRtyBnxXD5ESfmbK4dl</t>
+  </si>
+  <si>
+    <t>2tRsMl4eGxwoNabM08Dm4I</t>
+  </si>
+  <si>
+    <t>3fMbdgg4jU18AjLCKBhRSm</t>
+  </si>
+  <si>
+    <t>53A0W3U0s8diEn9RhXQhVz</t>
+  </si>
+  <si>
+    <t>49DW3KvkyjHO35mK1JnSyS</t>
+  </si>
+  <si>
+    <t>3YQKmKGau1PzlVlkL1iodx</t>
+  </si>
+  <si>
+    <t>69GGBxA162lTqCwzJG5jLp</t>
+  </si>
+  <si>
+    <t>6wPhSqRtPu1UhRCDX5yaDJ</t>
+  </si>
+  <si>
+    <t>0lHoDF96DNKSIcIpcOfMnq</t>
+  </si>
+  <si>
+    <t>03r4iKL2g2442PT9n2UKsx</t>
+  </si>
+  <si>
+    <t>6zvul52xwTWzilBZl6BUbT</t>
+  </si>
+  <si>
+    <t>0XNa1vTidXlvJ2gHSsRi4A</t>
+  </si>
+  <si>
+    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
+  </si>
+  <si>
+    <t>6Q192DXotxtaysaqNPy5yR</t>
+  </si>
+  <si>
+    <t>6olE6TJLqED3rqDCT0FyPh</t>
+  </si>
+  <si>
+    <t>4VhL8KLjVso4vLfOLVViTb</t>
+  </si>
+  <si>
+    <t>7jefIIksOi1EazgRTfW2Pk</t>
+  </si>
+  <si>
+    <t>69MEO1AADKg1IZrq2XLzo5</t>
+  </si>
+  <si>
+    <t>4LtIfuFeAamus9OOItuWDD</t>
+  </si>
+  <si>
+    <t>1vCWHaC5f2uS3yhpwWbIA6</t>
+  </si>
+  <si>
+    <t>5nGIFgo0shDenQYSE0Sn7c</t>
+  </si>
+  <si>
+    <t>5EQMhqNfNmnIIAgwQX1WZ7</t>
+  </si>
+  <si>
+    <t>0P2q6xyNc2hVFkG3ThjYcJ</t>
+  </si>
+  <si>
+    <t>1yxSLGMDHlW21z4YXirZDS</t>
+  </si>
+  <si>
+    <t>0f3kLT4wvi2mFHlHJgV8Hl</t>
+  </si>
+  <si>
+    <t>0k17h0D3J5VfsdmQ1iZtE9</t>
+  </si>
+  <si>
+    <t>7oPftvlwr6VrsViSDV7fJY</t>
   </si>
   <si>
     <t>2VYQTNDsvvKN9wmU5W7xpj</t>
   </si>
   <si>
-    <t>37394IP6uhnjIpsawpMu4l</t>
-  </si>
-  <si>
-    <t>278ZYwGhdK6QTzE3MFePnP</t>
-  </si>
-  <si>
-    <t>1E4r4z7ivGUcSAnCbINJ9v</t>
-  </si>
-  <si>
-    <t>3HVdAiMNjYrQIKlOGxoGh5</t>
-  </si>
-  <si>
-    <t>7iWiAD5LLKyiox2grgfmUT</t>
-  </si>
-  <si>
-    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
-  </si>
-  <si>
-    <t>2xiIXseIJcq3nG7C8fHeBj</t>
-  </si>
-  <si>
-    <t>5BtHciL0e0zOP7prIHn3pP</t>
-  </si>
-  <si>
-    <t>5t28BP42x2axFnqOOMg3CM</t>
-  </si>
-  <si>
-    <t>Slipknot</t>
-  </si>
-  <si>
-    <t>Avenged Sevenfold</t>
-  </si>
-  <si>
-    <t>Pantera</t>
-  </si>
-  <si>
-    <t>System Of A Down</t>
+    <t>0Ty63ceoRnnJKVEYP0VQpk</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>5NGO30tJxFlKixkPSgXcFE</t>
+  </si>
+  <si>
+    <t>6IYnSXO40Bh7Zdqhf6rQoj</t>
+  </si>
+  <si>
+    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
+  </si>
+  <si>
+    <t>4uN3DsfENc7dp0OLO0FEIb</t>
+  </si>
+  <si>
+    <t>762310PdDnwsDxAQxzQkfX</t>
+  </si>
+  <si>
+    <t>6tbjWDEIzxoDsBA1FuhfPW</t>
+  </si>
+  <si>
+    <t>6S0dmVVn4udvppDhZIWxCr</t>
+  </si>
+  <si>
+    <t>1dfeR4HaWDbWqFHLkxsg1d</t>
+  </si>
+  <si>
+    <t>7EQ0qTo7fWT7DPxmxtSYEc</t>
+  </si>
+  <si>
+    <t>3pFCERyEiP5xeN2EsPXhjI</t>
+  </si>
+  <si>
+    <t>1HY2Jd0NmPuamShAr6KMms</t>
+  </si>
+  <si>
+    <t>6eoJpTIlcuxJNjV5fDzDJH</t>
+  </si>
+  <si>
+    <t>2WKdxPFRD7IqZvlIAvhMgY</t>
+  </si>
+  <si>
+    <t>3OsRAKCvk37zwYcnzRf5XF</t>
+  </si>
+  <si>
+    <t>22Zqu1yyebVnbve8FxbJ2g</t>
+  </si>
+  <si>
+    <t>6nDLku5uL3ou60kvCGZorh</t>
+  </si>
+  <si>
+    <t>4tZwfgrHOc3mvqYlEYSvVi</t>
+  </si>
+  <si>
+    <t>6MDME20pz9RveH9rEXvrOM</t>
+  </si>
+  <si>
+    <t>5YFS41yoX0YuFY39fq21oN</t>
+  </si>
+  <si>
+    <t>7MhMgCo0Bl0Kukl93PZbYS</t>
+  </si>
+  <si>
+    <t>2SHhfs4BiDxGQ3oxqf0UHY</t>
+  </si>
+  <si>
+    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
+  </si>
+  <si>
+    <t>7guDJrEfX3qb6FEbdPA5qi</t>
+  </si>
+  <si>
+    <t>26dSoYclwsYLMAKD3tpOr4</t>
+  </si>
+  <si>
+    <t>4MCBfE4596Uoi2O4DtmEMz</t>
+  </si>
+  <si>
+    <t>47DQBkDU2VieRG0aJUcPJs</t>
+  </si>
+  <si>
+    <t>7CajNmpbOovFoOoasH2HaY</t>
+  </si>
+  <si>
+    <t>2cnMpRsOVqtPMfq7YiFE6K</t>
+  </si>
+  <si>
+    <t>0vEsuISMWAKNctLlUAhSZC</t>
+  </si>
+  <si>
+    <t>4AYkFtEBnNnGuoo8HaHErd</t>
+  </si>
+  <si>
+    <t>6GI52t8N5F02MxU0g5U69P</t>
+  </si>
+  <si>
+    <t>0PFtn5NtBbbUNbU9EAmIWF</t>
+  </si>
+  <si>
+    <t>7t0rwkOPGlDPEhaOcVtOt9</t>
+  </si>
+  <si>
+    <t>3daM7asS0gCFvyLemNx2EE</t>
+  </si>
+  <si>
+    <t>085pc2PYOi8bGKj0PNjekA</t>
+  </si>
+  <si>
+    <t>5pKCCKE2ajJHZ9KAiaK11H</t>
+  </si>
+  <si>
+    <t>4dpARuHxo51G3z768sgnrY</t>
+  </si>
+  <si>
+    <t>1uNFoZAHBGtllmzznpCI3s</t>
+  </si>
+  <si>
+    <t>2ycnb8Er79LoH2AsR5ldjh</t>
+  </si>
+  <si>
+    <t>blackbear</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Creed</t>
+  </si>
+  <si>
+    <t>Weezer</t>
+  </si>
+  <si>
+    <t>Lil Nas X</t>
+  </si>
+  <si>
+    <t>Joan Jett &amp; The Blackhearts</t>
+  </si>
+  <si>
+    <t>Nelly Furtado</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>Smash Mouth</t>
+  </si>
+  <si>
+    <t>Bring Me The Horizon</t>
+  </si>
+  <si>
+    <t>The Prodigy</t>
+  </si>
+  <si>
+    <t>Liquido</t>
+  </si>
+  <si>
+    <t>The Cure</t>
+  </si>
+  <si>
+    <t>Seether</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Garbage</t>
   </si>
   <si>
     <t>Alice In Chains</t>
   </si>
   <si>
-    <t>Sepultura</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>Godsmack</t>
-  </si>
-  <si>
-    <t>Motörhead</t>
-  </si>
-  <si>
-    <t>Gojira</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Rammstein</t>
-  </si>
-  <si>
-    <t>Mudvayne</t>
-  </si>
-  <si>
-    <t>Deftones</t>
-  </si>
-  <si>
-    <t>Hatebreed</t>
-  </si>
-  <si>
-    <t>Mastodon</t>
+    <t>Shinedown</t>
+  </si>
+  <si>
+    <t>Pat Benatar</t>
+  </si>
+  <si>
+    <t>Aerosmith</t>
+  </si>
+  <si>
+    <t>Limp Bizkit</t>
+  </si>
+  <si>
+    <t>Jason Mraz</t>
+  </si>
+  <si>
+    <t>LMFAO</t>
+  </si>
+  <si>
+    <t>Judas Priest</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Keane</t>
+  </si>
+  <si>
+    <t>The Cult</t>
+  </si>
+  <si>
+    <t>Twenty One Pilots</t>
+  </si>
+  <si>
+    <t>The Chainsmokers</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls</t>
+  </si>
+  <si>
+    <t>Whigfield</t>
+  </si>
+  <si>
+    <t>Beastie Boys</t>
+  </si>
+  <si>
+    <t>Pixies</t>
+  </si>
+  <si>
+    <t>Franz Ferdinand</t>
+  </si>
+  <si>
+    <t>The Offspring</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>Nirvana</t>
+  </si>
+  <si>
+    <t>Bridgit Mendler</t>
+  </si>
+  <si>
+    <t>Electric Light Orchestra</t>
+  </si>
+  <si>
+    <t>UB40</t>
+  </si>
+  <si>
+    <t>Us3</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t>Evanescence</t>
+  </si>
+  <si>
+    <t>Undercover</t>
+  </si>
+  <si>
+    <t>The Magic Numbers</t>
+  </si>
+  <si>
+    <t>Black Eyed Peas</t>
+  </si>
+  <si>
+    <t>Kajagoogoo</t>
+  </si>
+  <si>
+    <t>Pink Floyd</t>
+  </si>
+  <si>
+    <t>Green Day</t>
   </si>
   <si>
     <t>Marilyn Manson</t>
   </si>
   <si>
-    <t>Killswitch Engage</t>
-  </si>
-  <si>
-    <t>Trivium</t>
-  </si>
-  <si>
-    <t>Drowning Pool</t>
-  </si>
-  <si>
-    <t>Rob Zombie</t>
-  </si>
-  <si>
-    <t>Bullet For My Valentine</t>
-  </si>
-  <si>
-    <t>Korn</t>
-  </si>
-  <si>
-    <t>Three Days Grace</t>
-  </si>
-  <si>
-    <t>Breaking Benjamin</t>
-  </si>
-  <si>
-    <t>Five Finger Death Punch</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Slipknot-duality-lyrics', 'lyrics': "[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nBut it's made of all the things I have to take\nJesus, it never ends, it works its way inside\nIf the pain goes on\n\n[Verse 1]\nI have screamed until my veins collapsed\nI've waited as my time's elapsed\nNow all I do is live with so much fate\nI've wished for this, I've bitched at that\nI've left behind this little fact\nYou cannot kill what you did not create\n\n[Verse 2]\nI've gotta say what I've gotta say\nAnd then I swear I'll go away\nBut I can't promise you'll enjoy the noise\nI guess I'll save the best for last\nMy future seems like one big past\nYou're left with me 'cause you left me no choice\n\n[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nIf the pain goes on, I'm not gonna make it!\n[Verse 3]\nPut me back together or separate the skin from bone\nLeave me all the pieces, then you can leave me alone\nTell me the reality is better than the dream\nBut I found out the hard way, nothing is what it seems!\n\n[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nBut it's made of all the things I have to take\nJesus, it never ends, it works its way inside\nIf the pain goes on, I'm not gonna make it!\n\n[Bridge]\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!\n\n[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nBut it's made of all the things I have to take\nJesus, it never ends, it works its way inside\nIf the pain goes on, I'm not gonna make it!\n[Outro]\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!", 'annotations': {'description': '&lt;p&gt;“Duality” was the 1st single from Slipknot’s 3rd album, &lt;a href="https://genius.com/albums/Slipknot/Vol-3-the-subliminal-verses" rel="noopener" data-api_path="/albums/30814"&gt;&lt;em&gt;Vol 3: The Subliminal Verses&lt;/em&gt;&lt;/a&gt;, and was released on May 25, 2004. It was produced by &lt;a href="https://genius.com/@RickRubin" rel="noopener" data-api_path="/users/1487759"&gt;Rick Rubin&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It &lt;a href="https://www.billboard.com/music/slipknot/chart-history/hot-mainstream-rock-tracks" rel="noopener nofollow"&gt;peaked at #5&lt;/a&gt; on the US Rock Chart and &lt;a href="https://www.officialcharts.com/artist/7945/slipknot/" rel="noopener nofollow"&gt;reached #15&lt;/a&gt; in the UK, where it remains their highest-charting song. In 2019, Billboard named it the band’s &lt;a href="https://www.billboard.com/articles/columns/rock/8526410/slipknot-best-songs-top-10" rel="noopener nofollow"&gt;best song&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The music video was shot at a fan’s house, resulting in Roadrunner Records paying the fan’s family $50,000 for damages incurred in the shoot.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/803816ed53853b5e9bf2253efb53db50.264x216x25.gif" alt="" width="264" height="216" data-animated="true"&gt;&lt;/p&gt;\n\n&lt;p&gt;According to Corey Taylor:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Duality” is about standing at the crossroads of your life, looking down both paths, and going, “Now what am I going to do?” Did you ever get that headache that is just not going to go away, and you end up sticking your thumb and middle finger so far into your eyes, just to stop the pain? It usually has to do with making a choice. You get to that point in everyday life when you have to make a decision that you may not want to, but you’re kind of pushed into that position. "&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Like all of the songs on “Vol. 3…”, Duality contains NO explicit lyrics, and was the first Slipknot single that was released without requiring a clean radio version.&lt;/p&gt;\n\n&lt;p&gt;It is also important for the entire album to remember that this is the album where Corey Taylor went sober and Clown dawned his “healing” mask.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/031e4fcdce7abcf36abaa7d18deaf1dc.500x222x6.gif" alt="" width="500" height="222" data-animated="true"&gt;&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Avenged-sevenfold-hail-to-the-king-lyrics', 'lyrics': "[Verse 1]\nWatch your tongue or have it cut from your head\nSave your life by keeping whispers unsaid\nChildren roam the streets now orphans of war\nBodies hanging in the streets to adore\nRoyal flames will carve the path in chaos\nBringing daylight to the night (Night)\nDeath is riding into town with armor\nThey come to take all your rights\n\n[Chorus]\nHail to the king, hail to the one\nKneel to the crown, stand in the sun\nHail to the king (Hail, hail, hail)\nThe King\n\n[Verse 2]\nBlood is spilled while holding keys to the throne\nBorn again but it’s too late to atone\nNo mercy from the edge of the blade\nDare escape and learn the price to be paid\nLet the water flow with shades of red now\nArrows black out all the light (Light)\nDeath is riding into town with armor\nThey come to grant you your rights\n[Chorus]\nHail to the king, hail to the one\nKneel to the crown, stand in the sun\nHail to the king (Hail, hail, hail)\nThe King\n[Guitar Solo]\n\n[Bridge]\nThere's a taste of fear (Hail, hail, hail)\nWhen the henchmen call (Hail, hail, hail)\nIron fist to tame them (Hail, hail, hail)\nIron fist to claim it all\n\n[Chorus]\nHail to the king, hail to the one\nKneel to the crown, stand in the sun\nHail to the king, hail to the one\nKneel to the crown, stand in the sun\nHail to the king (Hail, hail, hail)\nThe King", 'annotations': {'description': '&lt;p&gt;“Hail to the King” is an homage to all the music that the band loves, it’s a song for the fans to feel Avenged’s power. &lt;a href="https://www.ultimate-guitar.com/articles/features/the_story_behind_hail_to_the_king_by_avenged_sevenfold-68813" rel="noopener nofollow"&gt;M. Shadows explains the song like this:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Hail to the King” is a question about how society sees itself. From day one, people have elected kings and leaders, people have followed presidents, and they cry over who the new pope is. Sometimes you’ve got to step back and say, “What are we doing here? Why do we need all of these people to tell us how to run our lives?.”&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}], 'writers': [{'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Johnny Christ', 'url': 'https://genius.com/artists/Johnny-christ'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}], 'labels': [{'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pantera-cowboys-from-hell-lyrics', 'lyrics': "[Intro]\nOh, come on\n\n[Verse 1]\nUnder the lights where we stand tall\nNobody touches us at all\nShowdown, shootout\nSpread fear within, without\nI say we're gonna take what's ours to have\nSpread the word throughout the land\nThey say the bad guys wear black\nWe're tagged and can't turn back\n\n[Pre-Chorus]\nYou see us coming and you all together run for cover\nWe're taking over this town\n\n[Chorus]\nHere we come, reach for your gun\nAnd you better listen well, my friend\nYou see, it's been slow down below\nAimed at you, we're the Cowboys from Hell\nDeed is done, again we've won\nAin't talking no tall tales, friend\n'Cause high noon, your doom\nComing for you, we're the Cowboys from Hell\n[Verse 2]\nOh, pillage the village, trash the scene\nBut better not take it out on me\n'Cause a ghost town is found\nWhere your city used to be\nSo out of the darkness and into the light\nSparks fly everywhere in sight\nFrom my double barrel, 12 gauge\nCan't lock me in your cage\n\n[Pre-Chorus]\nYou see us coming and you all together run for cover\nWe're taking over this town\n\n[Chorus]\nHere we come, reach for your gun\nAnd you better listen well, my friend\nYou see, it's been slow down below\nAimed at you, we're the Cowboys from Hell\nDeed is done, again we've won\nAin't talking no tall tales, friend\n'Cause high noon, your doom\nComing for you, we're the Cowboys from Hell\n\n[Guitar Solo]\n[Chorus]\nHere we come, reach for your gun\nAnd you better listen well, my friend\nYou see, it's been slow down below\nAimed at you, we're the Cowboys from Hell\nDeed is done, again we've won\nAin't talking no tall tales, friend\n'Cause high noon, your doom\nComing for you, we're the Cowboys from Hell\n\n[Outro]\nStep aside for the Cowboys from Hell", 'annotations': {'description': '&lt;p&gt;“Cowboys From Hell” is brazen personal anthem meant to broadcast Pantera’s Texas origin with the unabashed usage of cliched western themes and parlance. The title’s abbreviation “CFH” was widely used on band merchandise and advertising materials long after succeeding albums had been released, as well as tattooed notably on the left side of frontman Phil Anselmo’s head.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/5e55ecde0a3c2179b1034274b549cc67.600x450x1.jpg" alt="" width="600" height="450" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Phil Anselmo stated on an episode of That Metal Show that during a house party in Fort Worth, Texas in 1989, Dimebag, who arrived late, ran towards Anselmo and said he had a new riff to show him. The two of them went into Darrell’s car and Darrell played the intro to Anselmo, and Anselmo said afterwards to Darrell “yes this must be an anthem”.&lt;/p&gt;\n\n&lt;p&gt;“Cowboys From Hell” was the first song Pantera wrote for the record. It was recorded on the band’s 1989 demo album, Cowboys From Hell: The Demos. After the band got signed to Atco Records, they re-recorded the song and put it on their major label debut.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/2cb5ba9d221fefd977816e19d07cf86a.408x400x1.jpg" alt="" width="408" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Vinnie Paul on the song:&lt;/p&gt;\n\n&lt;p&gt;“Cowboys From Hell is where everybody came into their own, along with the full-blown Pantera sound”, “That was actually the first song we wrote for the record. Basically, it was about us coming out of Texas and being out of place. People don’t think of Texas as being a hot spot for heavy metal, they think of New York or L.A. or something like that, so it just seemed like an obvious concept for us.”&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/E_WZkCgeXWk?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;On the Official Live: 101 Proof recording of Cowboys From Hell, Pantera plays two bars of Ted Nugent’s “Cat Scratch Fever” between the first chorus and second verse.&lt;/p&gt;', 'producers': [{'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}, {'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}, {'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}], 'writers': [{'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}, {'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Rhino Atlantic', 'url': 'https://genius.com/artists/Rhino-atlantic'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'ATCO Records', 'url': 'https://genius.com/artists/Atco-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/System-of-a-down-toxicity-lyrics', 'lyrics': "[Produced by Rick Rubin, Daron Malakian, Serj Tankian]\n\n[Verse 1]\nConversion, software version 7.0\nLooking at life through the eyes of a tire hub\nEating seeds as a pastime activity\nThe toxicity of our city, of our city\n\n[Chorus]\nYou, what do you own the world? How do you own disorder, disorder?\nNow, somewhere between the sacred silence, sacred silence and sleep\nSomewhere between the sacred silence and sleep\nDisorder, disorder, disorder\n\n[Verse 2]\nMore wood for their fires, loud neighbors\nFlashlight reveries caught in the headlights of a truck\nEating seeds as a pastime activity\nThe toxicity of our city, of our city\n\n[Chorus]\nYou, what do you own the world? How do you own disorder, disorder?\nNow, somewhere between the sacred silence, sacred silence and sleep\nSomewhere between the sacred silence and sleep\nDisorder, disorder, disorder\n[Instrumental Bridge]\n\n[Chorus]\nYou, what do you own the world? How do you own disorder?\nNow, somewhere between the sacred silence, sacred silence and sleep\nSomewhere between the sacred silence and sleep\nDisorder, disorder, disorder\n\n[Outro]\nWhen I became the sun, I shone life into the man's hearts\nWhen I became the sun, I shone life into the man's hearts", 'annotations': {'description': '&lt;p&gt;“Toxicity” is one of System of a Down’s biggest hits, the song reached No. 70 on Billboard Hot 100 and No. 3 on Mainstream Rock chart. &lt;a href="https://youtu.be/CXD0OPFVO_k?t=1h10m40s" rel="noopener nofollow"&gt;During a performance at the 2005 Download Festival,&lt;/a&gt; Daron Malakian said that the song was about Attention-Deficit/Hyperactivity Disorder (ADHD), a psychological condition that &lt;a href="https://en.wikipedia.org/wiki/Attention_deficit_hyperactivity_disorder#Executive_function_and_motivation" rel="noopener nofollow"&gt;interferes with an individual’s executive functions&lt;/a&gt;. The video for the song was directed by the band’s bassist Shavo Odadjian, just like &lt;a href="https://genius.com/System-of-a-down-aerials-lyrics" rel="noopener" data-api_path="/songs/94438"&gt;“Aerials”&lt;/a&gt; video.&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}], 'writers': [{'name': 'Shavo Odadjian', 'url': 'https://genius.com/artists/Shavo-odadjian'}, {'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}], 'labels': [{'name': 'American Recordings', 'url': 'https://genius.com/artists/American-recordings'}]}}</t>
+    <t>Sting</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>The Police</t>
+  </si>
+  <si>
+    <t>Alannah Myles</t>
+  </si>
+  <si>
+    <t>Rage Against The Machine</t>
+  </si>
+  <si>
+    <t>Sugar Ray</t>
+  </si>
+  <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Sean Kingston</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Bastille</t>
+  </si>
+  <si>
+    <t>Joe Cocker</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Fugees</t>
+  </si>
+  <si>
+    <t>Moby</t>
+  </si>
+  <si>
+    <t>Rednex</t>
+  </si>
+  <si>
+    <t>Bloodhound Gang</t>
+  </si>
+  <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
+    <t>Clean Bandit</t>
+  </si>
+  <si>
+    <t>Bob Sinclar</t>
+  </si>
+  <si>
+    <t>Blur</t>
+  </si>
+  <si>
+    <t>Roxette</t>
+  </si>
+  <si>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Juice WRLD</t>
+  </si>
+  <si>
+    <t>Jace Everett</t>
+  </si>
+  <si>
+    <t>Calvin Harris</t>
+  </si>
+  <si>
+    <t>Van Halen</t>
+  </si>
+  <si>
+    <t>Counting Crows</t>
+  </si>
+  <si>
+    <t>Madness</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>TOTO</t>
+  </si>
+  <si>
+    <t>The Cranberries</t>
+  </si>
+  <si>
+    <t>The Romantics</t>
+  </si>
+  <si>
+    <t>will.i.am</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Pet Shop Boys</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Blackbear-hot-girl-bummer-lyrics', 'lyrics': '[Intro]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\n\n[Verse 1]\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nThis that throw up in your Birkin bag\nHook up with someone random\nThis that social awkward suicide\nThat buy your lips and buy your likes\nI swear she had a man\nBut shit hit different when it\'s Thursday night\n\n[Pre-Chorus]\nThat college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nThis that 10K on the table\nJust so we can be secluded\nAnd the vodka came diluted\nOne more line, I\'m superhuman\n[Chorus]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nFuck you, and you, and you\nI hate your friends and they hate me too\nFuck you, and you, and you\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\n\n[Verse 2]\nThis that hot girl bummer two-step\nThey can\'t box me in, I\'m too left\nThis that drip, it\'s more like oceans\nThey can\'t fit me in a Trojan\nOut of pocket, but I\'m always in my bag\nYeah, that\'s the slogan\nThis that, "Who\'s all there?"\nI\'m pullin\' up wit\' a emo chick that\'s broken\n\n[Pre-Chorus]\nThis that college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nThis that 10K on the table\nJust so we can be secluded\nAnd the vodka came diluted\nOne more line, I\'m superhuman\n[Chorus]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nFuck you, and you, and you\nI hate your friends and they hate me too\nFuck you, and you, and you\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\n\n[Bridge]\nThis that college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nThis that college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nWe go stupid, we go stupid, we go—\nAnd you want me to change? Fuck you!\n\n[Chorus]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nFuck you, and you, and you\nI hate your friends and they hate me too\nFuck you, and you, and you\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum', 'annotations': {'description': '&lt;p&gt;“hot girl bummer,” blackbear’s first single since his fifth studio album, &lt;a href="https://genius.com/albums/Blackbear/Anonymous" rel="noopener" data-api_path="/albums/456629"&gt;&lt;i&gt;ANONYMOUS&lt;/i&gt;&lt;/a&gt;, was released alongside &lt;a href="https://www.youtube.com/watch?v=yMlKJGKyoCo" rel="noopener nofollow"&gt;a low-budget music video&lt;/a&gt; directed by &lt;a href="https://www.imdb.com/name/nm0871808/" rel="noopener nofollow"&gt;Gilbert Trejo&lt;/a&gt;, which blackbear and his best friend Cesar Silva creative directed.  This was followed on November 21st, 2019 by a new, &lt;a href="https://www.youtube.com/watch?v=5cPW0ggFq04" rel="noopener nofollow"&gt;higher budget video&lt;/a&gt; via Vevo, directed by &lt;a href="http://adam-powell.com/" rel="noopener nofollow"&gt;Adam Powell&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song is blackbear’s spin on the &lt;a href="https://www.vox.com/the-goods/2019/7/12/20690515/hot-girl-summer-meme-define-explained" rel="noopener nofollow"&gt;#hotgirlsummer trend&lt;/a&gt;. Megan Thee Stallion fans, who &lt;a href="https://knowyourmeme.com/memes/hot-girl-summer" rel="noopener nofollow"&gt;originated the trend&lt;/a&gt;, inspiring the song &lt;a href="https://genius.com/Megan-thee-stallion-hot-girl-summer-lyrics" rel="noopener" data-api_path="/songs/4714934"&gt;“Hot Girl Summer”&lt;/a&gt; reacted negatively to the song, claiming that blackbear appropriated the idea. blackbear, however, claimed the song &lt;a href="https://images.genius.com/79d200a0585f91aa3ee550c9d5a89fde.658x137x1.png" rel="noopener"&gt;“has to do [with] the caption trend”&lt;/a&gt; and doesn’t parody the song. In fact, he teased the song and title during July 2019, before the release of Megan’s “Hot Girl Summer” on August 9th, 2019.&lt;/p&gt;\n\n&lt;p&gt;On the cover art of this playful, energetic track, &lt;a href="https://www.imdb.com/name/nm10132731/" rel="noopener nofollow"&gt;Maddy Crum&lt;/a&gt;, who was previously featured in Aidan Cullen-directed short film, &lt;a href="https://www.youtube.com/watch?v=oF0--5rrEos" rel="noopener nofollow"&gt;&lt;i&gt;THE ANONYMOUS SAGA&lt;/i&gt;,&lt;/a&gt; is pictured with a face covered in colorful stickers and a nosebleed. &lt;a href="https://youtu.be/v78iL0NvGG4" rel="noopener nofollow"&gt;She shared an Instagram story&lt;/a&gt; wearing merchandise and another using the official Snapchat filter designed by Harley Wrecks to mimic the cover a few hours before release.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/faf746ee0369415edc3fbb55fec35516.450x800x1.jpg" alt="" width="450" height="800" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The release date, August 23rd, 2019, marks the one year anniversary of &lt;a href="https://genius.com/Blackbear-the-1-lyrics" rel="noopener" data-api_path="/songs/3864163"&gt;“the 1”&lt;/a&gt; and the sixth year anniversary of &lt;a href="https://genius.com/Blackbear-n-y-l-a-single-lyrics" rel="noopener" data-api_path="/songs/1994894"&gt;“N Y L A,”&lt;/a&gt; both singles of his.&lt;/p&gt;', 'producers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': '\u200bblackbear', 'url': 'https://genius.com/artists/Blackbear'}], 'writers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': '\u200bblackbear', 'url': 'https://genius.com/artists/Blackbear'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Beartrap', 'url': 'https://genius.com/artists/Beartrap'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Boston-more-than-a-feeling-lyrics', 'lyrics': "[Verse 1]\nI looked out this morning and the sun was gone\nTurned on some music to start my day\nI lost myself in a familiar song\nI closed my eyes and I slipped away\n\n[Chorus]\nIt's more than a feeling (more than a feeling)\nWhen I hear that old song they used to play (more than a feeling)\nAnd I begin dreaming (more than a feeling)\n'Til I see Marianne walk away\nI see my Marianne walking away\n\n[Verse 2]\nSo many people have come and gone\nTheir faces fade as the years go by\nYet, I still recall as I wander on\nAs clear as the sun in the summer sky\n\n[Chorus]\nIt's more than a feeling (more than a feeling)\nWhen I hear that old song they used to play (more than a feeling)\nAnd I begin dreaming (more than a feeling)\n'Til I see Marianne walk away\nI see my Marianne walking away\n[Guitar Solo]\n\n[Verse 3]\nWhen I'm tired and thinking cold\nI hide in my music, forget the day\nAnd dream of a girl I used to know\nI closed my eyes and she slipped away\nShe slipped away\n\n[Chorus]\nIt's more than a feeling (more than a feeling)\nWhen I hear that old song they used to play (more than a feeling)\nAnd I begin dreaming (more than a feeling)\n'Til I see Marianne walk away", 'annotations': {'description': '&lt;p&gt;This is the first track off of Boston’s self-titled debut album, which describes the emotions that the singer is going through when he hears a particular song that takes him back to his memories of Marianne.&lt;/p&gt;', 'producers': [{'name': 'John Boylan', 'url': 'https://genius.com/artists/John-boylan'}, {'name': 'Tom Scholz', 'url': 'https://genius.com/artists/Tom-scholz'}], 'writers': [{'name': 'Tom Scholz', 'url': 'https://genius.com/artists/Tom-scholz'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Creed-whats-this-life-for-lyrics', 'lyrics': "[Verse 1]\nHurray for a child that makes it through\nIf there's any way because the answer lies in you\nThey're laid to rest before they've known just what to do\nTheir souls are lost because\nThey could never find\n\n[Chorus 1]\nWhat's this life for? What's this life for?\nWhat's this life for? What's this life for?\n\n[Chorus 2]\nI see your soul, it's kind of gray\nYou see my heart, you look away\nYou see my wrist, I know your pain\nI know your purpose on your plane\nDon't say a last prayer because\nYou could never find\n\n[Chorus 2]\nI see your soul, it's kind of gray\nYou see my heart, you look away\nYou see my wrist, I know your pain\nI know your purpose on your plane\nDon't say a last prayer because\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle the score\nBecause we all live under the reign\nOf one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf just as you know of one king, one king, one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf just as you know of one king, one king, one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf one king", 'annotations': {'description': '', 'producers': [{'name': 'John Kurzweg', 'url': 'https://genius.com/artists/John-kurzweg'}], 'writers': [{'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Scott Stapp', 'url': 'https://genius.com/artists/Scott-stapp'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Weezer-beverly-hills-lyrics', 'lyrics': "[Verse 1]\nWhere I come from isn't all that great\nMy automobile is a piece of crap\nMy fashion sense is a little whack\nAnd my friends are just as screwed as me\nI didn't go to boarding schools\nPreppy girls never looked at me\nWhy should they? I ain't nobody\nGot nothing in my pocket\n\n[Chorus]\nBeverly Hills, that's where I want to be\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\nBeverly Hills, rollin' like a celebrity\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\n\n[Verse 2]\nLook at all those movie stars\nThey're all so beautiful and clean\nWhen the housemaids scrub the floors\nThey get the spaces in between\nI wanna live a life like that\nI wanna be just like a king\nTake my picture by the pool\nCause I'm the next big thing\n[Chorus]\nBeverly Hills, that's where I want to be\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\nBeverly Hills, rollin' like a celebrity\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\n\n[Guitar Solo]\n\n[Bridge]\nThe truth is\nI don't stand a chance\nIt's something that you're born into\nAnd I just don't belong\n\n[Verse 3]\nNo I don't, I'm just a no class, beat down fool\nAnd I will always be that way\nI might as well enjoy my life\nAnd watch the stars play\n\n[Chorus]\nBeverly Hills, that's where I want to be\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\nBeverly Hills, rollin' like a celebrity\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\n[Outro]\nBeverly Hills\nBeverly Hills\nBeverly Hills\nBeverly Hills, livin' in Beverly Hills", 'annotations': {'description': '&lt;p&gt;This song is off of Weezer’s 5th album called Make Believe, produced by Rick Rubin. It was the first single off this album.  Many Weezer fans might notice that the chord progression and rhythm closely resemble the song &lt;em&gt;“Blast Off”&lt;/em&gt; from their unreleased rock opera &lt;em&gt;“Songs from the Black Hole.”&lt;/em&gt;&lt;/p&gt;', 'producers': [{'name': 'Chad Bamford', 'url': 'https://genius.com/artists/Chad-bamford'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Rivers Cuomo', 'url': 'https://genius.com/artists/Rivers-cuomo'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lil-nas-x-and-jack-harlow-industry-baby-lyrics', 'lyrics': "[Intro: Lil Nas X]\n(D-D-Daytrip took it to ten, hey)\nBaby back, ayy, couple racks, ayy\nCouple Grammys on him, couple plaques, ayy\nThat's a fact, ayy, throw it back, ayy\nThrow it back, ayy\n[Pre-Chorus: Lil Nas X]\nAnd this one is for the champions\nI ain't lost since I began, yeah\nFunny how you said it was the end, yeah\nThen I went did it again, yeah\n\n[Chorus: Lil Nas X]\nI told you long ago on the road\nI got what they waiting for\nI don't run from nothing, dog\nGet your soldiers, tell 'em I ain't layin' low\nYou was never really rooting for me anyway\nWhen I'm back up at the top, I wanna hear you say\nHe don't run from nothin', dog\nGet your soldiers, tell 'em that the break is over\n\n[Verse 1: Lil Nas X]\nUh, need to, uh\nNeed to get this album done\nNeed a couple number onеs\nNeed a plaque on every song\nNeed mе like one with Nicki now\nTell a rap nigga I don't see ya, hah\nI'm a pop nigga like Bieber, hah\nI don't fuck bitches, I'm queer, hah\nBut these niggas bitches like Madea, yeah, yeah, yeah, ayy (Yeah)\nOh, let's do it\nI ain't fall off, I just ain't release my new shit\nI blew up, now everybody tryna sue me\nYou call me Nas, but the hood call me Doobie, yeah\n[Pre-Chorus: Lil Nas X]\nAnd this one is for the champions\nI ain't lost since I began, yeah\nFunny how you said it was the end, yeah\nThen I went did it again, yeah\n\n[Chorus: Lil Nas X]\nI told you long ago on the road\nI got what they waiting for (I got what they're waiting for)\nI don't run from nothing, dog\nGet your soldiers, tell 'em I ain't layin' low (Bitch, I ain't runnin' from nowhere)\nYou was never really rooting for me anyway (Ooh, ooh)\nWhen I'm back up at the top, I wanna hear you say (Ooh, ooh)\nHe don't run from nothin', dog\nGet your soldiers, tell 'em that the break is over (Yeah)\n\n[Verse 2: Jack Harlow]\nMy track record so clean, they couldn't wait to just bash me\nI must be gettin' too flashy, y'all shouldn't have let the world gas me (Woo)\nIt's too late 'cause I'm here to stay and these girls know that I'm nasty (Mmm)\nI sent her back to her boyfriend with my handprint on her ass cheek\nCity talkin', we takin' notes\nTell 'em all to keep makin' posts\nWish he could, but he can't get close\nOG so proud of me that he chokin' up while he makin' toasts\nI'm the type that you can't control, said I would, then I made it so\nI don't clear up rumors (Ayy), where's y'all sense of humor? (Ayy)\nI'm done makin' jokes 'cause they got old like baby boomers\nTurned my haters to consumers, I make vets feel like they juniors (Juniors)\nSay your time is comin' soon, but just like Oklahoma (Mmm)\nMine is comin' sooner (Mmm), I'm just a late bloomer (Mmm)\nI didn't peak in high school, I'm still out here gettin' cuter (Woo)\nAll these social networks and computers\nGot these pussies walkin' 'round like they ain't losers\n[Chorus: Lil Nas X]\nI told you long ago on the road\nI got what they waiting for (I got what they waiting for)\nI don't run from nothing, dog\nGet your soldiers, tell 'em I ain't layin' low (Bitch, I ain't runnin' from nowhere)\nYou was never really rooting for me anyway\nWhen I'm back up at the top, I wanna hear you say\nHe don't run from nothin', dog\nGet your soldiers, tell 'em that the break is over\n[Outro: Lil Nas X]\nYeah\nI'm the industry baby, mmm\nI'm the industry baby\nYeah", 'annotations': {'description': '&lt;p&gt;Lil Nas X recruits Louisville native Jack Harlow for “INDUSTRY BABY,” a boisterous song where they rap about their fame and success, blowing up, and their newfound statuses in the rap game. The title plays on the term &lt;a href="https://medium.com/@ftp96/what-are-industry-plants-and-are-they-ruining-the-rap-culture-1588ebc2ce6b#:~:text=The%20common%20definition%20of%20an,create%20a%20pseudo%20organic%20following." rel="noopener nofollow"&gt;“industry plant,”&lt;/a&gt; which are people who are backed by a major label at the start, but play into an image of being organic and all by themselves.&lt;/p&gt;\n\n&lt;p&gt;The song was first &lt;a href="https://twitter.com/LilNasX/status/1319044444247605248" rel="noopener nofollow"&gt;teased&lt;/a&gt; on October 22, 2020 with a snippet showing Nas X dancing to the song with the producer duo, &lt;a href="https://genius.com/artists/Take-a-daytrip" rel="noopener" data-api_path="/artists/643219"&gt;Take a Daytrip&lt;/a&gt;. A &lt;a href="https://genius.com/Lil-nas-x-industry-baby-demo-lyrics" rel="noopener" data-api_path="/songs/6958019"&gt;demo version&lt;/a&gt; of the song leaked in full late June 2021, with the demo version using a slightly different instrumental and containing no feature. A week before its release, the rapper &lt;a href="https://twitter.com/LilNasX/status/1415734630536269830" rel="noopener nofollow"&gt;tweeted a promise&lt;/a&gt;, claiming he would drop “INDUSTRY BABY” once the June 2019 track, &lt;a href="https://genius.com/Lil-nas-x-panini-lyrics" rel="noopener" data-api_path="/songs/4442107"&gt;“Panini,”&lt;/a&gt; hit 400 Million views on YouTube.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=bXcSLI58-h8" rel="noopener nofollow"&gt;music video&lt;/a&gt; hit the goal shortly after and Lil Nas announced the song on July 19th, through a &lt;a href="https://www.youtube.com/watch?v=5QLFrE2qSZo" rel="noopener nofollow"&gt;trailer&lt;/a&gt; which portrays him being sentenced to jail in relation to his &lt;a href="https://www.bbc.com/news/business-56572245" rel="noopener nofollow"&gt;Nike court case&lt;/a&gt;. The trailer revealed the release date, producers, and Jack Harlow as the feature.&lt;/p&gt;', 'producers': [{'name': 'Nick Lee', 'url': 'https://genius.com/artists/Nick-lee'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Take a Daytrip', 'url': 'https://genius.com/artists/Take-a-daytrip'}], 'writers': [{'name': 'Roy Lenzo', 'url': 'https://genius.com/artists/Roy-lenzo'}, {'name': 'Mark Williams', 'url': 'https://genius.com/artists/Mark-williams'}, {'name': 'Raul Cubina', 'url': 'https://genius.com/artists/Raul-cubina'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Nick Lee', 'url': 'https://genius.com/artists/Nick-lee'}, {'name': 'David Biral', 'url': 'https://genius.com/artists/David-biral'}, {'name': 'Denzel Baptiste', 'url': 'https://genius.com/artists/Denzel-baptiste'}, {'name': 'Jack Harlow', 'url': 'https://genius.com/artists/Jack-harlow'}, {'name': 'Lil Nas X', 'url': 'https://genius.com/artists/Lil-nas-x'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nelly-furtado-say-it-right-lyrics', 'lyrics': "[Intro: Timbaland]\nFrk-frk-down\nHey\nYou don't mean nothin' at all to me\nHey, hey\n\n[Verse 1: Nelly Furtado]\nIn the day, in the night\nSay it right, say it all\nYou either got it, or you don't\nYou either stand, or you fall\nWhen your will is broken\nWhen it slips from your hand\nWhen there's no time for jokin'\nThere's a hole in the plan\n\n[Chorus: Nelly Furtado &amp; (Timbaland)]\nOh, you don't mean nothing at all to me (Hey, oh, oh, hey)\nNo, you don't mean nothing at all to me (Hey, oh, oh, hey)\nBut you got what it takes to set me free (Hey, oh, oh, hey)\nOh, you could mean everything to me (Hey, oh, oh, hey)\n\n[Verse 2: Nelly Furtado]\nI can't say (Say) that I'm not (Not)\nLost (Lost) and at fault (Fault)\nI can't say (Say) that I don't (Don't)\nLove the light (Love) and the dark\nI can't say that I don't (Don't)\nKnow that I am alive\nAnd all of what I feel (Feel)\nI could show (Show you) you tonight, you tonight\n[Chorus: Nelly Furtado &amp; (Timbaland)]\nOh, you don't mean nothing at all to me (Hey, oh, oh, hey)\nNo, you don't mean nothing at all to me (Hey, oh, oh, hey)\nBut you got what it takes to set me free (Hey, oh, oh, hey)\nOh, you could mean everything to me (Hey, oh, oh, hey)\n\n[Verse 3: Nelly Furtado]\nFrom my hands I could give you\nSomething that I made\nFrom my mouth, I could sing you another brick that I laid\nFrom my body (From my body), I could show you (I could show you)\nA place (A place) God knows (That only God knows)\nYou should know the space is holy (Ah-ah-ah-ah)\nDo you really wanna go?\n(Three, four)\n\n[Outro: Timbaland]\nHey, hey, hey\nYou don't mean nothin' at all to me\nHey, hey\nHey, hey, hey\nYou don't mean nothin' at all to me\nHey, hey", 'annotations': {'description': '&lt;p&gt;The third single from Nelly Furtado’s &lt;em&gt;Loose&lt;/em&gt;, a keyboard-driven pop song inspired by the &lt;a href="https://genius.com/artists/Eurythmics" rel="noopener" data-api_path="/artists/829"&gt;Eurythmics&lt;/a&gt;  discussing love in a spiritual way.&lt;/p&gt;\n\n&lt;p&gt;The single reached\xa0#1 on the Billboard Hot 100. It also topped the charts in a few other countries and made it to the top 10 of some others. It also made it to #9 on the year-end Hot 100 charts.&lt;/p&gt;', 'producers': [{'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'writers': [{'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Nelly Furtado', 'url': 'https://genius.com/artists/Nelly-furtado'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Arctic-monkeys-whyd-you-only-call-me-when-youre-high-lyrics', 'lyrics': '[Verse 1]\nThe mirror\'s image tells me it\'s home time\nBut I\'m not finished, \'cause you\'re not by my side\nAnd as I arrived I thought I saw you leavin\'\nCarryin\' your shoes\nDecided that once again I was just dreamin\'\nOf bumpin\' into you\n\n[Chorus]\nNow, it\'s three in the mornin\'\nAnd I\'m tryna\' change your mind\nLeft you multiple missed calls\nAnd to my message, you reply\n"Why\'d you only call me when you\'re high?"\n"High, why\'d you only call me when you\'re high?"\n\n[Verse 2]\nSomewhere darker, talkin\' the same shite\nI need a partner, well are you out tonight?\nIt\'s harder and harder to get you to listen\nMore I get through the gears\nIncapable of makin\' alright decisions\nAnd having bad ideas\n\n[Chorus]\nNow, it\'s three in the mornin\'\nAnd I\'m tryna\' change your mind\nLeft you multiple missed calls\nAnd to my message, you reply (Message, you reply)\n"Why\'d you only call me when you\'re high?"\n(Why\'d you only call me when you\'re)\n"High, why\'d you only call me when you\'re high?"\n[Bridge]\nAnd I can\'t see you here, wonder where I might\nIt sort of feels like I\'m runnin\' out of time\nI haven\'t found all I was hopin\' to find\nYou said you got to be up in the mornin\'\nGonna have an early night\nAnd you\'re startin\' to bore me, baby\n"Why\'d you only call me when you\'re high?"\n\n[Outro]\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re (high)?"', 'annotations': {'description': '&lt;p&gt;A single off the Arctic Monkeys 5th album AM, “Why’d You Only Call Me When You’re High?” is a &lt;a href="http://www.rollingstone.com/music/news/josh-homme-arctic-monkeys-album-is-a-sexy-after-midnight-record-20130711" rel="noopener nofollow"&gt;sexy&lt;/a&gt; record, that has the band experimenting with R&amp;amp;B sounds.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/4184d64723bc93b6180b3bdcc39d5294.820x546x1.jpg" alt="" width="820" height="546" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Alex’s story is made clear on the apropo video, which starts as the previous single &lt;a href="https://genius.com/Arctic-monkeys-do-i-wanna-know-lyrics" rel="noopener" data-api_path="/songs/154314"&gt;“Do I Wanna Know?”&lt;/a&gt; tapers off in a club:&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/6366dxFf-Os?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Ross Orton', 'url': 'https://genius.com/artists/Ross-orton'}, {'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}], 'writers': [{'name': 'Alex Turner', 'url': 'https://genius.com/artists/Alex-turner'}], 'labels': [{'name': 'Domino Recording Company', 'url': 'https://genius.com/artists/Domino-recording-company'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Smash-mouth-im-a-believer-lyrics', 'lyrics': "[Verse 1]\nI thought love was only true in fairy tales\nMeant for someone else but not for me\nLove was out to get me\nThat's the way it seemed\nDisappointment haunted all my dreams\n\n[Chorus]\nAnd then I saw her face\nNow I'm a believer\nAnd not a trace\nOf doubt in my mind\nI'm in love, I'm a believer\nI couldn't leave her if I tried\n\n[Verse 2]\nI thought love was more or less a given thing\nMore I gave the less I got, oh yeah\nWhat's the use in trying?\nAll you get is pain\nWhen I wanted sunshine, I got rain\n\n[Chorus]\nAnd then I saw her face\nNow I'm a believer\nAnd not a trace\nOf doubt in my mind\nI'm in love, I'm a believer\nI couldn't leave her if I tried\n[Bridge]\nWhat's the use in trying?\nAll you get is pain\nWhen I wanted sunshine\nI got rain\n\n[Chorus]\nAnd then I saw her face\nNow I'm a believer\nAnd not a trace\nOf doubt in my mind\nI'm in love, I'm a believer\nI couldn't leave her if I tried\n\n[Outro]\nThen I saw her face\nNow I'm a believer\nNot a trace\nOf doubt in my mind\nNow I'm a believer\nYeah, yeah, yeah, yeah, yeah\nNow I'm a believer\nThen I saw her face\nNow I'm a believer\nNot a trace\nOf doubt in my mind\nI'm a believer", 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Smash-mouth" rel="noopener" data-api_path="/artists/1371"&gt;Smash Mouth&lt;/a&gt;’s version of “I’m a Believer”: written by &lt;a href="https://genius.com/artists/Neil-diamond" rel="noopener" data-api_path="/artists/44735"&gt;Neil Diamond&lt;/a&gt; and &lt;a href="https://genius.com/The-monkees-im-a-believer-lyrics" rel="noopener" data-api_path="/songs/512809"&gt;originally played&lt;/a&gt; by &lt;a href="https://genius.com/artists/The-monkees" rel="noopener" data-api_path="/artists/34609"&gt;The Monkees&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It got a popularity resurgence once included on the &lt;a href="https://genius.com/albums/Various-artists/Shrek-music-from-the-original-motion-picture" rel="noopener" data-api_path="/albums/221306"&gt;&lt;em&gt;Shrek&lt;/em&gt; soundtrack&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/0mYBSayCsH0?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Eric Valentine', 'url': 'https://genius.com/artists/Eric-valentine'}], 'writers': [{'name': 'Neil Diamond', 'url': 'https://genius.com/artists/Neil-diamond'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bring-me-the-horizon-throne-lyrics', 'lyrics': "[Verse 1]\nRemember the moment you left me alone and\nBroke every promise you ever made\nI was an ocean, lost in the open\nNothin' could take the pain away\n\n[Chorus]\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne\n\n[Verse 2]\nThe sticks and the stones that you used to throw have\nBuilt me an empire, so don't even try\nTo cry me a river, 'cause I forgive you\nYou are the reason I still fight\n\n[Chorus]\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne\n[Bridge]\nI'll leave you choking on every word you left unspoken\nRebuild all that you've broken and now you know (Know)\nI'll leave you choking on every word you left unspoken\nRebuild all that you've broken and now you know\n\n[Chorus]\nEvery wound will shape me, every scar will build my throne\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne", 'annotations': {'description': '&lt;p&gt;“Throne” is the second official single released for &lt;em&gt;That’s The Spirit&lt;/em&gt;. Keyboardist Jordan Fish told &lt;a href="http://www.rollingstone.com/music/news/bring-me-the-horizon-on-ditching-metalcore-for-poppy-positive-new-lp-20150723" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; that the song represents a completely new musical and emotional space for the band:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s one of the most simple and straightforward songs we did… Its got some elements we had on the last album [2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;&lt;/a&gt;], with an up-tempo rhythm and really strong melodies. So it seemed like an obvious choice for the first single because it’s so immediately catchy and has such a good level of energy&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song reflects a more positive outlook on life than previous BMTH material. Fish states that this reflects the upcoming album’s theme.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Everyone has their own issues and anxieties, and mostly the new songs are about accepting them and trying to remain positive because there’s nothing else you can do.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}, {'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}], 'writers': [{'name': 'Lee Malia', 'url': 'https://genius.com/artists/Lee-malia'}, {'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}, {'name': 'Matt Nicholls', 'url': 'https://genius.com/artists/Matt-nicholls'}, {'name': 'Matt Kean', 'url': 'https://genius.com/artists/Matt-kean'}, {'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-prodigy-breathe-lyrics', 'lyrics': "[Intro: Maxim]\nBreathe with me\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale\n[Refrain: Maxim]\nBreathe with me\nBreathe with me\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale\n\n[Refrain: Maxim]\nBreathe with me\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale", 'annotations': {'description': '&lt;p&gt;“Breathe” was released as a single in November of 1996. The song was one of The Prodigy’s most successful, peaking at number one in &lt;a href="http://www.officialcharts.com/search/singles/breathe/" rel="noopener nofollow"&gt;various global charts&lt;/a&gt; including the UK Singles Chart and The Eurochart Hot 100.&lt;/p&gt;\n\n&lt;p&gt;The song also featured on the album &lt;em&gt;The Fat of the Land&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The Walter Stern directed music video featured shots of the band in an abandoned building filled with various bugs and insects. The video won the 1997 MTV Music Awards &lt;a href="https://en.wikipedia.org/wiki/1997_MTV_Video_Music_Awards#Viewer.27s_Choice" rel="noopener nofollow"&gt;Viewer’s Choice Award&lt;/a&gt; as well as the &lt;a href="https://en.wikipedia.org/wiki/1997_MTV_Video_Music_Awards#MTV_Europe" rel="noopener nofollow"&gt;International Viewer’s Choice Award for Europe&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://youtu.be/1eLhaGH5scU?t=620" rel="noopener nofollow"&gt;Maxim has stated that this song is a representation of their vibe they create on stage.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}], 'writers': [{'name': 'Maxim Reality', 'url': 'https://genius.com/artists/Maxim-reality'}, {'name': 'Keith Flint', 'url': 'https://genius.com/artists/Keith-flint'}, {'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Liquido-narcotic-lyrics', 'lyrics': "[Verse 1]\nSo you face it with a smile\nThere is no need to cry\nFor a trifle's more than this\nWill you still recall my name?\nAnd the month it all began?\nWill you release me with a kiss?\nHave I tried to draw the veil?\nIf I have, how could I fail?\nDid I fear the consequence?\n\n[Pre-Chorus]\nDazed by careless words\nCozy in my mind\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\n\n[Verse 2]\nNow you shaped that liquid wax\nFit it out with crater cracks\nSweet devotion, my delight\nOh, you're such a pretty one\nAnd the naked thrills of flesh and skin\nWould tease me through the night\nNow, I hate to leave you bare\nIf you need me, I'll be there\nDon't you ever let me down\n[Pre-Chorus]\nDazed by careless words\nCozy in my mind\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\n\n[Bridge]\nAnd I touched your face\nNarcotic mind from lazed, Mary-Jane\nAnd I called your name\nLike an addicted to cocaine\nCalls for the stuff he'd rather blame\nAnd I touched your face\nNarcotic mind from lazed, Mary-Jane\nAnd I called your name\nMy cocaine\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go", 'annotations': {'description': '', 'producers': [{'name': 'Olaf Opal', 'url': 'https://genius.com/artists/Olaf-opal'}, {'name': 'Liquido', 'url': 'https://genius.com/artists/Liquido'}], 'writers': [{'name': 'Wolfgang Schrödl', 'url': 'https://genius.com/artists/Wolfgang-schrodl'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-cure-boys-dont-cry-lyrics', 'lyrics': "[Verse 1]\nI would say I'm sorry\nIf I thought that it would change your mind\nBut I know that this time\nI have said too much, been too unkind\n\n[Chorus]\nI tried to laugh about it\nCover it all up with lies\nI tried to laugh about it\nHiding the tears in my eyes\n'Cause boys don't cry\nBoys don't cry\n\n[Verse 2]\nI would break down at your feet\nAnd beg forgiveness, plead with you\nBut I know that it's too late\nAnd now there's nothing I can do\n\n[Chorus]\nSo I try to laugh about it\nCover it all up with lies\nI try to laugh about it\nHiding the tears in my eyes\n'Cause boys don't cry\nBoys don't cry\n[Verse 3]\nI would tell you that I loved you\nIf I thought that you would stay\nBut I know that it's no use\nAnd you've already gone away\n\n[Bridge]\nMisjudged your limits\nPushed you too far\nTook you for granted\nI thought that you needed me more, more, more\n\n[Chorus]\nNow I would do 'most anything\nTo get you back by my side\nBut I just keep on laughing\nHiding the tears in my eyes\n'Cause boys don't cry\nBoys don't cry\n\n[Outro]\nBoys don't cry", 'annotations': {'description': '&lt;p&gt;“Boys Don’t Cry” was released on 15 June 1979 as a standalone single and not originally included on The Cure’s homeland UK debut album &lt;em&gt;Three Imaginary Boys&lt;/em&gt;, but was included on its namesake North American debut &lt;em&gt;Boys Don’t Cry&lt;/em&gt;, released 5 February 1980. On original release, it only found chart success in New Zealand, reaching #22 in May 1980.&lt;/p&gt;\n\n&lt;p&gt;In 1986, after the international success of the band’s sixth album &lt;em&gt;The Head On The Door&lt;/em&gt;, a new version of the song was released as a single and found top 30 success in five countries, including their homeland of the UK and an even higher peak in New Zealand.&lt;/p&gt;', 'producers': [{'name': 'Chris Parry', 'url': 'https://genius.com/artists/Chris-parry'}], 'writers': [{'name': 'Michael Dempsey', 'url': 'https://genius.com/artists/Michael-dempsey'}, {'name': 'Lol Tolhurst', 'url': 'https://genius.com/artists/Lol-tolhurst'}, {'name': 'Robert Smith', 'url': 'https://genius.com/artists/Robert-smith'}], 'labels': [{'name': 'Fiction Records', 'url': 'https://genius.com/artists/Fiction-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Seether-words-as-weapons-lyrics', 'lyrics': "[Intro]\nAll I really want is something beautiful to say\nAll I really want is something beautiful to say\n\n[Verse 1]\nKeep me locked up in your broken mind\nI keep searching, never been able to find\nA light behind your dead eyes\nNot anything at all\n\n[Pre-Chorus 1]\nYou keep living in your own lie\nEver deceitful and ever unfaithful\nKeep me guessing, keep me terrified\nTake everything from my world\n\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Verse 2]\nKeep me dumb, keep me paralyzed\nWhy try swimming? I'm drowning in fables\nYou're not that saint that you externalize\nYou're not anything at all\n[Pre-Chorus 2]\nIt's oh, so playful when you demonize\nTo spit out the hateful, you're willing and able\nYour words are weapons of the terrified\nYou're nothing in my world\n\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Bridge]\nAll I really want is something beautiful to say\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nYou keep living in your own lie\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\n\n[Middle 8]\nYou keep living in your own lie\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nAll I really want is something beautiful to say\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Outro]\nAll I really want is something beautiful to say\nWords are weapons of the terrified\nAll I really want is something beautiful to say\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever", 'annotations': {'description': '&lt;p&gt;Track number 3 and also the lead single from &lt;a href="https://genius.com/artists/Seether" rel="noopener" data-api_path="/artists/20913"&gt;Seether&lt;/a&gt;’s &lt;a href="https://genius.com/albums/Seether/Isolate-and-medicate" rel="noopener" data-api_path="/albums/99504"&gt;sixth studio album&lt;/a&gt;, Words as Weapons is song sound founded in alternative metal and the post-grunge subgenre roots. It was released on 1 May 2014 and &lt;a href="http://www.billboard.com/artist/278593/Seether/chart?f=376" rel="noopener nofollow"&gt;topped the Billboard chart for Mainstream Rock&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'John Humphrey', 'url': 'https://genius.com/artists/John-humphrey'}, {'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Poison-unskinny-bop-lyrics', 'lyrics': "[Verse 1]\nA-what's got you so jumpy?\nWhy can't you sit still, yeah?\nLike gasoline, you wanna pump me\nAnd leave me when you get your fill, yeah\n\nEvery time I touch you, honey, you get hot\nI wanna make love, you never stop\nCome up for air, you pull me to the floor\nWhat's been going on in that head of yours?\n\n[Chorus]\nUnskinny bop\nJust blows me away, yeah\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nShe just loves to play, yeah\nUnskinny bop, nothin' more to say\n\n[Verse 2]\nYou look at me so funny\nLove bite got you acting oh so strange\nYou got too many bees in your honey\nAm I just another word in your page, yeah, yeah?\nEvery time I touch you, honey, you get hot\nI wanna make love, you never stop\nCome up for air, you pull me to the floor\nWhat's been going on in that head of yours?\n\n[Chorus]\nUnskinny bop\nJust blows me away, yeah\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nShe just loves to play, yeah\nUnskinny bop, nothin' more to say\n\n[Bridge]\nYou're saying my love won't do ya\nThat ain't love written on your face\nWell, honey, I can see right through ya\nWell, who's ridin' who at the end of the race?\n\nWhat's right?\nWhat's wrong?\nWhat's left?\nWhat the hell is going on?\n\n[Chorus &amp; outro]\nUnskinny bop\nJust blows me away, yeah\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nShe just loves to play, yeah\n(Up for air, pulled to the floor)\nUnskinny bop\nNo good, no good, no good, no good\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nNo good, no good, no good, no good", 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;&lt;em&gt;Unskinny Bop&lt;/em&gt;&lt;/strong&gt; was the first single from &lt;a href="https://genius.com/artists/Poison" rel="noopener" data-api_path="/artists/32611"&gt;Poison&lt;/a&gt;’s third album &lt;em&gt;Flesh &amp;amp; Blood&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;According to C.C. Deville, the song title does not have any particular meaning. He came up with the phrase as a temporary measure while he was writing the song and it was used on the basis that it was phonetically suited to the music.&lt;/p&gt;\n\n&lt;p&gt;The song peaked at #3 on the Billboard Hot 100 and #5 on Billboard’s Mainstream Rock Tracks chart in 1990.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/c10952c211391897f5ddf2f305c33729.300x313x1.jpg" alt="" width="300" height="313" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Rikki Rockett', 'url': 'https://genius.com/artists/Rikki-rockett'}, {'name': 'Bobby Dall', 'url': 'https://genius.com/artists/Bobby-dall'}, {'name': 'Bret Michaels', 'url': 'https://genius.com/artists/Bret-michaels'}, {'name': 'C.C. DeVille', 'url': 'https://genius.com/artists/Cc-deville'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Garbage-special-lyrics', 'lyrics': "[Verse 1]\nI've been living without you\nI know all about you\nI have run you down into the ground\nSpread disease about you over town\n\nI used to adore you\nI couldn't control you\nThere was nothing that I wouldn't do\nTo keep myself around and close to you\n\n[Chorus]\nDo you have an opinion?\nA mind of your own?\nI thought you were special\nI thought you should know\nBut I've run out of patience\nI couldn't care less\n\n[Chorus]\nDo you have an opinion?\nA mind of your own?\nI thought you were special\nI thought you should know\n\n[Verse 2]\nI used to amuse you\nI knew that I'd lose you\nNow you're here and begging for a chance\nBut there's no way in hell I'd take you back\n[Chorus]\nDo you have an opinion?\nA mind of your own?\nI thought you were special\nI thought you should know\nBut I've run out of patience\nI've run out of comments\nI'm tired of the violence\nI couldn't care less\n\n[Outro]\nI'm looking for a new\nI'm looking for a new\nI'm looking for a new\nI'm looking for a new\n\nWe were the talk of the town\nWe were the talk of the town\nWe were the talk of the town\nWe were the talk of the town\n\nI thought you were special\nI thought you were special\nI thought you were special\nI thought you were special", 'annotations': {'description': '&lt;p&gt;“Special” is the third single from &lt;a href="https://genius.com/artists/Garbage" rel="noopener" data-api_path="/artists/18769"&gt;Garbage&lt;/a&gt;’s multi-platinum selling album &lt;em&gt;Version 2.0&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The lyrics concern a friendship that Shirley Manson had moved on from after her friend had let her down. From a Melody Maker interview:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Ultimately it’s about those feelings of betrayal you have for people when you set your sights too high and expect too much and how that can lead to disappointment in the end.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=raRGnueg8Lo" rel="noopener nofollow"&gt;music video&lt;/a&gt; was directed by Dawn Shadforth.&lt;/p&gt;', 'producers': [{'name': 'Garbage', 'url': 'https://genius.com/artists/Garbage'}], 'writers': [{'name': 'Shirley Manson', 'url': 'https://genius.com/artists/Shirley-manson'}, {'name': 'Butch Vig', 'url': 'https://genius.com/artists/Butch-vig'}, {'name': 'Steve Marker', 'url': 'https://genius.com/artists/Steve-marker'}, {'name': 'Duke Erikson', 'url': 'https://genius.com/artists/Duke-erikson'}], 'labels': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/Alice-in-chains-would-lyrics', 'lyrics': '[Verse 1: Jerry Cantrell]\nKnow me, broken by my master\nTeach thee on child, of love hereafter\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n\n[Verse 2: Jerry Cantrell]\nDrifting body, its sole desertion\nFlying, not yet quite the notion\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n\n[Guitar Solo: Jerry Cantrell]\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n[Outro: Layne Staley]\nAm I wrong?\nHave I run too far to get home?\nHave I gone?\nLeft you here alone\nAm I wrong?\nHave I run too far to get home? Yeah\nHave I gone?\nLeft you here alone\nIf I would, could you?', 'annotations': {'description': '&lt;p&gt;The song concerns the late lead singer of Mother Love Bone, Andrew Wood, who died of a heroin overdose in 1990.  Would? and Wood are homophones.&lt;br&gt;\nIt is written by Jerry Cantrell and produced by Rick Parashar.&lt;/p&gt;', 'producers': [{'name': 'Alice in Chains', 'url': 'https://genius.com/artists/Alice-in-chains'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/Sepultura-roots-bloody-roots-lyrics', 'lyrics': "[Chorus]\nRoots, bloody roots\nRoots, bloody roots\nRoots, bloody roots\nRoots, bloody roots\n\n[Verse 1]\nI believe in our fate, we don't need to fake\nIt's all we wanna be, watch me freak!\n\n[Verse 2]\nI say we're growing every day, getting stronger in every way\nI'll take you to a place where we shall find our...\n\n[Chorus]\nRoots, bloody roots\nRoots, bloody roots\nRoots, bloody roots\nRoots, bloody roots\n\n[Verse 3]\nRain, bring me the strength to get to another day\nAnd all I want to see, set us free\n\n[Bridge]\nWhy can't you see? Can't you feel?\nThis is real!\n[Instrumental Break]\n\n[Verse 4]\nI pray, we don't need to change our ways to be saved\nThat's all we wanna be, watch us freak!\n\n[Instrumental Outro]", 'annotations': {'description': '&lt;p&gt;“Roots Bloody Roots” is the first track and single on Sepultura’s &lt;a href="https://genius.com/artists/Ross-robinson" rel="noopener" data-api_path="/artists/53061"&gt;Ross Robinson&lt;/a&gt; produced sixth album, &lt;a href="https://genius.com/albums/Sepultura/Roots" rel="noopener" data-api_path="/albums/125757"&gt;&lt;em&gt;Roots&lt;/em&gt;&lt;/a&gt;. The track is mid-paced groove metal song that features dissonant guitar leads influenced by nu-metal bands such as &lt;a href="https://genius.com/artists/Korn" rel="noopener" data-api_path="/artists/6578"&gt;Korn&lt;/a&gt; (who were also famously produced by Ross Robinson, and &lt;a href="https://www.youtube.com/watch?v=OSp_SV5GFy0" rel="noopener nofollow"&gt;covered the song at Mosters of Rock 2013&lt;/a&gt;) and rhythms influenced by traditional Brazilian folk music. Lyrically, the song focuses on the preservation of Brazilian culture, and getting in touch with one’s “roots”. The song has remained one of Sepultura’s most popular, and has appeared on all of their live albums with the exception of &lt;em&gt;Under Siege&lt;/em&gt;, which was released before Roots.&lt;/p&gt;\n\n&lt;p&gt;Two demo versions of the song have been released: &lt;a href="https://www.youtube.com/watch?v=0O4BlrU7SpQ" rel="noopener nofollow"&gt;one&lt;/a&gt; close to the original and included on the deluxe edition of &lt;em&gt;Roots&lt;/em&gt; and &lt;a href="https://soundcloud.com/glocavalera/original-roots-track-by-max" rel="noopener nofollow"&gt;another&lt;/a&gt; released online by Gloria Cavalera, Max’s wife. The latter version features a noisier, more industrial sound, similar to Max’s industrial metal side-project Nailbomb. Two “Megawatt Mixes” of the song were also released, &lt;a href="https://www.youtube.com/watch?v=toiswqwc0is" rel="noopener nofollow"&gt;the first&lt;/a&gt; showing a larger focus on Brazilian percussion and &lt;a href="https://www.youtube.com/watch?v=uO_VvGj_aeY" rel="noopener nofollow"&gt;the second&lt;/a&gt; being a calmer, more abstract remix.&lt;/p&gt;\n\n&lt;p&gt;A music video for the song was also released. It was directed by Thomas Mignone and filmed in Salvador, Brazil, including shots of the city’s catacombs. The video shows several aspects of Brazilian culture, such as tribal drummers and capoeira fighters. It won Kerrang!’s “Video Of The Year Award” in 1996.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/F_6IjeprfEs?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;FUN FACT&lt;/strong&gt;&lt;br&gt;\nIn the music video, Max Cavalera wears a &lt;a href="https://genius.com/artists/Deftones" rel="noopener" data-api_path="/artists/14195"&gt;Deftones&lt;/a&gt; t-shirt.  On the Deftones\' second album, &lt;em&gt;&lt;a href="https://genius.com/albums/Deftones/Around-the-fur" rel="noopener" data-api_path="/albums/31824"&gt;Around the Fur&lt;/a&gt;&lt;/em&gt;, Max guests on a song called &lt;a href="https://genius.com/Deftones-headup-lyrics" rel="noopener" data-api_path="/songs/187372"&gt;Headup&lt;/a&gt;, where Max and Chino Moreno vent their anger at the death of Max’s stepson Dana (aka D-Low).  Dana’s death and the aftermath was the catalyst behind Max leaving Sepultura.  Chino would later appear on Max’s new band, &lt;a href="https://genius.com/artists/Soulfly" rel="noopener" data-api_path="/artists/301317"&gt;Soulfly&lt;/a&gt;’s second album &lt;a href="https://genius.com/albums/Soulfly/Primitive" rel="noopener" data-api_path="/albums/151927"&gt;Primitive&lt;/a&gt;, on a similarly themed song: &lt;a href="https://genius.com/Soulfly-pain-lyrics" rel="noopener" data-api_path="/songs/1400229"&gt;“Pain”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Sepultura', 'url': 'https://genius.com/artists/Sepultura'}, {'name': 'Ross Robinson', 'url': 'https://genius.com/artists/Ross-robinson'}], 'writers': [{'name': 'Paulo Jr.', 'url': 'https://genius.com/artists/Paulo-jr'}, {'name': 'Andreas Kisser', 'url': 'https://genius.com/artists/Andreas-kisser'}, {'name': 'Igor Cavalera', 'url': 'https://genius.com/artists/Igor-cavalera'}, {'name': 'Max Cavalera', 'url': 'https://genius.com/artists/Max-cavalera'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Godsmack-1000hp-lyrics', 'lyrics': '[Verse 1]\nTime to rewind\nBack to 1995 when we were nothing\nWalking through the streets of Boston no one listening\nNo one caring about the empty rooms we played\nUntil they all showed up one day\nThen we took the stage and everything changed\n\n[Chorus]\nTurn that shit up louder\nMake it all go faster\nPlay it through the witching hour\nTake it to one thousand horsepower\n\n[Verse 2]\nUnder lights now\nPlaying to the masses everything feels right\nTaking state by state by country over night\nLiving in a shell entering every fight\nSeeing millions of people rage\nWhen we take our stage, everybody scream\n\n[Chorus]\nTurn that shit up louder\nMake it all go faster\nPlay it through the witching hour\nTake it to one thousand horsepower\n[Bridge]\nTurn it up one more time\nGet it up get it up, and feel alive\nTurn it up turn it up one more time\nGet it up get it up, and feel alive\nTurn it up turn it up one more time\nGet it up get it up, and feel alive\nTurn it up turn it up one more time\nGet it up get it up, and feel alive! Yeah!\n\n[Chorus]\nTurn that shit up louder\nMake it all go faster\nPlay it through the witching hour\nTake it to one thousand horsepower\nTurn that shit up louder\nMake it all go faster\nPlaying through the witching hour\nTake it to one thousand horsepower', 'annotations': {'description': '&lt;p&gt;This song is the first single released from the album of the same title, “1000hp.” It is the first song on the album.&lt;br&gt;\nSully Erna stated that this song was written in approximately one hour.&lt;/p&gt;\n\n&lt;p&gt;“It’s one of those songs that surprisingly came out and was written from back to front in, like, an hour. I started putting one thing together with the next, and then Shannon Larkin started jumping in and then we arranged the whole song, and literally within an hour, maybe 90 minutes, this whole song was written and it was one of the last songs that we wrote, and it ended up becoming the first single.” -Sully Erna&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}, {'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}], 'writers': [{'name': 'Robbie Merrill', 'url': 'https://genius.com/artists/Robbie-merrill'}, {'name': 'Tony Rombola', 'url': 'https://genius.com/artists/Tony-rombola'}, {'name': 'Shannon Larkin', 'url': 'https://genius.com/artists/Shannon-larkin'}, {'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Motorhead-overkill-lyrics', 'lyrics': "[Verse 1]\nOnly way to feel the noise\nIs when it's good and loud\nSo good I can't believe it\nScreaming with the crowd\n\n[Chorus]\nDon't sweat it, we'll get it back to you\nDon't sweat it, we'll get it back to you\nOverkill, overkill\nOverkill\n\n[Verse 2]\nOn your feet you feel the beat\nIt goes straight to your spine\nShake your head, you must be dead\nIf it don't make you fly\n\n[Chorus]\nDon't sweat it, we'll get it back to you\nDon't sweat it, we'll get it back to you\nOverkill, overkill\nOverkill\n\n[Guitar Solo]\n[Verse 3]\nKnow your body's made to move\nYa feel it in your guts\nRock 'n' roll ain't worth the name\nIf it don't make you strut\n\n[Chorus]\nDon't sweat it, we'll get it back to you, hey\nDon't sweat it, we'll get it back to you\nOverkill, overkill\nOverkill", 'annotations': {'description': '&lt;p&gt;This song is about the rush of adrenaline a performer experiences onstage in front of a great crowd.&lt;/p&gt;\n\n&lt;p&gt;Lemmy &lt;a href="http://www.rollingstone.com/music/lists/motorheads-lemmy-my-life-in-15-snarls-20150828/overkill-20150828" rel="noopener nofollow"&gt;told Rolling Stone&lt;/a&gt;,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Phil [Taylor] came up with the drum riff, the double-time thing, and then we just fell into it with the bass. We’ve always done a lot of that kind of thing. We played it on Top of the Pops. It was nice to be getting it across to the public, but the thing is, that show was always tacky. I think the audience on the show liked it, but when they’re told to boogie, they boogie, so I don’t know if it’s true they liked it. They’ve stopped making that show, and I don’t miss it much. I know that a lot of metal bands have covered “Overkill,” but I don’t think a lot about our influence. We’re just older [laughs]. It’s nice to get a tribute, but it’s not the end of the world for me. We’re busy writing new stuff.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Jimmy Miller', 'url': 'https://genius.com/artists/Jimmy-miller'}], 'writers': [{'name': 'Phil Taylor', 'url': 'https://genius.com/artists/Phil-taylor'}, {'name': 'Eddie Clarke', 'url': 'https://genius.com/artists/Eddie-clarke'}, {'name': 'Lemmy', 'url': 'https://genius.com/artists/Lemmy'}], 'labels': [{'name': 'Bronze Records', 'url': 'https://genius.com/artists/Bronze-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Gojira-stranded-lyrics', 'lyrics': "[Verse 1]\nA growing sickness in the heart\nDefective, lack of control\nThe cure is somewhere in the silence\nBut I'm crushed by the noise inside\n\n[Chorus]\nDon't lock the door on me\nYou'd kill me, face down, dead\nAnother part of me falls for you\n\n[Verse 2]\nAnother day in the dark\nNo, no\nStranded in the night\nStranded in the cold\n\n[Chorus]\nDon't lock the door on me\nYou'd kill me, face down, dead\nAnother part of you gone to waste\nPlease hear me out\nYou kill me, face down, dead\nAnother day in the dark\n\n[Chorus]\nDon't lock the door on me\nYou'd kill me, face down, dead\nAnother part of you gone to waste\nPlease hear me out\nYou kill me, face down, dead\nAnother day in the dark\n[Outro]\nLeave the moment alone\nLeave the moment alone\nLeave the moment alone\nLeave the moment alone", 'annotations': {'description': '&lt;p&gt;The first single released from their album &lt;em&gt;Magma&lt;/em&gt;, Gojira present a very strong and emotional track with “Stranded”, showing a very different yet similar approach to their classic sound.&lt;/p&gt;', 'producers': [{'name': 'Joe Duplantier', 'url': 'https://genius.com/artists/Joe-duplantier'}], 'writers': [{'name': 'Mario Duplantier', 'url': 'https://genius.com/artists/Mario-duplantier'}, {'name': 'Jean-Michel Labadie', 'url': 'https://genius.com/artists/Jean-michel-labadie'}, {'name': 'Christian Andreu', 'url': 'https://genius.com/artists/Christian-andreu'}, {'name': 'Joe Duplantier', 'url': 'https://genius.com/artists/Joe-duplantier'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Ghost-cirice-lyrics', 'lyrics': "[Verse 1: Papa Emeritus III]\nI feel your presence amongst us\nYou cannot hide in the darkness\nCan you hear the rumble?\nCan you hear the rumble that's calling?\nI know your soul is not tainted\nEven though you've been told so\nCan you hear the rumble?\nCan you hear the rumble that's calling?\n\n[Chorus: Papa Emeritus III]\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\n\n[Verse 2: Papa Emeritus III]\nA candle casting a faint glow\nYou and I see eye to eye\nCan you hear the thunder?\nHow can you hear the thunder that's breaking?\nNow there is nothing between us\nFrom now our merge is eternal\nCan't you see that you're lost?\nCan't you see that you're lost without me?\n[Chorus: Papa Emeritus III]\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\n\n[Guitar Solo: Nameless Ghoul (Fire &amp; Aether)]\n\n[Pre-Chorus: Papa Emeritus III]\nCan't you see that you're lost without me?\n\n[Chorus: Papa Emeritus III]\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you!\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you", 'annotations': {'description': '&lt;p&gt;“Cirice” is the Grammy Award-winning first single off of Ghost’s third album, &lt;em&gt;Meliora&lt;/em&gt;. Old English for “Church,” “Cirice”’s lyrics approach the listener warmly like a pastor, assuring them that they belong and they are accepted. By Satan, of course.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ed9e4e5ee79225f42ce085639e7ffd9a.998x1000x1.jpg" alt="" width="998" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Klas Åhlund', 'url': 'https://genius.com/artists/Klas-ahlund'}], 'writers': [{'name': 'Klas Åhlund', 'url': 'https://genius.com/artists/Klas-ahlund'}, {'name': 'Tobias Forge', 'url': 'https://genius.com/artists/Tobias-forge'}], 'labels': [{'name': 'Spinefarm Records', 'url': 'https://genius.com/artists/Spinefarm-records'}, {'name': 'Loma Vista Recordings', 'url': 'https://genius.com/artists/Loma-vista-recordings'}, {'name': 'Rise Above Records', 'url': 'https://genius.com/artists/Rise-above-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rammstein-du-hast-lyrics', 'lyrics': "[Songtext zu „Du hast“]\n\n[Strophe]\nDu, du hast, du hast mich\nDu, du hast, du hast mich\nDu, du hast, du hast mich\nDu, du hast, du hast mich\n\n[Pre-Refrain]\nDu, du hast, du hast mich, du hast mich\nDu hast mich gefragt, du hast mich gefragt\nDu hast mich gefragt und ich hab' nichts gesagt\n\n[Refrain]\nWillst du bis der Tod euch scheidet\nTreu ihr sein für alle Tage?\n(Ja) Nein\n(Ja) Nein\nWillst du bis der Tod euch scheidet\nTreu ihr sein für alle Tage?\n(Ja) Nein\n(Ja) Nein\n\n[Strophe]\nDu, du hast, du hast mich\nDu, du hast, du hast mich\n[Pre-Refrain]\nDu, du hast, du hast mich, du hast mich\nDu hast mich gefragt, du hast mich gefragt\nDu hast mich gefragt und ich hab' nichts gesagt\n\n[Refrain]\nWillst du bis der Tod euch scheidet\nTreu ihr sein für alle Tage?\n(Ja) Nein\n(Ja) Nein\nWillst du bis zum Tod der Scheide\nSie lieben auch in schlechten Tagen?\n(Ja) Nein\n(Ja) Nein\nWillst du bis der Tod euch scheidet\nTreu ihr sein\n(Ja) Nein\n(Ja) Nein", 'annotations': {'description': '&lt;p&gt;This song is a play on German wedding vows:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;&lt;a href="http://www.seiyaku.com/seiyaku/vows/german.html" rel="noopener nofollow"&gt;Wollen Sie einander lieben und achten und die Treue halten bis dass der Tod euch scheidet?&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Do you want to love and respect each other and to remain faithful until death separates you?&lt;/em&gt;&lt;/p&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;The music video bears resemblance to the movie &lt;em&gt;Reservoir Dogs&lt;/em&gt; directed by Quentin Tarantino. Lindemann &lt;a href="http://herzeleid.com/en/press/1998-06_mtv" rel="noopener nofollow"&gt;acknowledged this&lt;/a&gt; and stated that the six members of Rammstein are big fans:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;KURT: The “Du hast” video seems very similar to &lt;em&gt;Reservoir Dogs&lt;/em&gt;, the film by Quentin Tarantino. Was that an influence on the video, or just coincidental?&lt;/p&gt;\n\n&lt;p&gt;TILL: All six of us are great fans of Tarantino, so we wanted to follow-up on that with our second video. Now we are really big Tarantino fans.&lt;/p&gt;\n&lt;/blockquote&gt;', 'producers': [{'name': 'Rammstein', 'url': 'https://genius.com/artists/Rammstein'}, {'name': 'Jacob Hellner', 'url': 'https://genius.com/artists/Jacob-hellner'}], 'writers': [{'name': 'Oliver Riedel', 'url': 'https://genius.com/artists/Oliver-riedel'}, {'name': 'Paul Landers', 'url': 'https://genius.com/artists/Paul-landers'}, {'name': 'Christian Lorenz', 'url': 'https://genius.com/artists/Christian-lorenz'}, {'name': 'Christoph Schneider', 'url': 'https://genius.com/artists/Christoph-schneider'}, {'name': 'Richard Z. Kruspe', 'url': 'https://genius.com/artists/Richard-z-kruspe'}, {'name': 'Till Lindemann', 'url': 'https://genius.com/artists/Till-lindemann'}], 'labels': [{'name': 'London Records', 'url': 'https://genius.com/artists/London-records'}, {'name': 'Motor Music', 'url': 'https://genius.com/artists/Motor-music'}, {'name': 'Slash Records', 'url': 'https://genius.com/artists/Slash-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Mudvayne-dig-lyrics', 'lyrics': "[Intro]\n(No!)\n\n[Chorus]\nDig, bury me underneath\nEverything that I am rearranging\nDig, bury me underneath\nEverything that I was slowly changing\n\n[Verse 1]\nI would love to beat the face\nOf any motherfucker that's thinkin' they can change me\nWhite knuckles grip pushing through for the gold\nIf you're wantin' a piece of me I broke the mother fuckin' mold\nI'm drowning in your wake\nShit rubbed in my face\nTeething on concrete\nGums bleeding\n\n[Chorus]\nDig, bury me underneath\nEverything that I am rearranging\nDig, bury me underneath\nEverything that I was slowly changing\n\n[Verse 2]\nI struggle in violated space\nSell out motherfuckers in the biz that try to fuck me\nHang from their T's rated P.G. insight\nI ain't sellin' my soul when there's nothing to buy\nI'm livid in my space\nPissing in my face\nFuck you while you try\nTo fuck me\n[Chorus]\nDig, bury me underneath\nEverything that I am rearranging\nDig, bury me underneath\nEverything that I was\n\n[Bridge]\nYou ain't fuckin' changing me\nDig, dig, dig, dig\nC'mon, motherfucker, dig\nC'mon, motherfucker, dig\nC'mon, motherfucker, dig\n\nLet me help you tie the rope around your neck\nLet me help to talk you the wrong way off the ledge\nLet me help you hold the Glock against your head\n\nLet me help you tie the rope around your neck\nLet me help to talk you the wrong way off the ledge\nLet me help you hold the Glock against your head\nLet me help to chain the weights onto your legs\n\nGet on the plank, fuck\n\n[Chorus]\nDig, bury me underneath\nEverything that I am rearranging\nDig, bury me underneath\nEverything that I was slowly changing\n[Outro]\nWish you were committing suicide\nSuckin' on a motherfuckin' tailpipe\nDead man walking on a tight rope\nLimbless in the middle of a channel\nBobs away", 'annotations': {'description': '&lt;p&gt;“Dig” is &lt;a href="https://genius.com/artists/Mudvayne" rel="noopener" data-api_path="/artists/67442"&gt;Mudvayne&lt;/a&gt;’s inaugural single, which can be found on their 2000 album, &lt;em&gt;&lt;a href="https://genius.com/albums/Mudvayne/L-d-50" rel="noopener" data-api_path="/albums/49271"&gt;L.D. 50&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;em&gt;Fun Fact:&lt;/em&gt;&lt;/strong&gt; The music video (found below) won the first ever MTV2 award at the &lt;a href="https://www.youtube.com/watch?v=8g4bZJ5_Zzw" rel="noopener nofollow"&gt;2001 VMA’s&lt;/a&gt;.&lt;/p&gt;\n\n&lt;h2&gt;Cover Art&lt;/h2&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/e33738890aaa408c5ee77bf7ff7673ed.205x205x1.png" alt="" width="205" height="205" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;h2&gt;Music Video&lt;/h2&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=YIqbdnaPcT8" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=YIqbdnaPcT8&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Garth Richardson', 'url': 'https://genius.com/artists/Garth-richardson'}, {'name': 'Mudvayne', 'url': 'https://genius.com/artists/Mudvayne'}], 'writers': [{'name': 'Matthew McDonough', 'url': 'https://genius.com/artists/Matthew-mcdonough'}, {'name': 'Greg Tribbett', 'url': 'https://genius.com/artists/Greg-tribbett'}, {'name': 'Ryan Martinie', 'url': 'https://genius.com/artists/Ryan-martinie'}, {'name': 'Chad Gray', 'url': 'https://genius.com/artists/Chad-gray'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Deftones-my-own-summer-shove-it-lyrics', 'lyrics': "[Verse 1]\nHey you, big star\nTell me when it's over\n(Cloud)\n\n[Verse 2]\nHey you, big mood\nGuide me to shelter\n'Cause I'm through when the two\nHits the six and it's summer\n(Cloud)\n\n[Pre-Chorus]\n(Come) Shove it, shove it, shove it\n(Shove) Shove it, shove it, shove it\n(The sun) Shove it, shove it, shove it\n(Aside) Shove it aside\n\n[Chorus]\nI think God is moving its tongue\nThere's no crowds in the street and no sun\nIn my own summer\n\n[Verse 2]\nThe shade is a tool, a device, a savior\nSee, I try and look up to the sky\nBut my eyes burn\n(Cloud)\n[Pre-Chorus]\n(Come) Shove it, shove it, shove it\n(Shove) Shove it, shove it, shove it\n(The sun) Shove it, shove it, shove it\n(Aside) Shove it aside\n(Come) Shove it, shove it, shove it\n(Shove) Shove it, shove it, shove it\n(The sun) Shove it, shove it, shove it\n(Aside) Shove it aside\n\n[Chorus]\nI think God is moving its tongue\nThere's no crowd in the streets and no sun\nIn my own summer\n\n[Outro]\n(Come) Shove it, shove it, shove it\n(Shove) Shove it, shove it, shove it\n(The sun) Shove it, shove it, shove it\n(Aside) Shove it aside", 'annotations': {'description': '&lt;p&gt;The first track and lead single from Deftones\' sophomore album &lt;em&gt;&lt;a href="https://genius.com/albums/Deftones/Around-the-fur" rel="noopener" data-api_path="/albums/31824"&gt;Around the Fur&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Chino &lt;a href="http://www.deftonesworld.com/secrets.htm#myownsummer" rel="noopener nofollow"&gt;has said&lt;/a&gt; that the song refers his displeasure with the sun after long nights of recording and it burning his eyes, resulting in him putting tin foil over the windows to block it out.&lt;/p&gt;\n\n&lt;p&gt;However he has also said the song is about how agitated he became whilst touring during summer, the intense heat and crowds of people irritating him.&lt;/p&gt;\n\n&lt;p&gt;The song is one of Deftones\' most famous, despite not charting in the US. It received considerable airplay on MTV and reached #29 in the UK.&lt;/p&gt;', 'producers': [{'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}, {'name': 'Deftones', 'url': 'https://genius.com/artists/Deftones'}], 'writers': [{'name': 'Stephen Carpenter', 'url': 'https://genius.com/artists/Stephen-carpenter'}, {'name': 'Abe Cunningham', 'url': 'https://genius.com/artists/Abe-cunningham'}, {'name': 'Chi Cheng', 'url': 'https://genius.com/artists/Chi-cheng'}, {'name': 'Chino Moreno', 'url': 'https://genius.com/artists/Chino-moreno'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Hatebreed-looking-down-the-barrel-of-today-lyrics', 'lyrics': "[Pre-Chorus]\nOnce I had a shotgun to my head\nThey said I wasn't worth the bullets\nNow the world is my trigger\nAnd I'm here to fucking pull it\nOnce had a shotgun to my head\nThey said I wasn't worth the bullets\nNow the world is my trigger\nAnd I'm here to fucking pull it\n\n[Chorus]\nStill here! (Still here!)\nI can't hesitate\nEyes wide open pupils dilate\nStill here! (Right here!)\nSet to detonate\nI see the swarm the scavengers await\n\n[Post-Chorus]\nNo sleep! No rest!\nIf that's what it takes to be the best\nNo sleep! No rest!\nMust stay driven I can't relent\n\n[Verse 1]\nOnce had a knife to my throat\nThey said I'd wind up in the dirt\nI know the ones who doubt me\nAre the ones that really hurt\n[Chorus]\nStill here! (Still here!)\nI can't hesitate\nEyes wide open, pupils dilate\nStill here! (Right here!)\nSet to detonate\nI see the swarm the scavengers await\n\n[Post-Chorus]\nNo sleep! No rest!\nIf that's what it takes to be the best\nNo sleep! No rest!\nMust stay driven, I can't relent\n\n[Verse 2]\nCame from the gutter, just missed the grave\nNow looking down the barrel of today\nStart from nothing, stop at nothing, hell-bent\nNever put myself in that position again\nNow I'm looking down the barrel of today!\n\n[Bridge]\nOnce had a shotgun to my head\nThey said I wasn't worth the bullets\nNow the world is my trigger\nI'll fucking pull it!\n[Pre-Chorus]\nOnce I had a shotgun to my head\nThey said I wasn't worth the bullets\nNow the world is my trigger\nAnd I'm gonna fucking pull it\n\n[Chorus]\nNo sleep! No rest!\nMust do what it takes to be the best\nNo sleep! No rest!\nDo anything that it takes to be the best!", 'annotations': {'description': '', 'producers': [{'name': 'Chris “Zeuss” Harris', 'url': 'https://genius.com/artists/Chris-zeuss-harris'}], 'writers': [{'name': 'Chris Beattie', 'url': 'https://genius.com/artists/Chris-beattie'}, {'name': 'Matt Byrne', 'url': 'https://genius.com/artists/Matt-byrne'}, {'name': 'Wayne Lozinak', 'url': 'https://genius.com/artists/Wayne-lozinak'}, {'name': 'Jasta', 'url': 'https://genius.com/artists/Jasta'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Mastodon-blood-and-thunder-lyrics', 'lyrics': '[Verse 1: Troy Sanders]\nI think that someone is trying to kill me\nInfecting my blood and destroying my mind\nNo man of the flesh could ever stop me\nThe fight for this fish is a fight to the death\n\n[Chorus]\nWhite whale\nHoly grail\nWhite whale\nHoly grail\n\n[Verse 2: Troy Sanders]\nWhat remorseless emperor commands me?\nI no longer govern my soul\nI am completely immersed in darkness\nAs I turn my body away from the sun\n\n[Chorus]\nWhite whale\nHoly grail\nWhite whale\nHoly grail\n[Bridge: Neil Fallon]\nSplit your lungs with blood and thunder\nWhen you see the white whale\nBreak your backs and crack your oars, men\nIf you wish to prevail\nThis ivory leg is what propels me\nHarpoons thrust in the sky\nAim directly for his crooked brow\nAnd look him straight in the eye\n[Chorus]\nWhite whale\nHoly grail\nWhite whale\nHoly grail', 'annotations': {'description': '&lt;p&gt;Mastodon’s album Leviathan is a concept album  based upon the great American novel &lt;a href="https://genius.com/albums/Herman-melville/Moby-dick" rel="noopener" data-api_path="/albums/19489"&gt;Moby-Dick&lt;/a&gt;, by Herman Melville. “Blood and Thunder” deals primarily with Captain Ahab’s monomaniac obsession with finding and slaying the “white whale,” which is a quintessential &lt;a href="https://genius.com/1572315" rel="noopener" data-api_path="/referents/1572315"&gt;motif&lt;/a&gt; in the story.&lt;/p&gt;', 'producers': [{'name': 'Matt Bayles', 'url': 'https://genius.com/artists/Matt-bayles'}, {'name': 'Mastodon', 'url': 'https://genius.com/artists/Mastodon'}], 'writers': [{'name': 'Brent Hinds', 'url': 'https://genius.com/artists/Brent-hinds'}, {'name': 'Troy Sanders', 'url': 'https://genius.com/artists/Troy-sanders'}, {'name': 'Brann Dailor', 'url': 'https://genius.com/artists/Brann-dailor'}, {'name': 'Bill Kelliher', 'url': 'https://genius.com/artists/Bill-kelliher'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Marilyn-manson-the-beautiful-people-lyrics', 'lyrics': "[Intro]\nWe would swoop down on the town\nKill everyone that wasn't beautiful\n\n[Verse 1]\nAnd I don't want you and I don't need you\nDon't bother to resist, or I'll beat you\nIt's not your fault that you're always wrong\nThe weak ones are there to justify the strong\nThe beautiful people, the beautiful people\nIt's all relative to the size of your steeple\nYou can't see the forest for the trees\nAnd you can't smell your own shit on your knees\n\n[Pre-Chorus]\nThere's no time to discriminate\nHate every motherfucker that's in your way\n\n[Chorus]\nHey, you, what do you see?\nSomething beautiful or something free?\nHey, you, are you trying to be mean?\nIf you live with apes, man, it's hard to be clean\n(Ah, ah)\n\n[Verse 2]\nThe worms will live in every host\nIt's hard to pick which one they hate the most\nThe horrible people, the horrible people\nIt's all anatomic as the size of your steeple\nCapitalism has made it this way\nOld-fashioned fascism will take it away\n[Chorus]\nHey, you, what do you see?\nSomething beautiful or something free?\nHey, you, are you trying to be mean?\nIf you live with apes, man, it's hard to be clean\n\n[Pre-Chorus]\nThere's no time to discriminate\nHate every motherfucker that's in your way\n\n[Bridge]\n(Hey, hey, hey, hey, hey, hey, hey, hey)\nThe beautiful people, the beautiful people (Ah)\nThe beautiful people, the beautiful people (Ah)\nThe beautiful people, the beautiful people (Ah)\nThe beautiful people, the beautiful people (Ah)\n\n[Chorus]\nHey, you, what do you see?\nSomething beautiful or something free?\nHey, you, are you trying to be mean?\nIf you live with apes, man, it's hard to be clean\nHey, you, what do you see?\nSomething beautiful or something free?\nHey, you, are you trying to be mean?\nIf you live with apes, man, it's hard to be clean\n[Outro]\nThe beautiful people, the beautiful people\nThe beautiful people, the beautiful people\nThe beautiful people, the beautiful people\nThe beautiful people, the beautiful people", 'annotations': {'description': '&lt;p&gt;Marilyn Manson’s first original hit after the cover of “Sweet Dreams.” The song is preceded with a few seconds of backward-guitar feedback and electronic noise. It includes a heavily distorted spoken sample by Tex Watson, declaring “We would swoop down on the town and kill everyone that wasn’t beautiful.”&lt;/p&gt;\n\n&lt;p&gt;Lyrically, it is intertwined with 1996’s &lt;a href="https://genius.com/albums/Marilyn-manson/Antichrist-superstar" rel="noopener" data-api_path="/albums/37109"&gt;&lt;em&gt;Antichrist Superstar&lt;/em&gt;&lt;/a&gt; overarching theme, a semi-narrative examination of the Nietzschean Übermensch. Within this context, “The Beautiful People” deals explicitly with the destructive manifestation of the Will to Power, while also exploring Nietzsche’s view of master-slave morality, particularly the concept’s connection with Social Darwinism and its relation to various political and economic systems such as capitalism and fascism.&lt;/p&gt;', 'producers': [{'name': 'Sean Beavan', 'url': 'https://genius.com/artists/Sean-beavan'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}, {'name': 'Trent Reznor', 'url': 'https://genius.com/artists/Trent-reznor'}, {'name': 'Dave Ogilvie', 'url': 'https://genius.com/artists/Dave-ogilvie'}], 'writers': [{'name': 'Jeordie White', 'url': 'https://genius.com/artists/Jeordie-white'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rammstein-sonne-lyrics', 'lyrics': "[Songtext zu „Sonne“]\n\n[Intro]\nEins, zwei, drei, vier, fünf, sechs, sieben, acht, neun, aus\n\n[Strophe 1]\nAlle warten auf das Licht\nFürchtet euch, fürchtet euch nicht\nDie Sonne scheint mir aus den Augen\nSie wird heut Nacht nicht untergeh'n\nUnd die Welt zählt laut bis zehn\n\n[Refrain]\nEins, hier kommt die Sonne\nZwei, hier kommt die Sonne\nDrei, sie ist der hellste Stern von allen\nVier, hier kommt die Sonne\n\n[Strophe 2]\nDie Sonne scheint mir aus den Händen\nKann verbrennen, kann euch blenden\nWenn sie aus den Fäusten bricht\nLegt sich heiß auf das Gesicht\nSie wird heut Nacht nicht untergeh'n\nUnd die Welt zählt laut bis zehn\n[Refrain]\nEins, hier kommt die Sonne\nZwei, hier kommt die Sonne\nDrei, sie ist der hellste Stern von allen\nVier, hier kommt die Sonne\nFünf, hier kommt die Sonne\nSechs, hier kommt die Sonne\nSieben, sie ist der hellste Stern von allen\nAcht, Neun, hier kommt die Sonne\n\n[Strophe 3]\nDie Sonne scheint mir aus den Händen\nKann verbrennen, kann dich blenden\nWenn sie aus den Fäusten bricht\nLegt sich heiß auf dein Gesicht\nLegt sich schmerzend auf die Brust\nDas Gleichgewicht wird zum Verlust\nLässt dich hart zu Boden gehen\nUnd die Welt zählt laut bis zehn\n\n[Refrain]\nEins, hier kommt die Sonne\nZwei, hier kommt die Sonne\nDrei, sie ist der hellste Stern von allen\nVier, und wird nie vom Himmel fallen\nFünf, hier kommt die Sonne\nSechs, hier kommt die Sonne\nSieben, sie ist der hellste Stern von allen\nAcht, Neun, hier kommt die Sonne\nAus!", 'annotations': {'description': '&lt;p&gt;“Sonne” is a track from Rammstein’s 2001 album &lt;em&gt;Mutter&lt;/em&gt;, though was released as a single beforehand. &lt;em&gt;Sonne&lt;/em&gt; also appears on the compilation album &lt;em&gt;Made in Germany: 1995-2011&lt;/em&gt;, and the  &lt;em&gt;Völkerball: Live in Nimes&lt;/em&gt; CD.&lt;/p&gt;\n\n&lt;p&gt;The track’s working name was &lt;em&gt;Klitschko&lt;/em&gt;, and it was &lt;a href="http://herzeleid.com/en/press/2000-09_hammer" rel="noopener nofollow"&gt;intended for boxer Vitali Klitschko&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Jacob Hellner', 'url': 'https://genius.com/artists/Jacob-hellner'}, {'name': 'Rammstein', 'url': 'https://genius.com/artists/Rammstein'}], 'writers': [{'name': 'Oliver Riedel', 'url': 'https://genius.com/artists/Oliver-riedel'}, {'name': 'Paul Landers', 'url': 'https://genius.com/artists/Paul-landers'}, {'name': 'Christian Lorenz', 'url': 'https://genius.com/artists/Christian-lorenz'}, {'name': 'Christoph Schneider', 'url': 'https://genius.com/artists/Christoph-schneider'}, {'name': 'Richard Z. Kruspe', 'url': 'https://genius.com/artists/Richard-z-kruspe'}, {'name': 'Till Lindemann', 'url': 'https://genius.com/artists/Till-lindemann'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Motor Music', 'url': 'https://genius.com/artists/Motor-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Killswitch-engage-my-curse-lyrics', 'lyrics': '[Verse 1]\nI watched you walk away\nHopeless, with nothing to say\nI strain my eyes\nHoping to see you again\n\n[Chorus]\nThis is my curse (The longing)\nThis is my curse (Time)\nThis is my curse (The yearning)\nThis is my curse\nThere is love burning to find you\nWill you wait for me?\nWill you be there?\n\n[Pre-Chorus]\nYour silence haunts me\nBut still I hunger for you\n\n[Chorus]\nThis is my curse (The wanting)\nThis is my curse (Time)\nThis is my curse (The healing)\nThis is my curse\nThere is love burning to find you\nWill you wait for me?\n[Bridge]\nAnd still I want\nAnd still I ache\nBut still I wait\n\n[Verse 2]\nTo see you again\nDying, inside, these walls\nDying, inside, these walls\nAnd I see your face in these tears\nIn these tears\nAnd I see your face\n\n[Outro]\nThere is love\nThere is love\nThere is love\nThere is love\nThere is love\nThere is love\nThere is love\nThere is love', 'annotations': {'description': '&lt;p&gt;When asked about the lyrics for this song in a &lt;a href="https://www.songfacts.com/blog/interviews/adam-dutkiewicz-of-killswitch-engage" rel="noopener nofollow"&gt;SongFacts interview&lt;/a&gt;, Adam said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That’s just about chicks. A lot of Howard’s songs are about girls. It’s always a topic guys can relate to.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;And since Howard has told &lt;a href="https://outburn.com/interviews/light-the-torch-interview-with-howard-jones/" rel="noopener nofollow"&gt;Outburn in an interview&lt;/a&gt; that he does not want us to know what he’s thinking of when writing song lyrics, that’s all there is to this song.&lt;/p&gt;\n\n&lt;p&gt;“My Curse” is one of the band’s most famous songs.&lt;br&gt;\nIt is also featured in the popular game: &lt;a href="https://en.wikipedia.org/wiki/Guitar_Hero_III:_Legends_of_Rock" rel="noopener nofollow"&gt;Guitar Hero III – Legends of Rock&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Joel Stroetzel', 'url': 'https://genius.com/artists/Joel-stroetzel'}, {'name': 'Adam Dutkiewicz', 'url': 'https://genius.com/artists/Adam-dutkiewicz'}], 'writers': [{'name': 'Killswitch Engage', 'url': 'https://genius.com/artists/Killswitch-engage'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Trivium-strife-lyrics', 'lyrics': "[Verse 1]\nMy anxiety's clawing\nOut from deep within me\nIt burns within as my throat\nBegins to cauterize\nThis negativity's leeching\nAny shred of composure\nRationale has decayed and left\nMe bound in madness\n\n[Pre-Chorus]\nI reach for calm\nI starve for a balance unknown\nThis burden tortures me deep in my soul\n\n[Chorus]\nI've found that strife won't make the bleeding stop\nNor will it take away the pain\nI feel like this search is all in vain\nAnd I struggle to find my way\n\n[Verse 2]\nHow I yearn for the silence\nFor an end to the voices\nThe calamity grows and the\nDeafness leads to disarray\nGuilt buries me alive\nIn a coffin—criticized\nI shouldered the blame and dug\nThis hole for me to lay in\n\n[Pre-Chorus]\nI reach for calm\nI starve for a balance unknown\nThis burden tortures me deep in my soul\n\n[Chorus]\nI've found that strife won't make the bleeding stop\nNor will it take away the pain\nI feel like this search is all in vain\nAnd I struggle to find my way\nI've found that strife won't make the bleeding stop\nNor will it take away the pain\nI feel like this search is all in vain\nAnd I struggle to find my way\n\n[Interlude]\nI... I... I... I... I... I... I... I...\n\n[Solo: Beaulieu | Solo: Heafy]\n\n[Chorus]\nI've found that strife won't make the bleeding stop\nNor will it take away the pain\nI feel like this search is all in vain\nAnd I struggle to find my way\nI've found that strife won't make the bleeding stop\nNor will it take away the pain\nI feel like this search is all in vain\nAnd I struggle to find my way", 'annotations': {'description': '', 'producers': [{'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'writers': [{'name': 'Nick Augusto', 'url': 'https://genius.com/artists/Nick-augusto'}, {'name': 'Paolo Gregoletto', 'url': 'https://genius.com/artists/Paolo-gregoletto'}, {'name': 'Corey Beaulieu', 'url': 'https://genius.com/artists/Corey-beaulieu'}, {'name': 'Matthew K. Heafy', 'url': 'https://genius.com/artists/Matthew-k-heafy'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Slipknot-psychosocial-lyrics', 'lyrics': "[Intro: Corey Taylor]\nOoh, yeah\n\n[Verse 1: Corey Taylor]\nI did my time, and I want out\nSo effusive, fade, it doesn't cut, the soul is not so vibrant\nThe reckoning, the sickening\nPackaging subversion, pseudo-sacrosanct perversion\nGo drill your deserts, go dig your graves\nThen fill your mouth with all the money you will save\nSinking in, getting smaller again\nI'm done, it has begun, I'm not the only one\n\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Post-Chorus: Clown, Chris Fehn, &amp; Paul Gray]\nPsychosocial, psychosocial, psychosocial\nPsychosocial, psychosocial, psychosocial\n\n[Verse 2: Corey Taylor]\nThere are cracks in the road we laid\nBut where the temple fell, the secrets have gone mad\nThis is nothing new, but when we killed it all\nThe hate was all we had\nWho needs another mess? We could start over\nJust look me in the eyes and say I'm wrong\nNow there's only emptiness, venomous, insipid\nI think we're done, I'm not the only one\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Post-Chorus: Clown, Chris Fehn, &amp; Paul Gray]\nPsychosocial, psychosocial, psychosocial\nPsychosocial, psychosocial, psychosocial\n\n[Guitar Solo: Mick Thomson]\n\n[Bridge: Corey Taylor, Clown, Chris Fehn, &amp; Paul Gray]\nThe limits of the dead\nThe limits of the dead\nThe limits of the dead\nThe limits of the dead\n\n[Verse 3: Corey Taylor]\nFake anti-fascist lie (Psychosocial)\nI tried to tell you, but (Psychosocial)\nYour purple hearts are giving out! (Psychosocial)\nCan't stop a killing idea (Psychosocial)\nIf it's hunting season (Psychosocial)\nIs this what you want? (Psychosocial)\nI'm not the only one\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Outro: Corey Taylor]\nThe limits of the dead\nThe limits of the dead", 'annotations': {'description': '&lt;p&gt;“Psychosocial” is a song about hate for life and broken society. It’s the second single from &lt;em&gt;All Hope is Gone&lt;/em&gt; and was nominated for the 2009 Grammy for Best Metal Performance, losing to Metallica’s “My Apocalypse.”&lt;/p&gt;\n\n&lt;p&gt;In the video for “Psychosocial,” Slipknot burned the “purgatory masks” that they had revealed for during the promotion of the &lt;em&gt;All Hope is Gone&lt;/em&gt; album in 2008.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That was a Shawn Crahan idea. Those are Mardi Gras heads of our faces from the death masks we wore in the ‘Vermillion’ video. It’s just a teaser, but it’s totally genius. When I first heard about it, I was like, ‘Are you fuckin’ kidding me?’ But then I saw the results, and I was like, ‘I totally get it!’ He’s got a good vision, man; he’s a great artist.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—Joey Jordison&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;More or less, we have these giant masks that we’re wearing, called ‘purgatory masks.’ They’re like giant death masks, and they represent ego.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—Shawn Crahan&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'writers': [{'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}, {'name': 'Joey Jordison', 'url': 'https://genius.com/artists/Joey-jordison'}, {'name': 'Paul Gray', 'url': 'https://genius.com/artists/Paul-gray'}, {'name': 'Chris Fehn', 'url': 'https://genius.com/artists/Chris-fehn'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Drowning-pool-bodies-lyrics', 'lyrics': "[Intro]\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the... floor!\n\n[Verse 1]\nBeaten why for (Why for)\nCan't take much more\n(Here we go, here we go, here we go now)\n\n[Pre-Chorus]\nOne, nothing wrong with me\nTwo, nothing wrong with me\nThree, nothing wrong with me\nFour, nothing wrong with me\nOne, something's got to give\nTwo, something's got to give\nThree, something's got to give\nNow!\n\n[Chorus]\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the-\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the-\n[Verse 2]\nNow, push me again (Again)\nThis is the end\n(Here we go, here we go, here we go now)\n\n[Pre-Chorus]\nOne, nothing wrong with me\nTwo, nothing wrong with me\nThree, nothing wrong with me\nFour, nothing wrong with me\nOne, something's got to give\nTwo, something's got to give\nThree, something's got to give\nNow!\n\n[Chorus]\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the-\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\n\n[Bridge]\nSkin against skin, blood and bone\nYou're all by yourself, but you're not alone\nYou wanted in and now you're here\nDriven by hate, consumed by fear\n[Chorus]\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\n\n[Pre-Chorus]\nOne, nothing wrong with me\nTwo, nothing wrong with me\nThree, nothing wrong with me\nFour, nothing wrong with me\nOne, something's got to give\nTwo, something's got to give\nThree, something's got to give\nNow!\n\n[Chorus]\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\n\n[Outro]\nHey, drop! Hey, drop!\nHey, drop!  Hey, drop!", 'annotations': {'description': '&lt;p&gt;“Bodies” is one of the tracks on the Drowning Pool album &lt;em&gt;Sinner&lt;/em&gt;, and is their most successful single. According to Dave Williams, the song is about mosh pits in concerts.&lt;/p&gt;', 'producers': [{'name': 'Jay Baumgardner', 'url': 'https://genius.com/artists/Jay-baumgardner'}], 'writers': [{'name': 'Dave Williams (Singer)', 'url': 'https://genius.com/artists/Dave-williams-singer'}, {'name': 'C.J. Pierce', 'url': 'https://genius.com/artists/Cj-pierce'}, {'name': 'Mike Luce', 'url': 'https://genius.com/artists/Mike-luce'}, {'name': 'Stevie Benton', 'url': 'https://genius.com/artists/Stevie-benton'}], 'labels': [{'name': 'The Bicycle Music Company', 'url': 'https://genius.com/artists/The-bicycle-music-company'}, {'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-stricken-lyrics', 'lyrics': "[Verse 1]\nYou walk on like a woman in suffering\nWon't even bother now to tell me why\nYou come alone, letting all of us savor the moment\nLeaving me broken another time\nYou come on like a blood stained hurricane\nLeave me alone, let me be this time\nYou carry on like a holy man pushing redemption\nI don't want to mention\n\n[Chorus]\nThe reason I know\nThat I am stricken and can't let you go\nWhen the heart is cold, there's no hope, and we know\nThat I am crippled by all that you've done\nInto the abyss will I run\n\n[Verse 2]\nYou don't know what your power has done to me\nI want to know if I'll heal inside\nI can't go on with a holocaust about to happen\nSeeing you laughing another time\nYou'll never know why your face has haunted me\nMy very soul has to bleed this time\nAnother hole in the wall of my inner defenses\nLeaving me breathless\n[Chorus]\nThe reason I know\nThat I am stricken and can't let you go\nWhen the heart is cold, there's no hope, and we know\nThat I am crippled by all that you've done\nInto the abyss will I run\nInto the abyss will I run!\n\n[Guitar Solo]\n\n[Verse 1]\nYou walk on like a woman in suffering\nWon't even bother now to tell me why\nYou come alone, letting all of us savor the moment\nLeaving me broken another time\nYou come on like a blood stained hurricane\nLeave me alone, let me be this time\nYou carry on like a holy man pushing redemption\nDon't want to mention\n\n[Chorus]\nThe reason I know\nThat I am stricken and can't let you go\nWhen the heart is cold, there's no hope, and we know\nThat I am crippled by all that you've done\nInto the abyss will I run\n[Outro]\nInto the abyss will I run\nI can't let you go\nYes, I am stricken and can't let you go", 'annotations': {'description': '&lt;p&gt;This song is about a girl that in the beginning, loved the protagonist, yet over time she started to grow colder and more distant, influencing him too. He tries to hold the relationship, because of the sentiments he feels towards her, yet he knows that she only brings him closer to the “abyss”, meaning depression.&lt;/p&gt;', 'producers': [{'name': 'John “Jonny K” Karkazis', 'url': 'https://genius.com/artists/John-jonny-k-karkazis'}], 'writers': [{'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rob-zombie-dragula-lyrics', 'lyrics': "[Sample]\nSuperstition, fear, and jealousy\n\n[Verse 1]\nDead I am the one, exterminatin' son\nSlippin' through the trees, stranglin' the breeze\nDead I am the sky, watchin' angels cry\nWhile they slowly turn, conquering the worm\n\n[Chorus]\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\n\n[Verse 2]\nDead I am the pool, spreading from the fool\nWeak and want you need, nowhere as you bleed\nDead I am the rat, feast upon the cat\nTender is the fur, dying as you purr\n\n[Chorus]\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\n[Hook]\nDo it baby, do it baby\nDo it baby, do it baby\nBurn like an animal\n\n[Verse 3]\nDead I am the life, dig into the skin\nKnuckle, crack the bone, 21 to win\nDead I am the dog, hound of hell, you cry\nDevil on your back, I can never die\n\n[Chorus]\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\n\n[Hook]\nDo it baby, do it baby\nDo it baby, do it baby\nBurn like an animal\n\n[Chorus]\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\n[Outro]\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula", 'annotations': {'description': '&lt;p&gt;Zombie told Billboard magazine that the title came from “the name of Grandpa Munster’s dragster on the old TV show.” He goes on to say that it “was a classic show with great comic characters. Strangely enough, ‘Dragula’ was one of the last songs finished for the record. It fell together really fast and worked, but it could just as easily not have been on the record.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://en.wikipedia.org/wiki/Dragula_%28song" rel="noopener nofollow"&gt;Source&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Also was in the movie &lt;a href="http://en.wikipedia.org/wiki/The_Matrix" rel="noopener nofollow"&gt;The Matrix&lt;/a&gt;, during the &lt;a href="https://www.youtube.com/watch?v=FGKcWsYahAg" rel="noopener nofollow"&gt;club scene&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The single peaked at #6 on the Billboard Mainstream Rock Charts on November 14th, 1998 and #14 on the Billboard Bubbling Hot Under 100 on December 19th, 1998.&lt;/p&gt;', 'producers': [{'name': 'Scott Humphrey', 'url': 'https://genius.com/artists/Scott-humphrey'}], 'writers': [{'name': 'Scott Humphrey', 'url': 'https://genius.com/artists/Scott-humphrey'}, {'name': 'Rob Zombie', 'url': 'https://genius.com/artists/Rob-zombie'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bullet-for-my-valentine-you-want-a-battle-heres-a-war-lyrics', 'lyrics': "[Intro]\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\n\n[Verse 1]\nDown eyes of shame\nMade to feel dead again\nYour words cut deep\nYour lies are fueled by your need for deceit\nToo scared to speak\nYou're only alive when you torture the weak\nNow hear me roar\n\n[Chorus]\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war!\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war!\n\n[Verse 2]\nDon't be afraid\nNo remorse, no restraint\nThese scars won't heal\nNow you're the victim I'm making you feel\nLike you are me\nI need you to know what you've done can you hear?\nCan you hear me roar?\n[Chorus]\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\nYou want a battle\nHere's a war\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\n\n[Bridge]\nYou want a battle, here's a war\nYou want a battle, here's a war!\n\nDon't suffer in your silence\nKnow you are never alone\nDon't suffer in your silence\nKnow you are never alone\n\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\n[Chorus]\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war!\n\n[Outro]\nHere's a war!", 'annotations': {'description': '&lt;p&gt;“You Want a Battle? (Here’s a War)” is the second new single from Bullet For My Valentine’s fifth album &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Venom" rel="noopener" data-api_path="/albums/124763"&gt;&lt;em&gt;Venom&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Vocalist Matt Tuck revealed “You Want a Battle (Here’s a War)” is about being bullied — something that he experienced a lot while at school because he “was not a really cool kid. I was into heavy metal music and had long hair.”&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="http://www.blabbermouth.net/news/bullet-for-my-valentines-matt-tuck-says-fans-wanted-a-more-pissed-off-band-on-new-album/" rel="noopener nofollow"&gt;Bullying happens to everybody, and it’s not a nice place to be when that happens. It took me a long time to actually pluck up the courage mentally and physically to stand up for myself, so it was kind of momentous moment for me. I had lost all these battles in my young life, and all of a sudden I was growing into a young man. I was able to stand up for myself and defend myself, and the band actually became something big and special and just like the biggest ‘fuck you\' to everyone. That’s what that song’s about, really. It’s about going through hard times and coming through the other side."&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/49f9869d10351ad13ed501ed6284f3fa.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Carl Bown', 'url': 'https://genius.com/artists/Carl-bown'}, {'name': 'Colin Richardson', 'url': 'https://genius.com/artists/Colin-richardson'}], 'writers': [{'name': 'Bullet for My Valentine', 'url': 'https://genius.com/artists/Bullet-for-my-valentine'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-blind-lyrics', 'lyrics': "[Intro: Jonathan Davis]\nAre you ready?\n\n[Verse: Jonathan Davis]\nThis place inside my mind\nA place I like to hide\nYou don't know the chances\nWhat if I should die?\nA place inside my brain\nAnother kind of pain\nYou don't know the chances\nI'm so blind\nBlind\nBlind\n\nAnother place I find\nTo escape the pain inside\nYou don't know the chances\nWhat if I should die?\nA place inside my brain\nAnother kind of pain\nYou don't know the chances\nI'm so blind\nBlind\nBlind\n[Bridge: Jonathan Davis]\nDeeper, and deeper, and deeper\nAs I journey to live a life that seems to be\nA lost reality\nThat can never find a way to reach my inner...\nSelf-esteem is low\nHow deep can I go\nIn the ground that I lay\nIf I don't find a way to\nSee through the gray that clouds my mind\nThis time I look to see what's between the lines\n\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\n\n[Chorus: Jonathan Davis &amp; Head]\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind (I can see I'm going)\nI can see, I can see I'm going blind (going blind)\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind!\n[Outro: Jonathan Davis]\nI'm blind!\nI'm blind!\nI'm blind!\nI'm blind!", 'annotations': {'description': '&lt;p&gt;“Blind” is Korn’s first single and music video. It was originally written and performed by Jonathan Davis\' previous band &lt;a href="https://genius.com/Sexart-blind-lyrics" rel="noopener" data-api_path="/songs/3744306"&gt;Sexart&lt;/a&gt;, but underwent a number of changes before being recorded by Korn for their &lt;a href="https://www.discogs.com/Korn-Demos/master/899602" rel="noopener nofollow"&gt;1993 demo&lt;/a&gt; &lt;em&gt;Neidermeyer’s Mind&lt;/em&gt; and even more changes before appearing on the band’s 1994 self-titled debut album.  It was &lt;a href="https://www.discogs.com/Korn-Clown-Blind/release/2551922" rel="noopener nofollow"&gt;released along with&lt;/a&gt; “Clown” before the album came out, and then re-released as &lt;a href="https://www.discogs.com/Korn-Blind/master/58686" rel="noopener nofollow"&gt;its own single&lt;/a&gt; in 1995, the same year the song saw some exposure on MTV in Episode 43 of the fifth season of &lt;em&gt;Beavis &amp;amp; Butthead&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Originally credited only to the members of Korn, on &lt;a href="https://www.discogs.com/Korn-Greatest-Hits-Vol-1/release/586440" rel="noopener nofollow"&gt;later releases&lt;/a&gt; Sexart members Dennis Shinn and Ryan Shuck are also given songwriting credits.&lt;/p&gt;', 'producers': [{'name': 'Ross Robinson', 'url': 'https://genius.com/artists/Ross-robinson'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Dennis Shinn', 'url': 'https://genius.com/artists/Dennis-shinn'}, {'name': 'Ryan Shuck', 'url': 'https://genius.com/artists/Ryan-shuck'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}], 'labels': [{'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pantera-walk-lyrics', 'lyrics': "[Verse 1]\nCan't you see I'm easily bothered by persistence?\nOne step from lashing out at you\nYou want in to get under my skin and call yourself a friend\nI've got more friends like you, what do I do?\n\n[Pre-Chorus]\nIs there no standard anymore?\nWhat it takes, who I am, where I've been, belong\nYou can't be something you're not\nBe yourself by yourself, stay away from me\nA lesson learned in life\nKnown from the dawn of time\n\n[Chorus]\nRespect, walk\nWhat did you say?\nRespect, walk\nAre you talkin' to me?\nAre you talkin' to me?\n\n[Verse 2]\nRun your mouth when I'm not around, it's easy to achieve\nYou cry to weak friends that sympathize\nCan you hear the violins playing your song?\nThose same friends tell me your every word\n[Pre-Chorus]\nIs there no standard anymore?\nWhat it takes, who I am, where I've been, belong\nYou can't be something you're not\nBe yourself by yourself, stay away from me\nA lesson learned in life\nKnown from the dawn of time\n\n[Chorus]\nRespect, walk\nWhat did you say?\nRespect, walk\nAre you talkin' to me?\nRespect, walk\nWhat did you say?\nRespect, walk\nAre you talkin' to me?\nAre you talkin' to me?\nNo way, punk\n\n[Guitar Solo]\n\n[Chorus]\nRespect, walk\nWhat did you say?\nRespect, walk\nAre you talkin' to me?\nRespect, walk\nWhat did you say?\nRespect, walk\nAre you talkin' to me?\nAre you talkin' to me?\nWalk on home, boy", 'annotations': {'description': '&lt;p&gt;“Walk” is the first single from Pantera’s “Vulgar Display of Power” album, and endures as one of their most recognizable and celebrated songs.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/c30371edd884537842bf953ead7ab8c4.220x220x1.jpg" alt="" width="220" height="220" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;“Walk’s” signature guitar riff is played in the unusual time signature of 12/8.&lt;/p&gt;\n\n&lt;p&gt;The blue-tinted image of Pantera frontman Phil Anselmo featured on the single’s album cover is  taken from the music video shot for their song “Mouth For War” from the same album.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.youtube.com/watch?v=AkFqg5wAuFk" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=AkFqg5wAuFk&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}, {'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}, {'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}], 'writers': [{'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}, {'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}], 'labels': [{'name': 'ATCO Records', 'url': 'https://genius.com/artists/Atco-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/System-of-a-down-byob-lyrics', 'lyrics': '[Intro: Daron Malakian]\nYou!\nWhy do they always send the poor?\n\n[Verse 1: Serj Tankian]\nBarbarisms by Barbaras with pointed heels\nVictorious Victoria’s kneel for brand new spanking deals\nMarching forward, hypocritic and hypnotic computers\nYou depend on our protection, yet you feed us lies from the table cloth\n\n[Chorus: Serj Tankian]\nLa, la, la, la, la, la, la, la, la, la, ooh-ooh\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\n\n[Verse 2: Serj Tankian]\nKneeling roses disappearing into Moses\' dry mouth\nBreaking into Fort Knox, stealing our intentions\nHangars sitting dripped in oil, crying, "Freedom"\nHanded to obsoletion, still, you feed us lies from the table cloth\n\n[Chorus: Serj Tankian with Daron Malakian]\nLa, la, la, la, la, la, la, la, la, la, ooh-ooh\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\n[Bridge: Daron Malakian]\nBlast off, it\'s party time\nAnd we don\'t live in a fascist nation\nBlast off, it\'s party time\nAnd where the fuck are you?\n\n[Refrain: Daron Malakian with Serj Tankian]\nWhere the fuck are you?\nWhere the fuck are you?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy they always send the poor?\n\n[Verse 2: Serj Tankian]\nKneeling roses disappearing into Moses\' dry mouth\nBreaking into Fort Knox, stealing our intentions\nHangars sitting dripped in oil, crying, "Freedom"\nHanded to obsoletion, still, you feed us lies from the table cloth\n\n[Chorus: Serj Tankian with Daron Malakian]\nLa, la, la, la, la, la, la, la, la, la, ooh-ooh\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sun\n[Refrain: Serj Tankian &amp; Daron Malakian]\nWhere the fuck are you?\nWhere the fuck are you?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy do they always send the poor?\n\n[Outro: Serj Tankian &amp; Daron Malakian]\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy do they always send the poor?\nThey always send the poor, they always send the poor', 'annotations': {'description': '&lt;p&gt;“B.Y.O.B.” (“Bring Your Own Bombs”) is the first single released from American heavy metal band System of a Down’s fourth album &lt;em&gt;&lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;Mezmerize&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Like their earlier song &lt;a href="https://genius.com/System-of-a-down-boom-lyrics" rel="noopener" data-api_path="/songs/151431"&gt;“Boom!,”&lt;/a&gt; it was written in protest against the Iraq War.&lt;/p&gt;\n\n&lt;p&gt;B.Y.O.B. means “Bring Your Own Bombs,” as opposed to the common interpretation “Bring Your Own Booze,” referring to the Iraq War as one big party for the United States, where instead of Jägerbombs they drop real ones.&lt;/p&gt;\n\n&lt;p&gt;It made onto numerous “Top 40” playlists around the globe, including Germany, New Zealand, Australia and the United States, and occasionally made it to #1 on other music shows.&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-falling-away-from-me-lyrics', 'lyrics': '[Verse 1]\nHey, I\'m feeling tired\nMy time has gone today\nYou flirt with suicide\nSometimes that\'s okay\nDo what others say\nI\'m here standing hollow\nFalling away from me\nFalling away from me\n\n[Verse 2]\nDay is here fading\nThat\'s when I\'m insane\nI flirt with suicide\nSometimes kill the pain\nI can\'t always say\n"It\'s gonna be better tomorrow"\nFalling away from me\nFalling away from me\n\n[Chorus]\nBeating me down!\nBeating me, beating me\nDown, down\nInto the ground!\nScreaming some sound!\nBeating me, beating me\nDown, down\nInto the ground!\n[Break]\nFalling away from me\nIt\'s spinning round and round\nFalling away from me\nIt\'s lost and can\'t be found\nFalling away from me\nIt\'s spinning round and round\nFalling away from me\nThrow it down\n\n[Chorus]\nBeating me down!\nBeating me, beating me\nDown, down\nInto the ground!\nScreaming some sound!\nBeating me, beating me\nDown, down\nInto the ground!\n\n[Bridge]\nTwisting me!\nThey won\'t go away!\nSo I pray!\nGo away!\nLife\'s falling away from me\nIt\'s falling away from me\nLife\'s falling away from me\nFuck!\n[Chorus]\nBeating me down!\nBeating me, beating me\nDown, down\nInto the ground!\nScreaming some sound!\nBeating me, beating me\nDown, down\nInto the ground!\nBeating me down!\nBeating me, beating me\nDown, down\nInto the ground!\nScreaming some sound!\nBeating me, beating me\nDown, down\nInto the ground!', 'annotations': {'description': '&lt;p&gt;“Falling Away from Me” is the second track, and lead single, off of Korn’s fourth album, &lt;em&gt;Issues&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song deals with domestic abuse and the effects it has on the mental state of its victims, such as suicidal ideation and anxiety over the situation.&lt;/p&gt;\n\n&lt;p&gt;The song initially premiered on the South Park episode &lt;a href="https://www.imdb.com/title/tt0705939/" rel="noopener nofollow"&gt;“Korn’s Groovy Pirate Ghost Mystery”&lt;/a&gt; on October 27th, 1999 and was released to radio the next day. As the song grew in popularity, it was being uploaded to file-sharing clients under the false name “Beating Me Down.”&lt;/p&gt;\n\n&lt;p&gt;The single was a commercial success, &lt;a href="https://www.billboard.com/music/korn/chart-history/HBU/song/67136" rel="noopener nofollow"&gt;peaking&lt;/a&gt; on the Bubbling Under Hot 100 at #8 on Christmas Day 1999 as well as &lt;a href="https://www.billboard.com/music/korn/chart-history/RTT/song/67136" rel="noopener nofollow"&gt;#7 on the Mainstream Rock Charts&lt;/a&gt; on January 9th, 2000 and charting in 6 countries overall.&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-twisted-transistor-lyrics', 'lyrics': "[Verse 1]\nHey you, hey you, Devil's little sister\nListening to your twisted transistor\nHold it between your legs\nTurn it up, turn it up\nLow end is coming through\nCan't get enough\n\n[Pre-Chorus]\nA lonely life, where no one understands you\nBut don't give up, because the music do\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\n\n[Chorus]\nBecause the music do\nAnd then it's reaching\nInside you, forever preaching\nFuck you, too\nYour scream's a whisper\nHang on, you twisted transistor\n[Verse 2]\nHey you, hey you, finally you get it\nThe world ain't fair, eat you if you let it\nAnd as your tears fall on\nYour breasts, your dress\nVibrations coming through\nYou're in a mess\n\n[Pre-Chorus]\nA lonely life, where no one understands you\nBut don't give up, because the music do\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\n\n[Chorus]\nBecause the music do\nAnd then it's reaching\nInside you, forever preaching\nFuck you, too\nYour scream's a whisper\nHang on, you twisted transistor\n[Bridge]\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nHey you, hey you, this won't hurt a bit\nThis won't hurt a bit, this won't hurt!\nSays who? Says who?\nAnesthetize this bitch\nAnesthetize this bitch\nAnesthetize\nJust let me be\nBetween you and me\nDon't Fit\n\n[Chorus]\nBecause the music do\nAnd then it's reaching\nInside you, forever preaching\nFuck you, too\nYour scream's a whisper\nHang on, you twisted transistor", 'annotations': {'description': "&lt;p&gt;Twisted Transistor is the first and lead single of Korn’s seventh album See You on the Other Side, it has become Korn’s second most successful single to date on the Billboard Hot 100, reaching number 64.&lt;/p&gt;\n\n&lt;p&gt; In the music video four rappers play the parts of Korn: Lil Jon as Jonathan Davis, Xzibit as Fieldy, David Banner as David Silveria, and Snoop Dogg as Munky. The real Korn appears at the end of the video as representatives of “Fony Music”, complaining about how the music video isn’t going to sell because it lacks “bling-bling” and “booty shakin'”.&lt;/p&gt;\n\n&lt;p&gt; The song itself is about feeling lonely and like nothing in your life is well and music is the only thing that can keep you alive. Jonathan Davis said this about the song:&lt;/p&gt;\n\n&lt;p&gt;“You know that feeling when you’re alone in your room, you feel bad and nothing around you seems to be going well then suddenly when you turn on your radio, you are immediately ‘deep in the music’. That’s exactly the subject of Twisted Transistor with the lyrics: ‘A lonely life where no one understands you but don’t give up because the music do’”&lt;/p&gt;", 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}], 'writers': [{'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-politics-lyrics', 'lyrics': "[Verse 1]\nEveryone's corrupt\nYou should just shut up\nLay down, back off\nThe demon you've disrupted\n\n[Pre-Chorus]\nDon't wanna talk about politics!\nDon't preach or talk about politics!\nDon't let me talk about politics!\nDon't give a shit about politics!\n\n[Chorus]\nYou want to sleep with him\nTo get to who you need to know\nThink that's the way to go, don't you? (Don't you)\nIt's in religion, sex, and everything we do and say\nI look the other way, won't you? (Won't you?)\n\n[Verse 2]\nEverybody's raped\nLying to your face\nKiss 'em and got to go, slit you\nHere all messed up\n\n[Pre-Chorus]\nDon't wanna talk about politics!\nDon't preach or talk about politics!\nDon't let me talk about politics!\nDon't give a shit about politics!\n[Chorus]\nYou want to sleep with him\nTo get to who you need to know\nThink that's the way to go, don't you? (Don't you)\nIt's in religion, sex, and everything we do and say\nI look the other way, won't you? (Won't you?)\n\n[Bridge]\nTiny spirits are in your soul\nAnd they remain there\nTime is like in the deepest hole\nYou sit and pray there\nAll the guilt from the things you've done\nYou wonder what for\nWhat you thought was so much fun\nYou have to pay for\n\n[Pre-Chorus]\nDon't wanna talk about politics!\nDon't preach or talk about politics!\nDon't let me talk about politics!\nDon't give a shit about politics!\n\n[Chorus]\nYou want to sleep with him\nTo get to who you need to know\nThink that's the way to go, don't you? (Don't you)\nIt's in religion, sex, and everything we do and say\nI look the other way, won't you? (Won't you?)\n[Outro]\nDon't wanna talk about politics!\nDon't preach or talk about politics!\nDon't let me talk about politics!\nDon't give a shit about politics!\nDon't wanna talk about politics!\nDon't preach or talk about politics!\nDon't let me talk about politics!\nDon't give a shit about politics!", 'annotations': {'description': '', 'producers': [{'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-hypocrites-lyrics', 'lyrics': "[Intro]\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nHypocrites!\n\n[Verse 1]\nWeeping rose of Jeremiah\nDrops of blood drip off your petals\nRepresenting all our tears\nIn a ring of burning metal\n\nHow you wanna be?\nWhat you gonna say it?\nIt doesn't bother me\nWho you gonna pay\n\nSorcerers and sadists come\nTo define the what and why\nPeople travel 'cross this earth\nOver water, land, and sky\nHow you wanna be?\nWhat you gonna say it?\nIt doesn't bother me\nWho you gonna pay\n\n[Pre-Chorus]\nPay the ferryman, pay the fucking driver!\nPay the preachers and pay the fucking liars!\nPay the bitches they're charging all their dates, stand by!\nI'm not gonna pay, it's already mine!\n\n[Chorus]\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nYour messiah was never mine\n\n[Verse 2]\nWeeping rose of Jeremiah\nPurity unlike no other\nOffers hope to those who need it\nDon't forget care to thy brother\nHow you wanna be?\nWhat you gonna say it?\nIt doesn't bother me\nWho you gonna pay\n\nLittle old lady at home\nWriting out a check to send\nIt's all the money that she owns\nShe believes the world might end\n\nHow you wanna be?\nWhat you gonna say it?\nIt doesn't bother me\nWho you gonna pay\n\n[Pre-Chorus]\nPay the ferryman, pay the fucking driver!\nPay the preachers and pay the fucking liars!\nPay the bitches they're charging all their dates, stand by!\nI'm not gonna pay, it's already mine!\n\n[Chorus]\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nYour messiah was never mine\n[Pre-Chorus]\nPay the ferryman, pay the fucking driver!\nPay the preachers and pay the fucking liars!\nPay the bitches they're charging all their dates, stand by!\nI'm not gonna pay, it's already mine!\n\n[Chorus]\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nYour messiah was never mine", 'annotations': {'description': '', 'producers': [{'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-love-song-lyrics', 'lyrics': "[Verse 1]\nMother!\nYou're holding my heart, screaming\nMotherfucker!\nThey left me broken, bleeding\nSon of...\nThe man you loved and left for\nThe son of a bitch!\nWho tried to show me death's door\nEverything's eliminated\nEverything is dedicated\nTried to leave this life I hated\nLiving it was overrated\n\n[Chorus]\nLove song for the dear departed\nHead stone for the broken hearted\nArms to kill or flowers to steal?\nHead trip for the mortal earthbound\nOne sip of the blood that I found\nLying here, I'm dying here\n\n[Verse 2]\nAsh and\nObituaries rain down\nAnd suddenly\nWe're lying naked face down\nWhat's it like decapitated?\nCan't you see me fascinated?\nYou're the only thing I've damaged\nOnly death can be mismanaged\n[Chorus]\nLove song for the dear departed\nHead stone for the broken hearted\nArms to kill or flowers to steal?\nHead trip for the mortal earthbound\nOne sip of the blood that I found\nLying here, I'm dying here\n\n[Verse 3]\nDon't bring me Daffodils\nBring a bouquet of pills\nSeeds of Geranium\nCracked to the cranium\nProtect me when you can\nRespect me when I am dying\n\n[Chorus]\nLove song for the dear departed\nHead stone for the broken hearted\nArms to kill or flowers to steal?\nHead trip for the mortal earthbound\nOne sip of the blood that I found\nLying here, I'm dying here\nLove song for the dear departed\nHead stone for the broken hearted\nArms to kill or flowers to steal?\nHead trip for the mortal earthbound\nOne sip of the blood that I found\nLying here, I'm dying here", 'annotations': {'description': '&lt;p&gt;Korn’s version of a romantic love song&lt;/p&gt;', 'producers': [{'name': 'Atticus Ross', 'url': 'https://genius.com/artists/Atticus-ross'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'Atticus Ross', 'url': 'https://genius.com/artists/Atticus-ross'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-coming-undone-lyrics', 'lyrics': "[Verse 1]\nKeep holding on\nWhen my brain's ticking like a bomb\nGuess the black thoughts\nHave come again to get me\nSweet bitter words\nUnlike nothing I have heard\nSing along, mockingbird\nYou don't affect me\nThat's right!\nDeliverance of my heart!\nPlease strike!\nBe deliberate!\n\n[Chorus]\nWait, I'm coming undone!\nIrate, I'm coming undone!\nToo late, I'm coming undone!\nWhat looks so strong, so delicate!\nWait, I'm starting to suffocate!\nAnd soon I anticipate!\nI'm coming undone!\nWhat looks so strong, so delicate!\n\n[Verse 2]\nChoke, choke again\nI thought my demons were my friends\nPity me in the end\nThey're out to get me\nSince I was young\nI tasted sorrow on my tongue\nAnd the sweet sugar gun\nDoes not protect me\nThat's right!\nTrigger between my eyes!\nPlease strike!\nMake it quick now!\n[Chorus]\nWait, I'm coming undone!\nIrate, I'm coming undone!\nToo late, I'm coming undone!\nWhat looks so strong, so delicate!\nWait, I'm starting to suffocate!\nAnd soon I anticipate!\nI'm coming undone!\nWhat looks so strong, so delicate!\n\n[Bridge]\nI'm trying to hold it together\nHead is lighter than a feather\nLooks like I'm not getting better\nNot getting better\n\n[Chorus]\nWait, I'm coming undone!\nIrate, I'm coming undone!\nToo late, I'm coming undone!\nWhat looks so strong so, delicate!\nWait, I'm starting to suffocate!\nAnd soon I anticipate!\nI'm coming undone!\nWhat looks so strong, so delicate!", 'annotations': {'description': '&lt;p&gt;This song is about suicidal thoughts. Jonathan Davis does a wonderful job of describing the feelings of the suicidal, meanwhile Munky, Fieldy, David constructed the beautiful and ohhh so stab you in your fucking face instrumental!&lt;/p&gt;', 'producers': [{'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-liar-lyrics', 'lyrics': "[Verse 1]\nMy brother, you love her\nBut don't give up your instincts\nHang onto you know what\nThey'll be gone fast as you blink\nThey're trained to seduce you\nSuck you dry quickly as they can\nThey bite down, reduce you\nNow you're barely a man\n\n[Chorus]\nOh my God\nHow could you deny the flood\nThat's flowing through you?\nHey you, you're saying that\nShe's all that you desire, liar\nHey you, you think you can\nThrow water on this fire, liar\n\n[Verse 2]\nIt's not wrong to let go\nAnd let the woman ride you\nFor fuck sake, don't lose touch\nWith the dog that's inside you\nShe wanted what you had\nYou bet she smelt the spore\nDon't wimp up, fuck her up\nOne more time, slam that door\n[Chorus]\nOh my God\nHow could you deny the flood\nThat's flowing through you?\nHey you, you're saying that\nShe's all that you desire, liar\nHey you, you think you can\nThrow water on this fire, liar\nOh my God\nHow could you deny the flood\nThat's flowing through you?\nHey you, you're saying that\nShe's all that you desire, liar\nHey you, you think you can\nThrow water on this fire, liar\n\n[Brige]\nLiar!\nLiar!\nLiar!\nLiar!\n\n[Outro]\nOh my God\nHow could you deny the flood\nThat's flowing through you?", 'annotations': {'description': '', 'producers': [{'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-right-now-lyrics', 'lyrics': "[Verse 1]\nI'm feeling mean today\nNot lost, not blown away\nJust irritated and quite hated\nSelf-control breaks down\nWhy's everything so tame?\nI like my life insane\nI'm fabricating and debating\nWho I'm gonna kick around\n\n[Chorus]\nRight now! (Can't find a way to get across the hate when I see you)\nRight now! (I feel it scratch inside, I wanna slash you and beat you)\nRight now! (I rip apart the things inside that excite you)\nRight now! (I can't control myself, I fucking hate you)\n\n[Verse 2]\nI'm feeling cold today\nNot hurt, just fucked away\nI'm devastated and frustrated\nGod, I feel so bound\nSo why do I feel the need?\nI think it's time to bleed\nI'm gonna cut myself\nAnd watch the blood hit the ground\n[Chorus]\nRight now! (Can't find a way to get across the hate when I see you)\nRight now! (I feel it scratch inside, I wanna slash you and beat you)\nRight now! (I rip apart the things inside that excite you)\nRight now! (I can't control myself, I fucking hate you)\n\n[Bridge]\nYou open your mouth again\nI swear I'm gonna break it\nYou open your mouth again\nMy God, I cannot take it\nShut up, shut up, shut up, I'll fuck you up\nShut up, shut up, shut up, I'll fuck you up\nShut up, shut up, shut up, I'll fuck you up!\nShut up, shut up, shut up, I'll fuck you up!\nShut up, shut up, shut up, I'll fuck you up!\nShut up, shut up, shut up, I'll fuck you up!\n\n[Chorus]\nRight now! (Can't find a way to get across the hate when I see you)\nRight now! (I feel it scratch inside, I wanna slash you and beat you)\nRight now! (I rip apart the things inside that excite you)\nRight now! (I can't control myself, I fucking hate you)\n\n[Outro]\nI fucking hate you!\nI fucking hate you!\nI fucking hate you!\nI fucking hate you!\n(SHUT!) I fucking hate you! (UP!)\n(SHUT!) I fucking hate you! (UP!)\n(SHUT!) I fucking hate you! (UP!)\n(SHUT UP!)", 'annotations': {'description': '&lt;p&gt;Jonathan Davis went in with more context on the song meaning, saying:&lt;/p&gt;\n\n&lt;p&gt;“It’s about basically me waking up pissed off at the world, hating everyone and everything around me. I think everyone’s had one of those days when you wake up and you don’t want to talk to no one and you’re just pissed. I had one of those days and I wrote about it. I was venting out all of my frustrations towards everyone.”&lt;/p&gt;', 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-here-it-comes-again-lyrics', 'lyrics': "[Verse 1]\nPounding, it starts again\nHurting, oh where do I begin?\nScreaming, they dance around my head\nHoping, they'll maybe end up dead\n\n[Chorus]\nFeeling it grab hold, what can I say?\nFeeling fucked up again, I've got to do this right\nI can't fucking give in, I feel that I can fight\nCan't I ever win, I'll keep it on my mind\nHere it comes again!\n\n[Verse 2]\nSilent it goes away\nPatient oh really should I stay?\nTrying so hard to get ahead\nFailure is often where I'm lead\n\n[Chorus]\nFeeling it grab hold, what can I say?\nFeeling fucked up again, I've got to do this right\nI can't fucking give in, I feel that I can fight\nCan't I ever win, I'll keep it on my mind\nHere it comes again!\n[Bridge]\nOh, I must hold on\nOh, I won't be gone\nOh, I won't stop now\nOh, I don't know how\nWhy I can't hold on?\nWhy I can't be gone?\nWhy I can't stop now?\nWhy I'm don't know how?\n\n[Chorus]\nFeeling it grab hold, what can I say?\nFeeling fucked up again, I've got to do this right\nI can't fucking give in, I feel that I can fight\nCan't I ever win, I'll keep it on my mind\nHere it comes again!", 'annotations': {'description': '', 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}], 'writers': [{'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-did-my-time-lyrics', 'lyrics': "[Verse 1]\nRealized I can never win\nSometimes feel like I have failed\nInside where do I begin?\nMy mind is laughing at me\nTell me, why am I to blame?\nAren't we supposed to be the same?\nThat's why I will never tame\nThis thing that's burning in me\n\n[Chorus]\nI am the one who chose my path\nI am the one who couldn't last\nI feel the life pulled from me\nI feel the anger changing me\n\n[Verse 2]\nSometimes I can never tell\nIf I've got something after me\nThat's why I just beg and plead\nFor this curse to leave me\nTell me, why am I to blame?\nAren't we suppose to be the same?\nThat's why I will never tame\nThis thing that's burning in me\n[Chorus]\nI am the one who chose my path\nI am the one who couldn't last\nI feel the life pulled from me\nI feel the anger changing me\n\n[Bridge]\nBetrayed, I feel so enslaved\nI really tried, I did my time\nI did my time\nI did my time!\nI did my time!\nI did my time!\n\n[Chorus]\nI am the one who chose my path\nI am the one who couldn't last\nI feel the life pulled from me\nI feel the anger changing me\n\n[Outro]\nOh God, the anger's changing me!\nOh God, the anger's changing me!", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/7a070c1c70826df0d3e1ffa8321b0905.205x205x1.png" alt="" width="205" height="205" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The song was an unfinished demo from 2002’s Untouchables. James “Munky” Shaffer had written the main riff and was playing it every day, and producer Michael Beinhorn couldn’t stand it. In early 2003, Korn completed the whole song, and caught the attention of Paramount Pictures who wanted to use it in the film Lara Croft Tomb Raider: The Cradle of Life. However, the song was only released as a single for the film, and featured during the films end credits. It did not appear on the motion picture soundtrack, due to certain clauses in Jonathan Davis’s record contract at the time.&lt;/p&gt;', 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-yall-want-a-single-lyrics', 'lyrics': "[Chorus]\nY'all want a single say fuck that!\nFuck that, fuck that!\nY'all want a single say fuck that!\nFuck that, fuck that!\nY'all want a single say fuck that!\nFuck that, fuck that!\nY'all want a single say fuck that!\nBoom, boom, boom, boom!\n\n[Verse 1]\nWhat's going on today?\nWe gotta break away\nWe got a problem\nAnd I think it's gonna make us go down\nThey think we're all the same\nAnd always we're to blame\nFor shit I think is lame\nIt's time to stop the game\nI think it's time to pay\nFor everything you made me say\n\n[Chorus]\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\n[Verse 2]\nWhat's going on today?\nWhy must it be this way?\nWe're going nowhere\nAnd we're still knocking the need to bow down\nThey think we're all the same\nAnd always we're to blame\nFor shit I think is lame\nIt's time to stop the game\nI think it's time to pay\nFor everything you made me say\n\n[Chorus]\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\n\n[Bridge]\nWe are the ones breaking you down\nWe are the hope to drown out your sounds\nAll across the world, you think we're to found\nAll across the world you're breaking you down\nY'all want a single say fuck that!\nFuck that, fuck that shit!\nY'all want a single say fuck that!\nFuck that, fuck that shit!\nY'all want a single say fuck that!\nFuck that, fuck that shit!\nY'all want a single say fuck that!\nFuck that, fuck that shit!\nFuck!\n[Chorus]\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!", 'annotations': {'description': "&lt;p&gt;“Y'all Want a Single” is the 12th track off of Korn’s sixth album, &lt;em&gt;Take a Look in the Mirror&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song is a message to Immortal Records, their label at the time, and Sony Music, the owner of Immortal. Davis vents his frustrations on their label trying to push the band in a more radio-friendly direction with the chorus being a message that they won’t keep doing radio-friendly songs just for the sake of the label. The band parted ways with Immortal in 2005.&lt;/p&gt;\n\n&lt;p&gt;The single was released on March 9th 2004 and peaked at #23 on the Mainstream Rock charts on February 28th, 2004, a full 9 days before the single was set to release.&lt;/p&gt;", 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}], 'writers': [{'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-freak-on-a-leash-lyrics', 'lyrics': "[Verse 1]\nSomething takes a part of me\nSomething lost and never seen\nEvery time I start to believe\nSomething's raped and taken from me, from me\nLife's gotta always be messin' with me (You wanna see the light)\nCan't they chill and let me be free? (So do I)\nCan't I take away all this pain? (You wanna see the light)\nI try to every night, all in vain, in vain\n\n[Pre-Chorus]\nSometimes I cannot take this place\nSometimes it's my life I can't taste\nSometimes I cannot feel my face\nYou'll never see me fall from grace\n\n[Chorus]\nSomething takes a part of me\nYou and I were meant to be\nA cheap fuck for me to lay\nSomething takes a part of me\n\n[Verse 2]\nFeelin' like a freak on a leash (You wanna see the light)\nFeeling like I have no release (So do I)\nHow many times have I felt diseased? (You wanna see the light)\nNothing in my life is free, is free\n[Pre-Chorus]\nSometimes I cannot take this place\nSometimes it's my life I can't taste\nSometimes I cannot feel my face\nYou'll never see me fall from grace\n\n[Chorus]\nSomething takes a part of me\nYou and I were meant to be\nA cheap fuck for me to lay\nSomething takes a part of me\n\n[Bridge]\nBoom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nGo!\n[Hook]\nSo buy, something on the ming-a-boo\nBuy, some things they buy\nSo, something on the ming-a-boo\nBuy, some things they buy\nBuy, something off the hee-a-hoo\nNo, some things they buy\nBuy, something on the ming-a-hoo\nBuy, some things they buy\n\n[Chorus]\nSomething takes a part of me\nYou and I were meant to be\nA cheap fuck for me to lay\nSomething takes a part of me\n\n[Outro]\nPart of me\nPart of me\nPart of me", 'annotations': {'description': '&lt;p&gt;“Freak on a Leash” was Jonathan Davis\' complaint against the music industry that abuses him, leaving him feeling like &lt;a href="http://www.msopr.com/press-releases/a-cut-by-cut-look-at-korns-follow-the-leader-with-jonathan/" rel="noopener nofollow"&gt;“a freak touring corporate America fucking making all the money while it’s taking a part of me.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The music video was directed by &lt;a href="http://en.wikipedia.org/wiki/Todd_McFarlane" rel="noopener nofollow"&gt;Todd McFarlane&lt;/a&gt;, with help from Jonathan Dayton and Valerie Faris, and features animated segments reminiscent of the &lt;a href="https://genius.com/Korn-follow-the-leader-album-art-annotated" rel="noopener" data-api_path="/songs/1194448"&gt;&lt;em&gt;Follow the Leader&lt;/em&gt; cover&lt;/a&gt; drawn by McFarlane himself. It won Best Editing and Best Rock Video at the MTV Music Awards in 1999, as well as the Grammy for Best Short Form Music Video in 2000.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.youtube.com/watch?v=jRGrNDV2mKc" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=jRGrNDV2mKc&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}], 'writers': [{'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-got-the-life-lyrics', 'lyrics': '[Verse 1]\nHate, something, sometime, someway\nSomething kick off the front floor\nMine, something inside I\'ll never ever follow\nSo give me something that is for real, I\'ll never ever follow\nGet your boogie on\nGet your boogie on\nHate, something, someway, each day\nDealing with no forgiveness\nWhy, this shit inside, now everyone will follow\nSo give me nothing just feel and now this shit will follow\n\n[Chorus]\nGod paged me, "you\'ll never see the life", who wants to see?\nGod told me, I\'ve already got the life, oh I say\nGod paged me, "you\'ll never see the life", who wants to see?\nGod told me, I\'ve already got the life, oh I say\n\n[Verse 2]\nEach day I can feel it swallow\nInside something they took from me\nI don\'t feel your deathly ways\nEach day I feel so hollow\nInside I was beating me\nYou will never see so come dance with me\nDance with me\nDance with me\nDance with me\nDance with me\nDance with me\nDance with me\nMe!\n[Chorus]\nGod paged me, "you\'ll never see the life", who wants to see?\nGod told me, I\'ve already got the life, oh I say\nGod paged me, "you\'ll never see the life", who wants to see?\nGod told me, I\'ve already got the life, oh I say\n\n[Outro]\nGot the life!\nGot the life!\nGot the life!\nGot the life!\nGot the life!\nGot the life!\nGot the life!\nGot the life!\nGot the life!\n\n.', 'annotations': {'description': '&lt;p&gt;“Got The Life” was released as a promotional single for their third studio album. Though never actually making much of a radio buzz until after the band’s success, the music video was the first video ever to be retired on MTV’s “TRL”, which was a much bigger deal in the 90s.&lt;/p&gt;\n\n&lt;p&gt;The track was originally based off of a disco beat and serves almost like a “fuck you” to other metal bands trying to copy their pioneered sound.&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-get-up-lyrics', 'lyrics': "[Verse 1]\nI am clearly broken\nAnd no one knows what to do\nPieces of the puzzle don't fit\nSo I pound them into you\n\n[Pre-Chorus]\nItching is the pulse inside\nCreeping out to come alive\nIt's just doing what it's gonna do\n\n[Chorus]\nTimes are looking grim these days!\nHolding on to everything!\nIt's hard to draw the line!\nShut the fuck up, get up!\nShut the fuck up, get up!\nShut the fuck up, get up!\n\n[Verse 2]\nI can't wait to rip my eyes out\nAnd look at you\nPeace through pain is precious\nEspecially when it's done by you\n\n[Pre-Chorus]\nItching is the pulse inside\nCreeping out to come alive\nIt's just doing what it's gonna do\n[Chorus]\nTimes are looking grim these days!\nHolding on to everything!\nIt's hard to draw the line!\nAnd I, I'm hiding in this empty space\nTortured by my memories\nOf what I've left behind\nShut the fuck up, get up!\nShut the fuck up, get up!\nShut the fuck up, get up!\nTimes are looking grim these days!\nHolding on to everything!\nIt's hard to draw the line!\nAnd I, I'm hiding in this empty space\nTortured by my memories\nOf what I've left behind\nShut the fuck up, get up!\nShut the fuck up, get up!\nShut the fuck up, get up!", 'annotations': {'description': '&lt;p&gt;‘Get Up’ was inspired by his hatred of everybody moaning about the recession.&lt;/p&gt;\n\n&lt;p&gt;He said this in an interview:&lt;/p&gt;\n\n&lt;p&gt;‘Get Up’ is about the recession. I wish everyone would shut the fuck up and have some fun. Every day I’ve got to hear about unemployment and people starving.&lt;/p&gt;', 'producers': [{'name': 'Skrillex', 'url': 'https://genius.com/artists/Skrillex'}, {'name': 'Jim Monti', 'url': 'https://genius.com/artists/Jim-monti'}], 'writers': [{'name': 'Skrillex', 'url': 'https://genius.com/artists/Skrillex'}, {'name': 'Ray Luzier', 'url': 'https://genius.com/artists/Ray-luzier'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-shout-2000-lyrics', 'lyrics': "[Chorus]\nShout, shout, let it all out\nThese are the things I can do without\nCome on, I'm a-talking to you\nSo, come on\nShout, shout, let it all out\nThese are the things I can do without\nCome on (Come get it on, come get it on)\nI'm a-talking to you\nSo, come on (Come get it on, come get it on)\n\n[Verse 1]\nIn violent times\nYou shouldn't have to sell your soul\nIn black and white\nThey really, really ought to know\n(They just don't know)\n\nThose one-track minds\nThat took you for a working whore\nKiss them goodbye\nYou shouldn't have to jump for joy\n(Jump, jump, jump, jump)\nYou shouldn't have to shout for joy\n\n[Chorus]\nShout, shout, let it all out\nThese are the things I can do without\nCome on (Come get it on, come get it on)\nI'm a-talking to you\nSo, come on (Come get it on, come get it on)\n[Verse 2]\nThey gave you life\nAnd in return, you gave them hell\nAs cold as ice\n(Now, bitch, you're ice, ice, baby)\nI hope we live to tell the tale\nI hope we live to shout the tale\n\n[Chorus]\nShout, shout, let it all out\nThese are the things I can do without\nCome on (Come get it on, come get it on)\nI'm a-talking to you\nSo, come on (Come get it on, come get it on)\n\n[Bridge]\nWill you never shout?\nI feel as though I know you're never gonna let it all out\nWill you never shout?\nI feel as though I know you're never gonna let it all out\n\nWill you never shout?\nI feel as though I know you're never gonna let it all out\nWill you never shout?\nI feel as though I know you're never gonna let it\n[Verse 3]\nAnd when you've taken down your guard\nIf I could change your mind\nI'd really love to break your heart\n(Break, break, break, break, break)\nI'd really love to break your heart\n\n[Chorus]\nShout, shout, let it all out\nThese are the things I can do without\nCome on (Come get it on, come get it on)\nI'm a-talking to you\nSo, come on (Come get it on, come get it on)\n\nI'd really love to shout, shout!\nLet it all out\nThese are the things I can do without\nCome on, I'm a-talking to you\nSo, come on\n\n[Outro]\nShout!\nShout!\n\nCome on, le-let me shout, shout, let me\nCome on, le-let me shout, shout\nShout!\nCome on, le-let me shout, shout, let me\nCome on, le-let me shout, shout\nShout!", 'annotations': {'description': '&lt;p&gt;A cover of &lt;a href="https://genius.com/artists/Tears-for-fears" rel="noopener" data-api_path="/artists/25916"&gt;Tears For Fears&lt;/a&gt;‘ 1984 song &lt;a href="https://genius.com/Tears-for-fears-shout-lyrics" rel="noopener" data-api_path="/songs/304899"&gt;Shout&lt;/a&gt;, performed by &lt;a href="https://genius.com/artists/Disturbed" rel="noopener" data-api_path="/artists/28631"&gt;Disturbed&lt;/a&gt; for their 2000 album &lt;em&gt;The Sickness&lt;/em&gt;. This version of the song is entitled “Shout 2000” and contains some slightly different lyrics compared to the original.&lt;/p&gt;', 'producers': [{'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}, {'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}], 'writers': [{'name': 'Roland Orzabal', 'url': 'https://genius.com/artists/Roland-orzabal'}, {'name': 'Ian Stanley', 'url': 'https://genius.com/artists/Ian-stanley'}], 'labels': [{'name': 'Giant Records', 'url': 'https://genius.com/artists/Giant-records'}, {'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-meaning-of-life-lyrics', 'lyrics': "[Intro]\nGet psycho\nI wanna get psycho\nGet psycho\nI wanna, wanna, wanna, wanna\n\n[Verse 1]\nWanna get psycho\nRun, you little bitch\nI want your power glowing, juicy, flowing, red hot\nMeaning of life\nIt's not enough to have a little taste\nI want the whole damn thing\nNow, can you dig it?\nNeed to get psycho\nI want to hear you say it\nSay you want it, need it\nDon't wanna wait until we finish the show\nIt's not enough; you hunger for more\nYou're one twisted little fuck\nAnd now you wanna get psycho with me\n\n[Pre-Chorus]\nGive in, give in, decide\nGive in, give in, give in, decide\nGive in, give in, give in, decide\nGive in, give in, give in, decide\nGive in\n[Chorus]\nGet psycho\nI wanna get psycho\nGet psycho\nI wanna, wanna, wanna, wanna\n\n[Verse 2]\nWanna get psycho\nScratch my itch\nGive me your power flowing, juicy, glowing, red hot\nMeaning of life\nIt's not enough to have a little piece\nI want the whole damn thing\nNow, can you dig it?\nNeed to get psycho\nI want to hear you scream\nTell me to take you, scare you, fuck you\nAfter we finish the show\nIt's not enough\nYou listening, whore?\nYou're one twisted little fuck\nAnd now you wanna get psycho with me\n\n[Pre-Chorus]\nGive in, give in, decide\nGive in, give in, give in, decide\nGive in, give in, give in, decide\nGive in, give in, give in, decide\nGive in\n[Bridge]\nI can feel the blood flowing through my veins\nSpilling on my soul\nAnd now the hunger's getting bigger\nCome a little closer now, pretentious whore\nAnd pull my trigger\nFree the violence that is building in me\nI say now, end of the ride, murder-suicide\nIs how I've been feeling lately\n\nCome a little closer now, pretentious whore\nI'm reeling with the feeling that I\nCan't ignore\nCome a little closer now, pretentious whore\nI'm reeling with the feeling that I\nCan't ignore\n\nCome a little closer now, pretentious whore\nI'm reeling with the feeling that I\nCan't ignore\nAnd the need to get psycho\nIs not a question to me\n\n[Outro]\nGet, get, get, get, get psycho\nGet, get, get, I wanna get psycho\nGet, get, get, get, get psycho\nGet, get, get, I wanna, wanna, wanna\nGet psycho (Psycho)\nGet, get, get, I wanna get psycho (Psycho)\nGet, get, get, get, get psycho (Psycho)\nGet, get, get, I wanna get psycho\nWanna, wanna, wanna, wanna", 'annotations': {'description': '', 'producers': [{'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}, {'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}], 'writers': [{'name': 'Steve “Fuzz” Kmak', 'url': 'https://genius.com/artists/Steve-fuzz-kmak'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}, {'name': 'Giant Records', 'url': 'https://genius.com/artists/Giant-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-warrior-lyrics', 'lyrics': "[Verse 1]\nI am now an instrument of violence\nI am a vessel of invincibility\nI cannot leave this undecided\nStepping down to battle another day\nRemember me for all time, this\nDetermination is a vital part of me\nSurrender now, or be counted\nWith the endless masses that I will defeat\n\n[Pre-Chorus]\nCome on, bring it\nDon't sing it\nBetter believe it\nBroken down till your hope has died\nBeat down till the victory's mine\nStand up and show me some pride\nAnd now, are you ready?\n\n[Chorus]\nI'm one with the warrior inside\nMy dominance can't be denied\nYour entire world will turn\nInto a battlefield tonight\nAs I look upon you\nThrough the warrior's eyes now\nI can see the fear that will\nEnsure my victory this time\n[Verse 2]\nI can't be told to compromise this\nThey'll never doubt the body lying at my feet\nA most formidable reminder\nThey will speak my name for eternity\nI have no need of any guidance\nI am a weapon, powerful beyond belief\nSeen through the warrior's eyes\nI never need to question how to defeat you\n\n[Pre-Chorus]\nCome on, bring it\nDon't sing it\nBetter believe it\nBroken down till your hope has died\nBeat down till the victory's mine\nStand up and show me some pride\nAnd now, are you ready?\n\n[Chorus]\nI'm one with the warrior inside\nMy dominance can't be denied\nYour entire world will turn\nInto a battlefield tonight\nAs I look upon you\nThrough the warrior's eyes now\nI can see the fear that will\nEnsure my victory this time\n[Bridge]\nYou can't hide now\nI am the warrior\nSo decide now\nHow they’ll remember you\nDo not hide now\nAct like a warrior\nShow your pride now\nSolidify your place in time\n\n[Chorus]\nI'm one with the warrior inside\nMy dominance can't be denied\nYour entire world will turn\nInto a battlefield tonight\nAs I look upon you\nThrough the warrior's eyes now\nI can see the fear that will\nEnsure my victory this time\n\n[Outro]\nI'm one with the warrior inside\nThe evidence can't be denied\nThe entire world will stare\nInto this battlefield tonight\nAs I stand before you\nWith a warrior's heart now\nI can feel the strength that will\nEnsure my victory this time", 'annotations': {'description': '&lt;p&gt;“&lt;a href="https://www.youtube.com/watch?v=bmir_2q1TvY" rel="noopener nofollow"&gt;Warrior&lt;/a&gt;” is a song for anyone who needs strength to fight whatever it is you’re dealing with.&lt;/p&gt;\n\n&lt;p&gt;The song peaked at #14 on &lt;a href="https://www.billboard.com/music/disturbed/chart-history/rock-songs/song/664367" rel="noopener nofollow"&gt;Billboard’s “Hot Rock Songs”&lt;/a&gt; and stayed on it for 20 weeks.&lt;/p&gt;', 'producers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'writers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-the-animal-lyrics', 'lyrics': "[Intro]\nNah-ah, nah-ah\nNow\n\n[Verse 1]\nI can feel the animal inside\nAnd my resolve is weakening\nPounding at the doors of my mind\nIt's nearly overpowering\nI cannot begin to describe\nThe hunger that I feel again\nRun, if you intend to survive\n\n[Pre-Chorus]\nFor the beast is coming to life\nTaking form in the glimmer of this tainted moonlight\nDeath approaches on this night\n\n[Chorus]\nFor the animal's soul is mine\nWe will be completed right before your eyes\nI have no control this time\nAnd now we both shall dine\nIn hell tonight\n\n[Verse 2]\nI can hear it calling again\nThe primal need is filling me\nChanges are about to begin\nAnd now my blood is boiling\nI can see the fear in your eyes\nBut you can't bring yourself to scream\nTime to shed the mortal disguise\n[Pre-Chorus]\nFor the beast is coming to life\nTaking form in the glimmer of this tainted moonlight\nDeath approaches on this night\n\n[Chorus]\nFor the animal's soul is mine\nWe will be completed right before your eyes\nI have no control this time\nAnd now we both shall dine\nIn hell tonight\n\n[Verse 3]\nWe begin the hunt and I\nFeel the power course, as the creatures take flight\nFor the kill is close and I\nWill be satisfied\nFor the smell of fear tonight\nWakes an ancient lust\nThat will not be denied (You're mine)\n\n[Chorus]\nFor the animal's soul is mine\nWe will be completed right before your eyes\nI have no control this time\nAnd now we both shall dine\nIn hell tonight\n[Outro]\nFor the animal's soul is mine\nAnd the world around will never hear your cries\nAn unholy crime\nAnd now we both shall dine\nIn hell tonight", 'annotations': {'description': '&lt;p&gt;“The Animal” was the third single released from &lt;em&gt;Asylum&lt;/em&gt;. It peaked at #6 on Billboard’s “&lt;a href="https://www.billboard.com/music/disturbed/chart-history/rock-songs/song/663631" rel="noopener nofollow"&gt;Hot Rock Songs&lt;/a&gt;” and stayed on the chart for 21 weeks.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=bmir_2q1TvY" rel="noopener nofollow"&gt;The lyrics&lt;/a&gt; are inspired by movies like &lt;em&gt;&lt;a href="https://www.imdb.com/title/tt0320691/" rel="noopener nofollow"&gt;Underworld&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://www.imdb.com/title/tt0780653/" rel="noopener nofollow"&gt;The Wolfman&lt;/a&gt;&lt;/em&gt;; telling the story of someone transforming into a werewolf in the light of the full moon.&lt;/p&gt;', 'producers': [{'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}], 'writers': [{'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-indestructible-lyrics', 'lyrics': "[Verse 1]\nAnother mission, the powers have called me away\nAnother time to carry the colors again\nMy motivation: an oath I've sworn to defend\nTo win the honor of coming back home again\nNo explanation will matter after we begin\nUnlock the dark destroyer that's buried within\nMy true vocation, and now, my unfortunate friend\nYou will discover a war you're unable to win\n\n[Pre-Chorus 1]\nI'll have you know that I've become\n\n[Chorus 1]\nIndestructible\nDetermination that is incorruptible\nFrom the other side a terror to behold\nAnnihilation will be unavoidable\nEvery broken enemy will know\nThat their opponent had to be invincible\nTake a last look around while you're alive\nI'm an indestructible master of war\n\n[Verse 2]\nAnother reason, another cause for me to fight\nAnother fuse uncovered now for me to light\nMy dedication to all that I've sworn to protect\nI carry out my orders without a regret\nMy declaration embedded deep under the skin\nA permanent reminder of how it began\nNo hesitation when I am commanded to strike\nYou need to know that you're in for the fight of your life\n[Pre-Chorus 2]\nYou will be shown how I've become\n\n[Chorus 1]\nIndestructible\nDetermination that is incorruptible\nFrom the other side a terror to behold\nAnnihilation will be unavoidable\nEvery broken enemy will know\nThat their opponent had to be invincible\nTake a last look around while you're alive\nI'm an indestructible master of war\n\n[Chorus 2]\nI'm indestructible\nDetermination that is incorruptible\nFrom the other side a terror to behold\nAnnihilation will be unavoidable\nEvery broken enemy will know\nThat their opponent had to be invincible\nTake a last look around while you're alive\nI am indestructible (Indestructible)\n\n[Chorus 1]\nIndestructible\nDetermination that is incorruptible\nFrom the other side a terror to behold\nAnnihilation will be unavoidable\nEvery broken enemy will know\nThat their opponent had to be invincible\nTake a last look around while you're alive\nI'm an indestructible master of war", 'annotations': {'description': '&lt;p&gt;“Indestructible” is the third single from Disturbed’s fourth studio album with the same name.&lt;/p&gt;\n\n&lt;p&gt;It is an “&lt;a href="https://loudwire.com/disturbed-indestructible-songs-about-soldiers/" rel="noopener nofollow"&gt;anthem to soldiers&lt;/a&gt;”. Disturbed has on occasions &lt;a href="https://consequenceofsound.net/2018/10/disturbed-uso-shows/" rel="noopener nofollow"&gt;played at military bases&lt;/a&gt;, to honor the US soldiers.&lt;/p&gt;', 'producers': [{'name': 'John Moyer', 'url': 'https://genius.com/artists/John-moyer'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}], 'writers': [{'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-inside-the-fire-lyrics', 'lyrics': "[Verse 1]\nDevon won't go to heaven\nShe's just another lost soul about to be mine again\nLeave her, we will receive her\nIt is beyond your control will you ever meet again\nDevon, one of eleven\nWho had been rendered unwhole as a little child\nShe was taken and then forsaken\nYou will remember it all, let it fill your mind again\n[Pre-Chorus]\nDevon lies beyond this portal\nTake the word of one immortal\n[Chorus]\nGive your soul to me for eternity\nRelease your life to begin another time with her\nEnd your grief with me, there's another way\nRelease your life, take your place inside the fire with her\n[Verse 2]\nSever, now and forever\nYou're just another lost soul about to be mine again\nSee her, you'll never free her\nYou must surrender it all if you'd like to meet again\nFire for your desire\nAs she begins to turn cold for the final time\nYou will shiver, 'til you deliver\nYou will remember it all, let it fill your mind again\n[Pre-Chorus]\nDevon lies beyond this portal\nTake the word of one immortal\n[Chorus]\nGive your soul to me for eternity\nRelease your life to begin another time with her\nEnd your grief with me, there's another way\nRelease your life, take your place inside the fire with her\n[Hook]\nTake me away, yeah\n\n[Chorus]\nGive your soul to me for eternity\nRelease your life to begin another time with her\nEnd your grief with me, there's another way\nRelease your life, take your place inside the fire with her\n[Outro]\nDevon, one of eleven\nWho had been rendered unwhole as a little child\nShe was taken and then forsaken\nYou will remember it all, let it fill your mind again man", 'annotations': {'description': '&lt;p&gt;“Inside The Fire” is Disturbed’s second song to reach #1 on the US Rock Chart, and is one of a handful of their singles that crossed over onto the Hot 100, &lt;a href="https://www.billboard.com/music/disturbed/chart-history/HSI" rel="noopener nofollow"&gt;peaking at #73&lt;/a&gt; in the spring of 2008.&lt;/p&gt;\n\n&lt;p&gt;The track was inspired by David Draiman’s &lt;a href="https://metropolitanklezmer.com/downloads/jma029.pdf" rel="noopener nofollow"&gt;addiction to heroin&lt;/a&gt; as a teen and &lt;a href="https://www.youtube.com/watch?v=eLDeFPMdKcw" rel="noopener nofollow"&gt;when his girlfriend&lt;/a&gt; (at a young age) committed suicide as a result of their break-up.&lt;/p&gt;\n\n&lt;p&gt;His ex-girlfriend had become co-dependent on him and had a heroin problem. She threatened to tell David’s parents about their relationship, which they wouldn’t have condoned, so David felt he had to break up with her. The lyrics are about her drug abuse and how he felt he himself had to commit suicide to see her again on the other side, and how he heard the devil talking to him while at her funeral looking down into her open casket.&lt;/p&gt;', 'producers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'writers': [{'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-ten-thousand-fists-lyrics', 'lyrics': "[Intro]\nSurvivor\nSurvivor\n\n[Verse 1]\nOne more goddamn day when I know what I want and my want will be considered tonight\nConsider tonight\nJust another day\nWhen all that I want will mark me as a sinner tonight\nI'm a sinner tonight, yeah\n\n[Chorus]\nPeople can no longer cover their eyes\nIf this disturbs you, then walk away\nYou will remember the night you were struck by the sight of\nTen thousand fists in the air\n\n[Verse 2]\nPower unrestrained\nDead on the mark is what we will deliver tonight\nDeliver tonight\nPleasure fused with pain\nThis triumph of the soul will make you shiver tonight\nWe'll make you shiver tonight, yeah\n\n[Chorus]\nPeople can no longer cover their eyes\nIf this disturbs you, then walk away\nYou will remember the night you were struck by the sight of\nTen thousand fists in the air\n[Bridge]\nWe are the ones that will open your mind\nLeave the weak and the haunted behind\nWe are the ones that will open your mind\nLeave the weak and the haunted behind\nWe are the ones that will open your mind\nLeave the weak and the haunted behind\nWe are the ones that will open your mind\nLeave the weak and the haunted behind\n\n[Chorus]\nPeople can no longer cover their eyes\nIf this disturbs you, then walk away\nYou will remember the night you were struck by the sight of\nTen thousand fists in the air\n\n[Outro]\nTen thousand fists in the air\nTen thousand fists in the air", 'annotations': {'description': '&lt;p&gt;The song is an ode to the power of the masses in the face of evil. It is written against the backdrop of George W. Bush and the war on civil liberties. People can’t look away any longer; they must take a stand.&lt;/p&gt;\n\n&lt;p&gt;Vocalist David Draiman says the song evokes the “strength, unity, conviction, power, and the exhilaration that you feel when you get to see that at one of our shows… It’s one of my favorite moments, and people know that I have an affinity for asking people to put their fists in the air, and it’s just, it’s exhilaration to be able to see ten thousand raised fists or more.”&lt;/p&gt;', 'producers': [{'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}, {'name': 'Johnny Karkazis', 'url': 'https://genius.com/artists/Johnny-karkazis'}], 'writers': [{'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-land-of-confusion-lyrics', 'lyrics': "[Verse 1]\nI must've dreamed a thousand dreams\nBeen haunted by a million screams\nBut I can hear the marching feet\nThey're moving into the street\nNow, did you read the news today?\nThey say the danger's gone away\nBut I can see the fire's still alight\nThere, burning into the night\n\n[Pre-Chorus]\nThere's too many men\nToo many people\nMaking too many problems\nAnd there's not much love to go ‘round\nCan't you see\nThis is a land of confusion?\n\n[Chorus]\nThis is the world we live in\nAnd these are the hands we're given\nUse them, and let's start trying\nTo make it a place worth living in\n\n[Verse 2]\nOoh, Superman, where are you now?\nWhen everything's gone wrong somehow\nThe men of steel, the men of power\nAre losing control by the hour\n[Pre-Chorus]\nThis is the time\nThis is the place\nSo, we look for the future\nBut there's not much love to go ‘round\nTell me why this is a land of confusion\n\n[Chorus]\nThis is the world we live in\nAnd these are the hands we're given\nUse them and let's start trying\nTo make it a place worth living in\n\n[Bridge]\nI remember long ago\nOoh, when the sun was shining\nAnd all the stars were bright\nAll through the night\nIn the wake of this madness\nAs I held you tight\nSo long ago\n\n[Verse 3]\nI won't be coming home tonight\nMy generation will put it right\nWe're not just making promises\nThat we know we'll never keep\n[Pre-Chorus]\nToo many men\nToo many people\nMaking too many problems\nAnd not much love to go ‘round\nCan't you see\nThis is a land of confusion?\n\n[Chorus]\nNow, this is the world we live in\nAnd these are the hands we're given\nUse them, and let's start trying\nTo make it a place worth fighting for\n\nThis is the world we live in\nAnd these are the names we're given\nStand up and let's start showing\nJust where our lives are going to", 'annotations': {'description': '&lt;p&gt;“Land Of Confusion” is a cover of &lt;a href="https://genius.com/Genesis-land-of-confusion-lyrics" rel="noopener" data-api_path="/songs/362571"&gt;Genesis\' song with the same name&lt;/a&gt;.&lt;br&gt;\n&lt;a href="https://www.billboard.com/music/disturbed/chart-history/hot-mainstream-rock-tracks/song/486457" rel="noopener nofollow"&gt;It peaked at #1 on the Mainstream Rock chart&lt;/a&gt;. And stayed on it for 37 weeks.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://loudwire.com/disturbed-ten-thousand-fists-album-anniversary/" rel="noopener nofollow"&gt;David was first against the idea of doing a cover&lt;/a&gt;, but then he came around; since he liked the idea of taking something that sounded nothing like Disturbed making it their own.&lt;/p&gt;\n\n&lt;p&gt;Disturbed made their own &lt;a href="https://www.youtube.com/watch?v=YV4oYkIeGJc&amp;amp;feature=youtu.be" rel="noopener nofollow"&gt;music video&lt;/a&gt; for the song.&lt;br&gt;\nDirected by Todd McFarlane, the video is a big view of the corporate world and how it all ties into just one big beast.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That the world is run by one giant thing which is driven by greed and lust.&lt;br&gt;\n-Todd McFarlane.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Johnny Karkazis', 'url': 'https://genius.com/artists/Johnny-karkazis'}, {'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}], 'writers': [{'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}, {'name': 'Tony Banks', 'url': 'https://genius.com/artists/Tony-banks'}, {'name': 'Mike Rutherford', 'url': 'https://genius.com/artists/Mike-rutherford'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-its-all-over-lyrics', 'lyrics': "[Verse 1]\nYour bottle's almost empty\nYou know this can't go on\nBecause of you my mind is always racing\nThe needle's breaking your skin\nThe scar is sinking in\nAnd now your trip begins\n\n[Chorus]\nBut it's all over for\nIt's all over for you, for you\nWhen you're on the edge and falling off\nIt's all over for you, for you\nWhen you're on the edge and falling off\nIt's all over\n\n[Verse 2]\nI know what runs through your blood\nYou do this all in vain\nBecause of you my mind is always racing\nAnd it gets under my skin\nTo see you giving in\nAnd now your trip begins\n\n[Chorus]\nBut it's all over for\nIt's all over for you, for you\nWhen you're on the edge and falling off\nIt's all over for you, for you\nWhen you're on the edge and falling off\nIt's all over\n[Instrumental Guitar Interlude]\n\n[Bridge]\nAnd now you're dead inside\nStill you wonder why\n(It's all over)\nAnd now you're dead inside\nStill you wonder why\n(It's all over)\n\n[Outro]\nAnd now you're dead inside\nStill you wonder why\nWhen you're on the edge and falling off\nIt's all over for you\nAnd now you're dead inside (For you)\nStill you wonder why\nWhen you're on the edge and falling off\nIt's all over for you\nAnd now you're dead inside (For you)\nStill you wonder why\nIt's all over", 'annotations': {'description': '&lt;p&gt;On “It’s All Over”, Adam Gontier worries about a person who’s succumbed to a drug and alcohol addiction. With Adam overcoming a prescription drug addiction of his own, this track is deeply personal and reflective.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-pain-lyrics', 'lyrics': "[Chorus]\nPain, without love\nPain, I can't get enough\nPain, I like it rough\n'Cause I'd rather feel pain than nothing at all\n\n[Verse 1]\nYou're sick of feeling numb\nYou're not the only one\nI'll take you by the hand\nAnd I'll show you a world that you can understand\nThis life is filled with hurt\nWhen happiness doesn't work\nTrust me, and take my hand\nWhen the lights go out you'll understand\n\n[Chorus]\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\n[Verse 2]\nAnger and agony\nAre better than misery\nTrust me I've got a plan\nWhen the lights go up you'll understand\n\n[Chorus]\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing\nRather feel pain\n\n[Bridge]\nI know, I know, I know, I know (I know)\nThat you're wounded\nYou know, you know, you know, you know (you know)\nThat I'm here to save you\nYou know, you know, you know, you know (you know)\nI'm always here for you\nI know, I know, I know, I know (I know)\nThat you'll thank me later\n[Chorus]\nPain, without love\nPain, can't get enough\nPain, I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nRather feel pain than nothing at all\nRather feel pain", 'annotations': {'description': '&lt;p&gt;“Pain” is a tormented song about being numbed by depression, and wishing to feel pain rather than nothing. Written in the depths of Adam Gontier’s struggle against prescription drug addiction, the track is deeply personal.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-animal-i-have-become-lyrics', 'lyrics': "[Verse 1]\nI can't escape this hell\nSo many times I've tried\nBut I’m still caged inside\n\n[Pre-Chorus]\nSomebody get me through this nightmare\nI can’t control myself\n\n[Chorus]\nSo what if you can see the darkest side of me?\nNo one will ever change this animal I have become\nHelp me believe it’s not the real me\nSomebody help me tame this animal\n(This animal)\n(This animal)\n\n[Verse 2]\nI can’t escape myself\n(I can’t escape myself)\nSo many times I’ve lied\n(So many times I’ve lied)\nBut there’s still rage inside\n\n[Pre-Chorus]\nSomebody get me through this nightmare\nI can’t control myself\n[Chorus]\nSo what if you can see the darkest side of me?\nNo one will ever change this animal I have become\nHelp me believe it’s not the real me\nSomebody help me tame this animal I have become\nHelp me believe it’s not the real me\nSomebody help me tame this animal\n\n[Bridge]\nSomebody help me through this nightmare\nI can’t control myself\nSomebody wake me from this nightmare\nI can’t escape this hell\n\n[Refrain]\nThis animal\nThis animal\nThis animal\nThis animal\nThis animal\nThis animal\nThis animal\n\n[Chorus]\nSo what if you can see the darkest side of me?\nNo one will ever change this animal I have become\nHelp me believe it’s not the real me\nSomebody help me tame this animal I have become\nHelp me believe it’s not the real me\nSomebody help me tame this animal\n[Outro]\nThis animal I have become", 'annotations': {'description': '&lt;p&gt;“Animal I Have Become”, the first single from Three Days Grace’s 2006 album &lt;em&gt;One-X&lt;/em&gt;, is written as a cry for help. It was written by then lead singer and songwriter Adam Gontier, during his stay at a rehabilitation center. The narrator feels wild and untamable from an &lt;a href="http://crypticrock.com/three-days-grace-still-bringing-pain-with-one-x-a-decade-later/" rel="noopener nofollow"&gt;addiction to OxyContin&lt;/a&gt; and feels consumed by his addiction.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-never-too-late-lyrics', 'lyrics': "[Verse 1]\nThis world will never be what I expected\nAnd if I don't belong, who would have guessed it?\nI will not leave alone everything that I own\nTo make you feel like it's not too late\nIt's never too late\n\n[Chorus]\nEven if I say it'll be alright\nStill I hear you say you want to end your life\nNow and again we try to just stay alive\nMaybe we'll turn it all around 'cause it's not too late\nIt's never too late\n\n[Verse 2]\nNo one will ever see the side reflected\nAnd if there's something wrong, who would have guessed it?\nAnd I have left alone everything that I own\nTo make you feel like it's not too late\nIt's never too late\n\n[Chorus]\nEven if I say it'll be alright\nStill I hear you say you want to end your life\nNow and again we try to just stay alive\nMaybe we'll turn it all around 'cause it's not too late\nIt's never too late\n[Bridge]\nThe world we knew won't come back\nTime we've lost, can't get it back\nLife we had won't be ours again\nThis world will never be what I expected\nAnd if I don't belong\n\n[Chorus]\nEven if I say it'll be alright\nStill I hear you say you want to end your life\nNow and again we try to just stay alive\nMaybe we'll turn it all around 'cause it's not too late\nIt's never too late\nMaybe we'll turn it all around\n'Cause it's not too late\nIt's never too late (It's never too late)\nIt's not too late\nIt's never too late", 'annotations': {'description': '&lt;p&gt;The third single from One X and arguably Three Days Grace’s most well known song.&lt;/p&gt;\n\n&lt;p&gt;Because of the prominence of censorship during the song’s early days, radio edits edited the lyrics “end your life” into “change your life” to eliminate the suicide reference from the song.&lt;/p&gt;\n\n&lt;p&gt;Three Days Grace’s frontman Adam Gontier has explained the song being about “being in a very dark place, but being able to see a way out.”&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-riot-lyrics', 'lyrics': "[Verse 1]\nIf you feel so empty, so used up, so let down\nIf you feel so angry, so ripped off, so stepped on\nYou're not the only one refusing to back down\nYou're not the only one, so get up\n\n[Chorus]\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot\n\n[Verse 2]\nIf you feel so filthy, so dirty, so fucked up\nIf you feel so walked on, so painful, so pissed off\nYou're not the only one refusing to go down\nYou're not the only one, so get up\n\n[Chorus]\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot\n\n[Bridge]\nIf you feel so empty, so used up, so let down\nIf you feel so angry, just get up\nLet's start a riot, a riot\nLet's start a riot\n[Chorus]\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot, a riot\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot", 'annotations': {'description': '&lt;p&gt;“Riot” is the fourth and final single from Three Days Grace’s second album, &lt;em&gt;One-X&lt;/em&gt;. The song is about protesting against the negative things in life and was written while Adam Gontier was in rehab for a prescription drug addiction.&lt;/p&gt;\n\n&lt;p&gt;As of February 12, 2018, the single reached Platinum in the United States. The song peaked at #12 on the U.S. Mainstream Rock Charts and #21 on the U.S. Alternative Songs Charts on May 10, 2008 and #65 on the Canadian Hot 100 Charts on January 12, 2008.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-let-it-die-lyrics', 'lyrics': "[Verse 1]\nWe had fire in our eyes in the beginning\nI never felt so alive, in the beginning\nYou, you blame me but\n\n[Pre-Chorus]\nIt's not fair when you say that I didn't try\nI just don't wanna hear it anymore\n\n[Chorus]\nI swear I never meant to let it die\nI just don't care about you anymore\nIt's not fair when you say that I didn't try\nI just don't care about you anymore\n\n[Verse 2]\nWe had time on our side, in the beginning\nWe, we had nothing to hide, in the beginning\nYou, you blame me but\n\n[Pre-Chorus]\nIt's not fair when you say that I didn't try\nI just don't wanna hear it anymore\n\n[Chorus]\nI swear I never meant to let it die\nI just don't care about you anymore\nIt's not fair when you say that I didn't try\nI just don't care about you anymore\n[Bridge]\nYou say that I didn't try\nYou say that I didn't try\n\n[Chorus]\nI swear I never meant to let it die\nI just don't care about you anymore\nIt's not fair when you say that I didn't try\nI just don't care about you anymore\n\n[Outro]\n(I just don't care about you anymore)\nI just don't care about you anymore\n(I just don't care about you anymore)\nI just don't care about you anymore", 'annotations': {'description': '&lt;p&gt;On “Let It Die”, lead singer Adam Gontier describes a relationship where everything seems to be going right, that is, in the beginning. When the chorus hits and the bass kicks in, it’s clear that this relationship is far from okay. In fact, it’s about to end, and while Adam did try his best, he wants the girl to know that he doesn’t care anymore.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'C. Brown', 'url': 'https://genius.com/artists/C-brown'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-over-and-over-lyrics', 'lyrics': "[Verse 1]\nI feel it everyday, it's all the same\nIt brings me down, but I'm the one to blame\nI've tried everything to get away\n\n[Pre-Chorus]\nSo here I go again, chasing you down again\nWhy do I do this?\n\n[Chorus]\nOver and over, over and over\nI fall for you\nOver and over, over and over\nI try not to\n\n[Verse 2]\nIt feels like every day stays the same\nIt's dragging me down and I can't pull away\n\n[Pre-Chorus]\nSo here I go again, chasing you down again\nWhy do I do this?\n\n[Chorus]\nOver and over, over and over\nI fall for you\nOver and over, over and over\nI try not to\nOver and over, over and over\nYou make me fall for you\nOver and over, over and over\nYou don't even try\n[Bridge]\nSo many thoughts that I can't get out of my head\nI try to live without you\nEvery time I do I feel dead\nI know what's best for me but I want you instead\nI'll keep on wasting all my time\n\n[Chorus]\nOver and over, over and over\nI fall for you\nOver and over, over and over\nI try not to\nOver and over, over and over\nYou make me fall for you\nOver and over, over and over\nYou don't even try to", 'annotations': {'description': '&lt;p&gt;“Over and Over” is a track capturing Adam Gontier’s emotional struggle whilst undergoing rehab for a prescription drug addiction. Backed by string-accompanied guitar, Adam is drowned by hopelessness.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-time-of-dying-lyrics', 'lyrics': "[Verse 1]\nOn the ground I lay, motionless in pain\nI can see my life flashing before my eyes\nDid I fall asleep?\nIs this all a dream?\nWake me up, I'm living a nightmare\n\n[Pre-Chorus]\nI will not die  (I will not die)\nI will survive\n\n[Chorus]\nI will not die, I'll wait here for you\nI feel alive when you're beside me\nI will not die, I'll wait here for you\nIn my time of dying\n\n[Verse 2]\nOn this bed I lay, losing everything\nI can see my life passing me by\nWas it all too much?\nOr just not enough?\nWake me up, I'm living a nightmare\n\n[Pre-Chorus]\nI will not die (I will not die)\nI will survive\n[Chorus]\nI will not die, I'll wait here for you\nI feel alive when you're beside me\nI will not die, I'll wait here for you\nIn my time of dying\n\n[Instrumental Break]\n\n[Chorus]\nI will not die, I'll wait here for you\nI feel alive when you're beside me\nI will not die, I'll wait here for you\nIn my time of dying\n(Feel alive)\nI will not die, I'll wait here for you (Feel alive)\nI feel alive when you're beside me (Feel alive)\nI will not die, I'll wait here for you\nIn my time of dying", 'annotations': {'description': '&lt;p&gt;I believe this is pullout symptoms from active medicine dependence. “the agony”. and and asking a advanced power to come back into his life because he feels alive when this power is beside or near him. He wants to" wake up" meaning live his life with joy and peace rather than being in pain all the time, he thinks he has the courage to survive and get off medicines but does not know how to ask for help and knows deep down in his heart he does not want to die like this.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-bitter-taste-lyrics', 'lyrics': "[Verse 1]\nJust let me say one thing\nI've had enough\nYou're selfish and sorry\nYou'll never learn how to love\nAs your world disassembles\nBetter keep your head up\n\n[Pre-Chorus]\nYour name, your face is\nAll you have left now\nBetrayed, disgraced\nYou've been erased\n\n[Chorus]\nSo long, so long\nI have erased you\nSo long, so long\nI've wanted to waste you\nSo long, so long\nI have erased you\nI have escaped\nThe bitter taste of you\n\n[Verse 2]\nJust let me clear my head\nI think I've had too much\nYou're so disappointing\nBut you make good use of it\nAs your world disassembles\nBetter keep your head up\n[Pre-Chorus]\nYour name, your face is\nAll you have left now\nBetrayed, disgraced\nYou've been erased\n\n[Chorus]\nSo long, so long\nI have erased you\nSo long, so long\nI've wanted to waste you\nSo long, so long\nI have erased you\nI have escaped\nThe bitter taste of you\n\n[Guitar Solo]\n\n[Bridge]\nYour name, your face is\nAll you have left now\nDisgraced, betrayed\nYou've been erased\n\n[Chorus]\nSo long, so long\nI have erased you\nSo long, so long (So long)\nI've wanted to waste you\nSo long, so long\nI have erased you\nI have escaped\nThe bitter taste\n[Outro]\nI have escaped\nThe bitter taste of you", 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-break-lyrics', 'lyrics': '[Verse 1]\nTonight, my head is spinning\nI need something to pick me up\nI’ve tried, but nothing is working\nI won’t stop, I won’t say I’ve had enough\n\n[Pre-Chorus]\nTonight, I start the fire\nTonight, I break away\n\n[Chorus]\nBreak away from everybody\nBreak away from everything\nIf you can’t stand the way this place is\nTake yourself to higher places\n\n[Verse 2]\nAt night I feel like a vampire\nIt’s not right but I just can’t give it up\nI’ll try to get myself higher\nLet’s go, we’re going to light it up\n\n[Pre-Chorus]\nTonight, we start the fire\nTonight, we break away\n[Chorus]\nBreak away from everybody\nBreak away from everything\nIf you can’t stand the way this place is\nTake yourself to higher places\n\n[Bridge]\nIf you can’t stand the way this place is\nTake (Take) yourself (Yourself) to higher places\n\n[Chorus]\nBreak away from everybody\nBreak away from everything\nIf you can’t stand the way this place is\nTake yourself to higher places\n\n[Outro]\nHigher places\nTo higher places\nHigher places\nTake yourself to higher places', 'annotations': {'description': '&lt;p&gt;“Break” is the second track and lead single off of Three Days Grace’s third album, &lt;em&gt;Life Starts Now&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song deals with breaking yourself out of rough situations you don’t want to remain in. The message is that it is up to you to let go of the negative people or situations you deal with and make a stand for yourself.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-the-good-life-lyrics', 'lyrics': "[Verse 1]\nThe good life is what I need\nToo many people stepping over me\nThe only thing that's been on my mind\nIs the one thing I need before I die\n\n[Chorus]\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\nThe good life\n\n[Verse 2]\nI don't really know who I am\nIt's time for me to take a stand\nI need a change and I need it fast\nI know that any day could be the last\n\n[Chorus]\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\n[Bridge]\nHold on hold on\nI always wanted it this way\nWe never wanted it this way\nHold on hold on\nI always wanted it this way\nWe didn't ask for it this way\nI always wanted this way\nThe good life\n\n[Chorus]\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\nThe good life", 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-bully-lyrics', 'lyrics': "[Verse 1]\nHe wakes up haunted with voices in his head\nNobody knows it, but today he won't go unnoticed\nHe can't forget, can't forgive for what they said\nHe's never been so hurt, but today the screaming is over\n\n[Chorus]\nBlame the family\nBlame the bully\nBlame it on me\nMaybe he needed to be wanted\nBlame the family\nBlame the bully\nMaybe he needed to be wanted\n\n[Verse 2]\nShe takes the long way home, fighting her emotions\nShe's a loner, but tonight she won't go unnoticed\nShe can't remember when she loses her temper\nNobody knows her, but tonight the silence is over\n\n[Chorus]\nBlame the family\nBlame the bully\nBlame it on me\nMaybe she needed to be wanted\nBlame the family\nBlame the bully\nBlame it on me\nMaybe she needed to be wanted\n[Guitar Solo]\n\n[Bridge]\nBlame the family\nBlame the bully\nBlame it on me\nMaybe they needed\n\n[Chorus]\nBlame the family\nBlame the bully\nBlame it on me\nMaybe they needed to be wanted\nBlame the family\nBlame the bully\nBlame it on me\nMaybe they needed to be wanted, wanted", 'annotations': {'description': '&lt;p&gt;On “Bully”, Adam Gontier dives into the minds of two tormented kids, and the society that pushed them to their current states. On the brink of leaving the world forever, the unnamed boy and girl will soon be known, as the blame game begins.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-polyamorous-lyrics', 'lyrics': "[Intro]\nLet's go!\n\n[Verse 1]\nThe day has come to an end\nThe sun is over my head\nMy polyamorous friend\nHe got me in a mess of trouble again\n\n[Chorus]\nSo just when you think that you're all right\nI'm calling out from the inside\nI never hurt anyone\nI never listen at all\n\n[Verse 2]\nThey've come to get me again\nThe cloud is over my head\nMy polyamorous friend\nHe got me in a mess of trouble again\n\n[Chorus]\nSo just when you think that you're all right\nI'm calling out from the inside\nI never hurt anyone\nI never listen at all\nJust stay away from the white light\nI'd say your worst side's your best side\nI never hurt anyone\nI never listen at all\n[Bridge]\nWell, how do you know?\nWell, how do you know?\nWell, how do you know?\nWell, how do you know?\n\n[Chorus 2]\nJust when you think that you're all right\nI'm calling out from the inside\nI never hurt anyone\nI never listen at all\nJust stay away from the white light\nI'd say your worst side's your best side\nI never hurt anyone\nI never listen at all\n\n[Outro]\nLet's go", 'annotations': {'description': '&lt;p&gt;This song could possibly refers to multiple relationships if you took the meaning of the word"Polyamorous" itself but Actually guys I honestly think this song isn’t about sex. It could be about drugs or drinking but I doubt it. “Polyamorus” many or multiple. It is for this reason that I think that the meaning is multiple personalities.&lt;br&gt;\n“Polyamorous” is about finding a person’s true self and it’s about multiple personalities. It could also be about drugs and alcohol but I think this is the main meaning. I am fairly certain however, it is NOT about sex.&lt;br&gt;\nThe good thing about Breaking Benjamin songs is that they are always multiple meanings.&lt;/p&gt;', 'producers': [{'name': 'Ulrich Wild', 'url': 'https://genius.com/artists/Ulrich-wild'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-shallow-bay-lyrics', 'lyrics': "[Intro]\nCome on!\n\n[Verse 1]\nThe sun will rise\nAnother time\nThe colors blind\nYour virgin eyes\nI'm so inclined\nTo make you mine\nYou're out of line\nAnd out of time\n\n[Chorus]\nAnd I float upon a shallow bay\nLift me up until the ground gives way\nI'm a California castaway\nI don't think you wanna fuck with me\n\n[Verse 2]\nDon't over kill\nThis painless thrill\nIt's bitter still\nYour pretty pill\nYou wait until\nYou've had your fill\nI know you will [x2]\n[Chorus]\n\n[Bridge]\nA shallow bay [x2]\n\n[Chorus][x2]\n\n[Outro]\nYou live, you learn [x3]\nYou live", 'annotations': {'description': '&lt;p&gt;‘Shallow Bay’ is the 12th track on Breaking Benjamin’s debut album, Saturate, released in 2002.&lt;/p&gt;\n\n&lt;p&gt;During the few couple years that Breaking Benjamin were a band, the band would close the setlist with this song, with frontman Ben Burnley dedicating the song to “all you Shallow Bay-ers out there.”&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/bc331f91e0c8e0761824cf143273dd26.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-firefly-lyrics', 'lyrics': "[Verse 1]\nYou, my friend\nYou're a lot like them\nBut I caught your lie\nAnd you know I did\nNow I'm lost in you\nLike I always do\nAnd I'll die to win\nCause I'm born to lose\n\n[Chorus]\nFirefly\nCould you shine your light?\nNow I love your ways\n'Cause they're just like mine\nNow I'm justified\nAs I fall in line\nAnd it's hard to try\nWhen you're open wide\n\n[Verse 2]\nTake my hand\nWe'll be off and then\nWe'll come back again\nTo a different land\nNow I like this way\nYou can go away\nIf you guess the name\nYou cannot replace\n[Chorus]\nFirefly\nCould you shine your light?\nNow I love your ways\n'Cause they're just like mine\nNow I'm justified\nAs I fall in line\nAnd it's hard to try\nWhen you're open wide\n\n[Bridge]\nBring me your enemies\nLay them before me\nAnd walk away\nWalk away\nWalk away!\n\n[Chorus]\nFirefly\nCould you shine your light?\nNow I love your ways\n'Cause they're just like mine\nNow I'm justified\nAs I fall in line\nAnd it's hard to try\nWhen you're open wide\nFuck you, firefly\nHave you lost your light?\nNow I hate your ways\n'Cause they're just like mine\nSo you lost, my friend\nSuch a sorry end\nAnd I don't know why\nSo I choke and smile\n[Outro]\nSmile!", 'annotations': {'description': '&lt;p&gt;Firefly is the fourth song from Breaking Benjamin’s second full-length studio album We Are Not Alone, released on 28th June 2004.&lt;/p&gt;\n\n&lt;p&gt;The song was also included in the soundtrack for the video games titled WWE SmackDown! vs. Raw and WWE Day of Reckoning, released that same year.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-breakdown-lyrics', 'lyrics': "[Intro]\nBreakdown!\n\n[Verse 1]\nLet the fun and games begin\nShe is spayed and broken in\nSkin is cold and white\nSuch a lovely, lonely night\n\n[Pre-Chorus]\nHeaven is on the way\nYou could feel the hate\nBut I guess you never will\nI'm on a roll again\nAnd I want an end\n'Cause I feel you creeping in\n\n[Chorus]\nWhat I've found in this town\nI'm headed for a breakdown\nWhat's that sound? You're so loud\nI'm headed for a breakdown\n\n[Verse 2]\nDrank up all my alcohol\nThis is not a free-for-all\nI'll be there for you\nTill my heart is black and blue\n[Pre-Chorus]\nHeaven is on the way\nYou could feel the hate\nBut I guess you never will\nI'm on a roll again\nAnd I want an end\n'Cause I feel you creeping in\n\n[Chorus]\nWhat I've found in this town\nI'm headed for a breakdown\nWhat's that sound? You're so loud\nI'm headed for a breakdown\n\n[Outro]\nYou blacked out, you're so proud\nI'm headed for a breakdown\nWhat's that sound, you're so loud\nI'm headed for a breakdown\nNo!", 'annotations': {'description': '', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Breaking Benjamin', 'url': 'https://genius.com/artists/Breaking-benjamin'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-the-diary-of-jane-lyrics', 'lyrics': '[Verse 1]\nIf I had to, I would put myself right beside you\nSo let me ask, "Would you like that? Would you like that?"\nAnd I don\'t mind if you say this love is the last time\nSo now I\'ll ask, "Do you like that? Do you like that?" (No!)\n\n[Chorus]\nSomething\'s getting in the way\nSomething\'s just about to break\nI will try to find my place in the diary of Jane\nSo tell me how it should be\n\n[Verse 2]\nTry to find out what makes you tick\nAs I lie down, sore and sick\nDo you like that, do you like that?\nThere\'s a fine line between love and hate\nAnd I don\'t mind, just let me say\nThat I like that, I like that\n\n[Chorus]\nSomething\'s getting in the way\nSomething\'s just about to break\nI will try to find my place in the diary of Jane\nAs I burn another page, as I look the other way\nI still try to find my place in the diary of Jane\nSo tell me how it should be\n[Bridge]\nDesperate, I will crawl\nWaiting for so long\nNo love, there is no love\nDie for anyone\nWhat have I become?\n\n[Chorus]\nSomething\'s getting in the way\nSomething\'s just about to break\nI will try to find my place in the diary of Jane\nAs I burn another page, as I look the other way\nI still try to find my place in the diary of Jane', 'annotations': {'description': '&lt;p&gt;“The Diary of Jane” seems to describe a love-starved individual on the brink of a mental breakdown.  The name of the title character was inspired by &lt;a href="https://en.wikipedia.org/wiki/Jane_Bryan" rel="noopener nofollow"&gt;Jane Bryan&lt;/a&gt; (as seen in the official music video), a notable actor from the 1930s. Breaking Benjamin’s previous album shared its title with a Jane Bryan film named &lt;i&gt;We Are Not Alone&lt;/i&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lead singer &lt;a href="https://genius.com/artists/Benjamin-burnley" rel="noopener" data-api_path="/artists/502352"&gt;Benjamin Burnley&lt;/a&gt; adds powerful and razor-sharp vocals that alternate between singing and screaming to convey the desperation of the narrator while an array of guitar effects and heavy riffs act to create an intense wall of sound, with each section flowing effortlessly into the next.&lt;/p&gt;\n\n&lt;p&gt;One of the band’s most successful tracks, the song survived the &lt;a href="http://www.billboard.com/artist/297098/Breaking+Benjamin/chart?f=379" rel="noopener nofollow"&gt;&lt;i&gt;Billboard&lt;/i&gt; Hot 100&lt;/a&gt; for 20 weeks and reached #2 on the &lt;a href="http://www.billboard.com/artist/297098/Breaking+Benjamin/chart?f=376" rel="noopener nofollow"&gt;&lt;i&gt;Billboard&lt;/i&gt; Mainstream Rock charts&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Mark James Klepaski', 'url': 'https://genius.com/artists/Mark-james-klepaski'}, {'name': 'Aaron Fink', 'url': 'https://genius.com/artists/Aaron-fink'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': [{'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-breath-lyrics', 'lyrics': "[Verse 1]\nI see nothing in your eyes\nAnd the more I see, the less I like\nIs it over yet?\nIn my head\nI know nothing of your kind\nAnd I won't reveal your evil mind\nIs it over yet?\nI can't win\n\n[Pre-Chorus]\nSo, sacrifice yourself\nAnd let me have what's left\nI know that I can find\nThe fire in your eyes\nI'm going all the way\nGet away, please\n\n[Chorus]\nYou take the breath right out of me\nYou left a hole where my heart should be\nYou got to fight just to make it through\n'Cause I will be the death of you\n\n[Verse 2]\nThis will be all over soon (This will all be over soon)\nPour the salt into the open wound\nIs it over yet?\nLet me in\n[Pre-Chorus]\nSo, sacrifice yourself\nAnd let me have what's left\nI know that I can find\nThe fire in your eyes\nI'm going all the way\nGet away, please\n\n[Chorus]\nYou take the breath right out of me\nYou left a hole where my heart should be\nYou got to fight just to make it through\n'Cause I will be the death of you\n\n[Bridge]\n(Take, take, take)\nI'm waiting\nI'm praying\nRealize\nStart hating\n\n[Chorus]\nYou take the breath right out of me\nYou left a hole where my heart should be\nYou got to fight just to make it through\n'Cause I will be the death of you", 'annotations': {'description': '&lt;p&gt;“Breath” is one of Breaking Benjamin’s most successful songs, &lt;a href="http://www.billboard.com/artist/297098/Breaking+Benjamin/chart?f=376" rel="noopener nofollow"&gt;hitting #1 on &lt;i&gt;Billboard&lt;/i&gt;’s Mainstream Rock Tracks in early 2007&lt;/a&gt;. With a solid backbone of low-end riffs, the lead guitars soar with melodies that make this song immediately memorable.&lt;/p&gt;\n\n&lt;p&gt;As the song progresses, frontman Benjamin Burnley seems to teeter back and forth between desperation and determination while he struggles with his demons, carrying the usual ferociousness of his vocals with him.&lt;/p&gt;\n\n&lt;p&gt;There are two versions of “Breath,” one being the original album version released on August 8th, 2006, and the single radio-edit released later in January of 2007.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Mark Klepaski', 'url': 'https://genius.com/artists/Mark-klepaski'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-evil-angel-lyrics', 'lyrics': "[Verse 1]\nHold it together\nBirds of a feather\nNothing but lies and crooked wings\nI have the answer\nSpreading the cancer\nYou are the faith inside me\n\n[Pre-Chorus]\nNo\nDon't\nLeave me to die here\nHelp me survive here\nAlone\nI don't remember\nRemember\n\n[Chorus]\nPut me to sleep, evil angel\nOpen your wings, evil angel\n\n[Verse 2]\nI'm a believer\nNothing could be worse\nAll these imaginary friends\nHiding betrayal\nDriving the nail\nHoping to find a savior\n[Pre-Chorus]\nNo\nDon't\nLeave me to die here\nHelp me survive here\nAlone\nDon't surrender\nSurrender\n\n[Chorus]\nPut me to sleep, evil angel\nOpen your wings, evil angel\n\n[Outro]\nFly over me, evil angel\nWhy can't I breathe?\nEvil angel", 'annotations': {'description': '&lt;p&gt;This song contrasts heavy, smashing guitar riffs with soaring chords. In doing so, Breaking Benjamin illustrates the irony of a wicked angel, who is the topic of this song. The song expands upon these opposites of good and evil through the use of irony and description throughout.&lt;/p&gt;\n\n&lt;p&gt;Furthermore, this song may have been inspired by the tale of the ancient deity, Azrael, the name of the fabled and notorious “Angel of Death.”&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-dance-with-the-devil-lyrics', 'lyrics': "[Intro]\nHere I stand\nHelpless and left for dead\n\n[Verse 1]\nClose your eyes\nSo many days go by\nEasy to find what's wrong\nHarder to find what's right\n\n[Pre-Chorus]\nI believe in you\nI can show you that\nI can see right through\nAll your empty lies\nI won't stay long\nIn this world so wrong\n\n[Chorus]\nSay goodbye\nAs we dance with the Devil tonight\nDon't you dare look at him in the eye\nAs we dance with the Devil tonight\n\n[Verse 2]\nTrembling\nCrawling across my skin\nFeeling your cold, dead eyes\nStealing the life of mine\n[Pre-Chorus]\nI believe in you\nI can show you that\nI can see right through\nAll your empty lies\nI won't last long\nIn this world so wrong\n\n[Chorus]\nSay goodbye\nAs we dance with the Devil tonight\nDon't you dare look at him in the eye\nAs we dance with the Devil tonight\nHold on\nHold on (Oh)\n\n[Guitar Solo]\n\n[Chorus]\nSay goodbye\nAs we dance with the Devil tonight\nDon't you dare look at him in the eye\nAs we dance with the Devil tonight\nHold on\nHold on\n[Outro]\n(Ooh)\nGoodbye", 'annotations': {'description': '&lt;p&gt;Dance With The Devil is a song by Breaking Benjamin about doing a sin you hate to get pleasure from it. In Spotify plays, it is the third most popular from Breaking Benjamin’s third album Phobia.&lt;br&gt;\nThe lead singer, Benjamin Burnley, struggled with alcohol abuse earlier in his life, and this song is most likely about his addiction.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Mark Klepaski', 'url': 'https://genius.com/artists/Mark-klepaski'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-topless-lyrics', 'lyrics': "[Verse 1]\nFruit on the vine\nYou've got yours\nAnd I've got mine\nMeat on your bones\nThey won't know\nThey won't know\n\n[Chorus]\nI love your face\nJust get away\nI'm on my knees\nFuck you\nFuck me\n\n[Verse 2]\nI'm on my way\nTo feel you\nDislocate\nSafe in your space\nI'm open\nWide open\n\n[Chorus]\nI love your face\nJust get away\nI'm on my knees\nFuck you\nFuck me\n[Refrain]\nLike me\nLike me\nLike me\n\n[Chorus]\nI love your face\nJust get away\nI'm on my knees\nFuck you\nFuck me\n\n[Outro]\nMe\nMe\nMe", 'annotations': {'description': '&lt;p&gt;This song is about temptation, making references to Adam and Eve and the snake.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-unknown-soldier-lyrics', 'lyrics': "[Intro]\n\n[Verse 1]\nBorderline\nDead inside\nI don't mind\nFalling to pieces\nCount me in\nViolent\nLet's begin\nFeeding the sickness\nHow do I\nSimplify?\nDislocate\nThe enemy's on the way\n\n[Chorus]\nShow me what it's like\nTo dream in black and white\nSo I can leave this world tonight\n\n[Verse 2]\nFull of fear, Everclear\nI'll be here, fighting forever\nCurious, venomous\nYou'll find me climbing to heaven\nNever mind, turn back time\nYou'll be fine, I will get left behind\n[Chorus]\nShow me what it's like\nTo dream in black and white\nSo I can leave this world tonight\nHolding on too tight\nBreathe the breath of life\nSo I can leave this world behind\n\n[Bridge]\n(Ooh)\nIt only hurts just once (Ooh)\nThey're only broken bones (Ooh)\nHide the hate inside (Ooh)\n(Oh)\n(So I can leave this world behind)\n\n[Chorus]\nShow me what it's like\nTo dream in black and white\nSo I can leave this world tonight\nHolding on too tight\nBreathe the breath of life\nSo I can leave this world behind", 'annotations': {'description': '&lt;p&gt;The introduction to the song suggests a military theme with the sound of a large number of helicopters.&lt;/p&gt;\n\n&lt;p&gt;The military theme of the songs suggests a fight of sorts, a battle, probably internal. The sound of the helicopter creates the setting of a battle field for an internal fight. This is all interpretation, as there is not much revealed about the band’s meaning behind the song.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/e5472af0aaf330b1a7d0e1a0d9ca7707.1000x563x1.jpg" alt="" width="1000" height="563" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': [{'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-i-will-not-bow-lyrics', 'lyrics': "[Intro]\nFall\n\n[Verse 1]\nNow the dark begins to rise\nSave your breath\nIt's far from over\nLeave the lost and dead behind\nNow's your chance to run for cover\nI don't want to change the world\nI just want to leave it colder\nLight the fuse and burn it up\nTake the path that leads to nowhere\n\n[Pre-Chorus]\nAll is lost again\nBut I'm not giving in\n\n[Chorus]\nI will not bow\nI will not break\nI will shut the world away\nI will not fall\nI will not fade\nI will take your breath away\n[Post-Chorus]\nFall\n\n[Verse 2]\nWatch the end through dying eyes\nNow the dark is taking over\nShow me where forever dies\nTake the fall\nAnd run to heaven\n\n[Pre-Chorus]\nAll is lost again\nBut I'm not giving in\n\n[Chorus]\nI will not bow\nI will not break\nI will shut the world away\nI will not fall\nI will not fade\nI will take your breath away\n\nAnd I'll survive\nParanoid\nI have lost the will to change\nAnd I am not proud\nColdblooded fake\nI will shut the world away\n[Bridge]\nOpen your eyes!\n\n[Chorus]\nI will not bow\nI will not break\nI will shut the world away\nI will not fall\nI will not fade\nI will take your breath away\n\nAnd I'll survive\nParanoid\nI have lost the will to change\nAnd I am not proud\nColdblooded fake\nI will shut the world away\n\n[Outro]\nFall", 'annotations': {'description': '&lt;p&gt;“I Will Not Bow” was used to promote (and included in) the 2009 Bruce Willis film &lt;em&gt;Surrogates&lt;/em&gt;. The single was released to radio six weeks prior to both the film and the band’s fourth album &lt;em&gt;Dear Agony&lt;/em&gt;. It is the band’s biggest hit, &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BREAKING+BENJAMIN&amp;amp;ti=I+WILL+NOT+BOW" rel="noopener nofollow"&gt;selling over 2 million copies&lt;/a&gt; and, as of 2018, their only US &lt;a href="https://www.billboard.com/music/breaking-benjamin" rel="noopener nofollow"&gt;top 40 hit&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Jasen Rauch', 'url': 'https://genius.com/artists/Jasen-rauch'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-blow-me-away-lyrics', 'lyrics': "[Verse 1]\nThey fall in line, one at a time, ready to play\n(I can't see them anyway)\nNo time to lose, we've got to move, steady your helm\n(I am losing sight again)\n\n[Pre-Chorus]\nFire your guns, it's time to run, blow me away\n(I will stay in the mess I made)\nAfter the fall, we'll shake it off, show me the way\n\n[Chorus]\nOnly the strongest will survive\nLead me to heaven when we die\nI am a shadow on the wall\nI'll be the one to save us all\n\n[Verse 2]\nThere's nothin' left, so save your breath, lying in wait\n(Caught inside this tidal wave)\nYour cover's blown, nowhere to go, holding your fate\n(Lonely, I will walk alone)\n\n[Pre-Chorus]\nFire your guns, it's time to run, blow me away\n(I will stay in the mess I made)\nAfter the fall, we'll shake it off, show me the way\n[Chorus]\nOnly the strongest will survive\nLead me to heaven when we die\nI am a shadow on the wall\nI'll be the one to save us all\n\n[Bridge: Ben]\nYou wanted it back\nDon't fight me now\nHere I Come\nDie\n\n[Chorus]\nOnly the strongest will survive\nLead me to heaven when we die\nI am a shadow on the wall\nI'll be the one to save us all\nSave us all", 'annotations': {'description': '&lt;p&gt;This song can be interpreted to be about some sort of battle. Some people may believe this song was meant to be on the Halo 2 soundtrack. When you look at the lyrics, he says, “Fire your gun, it’s time to run, Blow me away.” This could definitely be related to a battle.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Jeremy Hummel', 'url': 'https://genius.com/artists/Jeremy-hummel'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-ashes-lyrics', 'lyrics': '[Intro]\nRight\nHate, hate, hate!\nBring it!\n\n[Verse 1]\nYou don\'t understand me\nAnd you probably never will\nI got a tendency to self-destruct\nAnd a soft spot for the filth\nA hair-trigger temperament\nA switchblade for a tongue\nI\'m a walking one-man genocide\nWith a black belt in corrupt\n\n[Chorus 1]\nEverything I touch turns to ashes\nFalls away, it falls away\nEverything I touch turns to ashes\nIt slips right through my hands\n\n[Chorus 2]\nLove me, hate me\nIsolate me every day that I\'m alive\nStraight-up mentally unstable\nYou don\'t have to like my life\n[Verse 2]\nI\'m a jinx, a curse; some say, "The worst"\nI\'m a savage, rabid beast\nI\'ve been called so many fucking things\nIt doesn\'t affect me in the least!\nI\'ve stolen, lied, been crucified\nBut I don\'t regret a thing\nI\'m an egocentric masochist\nWith a sadist\'s point of bleak\n\n[Chorus]\nEverything I touch turns to ashes\nFalls away, it falls away\nEverything I touch turns to ashes\nIt slips right through my hands\n\n[Chorus 2]\nLove me, hate me\nIsolate me every day that I\'m alive\nLive to prove you wrong, it\'s easy\nWhen your heart is filled with ice\nChapters in my life define me\nChanged me into this deprived\nStraight-up mentally unstable\nYou don\'t have to like my life\n[Outro]\nEverything I touch turns to ashes\nFalls away, it falls away\nEverything I touch turns to ashes\nIt slips right through my hands', 'annotations': {'description': '', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Darrell Roberts', 'url': 'https://genius.com/artists/Darrell-roberts'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-the-way-of-the-fist-lyrics', 'lyrics': "[Intro]\nBreak this shit down!\nZoltan, open the sky!\n\n[Verse 1]\nYou want it, you got it\nEverything you needed and more\nYou said it; I heard it\nCareful what you wish for\nDeleted, defeated, everything you've ever been\nNo mercy, it's the way of the fist\n\n[Pre-Chorus]\nStrapped with rage, got no patience for victims\nSick and tired of the whole fuckin' world\n\n[Chorus]\nI don't remember asking you about your imperfections\nYou might win one battle\nBut know this: I'll win the fucking war!\n\n[Post-Chorus]\nEnd of the goddamn road! (Right!)\n\n[Bridge]\nStep to me, step to me, motherfucker\nZip your lip, you've run out of time\nStep to me, step to me, motherfucker\nTalk the talk now, walk the damn line\n[Verse 2]\nDeserve it; you earned it, got yourself a fuckin' war\nBelieve it; you need it, facedown on the fuckin' floor\nI hate it; can't take it\nWanna break your fuckin' bones\nNo mercy, you faggot\nShould've left it all alone\n\n[Pre-Chorus]\nStrapped with rage; got no patience for victims\nSick and tired of the whole fuckin' world\n\n[Chorus]\nI don't remember asking you about your imperfections\nYou might win one battle\nBut know this: I'll win the fucking war!\n\n[Hook]\nAs you crash and burn\nOne, two, fuck you! (Right!)\n\n[Bridge]\nStep to me, step to me, motherfucker\nZip your lip, you've run out of time\nStep to me, step to me, motherfucker\nTalk the talk; now walk the damn line\nStep to me, step to me, motherfucker\nShut your face; it's your turn to die\nStep to me, step to me, anybody\nTalk the shit, your ass is mine\n[Chorus]\nI don't remember asking you about your imperfections\nYou might win one battle\nBut know this: I'll win the fucking war!", 'annotations': {'description': '&lt;p&gt;The Way of the Fist was the title track for American groove metal band, Five Finger Death Punch’s debut album, released in 2007.  The song is considered one of their heaviest songs by many fans of the band.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/b025aa3baa3e3bd4789759b44a6b58a0.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-the-bleeding-lyrics', 'lyrics': "[Intro/Guitar Solo]\n\n[Verse 1]\nI remember when all the games began\nRemember every little lie and every last goodbye\nPromises you broke, words you choked on\nAnd I never walked away\nIt's still a mystery to me\n\n[Pre-Chorus]\nWell, I'm so empty\nI'm better off without you and you're better off without me\nWell, you're so unclean\nI'm better off without you and you're better off without me\n\n[Chorus]\nThe lying, the bleeding, the screaming\nWas tearing me apart\nThe hatred (deceiving), the beatings; it's over\n\n[Verse 2]\nPaint the mirrors black to forget you\nI still picture your face (still picture your face)\nAnd the way you used to taste (way you used to taste)\nRoses in a glass, dead and wilted\nTo you, this all was nothing\nEverything to you is nothing\n[Pre-Chorus]\nWell, you're so filthy\nI'm better off without you and you're better off without me\nWell, I'm so ugly\nYou're better off without me and I'm better off alone\n(Right!)\n\n[Chorus]\nThe lying, the bleeding, the screaming\nWas tearing me apart\nThe hatred, the beatings (disaster); it's over\n\n[Bridge]\n(Why?) As wicked as you are\nYou're beautiful to me\n(Why?) You're the darkest burning star\nYou're my perfect disease\n\n[Chorus]\nThe lying, the bleeding, the screaming\nWas tearing me apart\nThe hatred, the beatings; it's over\nDisaster\nThe lying, the bleeding, the screaming\nWas tearing me apart\nThe hatred, the beatings; it's over\nDisaster\n[Outro]\nIt's over now...", 'annotations': {'description': '&lt;p&gt;This is one of Five Finger Death Punch’s first and biggest hits. The song is off of their Way Of The Fist album. In the song Ivan talk about his relationship with a girl from Ohio, that ends in shambles and pain, because of the trickery and dishonesty in the relationship.&lt;/p&gt;', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-white-knuckles-lyrics', 'lyrics': '[Intro]\nOh, fuck it all!\n\n[Verse 1]\nSick of being sick and tired, sick of understanding\n(Fuck it all...) Tired of feeling sick to my stomach\nDemons inside command me\nThey\'re saying, "Crush it, break it, smash it\nFucking kill \'em all!"\nLaugh as it falls away\nI won\'t dodge another silver bullet\nJust to save a little face\n\n[Chorus 1]\nI want you to know, I want you to see\nI want you to look beyond your own eyes\nPast your afflictions\n\n[Verse 2]\nHow many people really care?\nHow many will be standing?\nI\'ll light the match, the flame, the fuse, the bomb\nRescue the world from slavery\nI want to torch it, burn it, scorch it, fuckin\' stomp it out\nLaugh as it blows away\nI won\'t eat another rotten apple\nThough I\'ve grown to like the taste\n[Chorus]\nI want you to know, I want you to see\nI want you to look beyond your own eyes\nPast your afflictions\nI want you to hurt, want you to bleed\nI want you to look beyond your own face\nPast your infections\n\n[Bridge]\nI\'m taking back control with my knuckles\nI\'m taking back control with my knuckles\nI\'m taking back control with my knuckles\nI\'m taking back control with my knuckles\n\nSmash it, burn it, break it, kill it\nFuck \'em all!\n\n[Chorus 1]\nI want you to know, I want you to see\nI want you to look beyond your own eyes\nPast your afflictions\nI want you to hurt, want you to bleed\nI want you to look beyond your own face\nPast your infections', 'annotations': {'description': '', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Darrell Roberts', 'url': 'https://genius.com/artists/Darrell-roberts'}, {'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-death-before-dishonor-lyrics', 'lyrics': "[Verse 1]\nTo the haters, the takers, the liars, all the vultures\nAnd the bottom-feeding scum\nThe FCC, the FBI, and every tin god\nWith a badge and a gun\nYou talk and talk, you preach and bitch\nBut your words don't mean a thing\nYou get what you give, you give what you get\nJust the way it's always been\n\n[Chorus]\nI choose death before dishonor\nI'd rather die than live down on my knees\nBury me like a soldier, with my dignity!\n\n[Verse 2]\nYou imitate the ostracized\nPut your head beneath the sand\nYour cup it runneth over\nMust be rough to live so grand\nYou reap what you sow, you pay what you owe\nUnless you bathe yourself in greed\nYou rob and you take, your world is fake\nThere's no honor amongst the thieves\n\n[Chorus]\nI choose death before dishonor\nI'd rather die than live down on my knees\nBury me like a soldier, with my dignity!\n[Bridge]\nFuck!\nYou're self-righteous, self-pretentious\nYour ways are not for me\nYou're deluded, so confused\nYour world I dominate\n\n[Chorus]\nI choose death before dishonor\nI'd rather die than live down on my knees\nBury me like a soldier...\n\n[Outro]\nBury me! (Bury me!)\nBury me! (Bury me!)\nBury me!\n\nWith my dignity!", 'annotations': {'description': '', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Darrell Roberts', 'url': 'https://genius.com/artists/Darrell-roberts'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-meet-the-monster-lyrics', 'lyrics': "[Verse 1]\nIt's not that complicated, and you ain't gotta believe\nThey'll put me down in a hole before I let you succeed\nI've never been complacent, I can't afford to be\nI know you think you're special, but you ain't nothin'\n\n[Pre-Chorus]\nCan you read between the lines?\nOr are you stuck in black and white?\nHope I'm on the list of people that you hate\nIt's time you met the monster that you have helped create\nBoo!\n\n[Chorus]\nYou've pushed me one too many times\nI'm sick of all of the fiction; we're gonna settle it\nYou've pushed me one too many times\nI'm sick of all of the shit; I'm gonna settle it!\n\n[Verse 2]\nIt's not that complicated, and you ain't gotta believe\nThey'll put me down in a hole before I let you succeed\nI've never been complacent, I can't afford to be\nI know you think you're special, but you ain't nothin'\n\n[Pre-Chorus]\nWell, there's nothing you can say to me now\nAnd there's nothing you can do to stop me\nIt's hard not to be a menace to society\nWhen half the population is happy on their knees\n[Chorus]\nYou've pushed me one too many times\nI'm sick of all of the fiction; we're gonna settle it\nYou've pushed me one too many times\nI'm sick of all of the shit; I'm here to settle it!\n\n[Verse 3]\n'Cause I can't take it anymore\nI refuse to live this way\nIt's not that I don't care enough\nIt's not that I can't see\nIt's everything inside of me\nThat won't let me be you\nIt won't let me be you!\nHa-ha-ha\n\n[Verse 4]\nIt's not that complicated, and you ain't gotta believe\nThey'll put me down in a hole before I let you succeed\nI've never been complacent; I can't afford to be\nI know you think you're special, but you ain't nothin'\nNo, you ain't nothin'\nAnd you'll never succeed\nI know you think you're special\nBut you ain't nothin'\n[Outro]\nBut you ain't nothin'!", 'annotations': {'description': '', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-never-enough-lyrics', 'lyrics': '[Verse 1]\nI\'m so fed up with everyone around me\nNo one seems to care\nI\'m just so far gone and nothing\'s gonna change\nI\'ll never be the same\n\n[Pre-Chorus 1]\nIt\'s always "Do this," "Do that," everything they want to\nI don\'t want to live that way (No!)\nEvery chance they get, they\'re always pushing me away\n\n[Chorus]\nIt\'s never enough; no, it\'s never enough\nNo matter what I say\nIt\'s never enough; no, it\'s never enough\nI\'ll never be what you want me to be\n\n[Verse 2]\nIt\'s all so messed up and no one ever listens\nEveryone\'s deranged\nI\'m just so fucked up and I\'m never gonna change\nI wanna lay it all to waste\n\n[Pre-Chorus 2]\nThey\'re always "Say this," "Say that," nothing that you want to\nI don\'t want to live that way (No!)\nEvery chance they get, they’re always shoving me aside\n[Chorus]\nIt\'s never enough; no, it\'s never enough\nNo matter what I say\nIt\'s never enough; no, it\'s never enough\nI\'ll never be what you want me to be\nI\'m done!\n\n[Bridge]\nIn the end, we\'re all just chalk lines on the concrete\nDrawn only to be washed away\nFor the time that I\'ve been given\nI am what I am\nI\'d rather hate you for everything you are\nThan ever love you for something you are not\nI\'d rather you hate me for everything I am\nThan have you love me for something that I can\'t\n\n[Chorus/Outro]\nIt\'s never enough, it\'s never enough\nNo matter what I say\nIt\'s never enough; no, it\'s never enough\nNo matter who I try to be\nIt\'s never enough; no, it\'s never enough\nNo matter how I try to taste\nIt\'s never enough, never, never enough\nI\'ll never be what you want me to be', 'annotations': {'description': '&lt;p&gt;“Never Enough” is a song by American heavy metal band Five Finger Death Punch. It was included as a bonus track on the re-release of their debut album, The Way of the Fist. It was also made available on the band’s website to anyone who had purchased the a copy of the original release of the album. It was released as the second single from The Way of the Fist on July 15, 2008. The song peaked at number nine on the Billboard Mainstream Rock Tracks chart.&lt;/p&gt;', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Darrell Roberts', 'url': 'https://genius.com/artists/Darrell-roberts'}, {'name': 'Leopold Ross', 'url': 'https://genius.com/artists/Leopold-ross'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-american-capitalist-lyrics', 'lyrics': "[Verse 1]\nI'm a red-blooded, roughneck son of a bitch\nI'm a goddamned American capitalist\nI've got a kill-'em-all, give-a-shit license to hate\nI'm that one-shot, one-kill bringer of fate\n\n[Chorus]\nI don't wanna believe I'm empty\nI don't wanna admit I'm wrong\nI don't wanna regret who I've become\nWhere I belong\nI'm an American capitalist\nAmerican capitalist\n\n[Verse 2]\nYeah, war is the answer\nLike I told you before\nYou're a coward with no power\nJust a stain on the floor\nIf you're a man, be a man\nAnd stop runnin' your lips...\nRound 3—no mercy\nIt's the way of the fist\n\n[Chorus]\nI don't wanna believe I'm empty\nI don't wanna admit I'm wrong\nI don't wanna regret who I've become\nWhere I belong\nI'm an American capitalist\nAmerican capitalist\n[Guitar Solo]\n\n[Chorus]\nI don't wanna believe I'm empty\nI don't wanna admit I'm wrong\nI don't wanna regret who I've become\nWhere I belong\nI'm an American capitalist\nAmerican capitalist\n\n[Outro]\nAmerican", 'annotations': {'description': '', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-under-and-over-it-lyrics', 'lyrics': "[Intro]\nYeah, go!\n\n[Verse 1]\nDid you hear the one about me being a punk?\nDid you hear the one about me being a drunk?\nDid you hear the one about me losing my nerve?\nOr how I'm just another fuckin' sheep in the herd?\nDid you hear about the money, how it made me change?\nSo funny to me, all the time that they waste\nDid you hear the one about me giving a shit?\n'Cause if I ever did, I don't remember it\n\n[Chorus]\nYou can be me and I will be you\nYou can live just like a star\nI'll take my sanity; you take the fame\nI'm under it, over it all\nI'm under and over it\n\n[Verse 2]\nDid you hear the one about me playing the game?\nSelling my soul and changing my name?\nDid you hear the one about me being a prick?\nDid you know I don't care, and you can suck my—?\nDid you hear the one about me trying to die?\nFist in the air and a finger to the sky?\nDo I care if you hate me? Do you wanna know the truth?\nC'est la vie, adiós, good riddance, fuck you\n[Chorus]\nYou can be me and I will be you\nYou can live just like a star\nI'll take my sanity; you take the fame\nI'm under it, over it all\nI'm under and over it\n\n[Bridge]\nI—I—I'm under and over it\nI—I—I'm under and over it\nI—I—I'm under and over it\nI—I—I'm under and over it\n\n[Chorus]\nYou can be me and I will be you\nYou can live just like a star\nI'll take my sanity; you take the fame\nI'm under it, over it all\nI'm under and over it\n\n[Outro]\nI’m under it, over it all\nI’m under and over it\nI—I—I'm under and over it\nI—I—I'm under and over it", 'annotations': {'description': '&lt;p&gt;Vocalist Ivan Moody explained the song’s meaning to Revolver magazine: “This one is about the rumors and gossip that go on everywhere – especially online. It’s comical to see how much crazy, ill-informed\u200b shit people will post as news and when they’re trolling around message boards. In today’s day and age, speculation and bad info can just fly around the internet and catch fire – even when it’s completely false and unfounded. Funny shit.”&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-the-pride-lyrics', 'lyrics': '[Intro]\nHey-yeah\nHey-yeah\nHey-yeah, oh\nHey-yeah\nHey-yeah\nHey-yeah, oh\n\n[Verse 1]\nJohnny Cash and PBR, Jack Daniel\'s, NASCAR\nFacebook, Myspace, iPod, Bill Gates\nSmith &amp; Wesson, NRA, Firewater, Paleface\nDimebag, 2Pac, heavy metal, hip-hop\n\n[Breakdown]\nI am what you fear most\nI am what you need\nI am what you made me\nI am the American Dream\n\n[Pre-Chorus]\nI\'m not selling out; I\'m buying in\n\n[Chorus]\nI will not be forgotten\nThis is my time to shine\nI\'ve got the scars to prove it\nOnly the strong survive\nI\'m not afraid of dying\nEveryone has their time\nLife never favored weakness\nWelcome to the pride\n[Verse 2]\nDisneyland, White House, JFK, and Mickey Mouse\nJohn Wayne, Springsteen, Eastwood, James Dean\nCoca-Cola, Pepsi, Playboy, "text me"\nNFL, NBA, Brett Favre, King James\n\n[Breakdown]\nI am all-American\nI am living the dream\nI am what you fear most\nI am anarchy\n\n[Pre-Chorus]\nI\'m not selling out; I\'m buying in\n\n[Chorus]\nI will not be forgotten\nThis is my time to shine\nI\'ve got the scars to prove it\nOnly the strong survive\nI\'m not afraid of dying\nEveryone has their time\nLife never favored weakness\nWelcome to the pride\n\n[Interlude]\nSince the dawn of time\nOnly the strong have survived\nI will not be forgotten\nWelcome to the pride\n[Guitar Solo]\n\n[Breakdown]\nHey-yeah\nHey-yeah\nHey-yeah, oh (Only the strong survive)\nHey-yeah\nHey-yeah\nHey-yeah, oh (Welcome to the pride)\n\n[Chorus]\nI will not be forgotten\nThis is my time to shine\nI\'ve got the scars to prove it\nOnly the strong survive\nI\'m not afraid of dying\nEveryone has their time\nLife never favored weakness\nWelcome to the pride', 'annotations': {'description': '&lt;p&gt;This is a song that depicts the band’s idea about The American Dream and capitalism, what it’s about and which companies has accomplished it and entered “The Pride”.&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-coming-down-lyrics', 'lyrics': "[Verse 1]\nIt's caving in around me\nWhat I thought was solid ground\nI tried to look the other way\nBut I couldn't turn around\nIt's okay for you to hate me\nFor all the things I've done\nI've made a few mistakes\nBut I'm not the only one\n\n[Pre-Chorus]\nStep away from the ledge\nI'm coming down\n\n[Chorus]\nI could never be what you want me to\nYou pull me under to save yourself (Save yourself)\nYou will never see what's inside of me\nI pull you under just to save myself\n\n[Verse 2]\nWas there ever any question\nOn how much I could take?\nYou kept feeding me your bullshit\nHoping I would break\nIs there anybody out there?\nIs there anyone who cares?\nIs there anybody listening?\nWill they hear my final prayers?\n[Pre-Chorus]\nStep away from the ledge\nI'm coming down\n\n[Chorus]\nI could never be what you want me to\nYou pull me under to save yourself (Save yourself)\nYou will never see what's inside of me\nI pull you under just to save myself (Save myself)\n\n[Bridge]\nIt's caving in around me\n(Caving in)\nIt's tearing me apart\n(Tearing me)\nIt's all coming down around me\n(Coming down)\nDoes anyone, anyone care at all?\n\n[Refrain]\nI will never be what you want me to\nYou pull me under; I pull you under\n\n[Guitar Solo]\n\n[Chorus]\nI could never be what you want me to\nYou pull me under to save yourself (Save yourself)\nYou will never see what's inside of me\nI pull you under just to save myself", 'annotations': {'description': '&lt;p&gt;This musical suicide note was released as the third single from American Capitalist. The song was Five Finger Death Punch’s thirteenth single overall.&lt;br&gt;\nIvan Moody sings on the chorus, “Step away from the ledge. I’m coming down.” The band partnered with the National Suicide Prevention Lifeline in conjunction with the single’s release. Part of their promotion, which is aimed at awareness about suicide prevention among FFDP’s fans, involves the song’s music video, which concludes with a call to action alongside the lifeline’s national phone number. The music video is towards teen suicide.&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-menace-lyrics', 'lyrics': "[Intro]\nOh, yeah!\nFuck it!\nYeah!\n\n[Verse 1]\nOoh! I got a killer's blood\nBurning deep inside my veins (Down in my veins)\nDon't expect you to understand\nI was born without a name (No name)\nI see right through you\nYour opinions are a fuckin' joke [laughing]\nI crucify you\nOn a silver spoon, I hope you choke\n\n[Chorus]\nI'm tired of trying to please the world that spins around me\nThis time, I'm doing it for me and me alone\nI don't need anyone—don't think I ever did\nNot trying to be selfish—just doing what I know\nI'm a menace\nRight\n\n[Verse 2]\nOoh! I'll fade the fuck away\nSwear to God that I don't care (I swear to Christ)\nI'll die a lonely death\n'Cause I know that life ain't fair (It ain't fair at all)\nI can't pretend that I am\nSomeone that I'm not\nI live for me, myself\nYou can't convince me that I'm wrong\n[Chorus]\nI'm tired of trying to please the world that spins around me\nThis time, I'm doing it for me and me alone\nI don't need anyone—don't think I ever did\nNot trying to be selfish—just doing what I know\nI'm a menace\nRight! Yeah!\n\n[Guitar Solo]\n\n[Chorus]\nI'm tired of trying to please the world that spins around me (Why?)\nThis time, I'm doing it for me and me alone (All for me)\nI don't need anyone—don't think I ever did\nNot trying to be selfish—just doing what I know\nI'm a menace\n\nI'm tired of trying to please the world that spins around me (Why?)\nThis time, I'm doing it for me and me alone (All for me)\nI don't need anyone—don't think I ever did\nNot trying to be selfish—just doing what I know\nI'm a menace\n\n[Outro]\nFucking menace\nA menace", 'annotations': {'description': '&lt;p&gt;This song is about is about someone finally not being able to take it anymore. They’re done with not being appreciated for their efforts, and they are ready to kill someone. I could really read into this, but that seems to be the surface level of the song.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-generation-dead-lyrics', 'lyrics': "[Verse 1]\nI look around and all I see is evil\nThe walking dead disguised as real people\nIt's kill or be killed, 'cause life is not forever\nIt comes apart and then it falls together\n\n[Pre-Chorus]\nI am what you made me\nTill death do I part\n\n[Chorus]\nIt's the world I've grown to know\nUnforgiving and so cold\nTake it away, take it away\nI don't want it\nIt's a life I'm forced to live\nI've got nothing more to give\nTake it away, take it away\nI don't want it anymore\nWe're Generation Dead\nWe're dead\n\n[Verse 2]\nYou see yourself as such a fucking shepherd\nBut you trip the blind and then you curse the leper\nDo you really want my true opinion?\nYou've taken more than you've ever given\n[Pre-Chorus]\nYou are what you are\nUntil death do you part\n\n[Chorus]\nIt's the world I've grown to know\nUnforgiving and so cold\nTake it away, take it away\nI don't want it\nIt's a life I'm forced to live\nI've got nothing more to give\nTake it away, take it away\nI don't want it anymore\nGeneration Dead\n\n[Guitar Solo]\n\n[Refrain]\nIt's the world I've grown to know\nUnforgiving and so cold\nTake it away, take it away\nI don't want it\n\n[Chorus]\nIt's a life I'm forced to live\nI've got nothing more to give\nTake it away, take it away\nI don't want it anymore\nIt's the world I've grown to know\nUnforgiving and so cold\nTake it away, take it away\nI don't want it\nIt's a life I'm forced to live\nI've got nothing more to give\nTake it away, take it away\nI don't want it anymore\nWe're Generation Dead\nWe're dead", 'annotations': {'description': '&lt;p&gt;‘Generation Dead’ is implying that the new generation of children are going to be, and already are zombies, mindlessly drooling over their phones.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-back-for-more-lyrics', 'lyrics': "[Verse 1]\nLet's get it on\nIt's time to get in the game\nYou gotta fight till it hurts\nAnd then you do it again\nLet's tear it up\nI'm saying straight to the core\nAin't no room for second place\nGo big or go home\n\n[Pre-Chorus]\nRise\nIt's dog-eat-dog\nRise\nMan versus beast\nRise\nThe strong will survive\nRise\nI've got no time for the weak\n\n[Chorus]\nIt's time to rise up, man up, get back up\nI've never been and won't be broken\nDust off and then\nCome back for more\nYou've gotta reach down, dig deep, break ground\nShow them all you won't be beaten\nBrush it off and then\nCome back for more\nCome back for more\n[Verse 2]\nIt's do or die\nTime to settle the score\nGotta give it all you got\nAnd then you give it some more\nThere will be blood\nYou gotta fight till you break\nTalk a lot of trash\nNow step up to the plate\n\n[Pre-Chorus]\nRise\nRefuse to give in\nRise\nAshes to dust\nMake them remember your name\n'Cause in yourself, you can trust\n\n[Chorus]\nIt's time to rise up, man up, get back up\nI've never been and won't be broken\nDust off and then\nCome back for more\nYou've gotta reach down, dig deep, break ground\nShow them all you won't be beaten\nBrush it off and then\nCome back for more\nCome back for more\nRah!\n\n[Solo]\n\n[Chorus]\nIt's time to rise up, man up, get back up\nI've never been and won't be broken\nDust off and then\nCome back for more\nYou've gotta reach down, dig deep, break ground\nShow them all you won't be beaten\nBrush it off and then\nCome back for more\nCome back for more\n\n[Outro]\nRah!", 'annotations': {'description': '&lt;p&gt;This was the seventh single release on the album American Capitalist in 2011. This song could mean a number of things. That might’ve been intended by FFDP when they wrote the song. It could be related to getting back up and trying harder and harder, or about getting knocked down by life and getting back up.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-wicked-ways-lyrics', 'lyrics': '[Verse 1]\nI should have seen this from a mile away\nI should\'ve never let you get that deep inside\nYou\'re an actress—I can\'t believe a word\nYou\'d say anything to get anywhere in life\n\n[Pre-Chorus]\nStumble back to where you came from\n\n[Chorus]\nWide awake—and falling on your face\nYou\'ve got an evil, wicked way of saying, "I love you"\nI\'d love to\nTear away from everything you are\nYou\'ve got an evil, wicked way about you\nI hate you\n\n[Verse 2]\nLike a virus that spread throughout my veins\nYou\'re incurable—and such a waste of time\nYou\'re an angel, but only in your head\nYou\'d hurt anyone to get everything in life\n\n[Pre-Chorus]\nSlither back to where you came from\n[Chorus]\nWide awake—and falling on your face\nYou\'ve got an evil, wicked way of saying, "I love you"\nI\'d love to\nTear away from everything you are\nYou\'ve got an evil, wicked way about you\nI hate you\n\n[Bridge]\nWho do you think you are?\nWho do you think you are?\nWho do you think you are?\nWho do you think—you are?\n\nWho do you think you are? (So cold)\nWho do you think you are? (So cold)\nWho do you think you are? (So cold)\nWho do you think—you are?\n\n[Chorus]\nWide awake—and falling on your face\nYou\'ve got an evil, wicked way of saying, "I love you"\nI\'d love to\nTear away from everything you are\nYou\'ve got an evil, wicked way about you\nI hate you\n[Outro]\nWho do you think you are?\nWho do you think you are?\nWho do you think you are?\nWho do you think—you are?', 'annotations': {'description': '', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-100-ways-to-hate-lyrics', 'lyrics': "[Verse 1]\nHate your goddamn, motherfuckin'\nShitty-ass band\nHate the way you've got my back\nWhile you're holding out your hand\nHate the way you pussies talk shit\nHiding on the Web\nJust the fact you think you know me\nMakes me fucked up in the head\n\nHate your nails—hate your hair\nHate the fact I even care\nHate the way you said you loved me\nBut you fuckin' weren't there\nHate your friends—hate your folks\nIt's a stupid fuckin' hoax\nHate the way I tried to change\nWhen the whole thing was a joke\n\n[Chorus]\nI hate you—that's an understatement\nI hate you—for who you are\nI hate you—and all you stand for\nI don't care anymore\nI gave you 100 chances\nYou gave me a hundred ways to hate\n[Verse 2]\nHate your face—hate your lies\nHate the blank look in your eyes\nHate your needs—hate your wants\nHate the way you love to taunt\nHate your voice—makes me cringe\nEvery time I hear you speak\nIt's uncomfortable to know\nYou share the same air as me\n\nHate your lack of common sense\nAnd I'm tired of compromising\nTake a good look at the end\n'Cause it's just on the horizon\nI've been wrong about a lot of shit\nThis I know is true\nThere's a hundred fuckin' things\nThat I hate about you\n\n[Chorus]\nI hate you—that's an understatement\nI hate you—for who you are\nI hate you—and all you stand for\nI don't care anymore\nI gave you 100 chances\nYou gave me a hundred ways to hate\n[Outro]\nI hate you—100 ways\nI don't care—100 ways to hate\nI gave you a million chances\nYou gave me a hundred ways to hate\nA hundred ways\nA hundred ways to hate", 'annotations': {'description': '&lt;p&gt;Basically, he’s speaking in every way he hates this person.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-lift-me-up-lyrics', 'lyrics': "[Verse 1: Ivan Moody]\nIt ain't no mystery I'm all I have left\nI'm pushing back and runnin' you over\nI've been thrown down—run around\nBeaten till I hit the ground\nTelling you right now that it's over\n\nThere's no room for mistakes\nAll the parts are in place\nSay what you will, but say it to my face\nBetter back the fuck up\nBetter shut the fuck up\nI'll do what I want—and I'll never give up\n\n[Pre-Chorus]\nI—won't be broken\nI—won't be tortured\nI—won't be beaten down\nI—have the answers\nI—take the pressure\nI—turn it all around\n\n[Chorus]\nLift me up above this\nThe flames and the ashes\nLift me up and help me to fly away\nLift me up above this\nThe broken—the empty\nLift me up and help me to fly away\n(Lift me up!)\n[Verse 2: Rob Halford]\nI'm gonna change history\nEnlighten the world\nTeach 'em how to see through my eyes\nI'm gonna lash back—check that\nFatal as a heart attack\nStomp out all the ugliest lies\n\nYou can't convince me to change\nWe ain't on the same page\nI've had my fill—now there's nothing but rage\nBest get out of my way\n'Cause there's nothing to say\nIs that all that you got? Because I ain't got all day\n\n[Pre-Chorus]\nI—won't be broken\nI—won't be tortured\nI—won't be beaten down\nI—have the answers\nI—take the pressure\nI—turn it all around\n\n[Chorus]\nLift me up above this\nThe flames and the ashes\nLift me up and help me to fly away\nLift me up above this\nThe broken—the empty\nLift me up and help me to fly away\nLift me up above this\nThe flames and the ashes\nLift me up and help me to fly away\nLift me up above this\nThe broken—the empty\nLift me up and help me to fly away\n(Lift me up!)\n\n[Solo]\n\n[Pre-Chorus]\nI—won't be broken\nI—won't be tortured\nI—won't be beaten down\nI—have the answers\nI—take the pressure\nI—turn it all around\n\n[Chorus]\nLift me up above this\nThe flames and the ashes\nLift me up and help me to fly away\nLift me up above this\nThe broken—the empty\nLift me up and help me to fly away\n[Outro]\n(Lift me up!) To fly away\n(Lift me up!) To fly away\n(Lift me up!)", 'annotations': {'description': '&lt;p&gt;The opening track for &lt;a href="https://genius.com/artists/Five-finger-death-punch" rel="noopener" data-api_path="/artists/19975"&gt;Five Finger Death Punch&lt;/a&gt;’s &lt;em&gt;Wrong Side of Heaven and the Righteous Side of Hell, Vol.1&lt;/em&gt; featuring metal god Rob Halford of &lt;a href="https://genius.com/artists/Judas-priest" rel="noopener" data-api_path="/artists/17236"&gt;Judas Priest&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;FFDP performed this song at the Golden Gods Awards (Grammys for metal), with Rob Halford himself, an experience which the band spoke on:&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?v=LB1zwyNeos4" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=LB1zwyNeos4&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-watch-you-bleed-lyrics', 'lyrics': "[Intro/Chorus]\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to watch you—just to watch you bleed\n\n[Verse 1]\nI see through you and all your lies\nYou are everything that I despise\nYou won't take shit when you leave\nWhat the hell do you want from me?\n\n[Pre-Chorus]\nI'm over it—so over it\nThis is goodbye\n\n[Chorus]\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to make you—just to watch you bleed\n\n[Verse 2]\nI know you better than you do\nI'm to fucking blame, so are you\nIt won't kill me to watch you leave\nWhat the fuck do you want from me?\n[Pre-Chorus]\nI'm over it—so over it\nThis is goodbye\n\n[Chorus]\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to make you—just to watch you bleed\n\n[Refrain]\nJust to make you—just to watch you\nJust to make you—just to watch you bleed\n\n[Solo]\n\n[Hook]\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to make you—just to watch you bleed\n\n[Chorus]\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to make you—just to watch you bleed\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to make you—just to watch you bleed\n\n[Outro]\nI'd give blood...", 'annotations': {'description': '', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-you-lyrics', 'lyrics': "[Verse 1]\nI'm\nNever gonna live—never gonna give\nNever gonna die your way\nFuck, no! Go away!\n\nNever gonna try—never wonder why\nNever gonna change\nNo—say it—what\n\nNever understand—never gave a damn\nNever see it through your eyes\nFuck you—no way\n\nNever understand, never lend a hand\nNever see it through my eyes\n\n[Pre-Chorus]\nThere's a fire within—hate to admit it\nBut I always knew\nViolence and sin—keeps me fearless\nKeeps me from being...\n\n[Chorus]\nYou—so dated\nYou—outdated\nYou—so fading away\nYou—can't take it\nYou—just fake it\nYou—are just in my way\nI don't give a fuck about you!\n\n[Verse 2]\nI'm\nNever gonna quit—never gave a shit\nNever gonna walk away\nFuck you! All day\n\nNever gonna drop—never gonna stop\nNever gonna fall\nNo—what—say it\n\nNever understood—never really could\nNever saw it through your eyes\nFuck off—no way\n\nNever understand, never give a damn\nNever gonna change my mind\n\n[Pre-Chorus]\nThere's a fire within—hate to admit it\nBut I always knew\nViolence and sin—keeps me fearless\nKeeps me from being...\n\n[Chorus]\nYou—so dated\nYou—outdated\nYou—so fading away\nYou—can't take it\nYou—just fake it\nYou—are just in my way\nI don't give a fuck about you!\n\n[Post-Chorus]\nOoh!\nWhat!\nStand the fuck up!\n\n[Solo]\n\n[Bridge]\nI don't give a fuck about...\n\n[Chorus]\nYou—so dated\nYou—outdated\nYou—so fading away\nYou—can't take it\nYou—just fake it\nYou—are just in my way\n\nYou—so dated\nYou—outdated\nYou—so fading away\nYou—can't take it\nYou—just fake it\nYou—are just in my way\n[Outro]\nI don't give a fuck\nDon't give a fuck\nDon't give a fuck about you!", 'annotations': {'description': '&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/-2cxlrfOGyI?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;&lt;br&gt;\nthe last video was down', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-burn-mf-lyrics', 'lyrics': "[Verse 1]\nMy heart is frozen\nMy soul's been broken\nThe whole world's on my motherfucking shoulders\nAnd I can't seem to control it\n\nI can't contain it\nAnd I just don't give a shit\nYou need to feel the way that I feel\nOr you'll never fucking know it\n\n[Chorus]\nBurn, motherfucker—burn, motherfucker—burn\nYou try, but you can't reach me\nBurn, motherfucker—burn, motherfucker—burn\nThere's nothing you can teach me\n\nIn hell, motherfucker—burn, motherfucker—burn\nI swear you're out to get me\nBurn, motherfucker—burn, motherfucker—burn\nI'd live, but you won't let me\nBurn!\n\n[Verse 2]\nYour life's been wasted\nYou'll die forsaken\nYou act like the world's on your shoulders\nBut it's not there, so you fake it\nDo you embrace it?\nHow do you take it?\nI'll never feel the way that you feel\nI'd rather fucking break it\n\n[Chorus]\nBurn, motherfucker—burn, motherfucker—burn\nYou try, but you can't reach me\nBurn, motherfucker—burn, motherfucker—burn\nThere's nothing you can teach me\n\nIn hell, motherfucker—burn, motherfucker—burn\nI swear you're out to get me\nBurn, motherfucker—burn, motherfucker—burn\nI'd live, but you won't let me\n\n[Refrain]\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker!\n\n...Burn\nBurn\nBurn!\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker!\n\n[Chorus]\nBurn, motherfucker—burn, motherfucker—burn\nYou try, but you can't reach me\nBurn, motherfucker—burn, motherfucker—burn\nThere's nothing you can teach me\n\nIn hell, motherfucker—burn, motherfucker—burn\nI swear you're out to get me\nBurn, motherfucker—burn, motherfucker—burn\nI'd live, but you won't let me\n\n[Outro]\nBurn!\nBurn!", 'annotations': {'description': '', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-im-sin-lyrics', 'lyrics': "[Verse 1]\nYou're a fuckin' poser\nThat's all you'll ever be\nDon't get any closer\nOr you'll meet the real me\n\nI am who I am\nYou can't describe me\nI am what I am\nYou can't deny me (No!)\n\n[Chorus]\nI want out\nBut I could never surrender\nTry and break me down\nBut I won't let you in\nYou can call me out\nBut I know you're a pretender\nYou may think you're god\nBut I know that I.M. Sin\nI.M. Sin\n\n[Hook]\nI.M. Sin\nI.M. Sin\nI.M. Sin\n[Verse 2]\nI won't fucking buy it\nI never have and I never will\nKeep fucking trying\nI'm just waiting for the blood to spill\n\nYou are who you are\nI can't explain it\nYou are what you are\nTo me, you're not shit (No!)\n\n[Chorus]\nI want out\nBut I could never surrender\nTry and break me down\nBut I won't let you in\nYou can call me out\nBut I know you're a pretender\nYou may think you're god\nBut I know that I.M. Sin\nI.M. Sin\n\n[Bridge]\n...If there was ever a time\nYou needed to walk the fuck away\nIt's right fucking now\nRight fucking here\nYeah! Burn!\n[Solo]\n\n[Chorus]\nI want out\nBut I could never surrender\nTry and break me down\nBut I won't let you in\nYou can call me out\nBut I know you're a pretender\nYou may think you're god\nBut I know that I.M. Sin\nI.M. Sin\n\n[Outro]\nI.M. Sin\nI.M. Sin\nI.M. Sin", 'annotations': {'description': '&lt;p&gt;Cavalrea cut his part in his native language as per the band’s instructions. “The funny thing is that when he sent it back to me, he sang his parts in Portuguese and nobody told me that,” recalled Moody, “so I’m sitting the studio and I’m listening back to the track and I ask, ‘Did he change the fu–ing lyrics? Did he not like the song?’ Zoltan [Bathory, guitar] was sitting next to me, and he says, ‘Dumbass, it’s in Portuguese.’ And I was like, ‘Ohh! That’s great.’”&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-anywhere-but-here-lyrics', 'lyrics': "[Verse 1]\nSome say a storm is coming\nSome say the end is near\nSome think it's all so hazy\nI think it's all so clear\nIf it all ends tomorrow\nIf it all disappears\nWhere do you think you're going?\nAnywhere else but here\n\n[Pre-Chorus]\nI don't claim to have the reasons\nAll I know is...\n\n[Chorus]\nIf the world stops spinning tomorrow\nI'd never shed a tear\nI'd rather be anywhere, anywhere\nAnywhere but here\n\n[Verse 2]\nSome say they have the answers\nSome say they know the truth\nSome people live in question\nSome people have no clue\nIf there was no tomorrow\nIf there was just today\nWould you make different choices\nOr would you stay the same?\n\n[Pre-Chorus]\nI don't claim to have the reasons\nAll I know is...\n\n[Chorus]\nIf the world stops spinning tomorrow\nI'd never shed a tear\nI'd rather be anywhere, anywhere\nAnywhere but here\n\n[Solo]\n\n[Bridge: Ivan Moody / Maria Brink]\n(Here)\nIf there was no tomorrow\n(Anywhere but here)\nIf there was no tomorrow\n(Anywhere but here)\nIf there was no tomorrow\n(Anywhere but here)\nWould you stay?\nWould you stay?\nJust stay\nIf there was no tomorrow\nIf there was no tomorrow\nIf there was no tomorrow\nWould you stay?\nWould you stay\nThe same?\n\n[Outro: Ivan / Maria]\nIf the world stops spinning tomorrow\nI'd never shed a tear\nI'd rather be anywhere, anywhere\nAnywhere\n\nIf the world stops spinning tomorrow\nI'd never shed a tear\nI'd rather be anywhere, anywhere\nAnywhere but here", 'annotations': {'description': '&lt;p&gt;One of the many tracks on &lt;em&gt;Righteous Side of Heaven and the Wrong Side of Hell Vol. 1&lt;/em&gt; to feature a guest artist. This track has the guest work of singer Maria Brink of &lt;a href="http://en.wikipedia.org/wiki/Metalcore" rel="noopener nofollow"&gt;metalcore&lt;/a&gt; band In This Moment.&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-dot-your-eyes-lyrics', 'lyrics': "[Intro]\nBring it!\n\n[Verse 1]\nMy life is perfect—so you believe\nAre you that stupid? 'Cause I strongly disagree\nI'm not a martyr—more like a thief\nYour rules are twisted, and they don't affect me\n\nYou saw me comin'—so why you runnin'?\nWhat's the matter? It's just little old me\nI know your kind—you're fuckin' blind\nI give a shit—don't give a shit about anything\n\n[Chorus]\nThere ain't nothin' in this world for free\nThere's not a man—not a man I believe\nGive a rat's ass what you think about me\nI'll dot your eyes and cross your fuckin' teeth (Bring it!)\n\n[Verse 2]\nYou're just a trend—it's gotta end\nI stand in place while you motherfuckers bend\nYou own a clock? Your time is up\nYou bottom feeders, it's just time to give up\nReady to throw down—this is a showdown\nYou get the memo? 'Cause it's all about to go down\nI know I'm twisted—I can't resist it\nI give a shit—don't give a shit about anything\n[Chorus]\nThere ain't nothin' in this world for free\nThere's not a man—not a man I believe\nGive a rat's ass what you think about me\nI'll dot your eyes and cross your fuckin' teeth (Bring it!)\n\nThere's nothin' in this world for me\nI gave away, gave away fuckin' everything\nThis is the man that I'm choosing to be\nI'll dot your eyes and cross your fuckin' teeth (Bring it!)\n\n[Bridge]\nPressure's building—breaking down\nSuffocating—till I drown\n\n[Solo]\n\n[Bridge]\nYou know how the saying goes...\nIt's not the size of the dog in the fight\nIt's the size of the fight in the dog\n\nYeah, bring it!\n\n[Chorus]\nThere ain't nothin' in this world for free\nThere's not a man—not a man I believe\nGive a rat's ass what you think about me\nI'll dot your eyes and cross your fuckin' teeth (Bring it!)\nThere's nothin' in this world for me\nI gave away, gave away fuckin' everything\nThis is the man that I'm choosing to be\nI'll dot your eyes and cross your fuckin' teeth (Bring it!)", 'annotations': {'description': '&lt;p&gt;The eighth track on Five Finger Death Punch’s &lt;em&gt;The Wrong Side of Heaven and The Righteous Side of Hell, Vol. 1&lt;/em&gt;. This song features guest vocals in the second verse courtesy of Hatebreed frontman Jamey Jasta.&lt;br&gt;\nDuring Jasta’s interview with 5FDP frontman Ivan Moody on “The Jasta Show”, an alternate version of this track was revealed in which Jasta sings the second chorus:&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=40OtiS0NAUA" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=40OtiS0NAUA&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-here-to-die-lyrics', 'lyrics': "[Intro]\nBounce!\n\n[Verse 1]\nThis wasn't meant to be a love song\nMatter of fact, this one's about hate\nI fuckin' said it—I don't regret it\nA little much? You're a little too late\n\n[Chorus]\nI've turned away\nJust one too many times\nI'm tired of the reasons\nSick of all the lies\n\nI looked away\nJust one too many times\nI'm tired of pretending\nThat I'm not here\nI'm not here to die\n\n[Verse 2]\nYou want my best—you get the worst\nYou're not the last and you ain't the fuckin' first\nYou die to live—I live to die\nStill, that motherfucker finger's in the sky\n[Chorus]\nI've turned away\nJust one too many times\nI'm tired of the reasons\nSick of all the lies\n\nI looked away\nJust one too many times\nI'm tired of pretending\nThat I'm not here\nI'm not here to die\n\n[Bridge]\nI've been hated by better\nI've been beaten by the best\nIt's not a gift\nIt's a motherfucking test\n\n[Solo]\n\n[Chorus]\nI've turned away\nJust one too many times\nI'm tired of the reasons\nSick of all the lies\nI looked away\nJust one too many times\nI'm tired of pretending\nThat I'm not here\nI'm not here to die\n\n[Outro]\nI'm not here to die", 'annotations': {'description': '', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Duality_(song)', 'track_name': 'Duality', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Duality_(song)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'abstract': '"Duality" is a song by American heavy metal band Slipknot, the song was released as the first single from their third studio album Vol. 3: (The Subliminal Verses), released in 2004. The music video was listed as Roadrunner Records\' greatest video of all-time.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Hail_to_the_King_(song)', 'track_name': 'Hail to the King', 'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Hail_to_the_King_(song)', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'abstract': '"Hail to the King" is a song by American heavy metal band Avenged Sevenfold and the lead single from their sixth studio album of the same name, released on July 15, 2013. The song was premiered live on July 17, 2013, at the Ford Festival Park in Oshkosh, Wisconsin.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Cowboys_from_Hell_(song)', 'track_name': 'Cowboys from Hell', 'artist': 'http://dbpedia.org/resource/Pantera', 'artist_name': 'Pantera', 'wiki': 'http://en.wikipedia.org/wiki/Cowboys_from_Hell_(song)', 'hometown': 'http://dbpedia.org/resource/Arlington,_Texas', 'abstract': '"Cowboys from Hell" is a song by American heavy metal band Pantera. First appearing on the band\'s 1989 demo album, the song is the band\'s first single. It was released later on the major label debut album Cowboys from Hell, and on the band\'s compilation album. Pantera used the phrase "Cowboys from Hell" (or its abbreviation, CFH) liberally in its image and merchandise.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Toxicity_(song)', 'track_name': 'Toxicity', 'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/Toxicity_(song)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'abstract': '"Toxicity" is a single by Armenian-American alternative metal band System of a Down, released in 2002. It was originally released on the album of the same name. The writing credit for the song is Malakian/Odadjian/Tankian/Dolmayan. It is known for its dynamic chorus, aggressive vocals, and prominent drum beat. The song is predominately in triple meter, alternating between 64, 128 and 44 time. The guitar during the verse plays in 64 using a 2+2+2 phrasing while the heavy part ("somewhere between the sacred silence and sleep") makes use of a hemiola with the guitar switching to a 3+3+3+3 pattern while the drums remain in compound duple meter until the bridge. The song was ranked number 14 on VH1\'s 40 Greatest Metal Songs, and was called a nu metal classic by Stylus Magazine.'}</t>
+    <t>{'url': 'https://genius.com/Shinedown-monsters-lyrics', 'lyrics': "[Verse 1]\nGood for you, you fooled everybody\nGood for you, you fooled everyone\nGood for you, now you're somebody\nGood for you, you fooled everyone\n\n[Pre-Chorus 1]\nLeave your weapon on the table\nWrapped in burlap, barely able\nDon't get angry, don't discourage\nTake a shot of liquid courage\n\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\nYeah, my monsters are real\n\n[Verse 2]\nGood for you, you hurt everybody\nGood for you, you hurt everyone\nGood for you, you love nobody\nGood for you, you owe no one\n\n[Pre-Chorus 2]\nLeave your weapon on the table\nWrapped in burlap, barely able\nCall a doctor, say a prayer\nChoose a god you think is fair\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\n'Cause my monsters are real\n\n[Bridge]\nLeave your weapon on the table\nWrapped in burlap, barely able\nDon't get angry, don't discourage\nTake a shot of liquid courage\nLeave a light on if you're able\n'Cause we both know you're unstable\nCall a doctor, say a prayer\nChoose a god you think is fair\n\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\nYeah, my monsters are real", 'annotations': {'description': '&lt;p&gt;From Jeff Gorra’s (@ArtistWaves) interview with frontman Brent Smith:&lt;/p&gt;\n\n&lt;p&gt;“There’s a song called “Monsters”. When I make that statement about “My monsters are real, and they’re trained how to kill”, that’s about as blunt and bold as I can be about those voices that I did say were legendary, but can also be my demise if I let them. Personally, it has a lot to do with substance abuse. I will forever be an addict. I’m clean now, but the fact is\u200a—\u200aI have to take it day-by-day. Those pathways are already paved in my brain. I know exactly what’s on those roads. For me to think I can go into a bar today and just have one drink, that would be great, but that’s not reality. If I were to go into a bar and have one drink I would end up drinking every single one in the building and probably wind up in jail. I know the parts of me that I must respect. It doesn’t mean I have to like it, but I do have to respect it. It’s something I can’t think about in the future, I literally have to take one day at a time. I haven’t gone to rehab, I don’t do self-help, nor am I a part of a 12-step program, I only know how to do it this way. I’m also very lucky because the other three guys I’m in a band with are my brothers and they’ve never judged me. They’ve just been there to pick me up when I fell.”&lt;/p&gt;', 'producers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}], 'writers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}, {'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pat-benatar-hit-me-with-your-best-shot-lyrics', 'lyrics': "[Intro]\n\n[Verse 1]\nWell you're the real tough cookie with a long history\nOf breaking little hearts like the one in me\nThat's okay, let's see how you do it\nPut up your dukes, let's get down to it\n\n[Chorus]\nHit me with your best shot\nWhy don't you hit me with your best shot\nHit me with your best shot\nFire away\n\n[Verse 2]\nYou come on with it, come on, you don't fight fair\nThat's okay, see if I care\nKnock me down, it's all in vain\nI get right back on my feet again\n\n[Chorus]\nHit me with your best shot\nWhy don't you hit me with your best shot\nHit me with your best shot\nFire away\n[Instrumental]\n\n[Verse 3]\nWell you're the real tough cookie with a long history\nOf breaking little hearts like the one in me\nBefore I put another notch in my lipstick case\nYou better make sure you put me in my place\n\n[Chorus]\nHit me with your best shot\nC'mon, hit me with your best shot\nHit me with your best shot\nFire away\n\n[Chorus]\nHit me with your best shot\nWhy don't you hit me with your best shot\nHit me with your best shot\nFire away", 'annotations': {'description': '&lt;p&gt;Pat Benatar’s 1980 first top 10 single, achieving Gold record status.&lt;/p&gt;\n\n&lt;p&gt;A direct challenge to a hurtful lover, without any hint of self depreciation.&lt;/p&gt;\n\n&lt;p&gt;A true feminist statement.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/5mgvz4egl87trnqtvg4bt7u5u.220x222x1.jpg" alt="" width="220" height="222" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Keith Olsen', 'url': 'https://genius.com/artists/Keith-olsen'}], 'writers': [{'name': 'Eddie Schwartz', 'url': 'https://genius.com/artists/Eddie-schwartz'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Aerosmith-livin-on-the-edge-lyrics', 'lyrics': "[Verse 1]\nThere's something wrong with the world today\nI don't know what it is\nSomething's wrong with our eyes\nWe're seeing things in a different way\nAnd God knows it ain't His\nIt sure ain't no surprise, yeah\n\n[Chorus]\nWe're livin' on the edge\nLivin' on the edge\nLivin' on the edge\nLivin' on the edge\n\n[Verse 2]\nThere's something wrong with the world today\nThe light bulb's getting dim\nThere's meltdown in the sky (ahh)\nIf you can judge a wise man\nBy the color of his skin\nThen mister, you're a better man than I\n\n[Chorus]\nWe're livin' on the edge\n(You can't help yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(You can't help yourself at all) (Everybody, everybody)\nLivin' on the edge\n(You can't stop yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(Everybody, everybody)\n[Verse 3]\nTell me what you think about your situation\nComplication, aggravation is getting to you, yeah\nIf Chicken Little tells you that the sky is falling\nEven if it wasn't, would you still come crawling\nBack again?\nI bet you would, my friend\nAgain and again and again and again and again\n\nTell me what you think about your situation\nComplication, aggravation is getting to you, yeah\nIf Chicken Little tells you that the sky is falling\nEven if it wasn't, would you still come crawling\nBack again?\nI bet you would, my friend\nAgain and again and again and again and\n\n[Bridge]\nThere's something right with the world today\nAnd everybody knows it's wrong\nBut we can tell 'em no or we could let it go\nBut I'd would rather be a hangin' on\n\n[Chorus]\nLivin' on the edge\n(You can't help yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(You can't help yourself at all) (Everybody, everybody)\nLivin' on the edge\n(You can't stop yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(Everybody, everybody)\n[Outro]\nLivin' on the edge\nLivin' on the edge\nLivin' on the edge\nYeah, yeah, yeah, yeah, yeah, yeah, yeah\n\nLivin' on the edge (You can't help yourself from falling)\nLivin' on the edge (You can't help yourself at all)\nLivin' on the edge (You can't stop yourself from falling)\nLivin' on the edge\n\nLivin' on the edge (You can't help yourself, you can't help yourself)\nLivin' on the edge (You can't help yourself at all)\nLivin' on the edge (You can't help yourself, you can't help yourself)\nLivin' on the edge (You can't help yourself, you can't help yourself)\nLivin' on the edge (You can't help yourself from falling)\nLivin' on the edge\nYeah, yeah\nYeah yeah yeah yeah yeah yeah\nYeah yeah yeah yeah yeah yeah", 'annotations': {'description': '&lt;p&gt;“Livin on the Edge” is a slow, trippy rock song that plays similarly to a ballad, but with lyrics focusing more on lifestyle and mortality than love, romance and other subject matters to which ballads are normally attached. It was &lt;a href="https://genius.com/artists/Aerosmith" rel="noopener" data-api_path="/artists/533"&gt;Aerosmith&lt;/a&gt;’s first single from &lt;em&gt;Get a Grip&lt;/em&gt;, and was one of four Top 40 hits from the album.&lt;/p&gt;\n\n&lt;p&gt;The meaning behind this song isn’t very apparent from the lyrics.  By reading the lyrics while watching the video, you can see what the lyricist meant by the “edge”.  The edge can be interpreted in a few ways.  Living on the edge could be taken as living a risky lifestyle (as when the kid crashed his car into the blinking road construction sign and throwing away the condom that the Dad gives the kid) or living on the edge of gender (constant references to crossdressing and feminization of males and masculinization of females).  It seems that Aerosmith is commenting on the reversal of the natural state of our society by the elites.  The lyric, “something’s wrong in the world today and God knows it ain’t his”, speaks to the fact that Aerosmith is referencing a patriarchal social structure as the norm.  The video is heavily influenced by Fraternal Imagery and phallic symbols.  This fraternal influence is hidden from the general public, that think the natural evolution of society is toward more gender bending and androgyny, but this trend is actually being forced on us by the power elites to make us more easily controllable.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/9c1457644fbba62429364a4e249daf95.448x252x1.jpg" alt="" width="448" height="252" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Marc Hudson', 'url': 'https://genius.com/artists/Marc-hudson'}, {'name': 'Steven Tyler', 'url': 'https://genius.com/artists/Steven-tyler'}, {'name': 'Joe Perry', 'url': 'https://genius.com/artists/Joe-perry'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Limp-bizkit-n-2-gether-now-lyrics', 'lyrics': "[Produced by DJ Premier]\nDJ Premier\nUh, uh, uh\n\n[Verse 1: Fred Durst &amp; Method Man]\nWho could be the boss? Look up to the cross\nStranded in the land of the lost\nStandin' up, I'm sideways\nI'm blazin' up the path, runnin' on the highways of rap\nChoked up by the smoke and the charcoal\nA lotta stamps and brands, we like a bar code\nI'm bashin' all the media strikes to keep the media dykes\nAs reinforcement for the fight\nAnd that alone'll keep John Gotti on the phone\nI'm tangled in the zone, I got the bees on the track\nWhere the fuck you at? (Tical!)\nLet me hear you pigeons run ya mouth now (Shut the fuck up!)\nI'm pluggin' in them social skills that keep my total bills\nOver a million the last time I checked it\nThank God, I'm blessed with a mind that'll wreck it\nWait until the second round and knock 'em out\n\n[Verse 2: Method Man]\nThey call me Big John Studd, my middle name Mud\nDirty water flow, too much for you thug\nThey can't stand the flood – what up, doc?\nHold big gun like Elmer Fudd,  the sureshot\nMr. Meth I'm unplugged (learn!)\nTemperatures too hot for sunblock (burn!)\nPlayin' wit' minds that get you state time\nLocked behind 12 bars from a great mind\nKilla bees in the club wit' this ladybug\nBrought a sword to the dance floor to cut a rug\nLove is love all day, 'til they throw slugs\nAnd take another life in cold blood, can't feel me 'til its your blood\nMurder rates tremendous, crime is endless\nSame shit different day, Father forgive us\nThey know not what they do, all praise is due\nI'm big like E-Z and Big Bambu\n[Chorus: Method Man]\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\n\n[Verse 3: Method Man with Fred Durst]\nHeadstrong, dead calm, Dead by Dawn\nDead weight, they dead wrong, let's get it on\nTwelve rounds of throw down – who hold crown?\nProtect land wit' four pound, Limp Bizkit\nGet around like merry-go, bust a scenario\nComin' through your stereo, why risk it?\nLifestyles of the prolific and gifted\nEight essential vitamins and minerals, delicious\nWord on the street is, they bit my thesis\nKnocked out they front teefes, tryin' to taste mine\nActin' like they heard it through the grapevine\nDope fiendin' for the bassline, to provide rhyme\nPharmaceuticals, hard as nails to the cuticles\nWhere'd you find that monster? She beautiful\nWu-Tang and Limp Bizkit, roll on the set\nKick a hole in the speaker, pull the plug, and then jet\n[Verse 4: Fred Durst &amp; Method Man]\nMic check, so what's it all about? And where we gonna run?\nMaybe we can meet up on the sun\nDiscretion is advised for the blood of virgin eyes\nWe limpin' on the track with the Method\nSo get the sunblock, you gettin' one-shot\nUntil you dissolve, I revolve around everything you got\nFrom outta nowhere, prepare, you be blinded by the glare\nI told you not to stare, now you're turned into stone\nWithout a microphone, but don't you forget you're in a zone\nSo shut the fuck up, and take that shit back\n'Cause all your shit's wack (Doo doo is doo doo)\nWhen its weighed out like that\nBurnin' up your brain like a piston\nSo all those that didn't listen\nNever even knew what they were missin'\nAnd never even knew that the sky was fallin' down\nWu-Tang-Clan for the crown\n\n[Chorus: Method Man]\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\n[Outro: Method Man]\nIt was over your head – all day, every day\nS.I.N.Y. 10304\nWu-Tang Killa Bees\nAnd the Limp B-I-Z-K-I-T\nY'all know the time, y'all know the rhyme\nIt ain't easy bein' greazy in a world full of cleanliness\nAnd, you know, all that other madness\nWe gone, peace!\nLimp Bizkit, Method Man\nRock the house y'all! Bring it on!\n\n[Hidden Track]\nHey wait up, where you guys goin'?\nYou're not recordin', are you?\nAre you?\nBut I'm all alone\nI can't do this!\nFeel it, uh\nFeel it, feel it, feel it\nYou guys feel it out there?\nShake your head if you feel it\nHey, hey, hey\nEvery day is brighter than the next day\nAt least that's what you think\nEvery day is brighter than the next day\nAt least that's what you think", 'annotations': {'description': '&lt;p&gt;Beat courtesy of famed hip hop producer DJ Premier, it was released as the third single for “Significant Other” along with “Break Stuff”, and is definitely not a Nu-Metal song. It features Method Man as both of them mess around on the mic..the music video filmed for N 2 Gether Now has the two battling it out and features a cameo from Pauly Shore, it also uses a different beat to the original: &lt;a href="http://www.youtube.com/watch?v=tMLetx7SjCw" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=tMLetx7SjCw&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;For the original audio: &lt;a href="http://www.youtube.com/watch?v=okpp83_RIcE" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=okpp83_RIcE&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Limp Bizkit', 'url': 'https://genius.com/artists/Limp-bizkit'}, {'name': 'DJ Premier', 'url': 'https://genius.com/artists/Dj-premier'}], 'writers': [{'name': 'Method Man', 'url': 'https://genius.com/artists/Method-man'}, {'name': 'DJ Premier', 'url': 'https://genius.com/artists/Dj-premier'}, {'name': 'Fred Durst', 'url': 'https://genius.com/artists/Fred-durst'}], 'labels': [{'name': 'Flip Records', 'url': 'https://genius.com/artists/Flip-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Jason-mraz-im-yours-lyrics', 'lyrics': "[Verse 1]\nWell you done done me in; you bet I felt it\nI tried to be chill but you're so hot that I melted\nI fell right through the cracks\nNow I'm trying to get back\n\nBefore the cool done run out\nI'll be giving it my bestest\nNothing's going to stop me but divine intervention\nI reckon it's again my turn to win some or learn some\n\n[Chorus]\nBut I won't hesitate no more, no more\nIt cannot wait, I'm yours\n\n[Verse 2]\nWell open up your mind and see like me\nOpen up your plans and damn you're free\nLook into your heart and you'll find\nLove, love, love, love\n\nListen to the music of the moment, people dance and sing\nWe're just one big family\nAnd it's our God-forsaken right to be\nLoved, love, love, love, loved\n[Chorus]\nSo I won't hesitate no more, no more\nIt cannot wait, I'm sure\nThere's no need to complicate\nOur time is short\nThis is our fate, I'm yours\n\n[Bridge]\nDo you want to come on scootch on over closer, dear\nAnd I will nibble your ear\n\n[Verse 3]\nI've been spending way too long checking my tongue in the mirror\nAnd bending over backwards just to try to see it clearer\nBut my breath fogged up the glass\nAnd so I drew a new face and I laughed\n\nI guess what I be saying is there ain't no better reason\nTo rid yourself of vanities and just go with the seasons\nIt's what we aim to do\nOur name is our virtue\n\n[Chorus]\nBut I won't hesitate no more, no more\nIt cannot wait – I'm yours\n[Outro]\nWell open up your mind and see like me (I won't hesitate)\nOpen up your plans and damn you're free (No more, no more)\nLook into your heart and you'll find (It cannot wait)\nThe sky is yours (I'm sure)\nSo please don't, please don't, please don't (No need to complicate)\nThere's no need to complicate (Our time is short)\n'Cause our time is short (This is)\nThis oh, this oh, this is our fate (our fate)\nI'm yours", 'annotations': {'description': '', 'producers': [{'name': 'Martin Terefe', 'url': 'https://genius.com/artists/Martin-terefe'}], 'writers': [{'name': 'Jason Mraz', 'url': 'https://genius.com/artists/Jason-mraz'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lmfao-sexy-and-i-know-it-lyrics', 'lyrics': '[Intro]\nYeah, yeah\n\n[Verse 1]\nWhen I walk on by, girls be looking like, "Damn, he fly"\nI pimp to the beat, walking down the street in my new LaFreak\nYeah, this is how I roll, animal print, pants outta control\nIt\'s Redfoo with the big afro\nAnd like Bruce Leroy, I got the glow, yeah\n\n[Pre-Chorus]\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\n\n[Chorus]\nWhen I walk in the spot (Yeah), this is what I see (Okay)\nEverybody stops and is staring at me\nI got passion in my pants and I ain\'t afraid to show it\nShow it, show it, show it\nI\'m sexy and I know it\nI\'m sexy and I know it\n[Verse 2]\nYeah\nWhen I\'m at the mall, security just can\'t fight \'em all\nAnd when I\'m at the beach, I\'m in a speedo trying to tan my cheeks (What)\nThis is how I roll, come on, ladies, it\'s time to go\nWe headed to the bar, baby, don\'t be nervous\nNo shoes, no shirt, and I still get service, watch\n\n[Pre-Chorus]\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\n\n[Chorus]\nWhen I walk in the spot (Yeah), this is what I see (Okay)\nEverybody stops and is staring at me\nI got passion in my pants and I ain\'t afraid to show it\nShow it, show it, show it\nI\'m sexy and I know it (Ay)\nI\'m sexy and I know it\n\n[Bridge]\nCheck it out, check it out\nWiggle, wiggle, wiggle, wiggle, wiggle, yeah\nWiggle, wiggle, wiggle, wiggle, wiggle, yeah\nWiggle, wiggle, wiggle, wiggle, wiggle, yeah\nWiggle, wiggle, wiggle, wiggle, yeah, yeah\nDo the wiggle, man, I do the wiggle, man\nYeah, I\'m sexy and I know it\nAy, yeah\n[Pre-Chorus]\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\n\n[Outro]\nI\'m sexy and I know it', 'annotations': {'description': '&lt;p&gt;In this #1 hit from &lt;a href="https://genius.com/albums/Lmfao/Sorry-for-party-rocking" rel="noopener" data-api_path="/albums/12286"&gt;&lt;em&gt;Sorry for Party Rocking&lt;/em&gt;&lt;/a&gt;, RedFoo shows displays self-confidence and self-awareness in his impressive physique (or at least, what he &lt;strong&gt;thinks&lt;/strong&gt; is impressive physique).&lt;/p&gt;\n\n&lt;p&gt;This is his definition of “sexy”, in his own words:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="http://www.mtv.com/news/1671012/lmfao-sexy-and-i-know-it/" rel="noopener nofollow"&gt;Sexy is confidence. It’s ‘I don’t care what other people think, but I want them to think that I’m sexy at the same time. It’s a Catch-22. I want to be seen. Sexy is you want attention and you gotta have moves. You gotta have moves, whether it be in the bedroom [or] on the dance floor — just the way you walk, the way you talk.&lt;/a&gt;&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?v=wyx6JDQCslE" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=wyx6JDQCslE&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Listenbee', 'url': 'https://genius.com/artists/Listenbee'}, {'name': 'Redfoo', 'url': 'https://genius.com/artists/Redfoo'}, {'name': 'Audiobot', 'url': 'https://genius.com/artists/Audiobot'}], 'writers': [{'name': 'George Matthew Robertson', 'url': 'https://genius.com/artists/George-matthew-robertson'}, {'name': '8ky', 'url': 'https://genius.com/artists/8ky'}, {'name': 'Audiobot', 'url': 'https://genius.com/artists/Audiobot'}, {'name': 'Listenbee', 'url': 'https://genius.com/artists/Listenbee'}, {'name': 'Erin Beck', 'url': 'https://genius.com/artists/Erin-beck'}, {'name': 'Redfoo', 'url': 'https://genius.com/artists/Redfoo'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Judas-priest-breaking-the-law-lyrics', 'lyrics': "[Verse 1]\nThere I was completely wasting, out of work and down\nAll inside it's so frustrating as I drift from town to town\nFeel as though nobody cares if I live or die\nSo I might as well begin to put some action in my life\n\n[Chorus]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\n\n[Verse 2]\nSo much for the golden future, I can't even start\nI've had every promise broken, there's anger in my heart\nYou don't know what it's like, you don't have a clue\nIf you did you'd find yourselves doing the same thing too\n\n[Chorus]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\n\n[Bridge]\nYou don't know what it's like\n[Instrumental Interlude]\n\n[Chorus]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\n\n[Outro]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law", 'annotations': {'description': '&lt;p&gt;The lyrics talk about some who (probably) was fired, can’t find a new job, is unhappy, and feels as if everyone and everything is against him.&lt;/p&gt;\n\n&lt;p&gt;The song features some sound effects, including the sound of breaking glass and a police siren. For the breaking glass effect, the band used milk bottles, and the police siren was actually guitarist K. K. Downing using the tremolo arm on his Stratocaster.&lt;/p&gt;\n\n&lt;p&gt;After 40 years from &lt;a href="https://genius.com/albums/Judas-priest/British-steel" rel="noopener" data-api_path="/albums/107404"&gt;the album&lt;/a&gt; release, &lt;a href="https://genius.com/artists/Judas-priest" rel="noopener" data-api_path="/artists/17236"&gt;Judas Priest&lt;/a&gt; realized an official lyric video for the song, published on April 16th, 2020:&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/eRorNhiUM8U?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Tom Allom', 'url': 'https://genius.com/artists/Tom-allom'}], 'writers': [{'name': 'Glenn Tipton', 'url': 'https://genius.com/artists/Glenn-tipton'}, {'name': 'Rob Halford', 'url': 'https://genius.com/artists/Rob-halford'}, {'name': 'K.K. Downing', 'url': 'https://genius.com/artists/Kk-downing'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Michael-jackson-and-slash-give-in-to-me-lyrics', 'lyrics': "[Verse 1]\nShe always takes it with a heart of stone\n'Cause all she does is throw it back to me\nI've spent a lifetime looking for someone\nDon't try to understand me\nJust simply do the things I say\n\n[Chorus]\nLove is a feeling\nGive it when I want it\n'Cause I'm on fire\nQuench my desire\nGive it when I want it\nTalk to me, woman\nGive in to me, give in to me\n\n[Verse 2]\nYou always knew just how to make me cry\nAnd never did I ask you questions why\nIt seems you get your kicks from hurting me\nDon't try to understand me\nBecause your words just aren't enough\n\n[Chorus]\nLove is a feeling\nQuench my desire\nGive it when I want it\nTakin' me higher\nLove is a woman\nI don't wanna hear it\nGive in to me, give in to me\n[Bridge]\nYou and your friends were laughing at me in town\nBut it's okay and it's okay\nYou won't be laughing, girl, when I'm not around\nI'll be okay\nAnd I'd, I'd never find\nBetter, a peace of mind, no\n\n[Guitar Solo]\n\n[Pre-Chorus]\nDon't try to tell me\nBecause your words just aren't enough\n\n[Chorus]\nLove is a feeling\nQuench my desire\nGive it when I want it\nTakin' me higher\nTalk to me, woman\nLove is a feeling\nGive in to me, give in to me, give in to me\nOh, love is a feeling\nI don't wanna hear it\nQuench my desire\nTakin' me higher\nTell it to the preacher\nSatisfy the feeling\nGive in to me, give in to me\n[Guitar Solo]\n\n[Outro]\nI don't wanna, I don't wanna, I don't wanna hear it\nGive in to the fire\nTalk to me, woman\nQuench my desire\nI'd like a lady\nTalk to me, baby\nGive in to me\nGive in to the fire\nGive in to me\nGive in to me\nGive in to me\nLove is a woman\nGive in to me\nGive in to me\nGive in to me\nGive in to me\n'Cause I'm on fire\nTalk to me, woman\nQuench my desire\nGive in to the feeling", 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Give In To Me&lt;/em&gt; is the 10th track on &lt;a href="https://genius.com/albums/michael-jackson/dangerous" rel="noopener" data-api_path="/albums/6296"&gt;&lt;em&gt;Dangerous&lt;/em&gt;&lt;/a&gt;, Michael Jackson’s 8th album.  In an album that heavily features the &lt;a href="https://en.wikipedia.org/wiki/New_jack_swing" rel="noopener nofollow"&gt;New Jack Swing&lt;/a&gt; style, this rock ballad once again shows Michael’s range and creative diversity.&lt;/p&gt;\n\n&lt;p&gt;The song features &lt;a href="https://genius.com/artists/Guns-n-roses" rel="noopener" data-api_path="/artists/637"&gt;Guns N\' Roses&lt;/a&gt; guitarist &lt;a href="https://genius.com/artists/Slash" rel="noopener" data-api_path="/artists/10939"&gt;Slash&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/32da2923e639ab6f2424c54e93c9ae61.888x663x1.jpg" alt="" width="888" height="663" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The song can be compared to another rock ballad, &lt;a href="https://genius.com/Michael-jackson-dirty-diana-lyrics" rel="noopener" data-api_path="/songs/2907"&gt;“Dirty Diana”&lt;/a&gt;, from &lt;a href="https://genius.com/albums/Michael-Jackson/bad" rel="noopener" data-api_path="/albums/11195"&gt;&lt;em&gt;Bad&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/45e8537b08c05b28320cbdab69df6561.583x833x1.jpg" alt="" width="583" height="833" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}], 'writers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Keane-this-is-the-last-time-lyrics', 'lyrics': "[Verse 1]\nThis is the last time\nThat I will say these words\nI remember the first time\nThe first of many lies\nSweep it into the corner\nOr hide it under the bed\nSay these things, they go away\nBut they never do\n\n[Pre-Chorus]\nSomething I wasn't sure of\nBut I was in the middle of\nSomething I forget now\nBut I've seen too little of\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind\n\n[Verse 2]\nThis is the last time\nThat I will show my face\nOne last tender lie and\nThen I'm out of this place\nTread it into the carpet\nOr hide it under the stairs\nYou say that some things never die\nWell, I tried and I tried\n[Pre-Chorus]\nSomething I wasn't sure of\nBut I was in the middle of\nSomething I forget now\nBut I've seen too little of\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind", 'annotations': {'description': '&lt;p&gt;Tim Rice-Oxley describes the song as “mainly about regret. I was thinking about how you can have a huge amount of affection for someone and yet not have that magic spark that makes you feel like you’re in love … you have a bond with someone but you don’t want to stay with them forever. So you decide to go. But you’re not saying, ’I hate you and I’m leaving.’ You’re trying to say, ‘I think you’re great, but I’ve seen that there’s something more perfect and magical out there for me and I need to find it. But I will always be your friend if you need me.’”&lt;/p&gt;', 'producers': [{'name': 'Andy Green', 'url': 'https://genius.com/artists/Andy-green'}, {'name': 'Keane', 'url': 'https://genius.com/artists/Keane'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'writers': [{'name': 'Tim Rice-Oxley', 'url': 'https://genius.com/artists/Tim-rice-oxley'}, {'name': 'Tom Chaplin', 'url': 'https://genius.com/artists/Tom-chaplin'}, {'name': 'Richard Hughes', 'url': 'https://genius.com/artists/Richard-hughes'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-cult-she-sells-sanctuary-2009-re-master-lyrics', 'lyrics': "Oh the heads that turn\nMake my back burn\nOh the heads that turn\nMake my back, make my back burn\n\nThe sparkle in your eyes\nKeeps me alive\nAnd the sparkle in your eyes\nKeeps me alive, keeps a man alive\n\nAnd the world, and the world\nAnd the world turns around\nThe world, and the world, yeah\nThe world drags me down\n\nWell the heads that turn\nMake my back burn\nAnd the heads that turn\nMake my back, make my back burn, yeah\nYeah-ah-ah-ah\nYeah-ah-ah-ah\n\nThe fire in your eyes\nKeeps me alive\nAnd the fire in your eyes\nKeeps me alive\nI'm sure in her you'll find\nThe sanctuary\nI'm sure in her you'll find\nThe sanctuary\n\nAnd the world\nThe world turns around\nAnd the world, and the world\nThe world drags me down\n\nAnd the world, and the world, and the world\nThe world turns around\nAnd the world, and the world, and the world, and the world\nThe world drags me down\n\nHey-yeah-ah-ah\nHey-yeah-ah-ah\n\nAnd the world\nAnd the world turns around\nAnd the world, and the world\nYeah, the world drags me down\n\nAnd the world\nYeah, the world turns around\nAnd the world, and the world\nThe world drags me down\nSanctuary\nSanctuary\nSanctuary\nSanctuary", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Twenty-one-pilots-stressed-out-lyrics', 'lyrics': '[Verse 1]\nI wish I found some better sounds no one\'s ever heard\nI wish I had a better voice that sang some better words\nI wish I found some chords in an order that is new\nI wish I didn\'t have to rhyme every time I sang\nI was told, when I get older, all my fears would shrink\nBut now I\'m insecure, and I care what people think\n\n[Pre-Chorus]\nMy name\'s Blurryface and I care what you think\nMy name\'s Blurryface and I care what you think\n\n[Chorus]\nWish we could turn back time to the good old days\nWhen our momma sang us to sleep, but now we\'re stressed out\n(Oh) Wish we could turn back time (Oh) to the good old days (Oh)\nWhen our momma sang us to sleep, but now we\'re stressed out\nWe\'re stressed out\n\n[Verse 2]\nSometimes a certain smell will take me back to when I was young\nHow come I\'m never able to identify where it\'s comin\' from?\nI\'d make a candle out of it, if I ever found it\nTry to sell it, never sell out of it, I\'d probably only sell one\nIt\'d be to my brother, \'cause we have the same nose\nSame clothes, homegrown, a stone\'s throw from a creek we used to roam\nBut it would remind us of when nothing really mattered\nOut of student loans and treehouse homes, we all would take the latter\n[Pre-Chorus]\nMy-my-my name\'s Blurryface and I care what you think\nMy name\'s Blurryface and I care what you think\n\n[Chorus]\nWish we could turn back time to the good old days\nWhen our momma sang us to sleep, but now we\'re stressed out\n(Oh) Wish we could turn back time (Oh) to the good old days (Oh)\nWhen our momma sang us to sleep, but now we\'re stressed out\n[Bridge]\nWe used to play pretend, give each other different names\nWe would build a rocket ship an\' then we\'d fly it far away\nUsed to dream of outer space, but now they\'re laughin\' at our face\nSayin\', "Wake up, you need to make money!," yeah\nWe used to play pretend, give each other different names\nWe would build a rocket ship an\' then we\'d fly it far away\nUsed to dream of outer space, but now they\'re laughin\' at our face\nSayin\', "Wake up, you need to make money!," yeah\n\n[Chorus]\nWish we could turn back time to the good old days\nWhen our momma sang us to sleep, but now we\'re stressed out\n(Oh) Wish we could turn back time (Oh) to the good old days (Oh)\nWhen our momma sang us to sleep, but now we\'re stressed out\n[Outro]\nWe used to play pretend, used to play pretend, money\nWe used to play pretend, wake up, you need the money\nUsed to play pretend, used to play pretend, money\nWe used to play pretend, wake up, you need the money\nUsed to play pretend, give each other different names\nWe would build a rocket ship and then we\'d fly it far away\nUsed to dream of outer space, but now they\'re laughin\' at our face\nSayin\', "Wake up, you need to make money!," yeah', 'annotations': {'description': '&lt;p&gt;The lyrics of “Stressed Out” are told in the first person, with the story being told by both the character Blurryface (a representation of Tyler’s insecurities) and an anxious Tyler feeling intense childhood nostalgia. The song is primarily about a wish to regain the innocence and carefree nature of childhood, before insecurities (i.e. Blurryface) existed.&lt;/p&gt;\n\n&lt;p&gt;It was released on April 27, 2015 as the third single from their second studio album, &lt;em&gt;Blurryface&lt;/em&gt;. In February 2016, &lt;a href="http://www.billboard.com/artist/430557/twenty-one-pilots/chart" rel="noopener nofollow"&gt;it managed to reach number two on the Hot 100&lt;/a&gt;, becoming their first single to reach that height.&lt;/p&gt;\n\n&lt;p&gt;The music video features Josh Dun and Tyler Joseph riding big-wheels and hanging out in their childhood bedrooms, suggesting a state of crippling nostalgia and perhaps even arrested development.&lt;/p&gt;\n\n&lt;p&gt;On April 30, 2021 “Stressed Out” was certified Diamond by the &lt;a href="https://www.riaa.com/gold-platinum/" rel="noopener nofollow"&gt;RIAA&lt;/a&gt;, their first Diamond certification.&lt;/p&gt;', 'producers': [{'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}], 'writers': [{'name': 'Tyler Joseph', 'url': 'https://genius.com/artists/Tyler-joseph'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Fueled By Ramen', 'url': 'https://genius.com/artists/Fueled-by-ramen'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-chainsmokers-closer-lyrics', 'lyrics': "[Verse 1: Andrew Taggart]\nHey, I was doing just fine before I met you\nI drink too much\nAnd that's an issue, but I'm okay\nHey, you tell your friends\nIt was nice to meet them\nBut I hope I never see them again\n\n[Pre-Chorus: Andrew Taggart]\nI know it breaks your heart\nMoved to the city in a broke-down car\nAnd four years, no calls\nNow you're lookin' pretty in a hotel bar\nAnd I-I-I can't stop\nNo, I-I-I can't stop\n\n[Chorus: Andrew Taggart]\nSo, baby, pull me closer\nIn the backseat of your Rover\nThat I know you can't afford\nBite that tattoo on your shoulder\nPull the sheets right off the corner\nOf the mattress that you stole\nFrom your roommate back in Boulder\nWe ain't ever getting older\n[Post-Chorus: Andrew Taggart]\nWe ain't ever getting older\nWe ain't ever getting older\n\n[Verse 2: Halsey]\nYou look as good as the day I met you\nI forget just why I left you, I was insane\nStay and play that blink-182 song\nThat we beat to death in Tucson, okay\n\n[Pre-Chorus: Halsey]\nI know it breaks your heart\nMoved to the city in a broke-down car\nAnd four years, no call\nNow I'm lookin' pretty in a hotel bar\nAnd I-I-I can't stop\nNo, I-I-I can't stop\n\n[Chorus: Andrew Taggart &amp; Halsey]\nSo, baby, pull me closer\nIn the backseat of your Rover\nThat I know you can't afford\nBite that tattoo on your shoulder\nPull the sheets right off the corner\nOf the mattress that you stole\nFrom your roommate back in Boulder\nWe ain't ever getting older\n[Post-Chorus: Andrew Taggart &amp; Halsey]\nWe ain't ever getting older\nWe ain't ever getting older\n\n[Chorus: Andrew Taggart]\nSo, baby, pull me closer\nIn the backseat of your Rover\nThat I know you can't afford\nBite that tattoo on your shoulder\nPull the sheets right off the corner\nOf the mattress that you stole\nFrom your roommate back in Boulder\nWe ain't ever getting older\n\n[Post-Chorus: Andrew Taggart &amp; Halsey]\nWe ain't ever getting older\n(No, we ain't ever getting older)\nWe ain't ever getting older\n(No, we ain't ever getting older)\nWe ain't ever getting older\n(We ain't ever getting older)\nWe ain't ever getting older\n(No, we ain't ever getting older)\n(We ain't ever getting older)\n(No, we ain't ever getting older)", 'annotations': {'description': '&lt;p&gt;“Closer” is a millennial romance anthem that celebrates youth and heartbreak. It features vocals from singer-songwriter &lt;a href="https://genius.com/artists/Halsey" rel="noopener" data-api_path="/artists/228636"&gt;Halsey&lt;/a&gt; and Chainsmokers member Andrew Taggart, marking the first time the Chainsmokers feature their vocals on a track—Taggart previously &lt;a href="https://www.youtube.com/watch?v=HlUGRbPLn-4&amp;amp;feature=youtu.be&amp;amp;t=21m" rel="noopener nofollow"&gt;performed backing vocals&lt;/a&gt; for the chorus of &lt;a href="https://genius.com/The-chainsmokers-roses-lyrics" rel="noopener" data-api_path="/songs/2138429"&gt;“Roses”&lt;/a&gt;. It is also their first collaboration with Halsey.&lt;/p&gt;\n\n&lt;p&gt;At the &lt;a href="http://www.mtv.com/vma" rel="noopener nofollow"&gt;2016 MTV VMAs&lt;/a&gt;, both the duo and Halsey performed “Closer”. The duo teased the performance as &lt;a href="https://twitter.com/TheChainsmokers/status/770178202744590336" rel="noopener nofollow"&gt;“new level” on Twitter&lt;/a&gt;. This was &lt;a href="http://www.mtv.com/news/2924529/chainsmokers-halsey-closer-performance-vmas-2016/" rel="noopener nofollow"&gt;the second time that “Closer” was performed at Madison Square Garden&lt;/a&gt; — the first being at Halsey’s &lt;a href="http://www.billboard.com/articles/news/6762299/halsey-sells-out-madison-square-garden" rel="noopener nofollow"&gt;sold-out&lt;/a&gt; Badlands Tour &lt;a href="http://www.thegarden.com/events/2016/august/halsey.html" rel="noopener nofollow"&gt;show on August 13th, 2016&lt;/a&gt; where The Chainsmokers performed as guests.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/agFMqNB9BYM?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;In September 2016, after “Closer” had already reached the summit of the Billboard Hot 100, &lt;a href="https://genius.com/artists/Isaac-slade" rel="noopener" data-api_path="/artists/149826"&gt;Isaac Slade&lt;/a&gt; and &lt;a href="https://genius.com/artists/Joe-king" rel="noopener" data-api_path="/artists/658975"&gt;Joe King&lt;/a&gt;, respectively the lead singer and guitarist of &lt;a href="https://genius.com/artists/The-fray" rel="noopener" data-api_path="/artists/7807"&gt;The Fray&lt;/a&gt;, &lt;a href="http://www.billboard.com/articles/news/dance/7495958/chainsmokers-closer-the-fray-songwriting-credits" rel="noopener nofollow"&gt;were given additional songwriting credits&lt;/a&gt; on the song due to the similarity of its chorus to the verses of their 2005 breakout hit, &lt;a href="https://genius.com/the-fray-over-my-head-cable-car-lyrics" rel="noopener" data-api_path="/songs/197591"&gt;“Over My Head (Cable Car).”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On the March-25-dated chart, “Closer” &lt;a href="http://www.billboard.com/articles/columns/chart-beat/7720945/hot-100-chainsmokers-closer-ties-record-most-weeks-top-ten" rel="noopener nofollow"&gt;tied&lt;/a&gt; &lt;a href="https://genius.com/artists/Leann-rimes" rel="noopener" data-api_path="/artists/63143"&gt;LeAnn Rimes Cibrian&lt;/a&gt;’s 32 week record in the &lt;em&gt;Billboard Hot 100&lt;/em&gt; top 10. The singer held it for 20 years –\xa0beginning December 13, 1997 – with her single &lt;a href="https://genius.com/Leann-rimes-how-do-i-live-lyrics" rel="noopener" data-api_path="/songs/384569"&gt;“How Do I Live.”&lt;/a&gt; She &lt;a href="https://twitter.com/leannrimes/status/843917019053481985" rel="noopener nofollow"&gt;congratulated&lt;/a&gt; the hitmaker duo on Twitter by singing a mashup of “Closer” and her own song.&lt;/p&gt;\n\n&lt;p&gt;On September 15, 2018, the song was &lt;a href="https://www.billboard.com/articles/news/dance/8475327/chainsmokers-halsey-closer-diamond-certified-riaa-instagram" rel="noopener nofollow"&gt;certified Diamond by the RCAA&lt;/a&gt;, verifying that the song had sold an equivalent ten million units in the United States alone.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Related:&lt;/strong&gt; &lt;a href="https://genius.com/a/how-blink-182-s-i-miss-you-inspired-the-chainsmokers-and-halsey-s-closer" rel="noopener" data-api_path="/articles/507"&gt;How Blink 182’s “I Miss You” Inspired The Chainsmokers And Halsey’s “Closer”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'DJ Swivel', 'url': 'https://genius.com/artists/Dj-swivel'}, {'name': 'The Chainsmokers', 'url': 'https://genius.com/artists/The-chainsmokers'}], 'writers': [{'name': 'Frederic Kennett', 'url': 'https://genius.com/artists/Frederic-kennett'}, {'name': 'Joe King', 'url': 'https://genius.com/artists/Joe-king'}, {'name': 'Isaac Slade', 'url': 'https://genius.com/artists/Isaac-slade'}, {'name': 'Halsey', 'url': 'https://genius.com/artists/Halsey'}, {'name': 'Shaun Frank', 'url': 'https://genius.com/artists/Shaun-frank'}, {'name': 'Andrew Taggart', 'url': 'https://genius.com/artists/Andrew-taggart'}], 'labels': [{'name': 'Disruptor Records', 'url': 'https://genius.com/artists/Disruptor-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-pussycat-dolls-dont-cha-lyrics', 'lyrics': "[Intro: Busta Rhymes &amp; Nicole Scherzinger]\nOkay (Ahh)\nYeah (Ahh)\nOh, we about to get it just a little hot and sweaty in this– (Ooh, baby)\nLadies, let's go (Uhh)\nSoldiers, let's go (Dolls)\nLet me talk to y'all and just, you know, give you a little situation\nListen (Fellas)\n\n[Verse 1: Busta Rhymes &amp; Nicole Scherzinger]\nYou see this **** get hot\nEvery time I come through when I step up in the spot (Are you ready?)\nMake the place sizzle like a summertime cookout\nProwl for the best chick, yes, I'm on the lookout (Let's dance)\nSlow bangin' shorty like a belly dancer wit' it\nSmell good, pretty skin, so gangsta wit' it (Ooh, baby)\nNo tricks, only diamonds under my sleeve\nGimme the number, but make sure you call before you leave\n\n[Verse 2: Nicole Scherzinger]\nI know you like me (I know you like me)\nI know you do (I know you do)\nThat's why whenever I come around, she's all over you\nAnd I know you want it (I know you want it)\nIt's easy to see (It's easy to see)\nAnd in the back of your mind\nI know you should be fuckin' with me\n[Chorus: The Pussycat Dolls]\nDon't cha wish your girlfriend was hot like me?\nDon't cha wish your girlfriend was a freak like me?\nDon't cha? Don't cha?\nDon't cha wish your girlfriend was raw like me?\nDon't cha wish your girlfriend was fun like me?\nDon't cha? (Ah-ah-ah) Don't cha?\n\n[Verse 3: Nicole Scherzinger]\nFight the feeling (Fight the feeling)\nLeave it alone (Leave it alone)\n'Cause if it ain't love\nIt just ain't enough to leave a happy home (Uh-uh, uh-uh)\nLet's keep it friendly (Let's keep it friendly)\nYou have to play fair (You have to play fair, yeah)\nSee, I don't care\nBut I know, she ain't gon' wanna share (Ah, ah-ah)\n\n[Chorus: The Pussycat Dolls]\nDon't cha wish your girlfriend was hot like me? (Oh)\nDon't cha wish your girlfriend was a freak like me? (Like me)\nDon't cha? Don't cha, baby?\nDon't cha? Alright, sing\nDon't cha wish your girlfriend was raw like me? (Raw)\nDon't cha wish your girlfriend was fun like me? (Big fun)\nDon't cha? (Ah-ah-ah) Don't cha?\n[Interlude: Busta Rhymes]\nOkay, I see how it's goin' down\nSeem like shorty wanna little ménage pop off or somethin'\nLet's go\n\n[Verse 4: Busta Rhymes]\nWell, let me get straight to it\nEvery broad wanna watch a ***** when I come through it\nIt's the God almighty, lookin' all brand new\nIf shorty wanna jump in my Aston Vanquish\nLookin' at me all like she really wanna do it\nTryna put it on me 'til my ***** black and blueish\nYou wanna play with a player, girl, then play on\nStrip out the Chanel and leave the lingerie on (Ha)\nWatch me and I'ma watch you at the same time\nLookin' at you wanna break my back\nYou're the very reason why I keep a pack of the Magnum\nAnd with the wagon, hit you in the back of the Magnum\nFor the record, don't think it was something you did\nShorty all on me 'cause it's hard to resist the kid\nI got a idea that's dope for y'all\nAs y'all could get cold so I could hit the both of y'all\n\n[Verse 5: Nicole Scherzinger]\nSee, I know she loves ya (I know she loves ya)\nI understand (I understand, yeah)\nI'd probably be just as crazy about you if you were my own man\nMaybe next lifetime (Maybe next lifetime)\nPossibly (Possibly)\nUntil then, old friend, your secret is safe with me (Shh, hot)\n[Chorus: The Pussycat Dolls]\nDon't cha wish your girlfriend was hot like me? (Oh)\nDon't cha wish your girlfriend was a freak like me? (Like me)\nDon't cha? Don't cha, baby?\nDon't cha? Alright, sing\nDon't cha wish your girlfriend was raw like me? (Raw)\nDon't cha wish your girlfriend was fun like me? (Big fun)\nDon't cha? (Ah-ah-ah) Don't cha?", 'annotations': {'description': '&lt;p&gt;“Don’t Cha” was officially released as the first single from The Pussycat Dolls\' debut album, &lt;a href="https://genius.com/albums/The-pussycat-dolls/Pcd" rel="noopener" data-api_path="/albums/6051"&gt;&lt;em&gt;PCD&lt;/em&gt;&lt;/a&gt;. The song features guest vocals from rapper &lt;a href="https://genius.com/artists/Busta-rhymes" rel="noopener" data-api_path="/artists/338"&gt;Busta Rhymes&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song debuted on the Hot 100 at &lt;a href="http://www.billboard.com/articles/news/63105/stefani-single-ousts-50-cent-from-no-1" rel="noopener nofollow"&gt;#95&lt;/a&gt; back in 2005. The song would eventually climb and peak at &lt;a href="http://www.billboard.com/artist/418902/pussycat-dolls/chart?f=379" rel="noopener nofollow"&gt;#2&lt;/a&gt; making the song their biggest hit.&lt;/p&gt;\n\n&lt;p&gt;Lyrically, the song is about a girl who is taunting a guy about his girlfriend, asking if he wishes that the girlfriend he has was as hot as her.&lt;/p&gt;', 'producers': [{'name': 'CeeLo Green', 'url': 'https://genius.com/artists/Ceelo-green'}], 'writers': [{'name': 'Busta Rhymes', 'url': 'https://genius.com/artists/Busta-rhymes'}, {'name': 'CeeLo Green', 'url': 'https://genius.com/artists/Ceelo-green'}, {'name': 'Sir Mix-a-Lot', 'url': 'https://genius.com/artists/Sir-mix-a-lot'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Whigfield-saturday-night-lyrics', 'lyrics': '[Intro: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, Dee, dee, na, na, na\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\n\n[Verse: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nSaturday night I feel the air is getting hot (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Like you baby\nI\'ll make you mine, you know I\'ll take you to the top (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) I\'ll drive you crazy\nSaturday night, dance, I like the way you move (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Pretty baby\nIt\'s party time and not one minute we can lose (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Be my baby\n\n[Refrain: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nDa ba da dan, dee dee dee da nee na na na (Man, man, man, man, man, man, man, man)\nBe my baby (Man, man, man, man, man, man, man, man)\nDa ba da dan, dee dee dee da nee na na na (Man, man, man, man, man, man, man, man)\nPretty baby (Man, man, man, man, man, man, man, man)\n\n[Post-Refrain: Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\n[Verse: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nSaturday night I feel the air is getting hot (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Like you baby\nI\'ll make you mine, you know I\'ll take you to the top (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) I\'ll drive you crazy\nSaturday night, dance, I like the way you move (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Pretty baby\nIt\'s party time and not one minute we can lose (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Be my baby\n\n[Bridge: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nSaturday night, dance, I like the way you move\nPretty baby\nIt\'s party time and not one minute we can lose\nBe my baby\nOoh, ooh\n\n[Break: Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\n[Outro: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nSaturday (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Da ba da dan, dee dee dee/Man, man, man, man)\nSaturday (Da nee na na na/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Ooh, hoo/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (It\'s party time, hey!/Man, man, man, man)\nSaturday (It\'s party time, oh!/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Ooh, hoo/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (It\'s party time, hey!/Man, man, man, man)\nSaturday (It\'s party time, oh!/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Ooh, hoo/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)', 'annotations': {'description': '&lt;p&gt;The debut single by Whigfield aka Danish Eurodance singer Sannie Carlson. She landed on the number one spot of the UK singles chart in September 1994, becoming the first person to do so with their debut single. With this song, she also topped numerous other charts across Europe.&lt;/p&gt;', 'producers': [{'name': 'Larry Pignagnoli', 'url': 'https://genius.com/artists/Larry-pignagnoli'}], 'writers': [{'name': 'Larry Pignagnoli', 'url': 'https://genius.com/artists/Larry-pignagnoli'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Beastie-boys-intergalactic-lyrics', 'lyrics': '[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\n\n[Verse 1: Mike D]\nWell, now, don\'t you tell me to smile\nYou stick around, I\'ll make it worth your while\nGot numbers beyond what you can dial\nMaybe it\'s because I\'m so versatile\nStyle, profile\n\n[Verse 2: Ad-Rock]\nI said it always brings me back when I hear, "ooh child"\nFrom the Hudson River out to the Nile\nI run the marathons \'til the very last mile\n\n[Verse 3: MCA]\nWell, if you battle me, I will revile\nPeople always saying my style is wild\nYou\'ve got gall, you\'ve got guile (guile)\nTo step to me, I’m a rapophile\n[Verse 4: Mike D]\nIf you wanna battle, you\'re in denial\nComing from Uranus to check my style\nGo ahead; put my rhymes on trial\nCast you off into exile\n\n[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\n\n[Verse 5: Ad-Rock]\nJazz and AWOL, that\'s our team\nStep inside the party, disrupt the whole scene\nWhen it comes to beats, well, I\'m a fiend\nI like my sugar with coffee and cream\n\n[Verse 6: MCA]\nWell, I gotta keep it going, keep it going full steam\nToo sweet to be sour; too nice to be mean\nWell, on the tough guy style, I\'m not too keen\nTrying to change the world, I will plot and scheme\n\n[Verse 7: Mike D]\nMario C likes to keep it clean (clean)\nGoin\' to shine like a sunbeam\nKeep on rapping \'cause that\'s my dream\nGot an A from Moe Dee for sticking to themes\n[Verse 8: Ad-Rock]\nNow when it comes to envy, y\'all is green\nJealous of the rhyme and the rhyme routine (\'tine)\nAnother dimension, new galaxy\nIntergalactic planetary\n\n[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\n\n[Verse 9: MCA]\nWe\'re from the family tree of old school hip-hop\nKick off your shoes and relax your socks\nThe rhymes will spread just like a pox\n\'Cause the music is live, like an electric shock\n\n[Verse 10: Mike D]\nI am known to do the wop (wop)\nAlso known for the Flintstone Flop\nTammy D getting biz on the crop (crop)\nBeatsie Boys known to let the beat\n"MMM, D-r-r-rop!"\nDo it\n[Verse 11: Ad-Rock]\nNow when I wrote graffiti, my name was Slop\nIf my rap\'s soup, my beats is stock\nStep from the table when I start to chop\nI\'m the lumberjack, DJ Adrock\n\n[Verse 12: MCA]\nIf you try to knock me, you\'ll get mocked\nI\'ll stir fry you in my wok\nYour knees\'ll start shaking and your fingers pop\nLike a pinch on the neck of Mr. Spock\n\n[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\n\n[Outro]\nDo it', 'annotations': {'description': '&lt;p&gt;“Intergalactic" is track #7 on Beastie Boys 5th (full-length) studio album, &lt;em&gt;Hello Nasty&lt;/em&gt;, released 7.14.1998.  In addition to producing, Mario Caldato, Jr. shares a writing credit with the Boys.  It was dropped as a single on 5.12.1998, the group’s 3rd Top 40 single, hitting #28 on the Billboard Hot 100 charts and #5 on the UK Singles Chart — the Beasties\' biggest hit in that country.  “Intergalactic" received the Grammy Award for Best Rap Performance by a Duo or Group in 1999.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/f0bah2ku2d173blbipnyq811a.600x600x1.jpg" alt="" width="600" height="600" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Source: &lt;a href="http://typophile.com/node/68006" rel="noopener nofollow"&gt;typophile&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Samples include:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;p&gt;“&lt;a href="http://www.whosampled.com/sample/view/9108/Beastie%20Boys-Intergalactic_Les%20Baxter-Prelude%20in%20C#%20Minor/" rel="noopener nofollow"&gt;Prelude C# Minor&lt;/a&gt;“ composed by Rachmaninoff and performed by Lex Baxter&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;“&lt;a href="http://www.youtube.com/watch?v=iS_f7ic5RtQ" rel="noopener nofollow"&gt;Love is Blue&lt;/a&gt;“ by The Jazz Crusaders, on their album, &lt;em&gt;Powerhouse&lt;/em&gt; (1969)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;“&lt;a href="https://genius.com/Beastie-boys-the-new-style-lyrics" rel="noopener" data-api_path="/songs/9409"&gt;The New Style&lt;/a&gt;” from Beastie Boys’ &lt;em&gt;Licensed to Ill&lt;/em&gt; (1986)&lt;/p&gt;&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/2c67uygjjro2r5f1rblkns06t.447x448x1.jpg" alt="" width="447" height="448" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt; Source: &lt;a href="http://eil.com/shop/moreinfo.asp?catalogid=113970" rel="noopener nofollow"&gt;eil&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.beastiemania.com/songspotlight/show.php?band=b&amp;amp;s=intergalacticPerformed" rel="noopener nofollow"&gt;Beastiemania&lt;/a&gt; reports the song has been performed in 189 known Concerts.&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;1st Known Performance: &lt;a href="http://www.beastiemania.com/gigog/show.php?g=19980610" rel="noopener nofollow"&gt;6.10.1998&lt;/a&gt; — Electric Factory, Philadelphia, PA, US&lt;br&gt;\n&lt;a href="http://www.youtube.com/watch?v=kCGNWdrN3yw" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=kCGNWdrN3yw&lt;/a&gt;&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?feature=player_detailpage&amp;amp;v=X8vsLWonkpQ#t=174s" rel="noopener nofollow"&gt;https://www.youtube.com/watch?feature=player_detailpage&amp;amp;v=X8vsLWonkpQ#t=174s&lt;/a&gt;&lt;br&gt;\n&lt;a href="http://www.youtube.com/watch?v=0Hxv1QfQlnU" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=0Hxv1QfQlnU&lt;/a&gt;&lt;br&gt;\n&lt;a href="http://www.youtube.com/watch?v=LBxfGG0OVgU" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=LBxfGG0OVgU&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;Last Known Performance: &lt;a href="http://www.beastiemania.com/gigog/show.php?g=20090612" rel="noopener nofollow"&gt;6.12.2009&lt;/a&gt; — Great Stage Park, Manchester, TN, US&lt;/li&gt;\n&lt;/ul&gt;', 'producers': [{'name': 'Beastie Boys', 'url': 'https://genius.com/artists/Beastie-boys'}, {'name': 'Mario Caldato Jr.', 'url': 'https://genius.com/artists/Mario-caldato-jr'}], 'writers': [{'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Mike D', 'url': 'https://genius.com/artists/Mike-d'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'Mario Caldato Jr.', 'url': 'https://genius.com/artists/Mario-caldato-jr'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Grand Royal Records', 'url': 'https://genius.com/artists/Grand-royal-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pixies-where-is-my-mind-lyrics', 'lyrics': "[Intro: Black Francis, Kim Deal]\nOoh—stop\n\n[Verse 1: Black Francis]\nWith your feet on the air and your head on the ground\nTry this trick and spin it, yeah (Yeah)\nYour head will collapse, and there's nothing in it\nAnd you'll ask yourself\n\n[Chorus: Black Francis]\nWhere is my mind?\nWhere is my mind?\nWhere is my mind?\nWay out in the water, see it swimmin'\n\n[Verse 2: Black Francis]\nI was swimmin' in the Caribbean\nAnimals were hiding behind the rocks\nExcept the little fish\nBumped into me, I swear he was trying to talk to me, koi-koi\n[Chorus: Black Francis]\nWhere is my mind?\nWhere is my mind?\nWhere is my mind?\nWay out in the water, see it swimmin'\n[Verse 3: Black Francis]\nWith your feet on the air and your head on the ground\nTry this trick and spin it, yeah\nYour head will collapse, and there's nothing in it\nAnd you'll ask yourself\n\n[Chorus: Black Francis]\nWhere is my mind?\nWhere is my mind?\nWhere is my mind?\nWay out in the water, see it swimmin'\n\n[Outro: Black Francis]\nWith your feet on the air and your head on the ground\nTry this trick and spin it, yeah", 'annotations': {'description': '&lt;p&gt;Black Francis says that “Where Is My Mind?” was written during the time he was attending the University of Massachusetts Amherst, and was inspired by the experience of having a small fish chase him while he was snorkeling in the Caribbean.&lt;/p&gt;\n\n&lt;p&gt;David Lovering and Joey Santiago on writing the song and its use in at the end of the iconic movie &lt;em&gt;Fight Club&lt;/em&gt; (1999) (Warning: Movie spoilers):&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/sMeZDlJ_YYM?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Steve Albini', 'url': 'https://genius.com/artists/Steve-albini'}], 'writers': [{'name': 'Frank Black', 'url': 'https://genius.com/artists/Frank-black'}], 'labels': [{'name': 'Rough Trade Records', 'url': 'https://genius.com/artists/Rough-trade-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Franz-ferdinand-right-action-lyrics', 'lyrics': '[Verse 1]\nCome home, practically all is nearly forgiven\nRight thoughts, right words, right action\nAlmost everything could be forgotten\nRight thoughts, right words, right action\n\n[Chorus]\nOh, how can we leave you\nTo a Saturday night on a Sunday morning?\nGood morning\n\n[Verse 2]\nSometimes, wish you were here, weather permitting\nRight thoughts, right words, right action\nThis time, same as before, love you forever\nRight thoughts, right words, right action\n\n[Chorus]\nBut how can we leave you\nTo a Saturday night on a Sunday morning?\nGood morning\n\n[Refrain]\nDo-do-n-do-do-do\nDo-do-n-do-do-do\nDo-do-do-do, do, do, do\n[Bridge]\n11 Chalcot Gardens\nEngland’s Lane, Hampstead, London\n\n[Refrain]\nDo-do-n-do-do-do\nDo-do-n-do-do-do\nDo-do-do-do, do-do\n\n[Outro]\nSometimes, wish you were here, weather permitting\nRight thoughts, right words, right action\nRight thoughts, right words, right action\nRight thoughts, right words, right action\nRight thoughts, right words, right action', 'annotations': {'description': '&lt;p&gt;The opening song to their 2013 album “Right Thoughts, Right Words, Right Action.” It is an upbeat song whose narrator seems to emphasize those principles in its\' chorus, but ends up being rather passive-aggressive in the verses.&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?v=RqTsUtQLRFk" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=RqTsUtQLRFk&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Alexis Taylor', 'url': 'https://genius.com/artists/Alexis-taylor'}, {'name': 'Joe Goddard', 'url': 'https://genius.com/artists/Joe-goddard'}], 'writers': [{'name': 'Bob Hardy', 'url': 'https://genius.com/artists/Bob-hardy'}, {'name': 'Nick McCarthy', 'url': 'https://genius.com/artists/Nick-mccarthy'}, {'name': 'Alex Kapranos', 'url': 'https://genius.com/artists/Alex-kapranos'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-offspring-self-esteem-lyrics', 'lyrics': "[Intro]\nLa, la, la, la, la\nLa, la, la, la, la\n\n[Verse 1]\nI wrote her off for the tenth time today\nAnd practiced all the things I would say\nBut she came over, I lost my nerve\nI took her back and made her dessert\nNow I know I'm being used\nThat's okay, man, 'cause I like the abuse\nI know she's playing with me\nThat's okay 'cause I've got no self-esteem\n\n[Chorus]\nOh hey yeah yeah\nOh yeah yeah\nOh yeah yeah\nOh yeah yeah\n\n[Verse 2]\nWe make plans to go out at night\nI wait 'til two, then I turn out the light\nThis rejection's got me so low\nIf she keeps it up, I just might tell her so\n[Chorus]\nOh hey yeah yeah\nOh yeah yeah\nOh yeah yeah\nOh yeah yeah\n\n[Bridge]\nWhen she's saying, oh, that she wants only me\nThen I wonder why she sleeps with my friends\nWhen she's saying, oh, that I'm like a disease\nThen I wonder how much more I can spend\nWell, I guess I should stick up for myself\nBut I really think it's better this way\nThe more you suffer\nThe more it shows you really care\nRight? Yeah, yeah, yeah\n\n[Verse 3]\nNow I'll relate this little bit\nIt happens more than I'd like to admit\nLate at night, she knocks on my door\nShe's drunk again and looking to score\nNow I know I should say no\nBut it's kind of hard when she's ready to go\nI may be dumb, but I'm not a dweeb\nI'm just a sucker with no self-esteem\n[Chorus]\nOh hey yeah yeah\nOh yeah yeah\nOh yeah yeah\nOh yeah yeah\n\n[Bridge]\nWhen she's saying, oh, that she wants only me\nThen I wonder why she sleeps with my friends\nWhen she's saying, oh, that I'm like a disease\nThen I wonder how much more I can spend\nWell, I guess I should stick up for myself\nBut I really think it's better this way\nThe more you suffer\nThe more it shows you really care\nRight? Yeah, yeah, yeah", 'annotations': {'description': '&lt;p&gt;The song that got millions of mid-90s teenage boys self-righteously indignant. Believe us – we were there…&lt;/p&gt;\n\n&lt;p&gt;Dexter Holland has said that people have often thought that this was a song based on him because the song is spoken in a first person perspective, but he got the idea from other people he knew about.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/a725efa76cfb27b653ef8f9e1b86214e.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;For many years, this has been the last song played at an Offspring concert.&lt;/p&gt;', 'producers': [{'name': 'Thom Wilson', 'url': 'https://genius.com/artists/Thom-wilson'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Amy-winehouse-back-to-black-lyrics', 'lyrics': "[Verse 1]\nHe left no time to regret\nKept his dick wet with his same old safe bet\nMe and my head high\nAnd my tears dry, get on without my guy\nYou went back to what you know\nSo far removed from all that we went through\nAnd I tread a troubled track\nMy odds are stacked, I'll go back to black\n\n[Chorus]\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\nI go back to us\n\n[Verse 2]\nI love you much, it's not enough\nYou love blow and I love puff\nAnd life is like a pipe\nAnd I'm a tiny penny rollin' up the walls inside\n\n[Chorus]\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\n[Bridge]\nBlack, black, black, black\nBlack, black, black\nI go back to\nI go back to\n\n[Chorus]\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to black", 'annotations': {'description': '&lt;p&gt;Ranked as the &lt;a href="https://www.rollingstone.com/music/music-lists/100-best-songs-of-the-2000s-153056/" rel="noopener nofollow"&gt;#98 best song of the 2000’s&lt;/a&gt;, “Back to Black” details the harsh reality Winehouse faced after her then-boyfriend, Blake Fielder-Civil, ended their relationship to return to his ex-girlfriend.&lt;/p&gt;\n\n&lt;p&gt;The titular “black” to which Winehouse goes back refers to the dark moments of depression and the reliance on alcohol to cope with her heartache. Winehouse commented on the depressing period of time during a 2007 interview with &lt;a href="https://youtu.be/BUO31yMztxE" rel="noopener nofollow"&gt;&lt;em&gt;CNN&lt;/em&gt;&lt;/a&gt;, saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was drinking a lot – not anything terrible, I was just tryna forget about the fact that I had finished this relationship.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song was released as the third single from the 2006 album of the same name, and, as of July 2015, has sold over &lt;a href="https://www.officialcharts.com/chart-news/amy-winehouse-s-back-to-black-in-numbers__10090/" rel="noopener nofollow"&gt;350,000 copies&lt;/a&gt; in the United Kingdom alone.&lt;/p&gt;\n\n&lt;p&gt;The song was written in March 2006 in New York alongside British songwriter and producer &lt;a href="https://genius.com/artists/Mark-ronson" rel="noopener" data-api_path="/artists/8231"&gt;Mark Ronson&lt;/a&gt;, who also helped to craft five more songs on the album. During an interview with &lt;a href="https://youtu.be/dG2-WapOt1A?t=838" rel="noopener nofollow"&gt;Red Bull Music Academy&lt;/a&gt; in April 2015, Ronson expanded on the creation of the song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt; The song – it took me about one night to lay the foundation of that track and then Amy wrote the lyrics and the melody especially fast, so it was like half a day, and then we probably recorded the rhythm track in three hours.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}], 'writers': [{'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Amy Winehouse', 'url': 'https://genius.com/artists/Amy-winehouse'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-offspring-the-kids-arent-alright-lyrics', 'lyrics': "[Verse 1]\nWhen we were young the future was so bright (Woah)\nThe old neighborhood was so alive (Woah)\nAnd every kid on the whole damn street (Woah)\nWas gonna make it big and not be beat\nNow the neighborhood's cracked and torn (Woah)\nThe kids are grown up but their lives are worn (Woah)\nHow can one little street\nSwallow so many lives?\n\n[Chorus]\nChances thrown, nothing's free\nLonging for what used to be\nStill it's hard, hard to see\nFragile lives, shattered dreams\n(Go!)\n\n[Verse 2]\nJamie had a chance, well she really did (Woah)\nInstead she dropped out and had a couple of kids (Woah)\nMark still lives at home 'cause he's got no job (Woah)\nHe just plays guitar and smokes a lot of pot\nJay committed suicide (Woah)\nBrandon OD'd and died (Woah)\nWhat the hell is going on?\nThe cruelest dream, reality\n[Chorus]\nChances thrown, nothing's free\nLonging for what used to be\nStill it's hard, hard to see\nFragile lives, shattered dreams\n(Go!)\n\n[Outro]\nChances thrown, nothing's free\nLonging for what used to be\nStill it's hard, hard to see\nFragile lives, shattered dreams", 'annotations': {'description': '&lt;p&gt;“The Kids Aren’t Alright” is the third single from the album &lt;a href="http://rock.genius.com/albums/The-offspring/Americana" rel="noopener" data-api_path="/albums/28406"&gt;&lt;em&gt;Americana&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Its title is an allusion to &lt;a href="https://genius.com/artists/The-who" rel="noopener" data-api_path="/artists/17846"&gt;The Who&lt;/a&gt; song “&lt;a href="http://rock.genius.com/The-who-the-kids-are-alright-lyrics" rel="noopener" data-api_path="/songs/140269"&gt;The Kids Are Alright&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;In the video below, Dexter talks more about the song. One of the things that inspired the song was that someone from his neighborhood that he grew up with died from getting hit by a car.&lt;/p&gt;\n\n&lt;p&gt;Though the song plays B flat, G flat, D flat, and A flat, Noodles said if the song were to be transposed down a note, he could have done more with the songs.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/UNtwlhFOQGg?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Dave Jerden', 'url': 'https://genius.com/artists/Dave-jerden'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nirvana-lithium-lyrics', 'lyrics': "[Verse 1]\nI'm so happy, 'cause today I found my friends, they're in my head\nI'm so ugly, that's okay, 'cause so are you, broke our mirrors\nSunday mornin' is every day for all I care, and I'm not scared\nLight my candles in a daze, 'cause I've found God\n\n[Chorus]\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah\n\n[Verse 2]\nI'm so lonely, that's okay, I shaved my head, and I'm not sad\nAnd just maybe I'm to blame for all I've hurt, but I'm not sure\nI'm so excited, I can't wait to meet you there, and I don't care\nI'm so horny, that's okay, my will is good\n\n[Chorus]\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah\n[Bridge]\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack\n\n[Verse 1]\nI'm so happy, 'cause today I found my friends, they're in my head\nI'm so ugly, that's okay, 'cause so are you, broke our mirrors\nSunday mornin' is every day for all I care, and I'm not scared\nLight my candles in a daze, 'cause I've found God\n\n[Chorus]\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah\n\n[Bridge]\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack", 'annotations': {'description': '&lt;p&gt;“Lithium” is a perfect description of manic depression, where every line is both happy and sad, up and down, while having references to God recalling when Kurt lived with a devout Christian family. The title invokes &lt;a href="https://en.wikipedia.org/wiki/Lithium_%28medication%29" rel="noopener nofollow"&gt;lithium salts&lt;/a&gt;, a key drug in treating the disorder.&lt;/p&gt;\n\n&lt;p&gt;The CD single contained a sonogram photo of Kurt Cobain and Courtney Love’s still to be born child, Frances Bean; Kurt said he thought he saw Frances doing the heavy metal devil horn hand gesture when he watched the sonogram.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/5bd6a4460b8c4a71a9c91e2230ed2082.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Butch Vig', 'url': 'https://genius.com/artists/Butch-vig'}], 'writers': [{'name': 'Kurt Cobain', 'url': 'https://genius.com/artists/Kurt-cobain'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bridgit-mendler-ready-or-not-lyrics', 'lyrics': "[Intro]\nHey-ey-ey\nHey-ey-ey\nOoh\n\n[Verse 1]\nI'm the kind of girl who doesn't say a word\nWho sits at the curb and waits for the world\nBut I'm about to break out, about to break out\nI'm like a crook tonight\nI caught you staring at me, and I was thinking clearly\nAnd now I'm like a bee and I'm hunting for the honey\nAnd I'm kinda shy, but you're super fly, yeah\nI could be your kryptonite, like\n\n[Pre-Chorus]\n(Oh, oh-oh-oh, oh-oh-oh)\nLight my heart up, baby, like a matchstick\n(Oh, oh-oh-oh, oh-oh-oh)\nAnd hit the gas quick\n\n[Chorus]\nReady or not, here I come\nWhere you at? The night is young\nIn the crowd, the music's loud\nBut I will find you\nReady or not, here I come\nI like your face, do you like my song?\nJust sing it, la-la-la-la-la-la-la\nAnd I'll find you\n[Hook]\nReady or not (woah, woah, oh, woah, oh)\nReady or not (woah, woah, oh, woah, oh)\n\n[Verse 2]\nHello, my name is (Bridgit), nice to meet you\nI think you're famous, where have I seen you?\nYou'll be my William, I'll be your Kate\nLiving like a fairy tale\nWe could have a palace right next to Oprah\nThirty-seven cars and a yacht down in Boca\nTake me away, wherever you say\nYeah, we could be setting sail, like\n\n[Pre-Chorus]\n(Oh, oh-oh-oh, oh-oh-oh)\nLight my heart up, baby, like a matchstick\n(Oh, oh-oh-oh, oh-oh-oh)\nAnd hit the gas quick\n\n[Chorus]\nReady or not, here I come\nWhere you at? The night is young\nIn the crowd (oh-oh), the music's loud\nBut I will find you\nReady or not, here I come\nI like your face, do you like my song? (yeah)\nJust sing it, la-la-la-la-la-la-la (la-la-la-la-la)\nAnd I'll find you\n[Hook]\nReady or not (woah, woah, oh, woah, oh)\nReady or not (woah, woah, oh, woah, oh)\nNot, no, woah, oh, woah, oh!\n\n[Bridge]\nReady or not, here I come, here I come\nYou're like a breath of fresh air in my lungs\nYou made me dance from the night to the dawn\nReady or not, here I come boy, it's on\nReady or not, here I come, here I come\nYou're like a breath of fresh air in my lungs\nYou made me dance from the night to the dawn\nReady or not, here I come boy, it's on\n\n[Chorus]\nReady or not, here I come\nWhere you at? The night is young (yeah)\nIn the crowd, the music's loud\nBut I will find you (I'll find you)\nReady or not, here I come\nI like your face, do you like my song?\nJust sing it, la-la-la-la-la-la-la (la-la-la-la)\nAnd I'll find you\n\n[Outro]\nReady or not (ready or not) (woah, woah, oh, woah, oh)\n(You're like a breath of fresh air in my lungs)\nReady or not (here I come!) (woah, woah, oh, woah, oh)\nOh! Ready or not (ready or not, woo!)\nReady or not (ready or not, ready or not, boom-batta-boom, batta-boom, batta-boom, batta-boom)\nReady or not", 'annotations': {'description': '&lt;p&gt;“Ready or Not” is Bridgit Mendler’s  debut single, and is the lead single from her debut studio album, &lt;i&gt;Hello My Name Is …&lt;/i&gt; It was released on August 3, 2012 and was released as a digital download on August 7, 2012.&lt;/p&gt;\n\n&lt;p&gt;The song was played during commercial breaks on Disney Channel due to Mendler’s roles in &lt;i&gt;Good Luck Charlie&lt;/i&gt; and &lt;i&gt;Wizards of Waverly Place&lt;/i&gt;, helping it to gain popularity and eventually peak at #49 on the Billboard Hot 100.&lt;/p&gt;', 'producers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': 'Emanuel Kiriakou', 'url': 'https://genius.com/artists/Emanuel-kiriakou'}], 'writers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': 'E. Kidd Bogart', 'url': 'https://genius.com/artists/E-kidd-bogart'}, {'name': 'Bridgit Mendler', 'url': 'https://genius.com/artists/Bridgit-mendler'}, {'name': 'William Hart', 'url': 'https://genius.com/artists/William-hart'}, {'name': 'Thom Bell', 'url': 'https://genius.com/artists/Thom-bell'}, {'name': 'Emanuel Kiriakou', 'url': 'https://genius.com/artists/Emanuel-kiriakou'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Electric-light-orchestra-last-train-to-london-lyrics', 'lyrics': "[Verse 1]\nIt was 9:29\n9:29, back street, big city\nThe sun was going down\nThere was music all around\nIt felt so right\n\n[Verse 2]\nIt was one of those nights\nOne of those nights when you feel the world stop turning\nYou were standing there\nThere was music in the air\nI should've been away\nBut I knew I had to stay\n\n[Chorus]\nLast train to London, just heading out\nLast train to London, just leaving town\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight\n\n[Verse 3]\nIt was one of those nights\nOne of those nights when you feel a fire is burning\nEverybody was there\nEverybody to share\nIt was so right\n[Verse 4]\nThere you were on your own\nLooking like you were the only one around\nI had to be with you\nNothing else that I could do\nI should've been away\nBut I knew I had to stay\n\n[Chorus]\nLast train to London, just heading out\nLast train to London, just leaving town\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight\n\n[Verse 5]\nUnderneath a starry sky\nTime was still, but hours must really have rushed by\nI didn't realize\nBut love was in your eyes\nI really should've gone\nBut love went on and on\n\n[Chorus]\nLast train to London, just heading out\nLast train to London, just leaving town\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight\n[Outro]\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight", 'annotations': {'description': '&lt;p&gt;“Last Train to London” is a single by &lt;a href="https://genius.com/artists/Electric-light-orchestra" rel="noopener" data-api_path="/artists/29232"&gt;Electric Light Orchestra&lt;/a&gt; and the fifth track from their album &lt;a href="https://genius.com/albums/Electric-light-orchestra/Discovery" rel="noopener" data-api_path="/albums/69084"&gt;&lt;em&gt;Discovery&lt;/em&gt;&lt;/a&gt;. Written and produced by &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;, the song reached No. 39 the &lt;em&gt;Billboard Hot 100&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Discovery&lt;/em&gt; remaster (2001), &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;There was a certain period when it seemed we spent years on trains going back and forth from Birmingham to the various TV and radio stations in London.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}], 'writers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Ub40-rat-in-mi-kitchen-lyrics', 'lyrics': "[Intro]\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\n\nWhen you open your mouth you don't talk, you shout\nAnd you give every body the blame\nBut when they catch you up\nThey will shut you up\nAnd you got no one to blame\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWhen you out on the street\nYou practice lies and deceit\nAnd you scandalise my name\nBut when I catch you up\nI'm gonna pull you up\nI'm gonna check-out inside your brain\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWhen yo deh pon the scene\nYou make everyone scream\nBecause they know you're so unjust\nBut when they catch you up\nThey will kick you up\nBecause you're someone they cannot trust\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/88e5503eb1009ec2605d22e90e11e4eb.400x394x1.jpg" alt="" width="400" height="394" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;This track was written by Astro, in response to Ali Campbell being troubled by rodents in his new home, which he had just moved into at the time.&lt;br&gt;\nThe rat in the kitchen refers to Margaret Thatcher, who was the Prime Minister of The United Kingdom at the time.&lt;/p&gt;\n\n&lt;p&gt;Herb Alpert, who is the co-founder of A&amp;amp;M records, features on trumpet.&lt;/p&gt;', 'producers': [{'name': 'UB40', 'url': 'https://genius.com/artists/Ub40'}], 'writers': [{'name': 'UB40', 'url': 'https://genius.com/artists/Ub40'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Us3-cantaloop-flip-fantasia-lyrics', 'lyrics': "[Intro]\nLadies and gentlemen, as you know we have something special down here at Birdland this evening\nA recording for Blue Note Records\n\nWhat's that? Yeah...yeah...yeah\nFunky, funky\nHow 'bout a big hand now\nWait, wait a minute\n\n[Verse 1]\nGroovy groovy jazzy funky pounce bounce dance as we\nDip in the melodic sea, the rhythm keeps flowin', and drips to MC\nSweet sugar pop sugar pop rocks it pop\nYa dont stop 'til the sweet beat drops\nI show and prove as I stick and move\nVivid poems recited on top of the groove\nSmooth, my, floating like a butterfly\nNotes set afloat, sung like a lullaby\nBrace yourself as the beat hits ya\nDip trip, flip fantasia\n\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n[Verse 2]\nFeel the beat drop, jazz and hip hop\nDrippin' in your dome, makes you zone and bop\nFunk and fusion, a fly illusion\nKeeps ya coastin' on the rhythm you're cruisin'\nUp down, round and round, rhymes profound\nBut nevertheless ya gots to get down\nFantasy freak thru the beat so unique\nYa move your feet, the sweat from the heat\nBack to the fact I'm the mack and I know that\nThe way I kick the rhymes, some would call me a poet\nPoems steady flowin', growin', showin' sights and sound\nCaught in the groove in Fantasia I'm found\nMany trip the tour upon the rhymes they soar\nTo an infinite height to the realm of the hardcore\nHere we go off I take ya\nDip trip, flip fantasia\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n(Yeah...yeah...yeah...What's that?)\n(Yeah...yeah...yeah...Funky, funky)\n\n[Verse 3]\nJump to the jam, boogie woogie jam slam\nBust the dialect, I'm the man in command\nCome flow with the sounds of the mighty mic master\nRhyming on the mic, I'm bringing suckas their disaster\nBeaucoup ducs but I still rock Nike\nWith the razzle dazzle, star I might be\nScribble drabble scrabble on the microphone I babble\nAs I flip the funky words, into a puzzle\nYes yes yes, on and on as I flex\nGet with the flow, words manifest\nFeel the vibe from here to Asia\nDip trip, flip fantasia\nOut\n\n[Outro]\nYa don't stop\nC'mon, c'mon, c'mon, c'mon\nC'mon, c'mon, c'mon\nGimme more\nOf that funky horn", 'annotations': {'description': '&lt;p&gt;Us3’s extensive use of samples from the Blue Note Records catalog got the attention of Blue Note who surprised them with an offer for a record deal. (Richard Cook, Blue Note Records: The Biography, p226)&lt;/p&gt;\n\n&lt;p&gt;Main sample is from &lt;a href="https://genius.com/artists/Herbie-hancock" rel="noopener" data-api_path="/artists/6238"&gt;Herbie Hancock&lt;/a&gt;’s &lt;a href="http://www.whosampled.com/sample/172/Us3-Cantaloop-%28Flip-Fantasia%29-Herbie-Hancock-Cantaloupe-Island/" rel="noopener nofollow"&gt;“Cantaloupe Island”&lt;/a&gt; (Blue Note, 1964)&lt;/p&gt;\n\n&lt;p&gt;A great version of Canteloupe Island by Herbie Hancock is the opening spot on the famous “A Night with Blue Note” concert in 1985.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/SgBs5IFP1v8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}], 'writers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}, {'name': 'Rahsaan Kelly', 'url': 'https://genius.com/artists/Rahsaan-kelly'}, {'name': 'Herbie Hancock', 'url': 'https://genius.com/artists/Herbie-hancock'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Blue Note Records', 'url': 'https://genius.com/artists/Blue-note-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Michael-jackson-wanna-be-startin-somethin-lyrics', 'lyrics': '[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Verse 1]\nI took my baby to the doctor with a fever\nBut nothin\' he found\nBy the time this hit the street\nThey said she had a breakdown\nSomeone\'s always tryin\'\nTo start my baby cryin\'\nTalkin\', squealin\', lyin\'\nSayin\' you just want to be startin\' somethin\'\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n[Verse 2]\nYou love to pretend that you\'re good\nWhen you\'re always up to no good\nYou really can\'t make him hate her\nSo your tongue became a razor\nSomeone\'s always tryin\'\nTo keep my baby cryin\'\nTreacherous, cunnin\', declinin\'\nYou got my baby cryin\' (Hee)\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Bridge]\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nStill they hate you (Still they hate you)\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re just a buffet (You\'re just a buffet) (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nThey eat off of you (They eat off of you) (You\'re a vegetable)\nYou\'re a vegetable, aaow!\n[Verse 3]\nBillie Jean is always talkin\' when nobody else is talkin\'\nTellin\' lies and rubbin\' shoulders\nSo they called her mouth a motor\nSomeone\'s always tryin\'\nTo start my baby cryin\'\nTalkin\', squealin\', spyin\'\nSayin\' you just want to be startin\' somethin\'\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Bridge]\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nStill they hate you (Still they hate you)\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re just a buffet (You\'re just a buffet) (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nThey eat off of you (They eat off of you) (You\'re a vegetable)\nYou\'re a vegetable, aaow!\n[Instrumental Interlude]\nAaow!\nHee-haw! (Ooh!)\n\n[Verse 4]\nIf you can\'t feed your baby (Yeah, yeah)\nThen don\'t have a baby (Yeah, yeah)\nAnd don\'t think maybe (Yeah, yeah)\nIf you can\'t feed your baby (Yeah, yeah)\nYou\'ll be always tryin\'\nTo stop that child from cryin\'\nHustlin\', stealin\', lyin\'\nNow baby\'s slowly dyin\'\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Bridge]\nLift your head up high and scream out to the world\n"I know I am someone," and let the truth unfurl (Hee-ha)\nNo one can hurt you now because you know what\'s true\nYes, I believe in me, so do believe in you\n\n[Outro]\nHelp me sing it\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it, babe)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Yeah, sing it to the world)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Sing it out loud)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah  (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it to the world)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Yeah)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Sing it to the world)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Sing it out loud)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)', 'annotations': {'description': '&lt;p&gt;As the opening song and fourth single of &lt;em&gt;Thriller&lt;/em&gt;, “Wanna Be Startin\' Somethin\'” picks up where &lt;em&gt;Off the Wall&lt;/em&gt; left off and begins the new phenomenon of &lt;em&gt;Thriller&lt;/em&gt;. According to Epic Records notes, the song was written in part by Michael for his sister &lt;a href="https://genius.com/artists/Latoya-jackson" rel="noopener" data-api_path="/artists/141665"&gt;LaToya&lt;/a&gt; as a response to negative reports about her relationship with her sisters, but Michael recorded it himself. Released on its own on May 8, 1983, “Wanna Be Startin\' Somethin\'” went #1 in Canada and the Netherlands and cracked in the Top 40 in 13 regions. It charted again in Denmark, Italy and Switzerland in 2008 following the release of its &lt;a href="https://genius.com/Michael-jackson-wanna-be-startin-somethin-2008-lyrics" rel="noopener" data-api_path="/songs/188874"&gt;successful remix&lt;/a&gt; for &lt;em&gt;Thriller 25&lt;/em&gt;, and at #25 in America following Jackson’s death on June 25, 2009.&lt;/p&gt;\n\n&lt;p&gt;The iconic outro of the song, repeating the Cameroonian phrase “Mama Se, Mama Sa, Ma Makusa” has never been outright defined. A lawsuit decided that Jackson (and &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt;, who sampled the song for &lt;a href="https://genius.com/Rihanna-dont-stop-the-music-lyrics" rel="noopener" data-api_path="/songs/97149"&gt;“Don’t Stop the Music”&lt;/a&gt;) had illegally sampled &lt;a href="https://genius.com/Manu-dibango-soul-makossa-lyrics" rel="noopener" data-api_path="/songs/1152123"&gt;“Soul Makossa”&lt;/a&gt; by Manu DiBango, released in 1972 that was popular in the underground New York disco scene.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When &lt;em&gt;Thriller&lt;/em&gt; opens, those 100 million sales feel just. “Wanna Be Startin\' Somethin\'” is pure confused, shocked teenage rush. So there’s another theory: Thriller is the best-selling record ever because it’s the best record ever. That one holds up for six minutes and two seconds, during which Jackson and Quincy Jones mix the tension of rock\'n\'roll with the rapture of disco and hit perfection.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;— &lt;a href="http://pitchfork.com/reviews/albums/11163-thriller-25th-anniversary-edition/" rel="noopener nofollow"&gt;Pitchfork&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Quincy Jones', 'url': 'https://genius.com/artists/Quincy-jones'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'writers': [{'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Avicii-wake-me-up-lyrics', 'lyrics': "[Verse 1]\nFeeling my way through the darkness\nGuided by a beating heart\nI can't tell where the journey will end\nBut I know where to start\nThey tell me I'm too young to understand\nThey say I'm caught up in a dream\nWell life will pass me by if I don't open up my eyes\nWell that's fine by me\n\n[Chorus]\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know\ufeff I was lost\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know \ufeffI was lost\n\n[Instrumental Break]\n\n[Verse 2]\nI tried carrying the weight of the world\nBut I only have two hands\nI hope I get the chance to travel the world\nBut I don't have any plans\nWish that I could stay forever this young\nNot afraid to close my eyes\nLife's a game\ufeff made for everyone\nAnd love is the prize\n[Chorus]\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know\ufeff I was lost\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know I was lost\n\n[Outro]\nI didn't know I was lost\nI didn't know I was lost\nI didn't know I was lost\nI didn't know, I didn't know, I didn't know", 'annotations': {'description': '&lt;p&gt;“Wake Me Up” is the lead single for Avicii’s first studio album &lt;em&gt;&lt;a href="https://genius.com/albums/avicii/true" rel="noopener" data-api_path="/albums/37018"&gt;#True&lt;/a&gt;&lt;/em&gt;. It features Aloe Blacc, who &lt;a href="https://www.youtube.com/watch?v=5ApBhsqo8_0#t=543" rel="noopener nofollow"&gt;wrote the lyrics&lt;/a&gt; on a plane flying from Geneva, Switzerland, to L.A.&lt;/p&gt;\n\n&lt;p&gt;Like many other Avicii hits, this song was first introduced at the Ultra Music Festival &lt;a href="https://www.youtube.com/watch?v=HCQXbekahGI" rel="noopener nofollow"&gt;with the live performance of a bluegrass band&lt;/a&gt;, swaying so far away from the typical EDM spectrum. It infuses Irish folk music with house beats, with vocals from American soul singer &lt;a href="https://genius.com/artists/Aloe-blacc" rel="noopener" data-api_path="/artists/3896"&gt;Aloe Blacc&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song spent 53 weeks on the &lt;em&gt;Billboard&lt;/em&gt; charts (21 of them being in the top 10), making it the first Dance/Electronic song to stay over a year on that chart. It never reached the #1 spot, though; it only peaked at #4.&lt;/p&gt;\n\n&lt;p&gt;The song also broke all of Avicii’s personal records of sales, topping music charts in 22 different countries as well as breaking the top 10 mark in 6 others. Commercially, the song has been a bigger hit than his previous &lt;a href="http://rock.genius.com/Avicii-levels-lyrics" rel="noopener" data-api_path="/songs/66020"&gt;“Levels”&lt;/a&gt; that only peaked at #60 on &lt;em&gt;Billboard&lt;/em&gt;’s Top 100 and only spent 20 weeks on the charts.&lt;/p&gt;', 'producers': [{'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}], 'writers': [{'name': 'Mike Einziger', 'url': 'https://genius.com/artists/Mike-einziger'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Aloe Blacc', 'url': 'https://genius.com/artists/Aloe-blacc'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}, {'name': 'PRMD Records', 'url': 'https://genius.com/artists/Prmd-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Evanescence-call-me-when-youre-sober-lyrics', 'lyrics': "[Intro]\nDon't cry to me\nIf you loved me\nYou would be here with me\nYou want me\nCome find me\nMake up your mind\n\n[Verse 1]\nShould I let you fall, lose it all?\nSo maybe you can remember yourself\nCan't keep believing\nWe're only deceiving ourselves\nAnd I'm sick of the lie\nAnd you're too late\n\n[Chorus]\nDon't cry to me\nIf you loved me\nYou would be here with me\nYou want me\nCome find me\nMake up your mind\n\n[Verse 2]\nCouldn't take the blame, sick with shame\nMust be exhausting to lose your own game\nSelfishly hated, no wonder you're jaded\nYou can't play the victim this time\nAnd you're too late\n[Chorus]\nSo don't cry to me\nIf you loved me\nYou would be here with me\nYou want me\nCome find me\nMake up your mind\n\n[Bridge]\nYou never call me when you're sober\nYou only want it 'cause it's over, it's over\nHow could I have burned paradise?\nHow could I - you were never mine\n\n[Outro]\nSo don't cry to me\nIf you loved me\nYou would be here with me\nDon't lie to me\nJust get your things\nI've made up your mind", 'annotations': {'description': '&lt;p&gt;As one of the last songs recorded for &lt;a href="https://genius.com/albums/Evanescence/The-open-door" rel="noopener" data-api_path="/albums/19236"&gt;&lt;em&gt;The Open Door&lt;/em&gt;&lt;/a&gt;, “Call Me When You’re Sober” was predominantly inspired by Amy Lee’s ex-boyfriend and &lt;a href="https://genius.com/artists/Seether" rel="noopener" data-api_path="/artists/20913"&gt;Seether&lt;/a&gt; frontman, Shaun Morgan. In an &lt;a href="http://www.mtv.com/news/1538267/evanescence-set-for-fall-tour-amy-lee-reveals-inspiration-behind-sober/" rel="noopener nofollow"&gt;MTV News interview&lt;/a&gt;, Amy Lee spoke about the song being very personal to her:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was very brave for me, the lyric writing, because I was just sick of hiding behind metaphors in all that I had been writing. So much of the record was about the turmoil I was going through, with choosing between happiness and comfort. In the end, I had to choose happiness and health for myself. I made the right decision. I was letting myself be run down.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Directed by &lt;a href="https://en.wikipedia.org/wiki/Marc_Webb#Music_videos" rel="noopener nofollow"&gt;Marc Webb&lt;/a&gt;, the accompanying music video is based upon modern re-imagining of &lt;em&gt;Little Red Riding Hood&lt;/em&gt;. Due to the literal nature of the song and its lyrics, &lt;a href="http://www.mtv.com/news/1537409/evanescences-amy-lee-isnt-afraid-of-big-bad-wolf-in-sober-clip/" rel="noopener nofollow"&gt;Amy Lee explained&lt;/a&gt; the importance for the video to “have the freedom to go in a less literal direction.” In 2007, “Call Me When You’re Sober” earned Evanescence two nominations in the best video categories at the &lt;em&gt;MuchMusic Video Awards&lt;/em&gt; and &lt;em&gt;NRJ Music Awards&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song wasn’t originally intended for inclusion on the album, &lt;a href="https://evanescencereference.info/wiki/index.php?title=John_Lee_on_The_Open_Door" rel="noopener nofollow"&gt;according&lt;/a&gt; to Amy Lee’s father, &lt;a href="https://genius.com/artists/John-patrick-lee" rel="noopener" data-api_path="/artists/1672457"&gt;John Lee&lt;/a&gt;. “It was just a little ditty she was working on and singing on her piano at home to purge herself of a past boyfriend. She said she would laugh out loud while she was writing and singing it and thought it was funny,” he added.&lt;/p&gt;\n\n&lt;p&gt;Upon its release, “Call Me When You’re Sober” received generally positive reviews from critics, and the song peaked at number 10 on the &lt;em&gt;Billboard Top 100&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'Terry Balsamo', 'url': 'https://genius.com/artists/Terry-balsamo'}, {'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-magic-numbers-love-me-like-you-lyrics', 'lyrics': "Don't let your white dress wear you out\nOh it hurts to look in your eyes\n'Cause honey I can see him\n\nAll my life\nI'd hurt the ones I'd loved\nOh but baby you can turn it round\n\nShe don't love me like you\nShe don't know what you do\nAnd it's so hard\nShe don't care what you say\nSo just say it, say it anyway\nIt's so hard\n\nAll my life, they tried to push me down\nOh but baby you can turn it round\nOh but honey I still see him\n\nDon't let your friends tell you why\n'Cause I'm a bad, bad, bad\nI'm the one\nOh but baby you can turn it on\n\nShe don't love me like you\nShe don't know what you do\nAnd it's so hard\nShe don't care what you say\nSo just say it, say it anyway\nIt's so hard\nAll those years gone by\nI only wanna find a way\nTo make it hard for you\n\nAll those years gone by\nI only wanna find a way\nTo make it hard for you\n\nYou'll never forget it\nThe way that she let\nShe don't feel the same\nI only wanna find a way\nTo make it hard for you\n\nYou'll never forget it\nThe way that she let\nShe don't feel the same\nI only wanna find a way\nTo make it hard for you\n\nShe'll never forget it\nThe way that she let\nShe don't feel no pain\nI only wanna find a way\nTo make it up to you\nShe'll never forget it\nThe way that she let\nShe don't feel the same\nI only wanna find a way\nI only wanna find\nI only wanna find\n\nShe don't love me like you\nShe don't love me like you\nShe don't love me like you\nShe don't love me like you\nShe don't love\nShe don't", 'annotations': {'description': '', 'producers': [{'name': 'Craig Silvey', 'url': 'https://genius.com/artists/Craig-silvey'}, {'name': 'Romeo Stodart', 'url': 'https://genius.com/artists/Romeo-stodart'}], 'writers': [{'name': 'Romeo Stodart', 'url': 'https://genius.com/artists/Romeo-stodart'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Black-eyed-peas-dont-lie-lyrics', 'lyrics': '[Intro: will.i.am &amp; Fergie]\nYeah, uh-uh\nLa, da, da, da, da-da\nSorry, sorry, sorry, sorry\n\n[Verse 1: will.i.am]\nHey baby, my nose is gettin\' big\nI noticed it be growin\' when I be tellin\' them fibs, now\nYou say your trust\'s gettin\' weaker\nProbably \'cause my lies just started gettin\' deeper\nAnd the reason for my confession is that I learned my lesson\nAnd I really think you ought to know the truth\nBecause I lied and I cheated and I lied a little more\nBut after I did it, I don\'t know what I did it for\nI admit that I\'ve been a little immature\nWith your heart like I was the predator\nIn my book of lies, I was the editor\nAnd the author, I forged my signature\nAnd now I apologize for what I did to ya\n\'Cause what you did to me I did to you\n\n[Chorus: Fergie]\nNo, no, no, no, baby, no, no, no, no, don\'t lie\n\'Cause you know, know, know, know\nYeah, you know, know, know, know, you gotta try\nWhat you gonna do when it all comes out\nWhen I really see you, what you\'re all about?\nNo, no, no, no, baby, no, no, no, no, don\'t lie\n\'Cause you know, you know, you know, you know\nYou know you gotta try (Stop, st-stop, stop, st-stop stop lying)\n[Verse 2: apl.de.ap]\nShe said, "I\'m leaving"\n\'Cause she can\'t take the pain\nIt\'s hard to continue this love, it ain\'t the same\nCan\'t forget the things that I\'ve done inside her brain\nToo many lies committed, too many games\nShe feelin\' like a fool gettin\' on the last train\nTryna maintain, but the feeling won\'t change\nI\'m sorry for the things that I\'ve done and what I became\nCaught up in living my life in the fast lane\nBlinded by lights, cameras, you know the fame\nI don\'t know the reason why I did these things\n\n[Pre-Chorus 1: apl.de.ap, Fergie, will.i.am]\nOh, and I lie and I lie and I lie and I lie\nAnd now our emotions are drained\n\'Cause I lie and I lie and a little lie, lie\nAnd now your emotions are drained\n\n[Chorus: Fergie]\nNo, no, no, no, baby, no, no, no, no, don\'t lie (Don\'t, don\'t you lie)\n\'Cause you know, know, know, know\nYeah, you know, know, know, know, you gotta try (Got to, got to try)\nWhat you gonna do when it all comes out (What you gonna do, baby?)\nWhen I really see you, what you\'re all about?\nNo, no, no, no, baby, no, no, no, no, don\'t lie\nBecause you know, you know, you know, you know\nYou know you gotta try\n[Bridge: will.i.am &amp; Fergie]\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da, ba da, ba ba ba ba)\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da da, ba da da, ba da da, ba da da)\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da, ba da, ba ba ba ba)\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da da, ba da da, ba da da, ba da da)\n\n[Verse 3: Taboo]\nHmm, yo, I\'m lyin\' to my girl\nEven though I love her and she all in my world\nI give her all my attention and diamonds and pearls\nShe the one that make me feel on top of the world\nStill I\'m lyin\' to my girl, I do it\n\n[Pre-Chorus 2: Fergie &amp; Taboo, Both]\nOh, and I lie and I lie and I lie and then I lie\n\'Til there\'s not turning back\nI don\'t know why I lie and I lie\n\'Til I don\'t know who I am\nBut then I tell myself\n\n[Chorus: Fergie]\nNo, no, no, no, baby, no, no, no, no, don\'t lie (Don\'t you lie)\n\'Cause you know, know, know, know\nYeah, you know, know, know, know, you gotta try (You know, you know you gotta)\nWhat you gonna do when it all comes out\nWhen I really see you, what you\'re all about?\nNo, no, no, no, baby, no, no, no, no, don\'t lie\nNo, no, no, no, baby, no, no, no, no\n(Stop, st-stop, stop, st-stop stop lying)', 'annotations': {'description': '&lt;p&gt;A classic track in BEP’s back catalogue, released at the height of their worldwide popularity. As the second single, it achieved &lt;a href="https://en.wikipedia.org/wiki/Don\'t_Lie#Charts_and_certifications" rel="noopener nofollow"&gt;massive chart success,&lt;/a&gt; reaching the top 50 in 21 different countries.&lt;/p&gt;\n\n&lt;p&gt;It’s further proof of their new focus on a real pop-centric sound. The acoustic guitar loop was &lt;a href="https://www.youtube.com/watch?v=6rgStv12dwA" rel="noopener nofollow"&gt;actually ahead of its time,&lt;/a&gt; but the bad guy/good girl dynamic the lyrics produced was a tried and tested trope.&lt;/p&gt;\n\n&lt;p&gt;A &lt;a href="https://www.youtube.com/watch?v=WbJNkH-pDd8" rel="noopener nofollow"&gt;summer music video&lt;/a&gt; was released, and although Fergie really only provides the hook, she really pulls the entire narrative together, giving a nice, easy, repeatable sound that sticks in the mind of the listener.&lt;/p&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}], 'writers': [{'name': 'Slick Rick', 'url': 'https://genius.com/artists/Slick-rick'}, {'name': 'Peters Peters', 'url': 'https://genius.com/artists/Peters-peters'}, {'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': 'Taboo', 'url': 'https://genius.com/artists/Taboo'}, {'name': 'Fergie', 'url': 'https://genius.com/artists/Fergie'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': [{'name': 'Will.i.am Music Group', 'url': 'https://genius.com/artists/William-music-group'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kajagoogoo-too-shy-lyrics', 'lyrics': "[Verse 1]\nTongue tied or short of breath\nDon't even try\nTry a little harder\nSomething's wrong\nYou're not naive, you must be strong\nOoh, baby try\n\n[Pre-Chorus]\nHey girl, move a little closer\n\n[Chorus]\nYou're too shy shy, hush hush eye to eye\nToo, shy shy, hush hush, eye to eye\nToo shy shy, hush hush eye to eye\nToo, shy shy, hush hush\n\n[Verse 2]\nModern medicine falls short of your complaint\nOoh, try a little harder\nMoving in circles won't you dilate\nOoh, baby try\n\n[Pre-Chorus]\nHey girl, move a little closer\n[Chorus]\n'Cause you're too shy shy, hush hush eye to eye\nToo, shy shy, hush hush, eye to eye\nToo shy shy hush hush eye to eye\nToo, shy shy, hush hush\n\n[Instrumental Break]\n\n[Chorus]\nYou're too shy shy, hush hush eye to eye\nToo, shy shy, hush hush, eye to eye\nToo shy shy, hush hush eye to eye\nToo, shy shy, hush hush", 'annotations': {'description': '&lt;p&gt;“Too Shy”, the debut single of Kajagoogoo, was &lt;a href="https://www.ultratop.be/nl/song/3a3/Kajagoogoo-Too-Shy" rel="noopener nofollow"&gt;an international hit&lt;/a&gt; and &lt;a href="https://www.billboard.com/charts/hot-100/1983-07-06/" rel="noopener nofollow"&gt;reached #5&lt;/a&gt; in the US in the summer of 1983. It was produced by Duran Duran keyboard player Nick Rhodes.&lt;/p&gt;\n\n&lt;p&gt;In the US, the band never scored another top 40 hit, earning them the label of one-hit wonder there. In fact, VH1 &lt;a href="https://web.archive.org/web/20090806041321/http://blog.vh1.com/2009-04-01/100-greatest-one-hit-wonders-of-the-80s-read-the-list-2/" rel="noopener nofollow"&gt;ranked the song&lt;/a&gt; at #9 on their one-hit wonders of all time list in 2009. Kajagoogoo had more success overseas – in a half-dozen countries, the band reached the top 20 at least one more time.&lt;/p&gt;', 'producers': [{'name': 'Colin Thurston', 'url': 'https://genius.com/artists/Colin-thurston'}, {'name': 'Nick Rhodes', 'url': 'https://genius.com/artists/Nick-rhodes'}], 'writers': [{'name': 'Limahl', 'url': 'https://genius.com/artists/Limahl'}, {'name': 'Jez Strode', 'url': 'https://genius.com/artists/Jez-strode'}, {'name': 'Stuart Neale', 'url': 'https://genius.com/artists/Stuart-neale'}, {'name': 'Nick Beggs', 'url': 'https://genius.com/artists/Nick-beggs'}, {'name': 'Steve Askew', 'url': 'https://genius.com/artists/Steve-askew'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pink-floyd-another-brick-in-the-wall-pt-2-lyrics', 'lyrics': "[Intro]\n\n[Verse 1: Roger Waters &amp; David Gilmour]\nWe don't need no education\nWe don't need no thought control\nNo dark sarcasm in the classroom\nTeacher, leave them kids alone\nHey! Teacher! Leave them kids alone!\n\n[Chorus: Roger Waters &amp; David Gilmour]\nAll in all, it's just another brick in the wall\nAll in all, you're just another brick in the wall\n[Verse 2: Islington Green School Students]\nWe don't need no education\nWe don't need no thought control\nNo dark sarcasm in the classroom\nTeachers, leave them kids alone\nHey! Teacher! Leave us kids alone!\n\n[Chorus: Islington Green School Students]\nAll in all, you're just another brick in the wall\nAll in all, you're just another brick in the wall\n[Guitar Solo]\n[Outro: Roger Waters]\nWrong, do it again! (*Children playing*)\nWrong, do it again!\nIf you don't eat your meat, you can't have any pudding!\n(Wrong, do it again!)\nHow can you have any pudding if you don't eat your meat?\n(Wrong, do it again!)\nYou! Yes! You behind the bike sheds! Stand still, laddie!\n(If you don't eat your meat, you can't have any pudding!\nHow can you have any pudding if you don't eat your meat?)\n(You! Yes! You behind the bike sheds! Stand still, laddie!)\n*Children playing*\n*Phone beeping sound*", 'annotations': {'description': '&lt;p&gt;“Another Brick in the Wall, Pt. 2” is Pink Floyd’s only number one hit in both &lt;a href="https://www.billboard.com/music/pink-floyd" rel="noopener nofollow"&gt;the US&lt;/a&gt; and &lt;a href="https://www.officialcharts.com/artist/28142/pink-floyd/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;, and was a chart-topper in at least &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Pink+Floyd&amp;amp;titel=Another+Brick+In+The+Wall+%28Part+II%29&amp;amp;cat=s" rel="noopener nofollow"&gt;six other countries&lt;/a&gt; overseas in the spring of 1980.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Pink-floyd-another-brick-in-the-wall-pt-1-lyrics" rel="noopener" data-api_path="/songs/116425"&gt;“Part 1”&lt;/a&gt; had come two tracks earlier, and even the immediately preceding song, &lt;a href="https://genius.com/Pink-floyd-the-happiest-days-of-our-lives-lyrics" rel="noopener" data-api_path="/songs/116430"&gt;“The Happiest Days of Our Lives”&lt;/a&gt; was thematically similar, to the point where &lt;a href="https://genius.com/7389696" rel="noopener" data-api_path="/referents/7389696"&gt;one radio edit combines both songs&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;David Gilmour &lt;a href="https://web.archive.org/web/20170810032322/http://www.guitarworld.com:80/pink-floyd-goodbye-blue-sky#:~:text=it%20wasn%E2%80%99t%20my%20idea%20to%20do%20disco%20music%2C%20it%20was%20bob%E2%80%99s" rel="noopener nofollow"&gt;credits&lt;/a&gt; producer Bob Ezrin for the song’s disco sound:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;He said to me, “Go to a couple of clubs and listen to what’s happening with disco music,” so I forced myself out and listened to loud, four-to-the-bar bass drums and stuff and thought, Gawd, awful! Then we went back and tried to turn one of the “Another Brick in the Wall” parts into one of those so it would be catchy. We did the same exercise on “Run Like Hell.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;But Roger Waters is &lt;a href="https://www.wsj.com/articles/roger-waters-on-another-brick-in-the-wall-1442855084#:~:text=The%20song%20ran,It%E2%80%99s%20very%20cool." rel="noopener nofollow"&gt;more reluctant to embrace the disco classification&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The song ran slow, almost like a chant or mantra, at 100 beats per minute. To give it a bit of punch, Bob Ezrin added a kick drum on every beat, which made the song a different animal than something strummed on an acoustic guitar. It’s not a disco beat, as many people have said, but more of a heart beat. It’s very cool.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Roger Waters', 'url': 'https://genius.com/artists/Roger-waters'}, {'name': 'James Guthrie', 'url': 'https://genius.com/artists/James-guthrie'}, {'name': 'David Gilmour', 'url': 'https://genius.com/artists/David-gilmour'}, {'name': 'Bob Ezrin', 'url': 'https://genius.com/artists/Bob-ezrin'}], 'writers': [{'name': 'Roger Waters', 'url': 'https://genius.com/artists/Roger-waters'}], 'labels': [{'name': 'Harvest Records', 'url': 'https://genius.com/artists/Harvest-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Green-day-boulevard-of-broken-dreams-lyrics', 'lyrics': "[Verse 1]\nI walk a lonely road\nThe only one that I have ever known\nDon't know where it goes\nBut it's home to me, and I walk alone\nI walk this empty street\nOn the Boulevard of Broken Dreams\nWhere the city sleeps\nAnd I'm the only one, and I walk alone\nI walk alone, I walk alone\nI walk alone, I walk a-\n\n[Chorus]\nMy shadow's the only one that walks beside me\nMy shallow heart's the only thing that's beating\nSometimes I wish someone out there will find me\n'Til then I walk alone\n\n[Post-Chorus]\nAh-ah, ah-ah, ah-ah, ah-ah\nAh-ah, ah-ah, ah-ah\n\n[Verse 2]\nI'm walking down the line\nThat divides me somewhere in my mind\nOn the borderline\nOf the edge and where I walk alone\nRead between the lines\nWhat's fucked up, and everything's all right\nCheck my vital signs\nTo know I'm still alive, and I walk alone\nI walk alone, I walk alone\nI walk alone, I walk a-\n[Chorus]\nMy shadow's the only one that walks beside me\nMy shallow heart's the only thing that's beating\nSometimes I wish someone out there will find me\n'Til then I walk alone\n\n[Post-Chorus]\nAh-ah, ah-ah, ah-ah, ah-ah\nAh-ah, ah-ah\nI walk alone, I walk a-\n\n[Guitar Solo]\n\n[Bridge]\nI walk this empty street\nOn the Boulevard of Broken Dreams\nWhere the city sleeps\nAnd I'm the only one, and I walk a-\n\n[Chorus]\nMy shadow's the only one that walks beside me\nMy shallow heart's the only thing that's beating\nSometimes I wish someone out there will find me\n'Til then I walk alone\n\n[Instrumental Outro]", 'annotations': {'description': '&lt;p&gt;“Boulevard of Broken Dreams” sees the album’s main character, &lt;a href="https://genius.com/Green-day-jesus-of-suburbia-lyrics" rel="noopener" data-api_path="/songs/63752"&gt;the Jesus of Suburbia&lt;/a&gt;, aimlessly roaming the city’s streets with nothing to do and nowhere to go. After &lt;a href="https://genius.com/547332" rel="noopener" data-api_path="/referents/547332"&gt;leaving his hometown&lt;/a&gt; and &lt;a href="https://genius.com/Green-day-holiday-lyrics" rel="noopener" data-api_path="/songs/63758"&gt;venturing into the city&lt;/a&gt;, Jesus has come down from his excitement to find that he’s surrounded by strangers, completely alone in an unfamiliar environment. The realization that he has no one pushes Jesus to his emotional breaking point and drives him to &lt;a href="https://genius.com/978407" rel="noopener" data-api_path="/referents/978407"&gt;borderline insanity&lt;/a&gt;, as implied by the &lt;a href="https://genius.com/Green-day-st-jimmy-lyrics" rel="noopener" data-api_path="/songs/63762"&gt;creation of St. Jimmy&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://web.archive.org/web/20121011102748/http://music.yahoo.com/blogs/yradish/biggest-selling-singles-since-the-year-2000.html" rel="noopener nofollow"&gt;Selling over five-million copies&lt;/a&gt; as of September 1, 2009, it was Green Day’s most successful song on the Billboard charts, &lt;a href="https://www.billboard.com/music/Green-Day/chart-history/HSI/song/461283" rel="noopener nofollow"&gt;peaking at #2 on the Hot 100 list&lt;/a&gt;. It also &lt;a href="https://web.archive.org/web/20060316002151/https://www.grammy.com/GRAMMY_Awards/Annual_Show/48_nominees.aspx" rel="noopener nofollow"&gt;won the Grammy Award for “Record of the Year”&lt;/a&gt; in 2006.&lt;/p&gt;', 'producers': [{'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Marilyn-manson-sweet-dreams-are-made-of-this-lyrics', 'lyrics': "[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Instrumental Interlude]\n\n[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Chorus]\nI wanna use you and abuse you\nI wanna know what's inside you\n[Bridge]\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on!\n\n[Guitar Solo]\n\n[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Outro]\nI'm gonna use you and abuse you\nI'm gonna know what's inside\nGonna use you and abuse you\nI'm gonna know what's inside you", 'annotations': {'description': '&lt;p&gt;A cover of The Eurythmics\' &lt;a href="https://genius.com/Eurythmics-sweet-dreams-lyrics" rel="noopener" data-api_path="/songs/1640"&gt;breakthrough hit song&lt;/a&gt; from the early 1980s.&lt;/p&gt;\n\n&lt;p&gt;Manson has two additions to the song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wanna use you and abuse you&lt;br&gt;\nI wanna know what’s inside you&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;and&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m gonna use you and abuse you&lt;br&gt;\nI gotta know what’s inside you&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Trent Reznor', 'url': 'https://genius.com/artists/Trent-reznor'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}], 'writers': [{'name': 'David A. Stewart', 'url': 'https://genius.com/artists/David-a-stewart'}, {'name': 'Annie Lennox', 'url': 'https://genius.com/artists/Annie-lennox'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Sting-englishman-in-new-york-lyrics', 'lyrics': '[Verse 1]\nI don\'t drink coffee, I\'ll take tea my dear\nI like my toast done on one side\nAnd you can hear it in my accent when I talk\nI\'m an Englishman in New York\n\n[Verse 2]\nSee me walking down Fifth Avenue\nA walking cane here at my side\nI take it everywhere I walk\nI\'m an Englishman in New York\n\n[Chorus]\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\n\n[Verse 3]\nIf "manners maketh man" as someone said\nThen he\'s the hero of the day\nIt takes a man to suffer ignorance and smile\nBe yourself, no matter what they say\n\n[Chorus]\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\n[Bridge]\nModesty, propriety, can lead to notoriety\nYou could end up as the only one\nGentleness, sobriety are rare in this society\nAt night a candle\'s brighter than the sun\n\n[Saxophone solo followed by drums]\n\n[Verse 4]\nTakes more than combat gear to make a man\nTakes more than a license for a gun\nConfront your enemies, avoid them when you can\nA gentleman will walk but never run\n\n[Verse 3]\nIf "manners maketh man" as someone said\nThen he\'s the hero of the day\nIt takes a man to suffer ignorance and smile\nBe yourself, no matter what they say\nBe yourself, no matter what they say\nBe yourself, no matter what they say\nBe yourself, no matter what they say\nBe yourself, no matter what they say\n\n[Chorus]\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\n[Outro]\nI\'m an alien, I\'m a legal alien\n(Be yourself, no matter what they say)\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\n(Be yourself, no matter what they say)\nI\'m an Englishman in New York', 'annotations': {'description': '&lt;p&gt;“Englishman in New York” was released as a single in 1988. The song’s main subject was &lt;a href="http://www.biography.com/people/quentin-crisp-251028" rel="noopener nofollow"&gt;Quentin Crisp&lt;/a&gt;, a British writer. Sting said this about the song in the liner notes for &lt;em&gt;Nothing Like the Sun&lt;/em&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wrote “Englishman in New York for a friend of mine who moved from London to New York in his early seventies to a small rented apartment in the Bowery at a time in his life when most people have settled down forever. He once told me over dinner that he looked forward to receiving his naturalization papers so that he could commit a crime and not be deported. "What kind of crime?” I asked anxiously. “Oh, something glamorous, non-violent, with a dash of style” he replied. “Crime is so rarely glamorous these days.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/425984c83416cd0598ed95bb68f7bfd9.400x400x1.jpg" alt="" width="400" height="400" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Neil Dorfsman', 'url': 'https://genius.com/artists/Neil-dorfsman'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Linkin-park-what-ive-done-lyrics', 'lyrics': "[Verse 1]\nIn this farewell\nThere's no blood, there's no alibi\n'Cause I've drawn regret\nFrom the truth of a thousand lies\nSo let mercy come and wash away\n[Chorus]\nWhat I've done\nI'll face myself\nTo cross out what I've become\nErase myself\nAnd let go of what I've done\n\n[Verse 2]\nPut to rest what you thought of me\nWhile I clean this slate\nWith the hands of uncertainty\nSo let mercy come and wash away\n\n[Chorus]\nWhat I've done\nI'll face myself\nTo cross out what I've become\nErase myself\nAnd let go of what I've done\n[Bridge]\nFor what I've done\nI start again\nAnd whatever pain may come\nToday this ends\nI'm forgiving\n\n[Chorus]\nWhat I've done\nI'll face myself\nTo cross out what I've become\nErase myself\nAnd let go of what I've done\n\n[Outro]\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)\nWhat I've done\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)\nForgiving what I've done\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)", 'annotations': {'description': '&lt;p&gt;This song shows one regretting over the bad things he has done. The video shows the effect of wars, poverty, murder, drugs, etc. etc. These are meant to depict that humanity has done a lot of wrong.&lt;/p&gt;\n\n&lt;p&gt;During the outro, he is optimistic. Optimistic that the time is not over to do the right thing.&lt;/p&gt;\n\n&lt;p&gt;The song was released as the first single from their third album, &lt;em&gt;Minutes to Midnight&lt;/em&gt;. The song is composed in the key of G minor and is set in 4/4 time. The song was released as a radio single on April 1, 2007, as a digital download on April 2, and as a CD single on April 30. The live version of “What I’ve Done” from Road to Revolution: Live at Milton Keynes was nominated for Best Hard Rock Performance at the 52nd Grammy Awards, but did not win. It is also featured on the Transformers soundtrack, &lt;a href="http://en.wikipedia.org/wiki/Transformers:_The_Album#Not_included_in_the_Soundtrack" rel="noopener nofollow"&gt;Transformers: The Album&lt;/a&gt;. The song is featured in the 2008 video game &lt;a href="http://en.wikipedia.org/wiki/Guitar_Hero_World_Tour" rel="noopener nofollow"&gt;Guitar Hero World Tour&lt;/a&gt; and was released in a Linkin Park &lt;a href="http://en.wikipedia.org/wiki/List_of_songs_in_Rock_Band_3#Downloadable_songs" rel="noopener nofollow"&gt;DLC pack for Rock Band 3&lt;/a&gt; in January 2011. The song is also a b-side to the UK single of &lt;a href="https://genius.com/Linkin-park-iridescent-lyrics" rel="noopener" data-api_path="/songs/230135"&gt;&lt;em&gt;Iridescent&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Booklet notes: One of the last songs finished for the album, the lyrics for this song were intended to work on many levels, including freedom, art, and death metaphors.&lt;/p&gt;', 'producers': [{'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nelly-furtado-promiscuous-lyrics', 'lyrics': "[Intro: Nelly Furtado &amp; Timbaland]\nAm I throwin' you off?\nNope\nDidn't think so\n\n[Verse 1: Nelly Furtado &amp; Timbaland]\nHow you doin', young lady?\nThat feeling that you giving really drives me crazy\nYou're dope, have a player 'bout to choke\nI was at a loss for words first time that we spoke\nYou lookin' for a girl that'll treat you right?\nHow you lookin' for her in the daytime with the light?\nYou might be the type if I play my cards right\nI'll find out by the end of the night\nYou expect me to just let you hit it?\nBut will you still respect me if you get it?\nAll I can do is try, gimme one chance (Chance)\nWhat's the problem? I don't see no ring on your hand (Hand)\nI'll be the first to admit it\nI'm curious about you, you seem so innocent\nYou wanna get in my world, get lost in it?\nBoy, I'm tired of runnin', let's walk for a minute\n\n[Chorus: Nelly Furtado &amp; Timbaland]\nPromiscuous girl, wherever you are\nI'm all alone, and it's you that I want\nPromiscuous boy, you already know\nThat I'm all yours, what you waiting for?\nPromiscuous girl, you're teasin' me\nYou know what I want, and I got what you need\nPromiscuous boy, let's get to the point\n'Cause we're on a roll, you ready?\n[Verse 2: Nelly Furtado &amp; Timbaland]\nRoses are red, some diamonds are blue\nChivalry is dead, but you're still kinda cute\nHey, I can't keep my mind off you\nWhere you at? Do you mind if I come through?\nI'm out of this world, come with me to my planet\nGet you on my level, do you think that you can handle it?\nThey call me Thomas, last name Crown\nRecognize game, I'ma lay mine's down\nI'm a big girl, I can handle myself\nBut if I get lonely, I'ma need your help\nPay attention to me, I don't talk for my health\nI want you on my team -- So does everybody else\nShh, baby, we can keep it on the low (Low)\nLet your guard down, ain't nobody gotta know (Know)\nIf you with it, girl, I know a place we can go\nWhat kind of girl do you take me for?\n\n[Chorus: Nelly Furtado &amp; Timbaland]\nPromiscuous girl, wherever you are\nI'm all alone, and it's you that I want\nPromiscuous boy, you already know\nThat I'm all yours, what you waiting for?\nPromiscuous girl, you're teasin' me\nYou know what I want, and I got what you need\nPromiscuous boy, let's get to the point\n'Cause we're on a roll, you ready?\n[Bridge: Nelly Furtado &amp; Timbaland]\nDon't be mad, don't get mean\nDon't get mad, don't be mean\nHey, don't be mad, don't get mean\nDon't get mad, don't be mean\n\n[Verse 3: Nelly Furtado &amp; Timbaland]\nWait, I don't mean no harm\nI can see you with my t-shirt on\nI can see you with nothin' on\nFeelin' on me before you bring that on\nBring that on?! -- You know what I mean\nGirl, I'm a freak, you shouldn't say those things\nI'm only trying to get inside of your brain\nTo see if you can work me the way you say\nIt's okay, it's alright\nI got something that you gon' like\nHey, is that the truth or are you talking trash?\nIs your game M.V.P like Steve Nash?\n\n[Chorus: Nelly Furtado &amp; Timbaland]\nPromiscuous girl, wherever you are\nI'm all alone, and it's you that I want\nPromiscuous boy, I'm callin' ya name\nBut you're drivin' me crazy the way you're makin' me wait\nPromiscuous girl, you're teasin' me\nYou know what I want, and I got what you need\nPromiscuous boy, we're one in the same\nSo we don't gotta play games no more", 'annotations': {'description': '&lt;p&gt;The first single of Nelly Furtado’s &lt;em&gt;Loose&lt;/em&gt; album (2006) and quickly became a chart topping hit, Furtado’s first number one single in the United States. It features two “promiscuous” people (Nelly and producer &lt;a href="https://genius.com/artists/Timbaland" rel="noopener" data-api_path="/artists/112"&gt;Timbaland&lt;/a&gt;) flirting back and forth with each other.&lt;/p&gt;', 'producers': [{'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'writers': [{'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Attitude', 'url': 'https://genius.com/artists/Attitude'}, {'name': 'Nelly Furtado', 'url': 'https://genius.com/artists/Nelly-furtado'}], 'labels': [{'name': 'Mosley Music Group', 'url': 'https://genius.com/artists/Mosley-music-group'}, {'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-police-so-lonely-lyrics', 'lyrics': "[Verse 1]\nWell, someone told me yesterday\nThat when you throw your love away\nYou act as if you just don't care\nYou look as if you're going somewhere\nBut I just can't convince myself\nI couldn't live with no one else\nAnd I can only play that part\nAnd sit and nurse my broken heart\n\n[Chorus]\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\n\n[Verse 2]\nNow no one's knocked upon my door\nFor a thousand years or more\nAll made up and nowhere to go\nWelcome to this one-man show\nJust take a seat, they're always free\nNo surprise, no mystery\nIn this theatre that I call my soul\nI always play the starring role\n[Chorus]\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\n\n[Bridge]\nLonely, I'm so lonely\nI feel so alone\nI feel low\nI feel so\nFeel so low\nI feel low, low\nI feel low, low, low\nI feel low, low, low\nI feel low, low, low\nI feel low, low, low\nI feel low, low, low\nLow, I feel low\nI feel low\nI feel low\nI feel so lonely\nI feel so lonely\nI feel so lonely, lonely, lonely, lone\nLone, lone, lone\nI feel so lonely\n[Chorus]\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)", 'annotations': {'description': '&lt;p&gt;“So Lonely” was The Police’s &lt;a href="https://www.sting.com/news/article/4251" rel="noopener nofollow"&gt;first fusing of punk and reggae&lt;/a&gt; that would become not only a pioneering new sound in rock, but also their signature sound. It was the band’s third single, the last from their debut album, peaking at &lt;a href="http://www.officialcharts.com/search/singles/so%20lonely/" rel="noopener nofollow"&gt;#6 in the UK&lt;/a&gt; and #7 in Ireland.&lt;/p&gt;\n\n&lt;p&gt;Its lyrics &lt;a href="http://www.stingme.dk/Lyrics/Sting%20Fool%20in%20love.htm" rel="noopener nofollow"&gt;were taken from&lt;/a&gt; “Fool In Love”, a song from Sting’s previous band Last Exit. Its chorus, &lt;a href="https://www.sting.com/discography/index/album/albumId/143/tagName/Singles%20%28The%20Police" rel="noopener nofollow"&gt;Sting has admitted&lt;/a&gt;, is a sped-up reinterpretation of Bob Marley’s &lt;a href="https://genius.com/Bob-marley-and-the-wailers-no-woman-no-cry-lyrics" rel="noopener" data-api_path="/songs/57824"&gt;“No Woman No Cry”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Alannah-myles-black-velvet-lyrics', 'lyrics': '[Verse 1]\nMississippi in the middle of a dry spell\nJimmy Rogers on the Victrola up high\nMama\'s dancin\' with baby on her shoulder\nThe sun is settin\' like molasses in the sky\n\n[Pre-Chorus]\nThe boy could sing\nKnew how to move, everything\nAlways wanting more\nHe\'d leave you longing for\n\n[Chorus]\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\nBlack velvet if you please\n\n[Verse 2]\nUp in Memphis\nThe music\'s like a heatwave\nWhite lightning\nBound to drive you wild\nMama\'s baby\'s in the heart of every schoolgirl\n"Love Me Tender" leaves \'em cryin\' in the aisle\n[Pre-Chorus]\nThe way he moved\nIt was a sin\nSo sweet and true\nAlways wanting more\nHe\'d leave you longing for\n\n[Chorus]\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\nBlack velvet if you please\n\n[Bridge]\nEvery word of every song\nThat he sang was for you\nIn a flash, he was gone\nIt happened so soon\nWhat could you do?\n\n[Chorus]\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\nBlack velvet if you please\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\n[Outro]\nBlack velvet if you please\nIf you please\nIf you please\nIf you please', 'annotations': {'description': '&lt;p&gt;“Black Velvet” was an international smash hit, &lt;a href="https://www.billboard.com/music/alannah-myles/chart-history/hot-100/song/318720" rel="noopener nofollow"&gt;topping&lt;/a&gt; the US Hot 100 in spring 1990, &lt;a href="http://www.officialcharts.com/artist/26020/alannah-myles/" rel="noopener nofollow"&gt;reaching #2 in the UK&lt;/a&gt; and &lt;a href="http://www.officialcharts.com/artist/26020/alannah-myles/" rel="noopener nofollow"&gt;breaking the top five&lt;/a&gt; in nine more European countries.&lt;/p&gt;\n\n&lt;p&gt;It was written in 1987 as a tribute to Elvis Presley by Myles\' then-boyfriend Christopher Ward while he was on a bus of Elvis fanatics as they rode to Memphis to attend the 10th anniversary of his death.&lt;/p&gt;\n\n&lt;p&gt;According to Fred Bronson’s book &lt;em&gt;The Billboard Book of Number One Hits&lt;/em&gt;, on the day Myles recorded her vocals, it was a hot &amp;amp; humid day and she was in a basement recording studio with no air conditioning, so she sang it shirtless (in a bikini).&lt;/p&gt;\n\n&lt;p&gt;“Black Velvet” was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=ALANNAH+MYLES&amp;amp;ti=BLACK+VELVET" rel="noopener nofollow"&gt;certified Gold&lt;/a&gt; in less than two months. It was ranked the &lt;a href="https://www.musicoutfitters.com/topsongs/1990.htm" rel="noopener nofollow"&gt;#18 song of 1990&lt;/a&gt; by Billboard magazine.&lt;/p&gt;\n\n&lt;p&gt;In 2008, Myles &lt;a href="https://www.rollingstone.com/music/music-lists/where-are-they-now-pops-class-of-1990-10478/alannah-myles-34052/" rel="noopener nofollow"&gt;re-recorded the song&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'David Tyson', 'url': 'https://genius.com/artists/David-tyson'}], 'writers': [{'name': 'Christopher Ward', 'url': 'https://genius.com/artists/Christopher-ward'}, {'name': 'David Tyson', 'url': 'https://genius.com/artists/David-tyson'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rage-against-the-machine-sleep-now-in-the-fire-lyrics', 'lyrics': "[Verse 1]\nYeah\nThe world is my expense\nThe cost of my desire\nJesus blessed me with its future\nAnd I protect it with fire\nSo raise your fists and march around\nJust don't take what you need\nI'll jail and bury those committed\nAnd smother the rest in greed\nCrawl with me into tomorrow\nOr I'll drag you to your grave\nI'm deep inside your children\nThey'll betray you in my name\n\n[Chorus]\nHey, hey\nSleep now in the fire\nHey, hey\nSleep now in the fire\n\n[Verse 2]\nThe lie is my expense\nThe scope of my desire\nThe party blessed me with its future\nAnd I protect it with fire\n[Pre-Chorus]\nI am the Niña, the Pinta, the Santa Maria\nThe noose and the rapist, the fields' overseer\nThe agents of orange, the priests of Hiroshima\nThe cost of my desire\nSleep now in the fire\n\n[Chorus]\nHey, hey\nSleep now in the fire\nHey, hey, hey\nSleep now in the fire\n\n[Verse 3]\nFor it's the end of history\nIt's caged and frozen still\nThere is no other pill to take\nSo swallow the one that makes you ill\n\n[Pre-Chorus]\nThe Niña, the Pinta, the Santa Maria\nThe noose and the rapist, the fields' overseer\nThe agents of orange, the priests of Hiroshima\nThe cost of my desire\nSleep now in the fire\nYeah\n[Guitar Solo]\n\n[Outro]\nSleep now in the fire\nSleep now in the fire\nSleep now in the fire\nSleep now in the fire", 'annotations': {'description': "&lt;p&gt;“Sleep Now in the Fire” is the fifth track from the 1999 album The Battle of Los Angeles by the band Rage Against the Machine. It was released as a single on November 4, 1999. The song contains lyrics about greed, such as the conquest of Native Americans, Christopher Columbus' voyage by Nina, the Pinta, and Santa Maria and U.S. slavery in the 19th century as well as criticism of actions taken by the US government in wartime, including the bombing of Hiroshima and the use of Agent Orange in the Vietnam War. The guitar riff is a reworking of The Stooges TV Eye, from 1970s Fun House. The song’s main riff is similar to Nirvana’s 1991 song, “Breed”; although Sleep Now In The Fire is one and a half pitch higher.&lt;br&gt;\nGuitarist Tom Morello’s solo is also notable as he simply uses feedback from the amp, along with using his whammy bar to adjust the pitch of the feedback. By flicking his toggle switch on and off, he is able to create the high-pitched solo. At the end of the recording, a Korean radio station is heard coming from Morello’s amplifier.&lt;/p&gt;", 'producers': [{'name': 'Rage Against the Machine', 'url': 'https://genius.com/artists/Rage-against-the-machine'}, {'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Tom Morello', 'url': 'https://genius.com/artists/Tom-morello'}, {'name': 'Brad Wilk', 'url': 'https://genius.com/artists/Brad-wilk'}, {'name': 'Tim Commerford', 'url': 'https://genius.com/artists/Tim-commerford'}, {'name': 'Zack de la Rocha', 'url': 'https://genius.com/artists/Zack-de-la-rocha'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Sugar-ray-someday-lyrics', 'lyrics': "[Verse 1]\nSomeday, when my life has passed me by\nI'll lay around and wonder why, you were always there for me\nOne way, in the eyes of a passer by\nI'll look around for another try and they'll fade away\n\n[Chorus]\nJust close your eyes and I'll take you there\nThis place is warm and without a care\nWe'll take a swim in the deep blue sea\nI go to leave as you reach for me\n\n[Verse 2]\nSome say, better things will come our way\nNo matter what they try to say, you were always there for me\nSome way, when the sun begins to shine\nI hear a song from another time and they fade away\nAnd fade they away\n\n[Chorus]\nJust close your eyes and I'll take you there\nThis place is warm and without a care\nWe'll take a swim in the deep blue sea\nI go to leave as you reach for me\n\n[Bridge]\nSomeone said we tried too long (Someday will pass me by)\nSomeone said we got it all wrong (Someday, I wonder why)\nSomeone said we tried too long (Someday will pass me by)\nIs there a place where I belong? (Someday will)\n[Verse 3]\nSo far\nSo long\nSo far away\nSo far\nSo wrong\nSo far away away away\n\n[Verse 1 repeated]\nSomeday, when my life has passed me by\nI'll lay around and wonder why, you were always there for me\nOne way, in the eyes of a passer by\nI'll look around for another try and they'll fade away\n\n[Outro]\nAnd they fade away (repeats many times until it fades out)", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/8daae879b74a99a1638c1147e02e6908.300x300x1.jpg" alt="" width="300" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Someday is a single from Sugar Ray’s album &lt;em&gt;14:59&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;One interpretation is that it’s about how one man continues to mess up in his relationship, but the woman continues to stay with him because she loves him.&lt;/p&gt;', 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}], 'writers': [{'name': 'Sugar Ray', 'url': 'https://genius.com/artists/Sugar-ray'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Depeche-mode-strangelove-lyrics', 'lyrics': "[Verse 1]\nThere'll be times when my crimes\nWill seem almost unforgivable\nI give in to sin\nBecause you have to make this life livable\nBut when you think I've had enough from your sea of love\nI'll take more than another riverful\nYes, and I'll make it all worthwhile\nI'll make your heart smile\n\n[Chorus]\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\n\n[Post-Chorus]\nWill you take the pain I will give to you\nAgain and again and will you return it?\n\n[Verse 2]\nThere'll be days when I'll stray\nI may appear to be constantly out of reach\nI give in to sin\nBecause I like to practice what I preach\nI'm not trying to say I'll have it all my way\nI'm always willing to learn when you've got something to teach\nOh, and I'll make it all worthwhile\nI'll make your heart smile\n[Bridge]\nPain, will you return it?\nI'll say it again: pain\nPain, will you return it?\nI'll say it again: pain\nPain, will you return it?\nI'll say it again: pain\nPain, will you return it?\nI won't say it again\n\n[Chorus]\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\n\n[Outro]\nI give in\nAgain and again\nI give in\nWill you give it to me?\nI give in\nI'll say it again\nI give in\nI give in\nAgain and again\nI give in\nThat's how my love goes\nI give in\nI'll say it again\nI give in", 'annotations': {'description': '', 'producers': [{'name': 'Dave Bascombe', 'url': 'https://genius.com/artists/Dave-bascombe'}, {'name': 'Depeche Mode', 'url': 'https://genius.com/artists/Depeche-mode'}], 'writers': [{'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Madonna-girl-gone-wild-lyrics', 'lyrics': "[Spoken Intro]\nOh my God (God)\nI am heartly sorry for having offended thee\nAnd I detest all my sins\nBecause I dread the loss of Heaven (Heaven)\nAnd the pain of Hell (Hell)\nBut most of all, because I love thee (Thee)\nAnd I want so badly to be good (Good, good, good, good, good)\n\n[Verse 1]\nIt's so hypnotic (Hypnotic)\nThe way he pulls on me\nIt's like the force of gravity\nRight up under my feet\nIt's so erotic (Erotic)\nThis feeling can't be beat\nIt's coursing through my whole body\nFeel the heat\n\n[Pre-Chorus]\nI got that burnin' hot desire\nAnd no one can put out my fire\nIt's coming right down through the wire\nHere it comes\nWhen I hear them 808 drums\nIt's got me singing\n[Chorus]\nHey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\nI'm like, hey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\n\n[Post-Chorus]\nGirls, they just wanna have some fun\nGet fired up like a smokin' gun\nOn the floor, 'til the daylight comes\nGirls, they just wanna have some fun\n\n[Interlude]\nLike a girl gone wild, a good girl gone wild\nI'm like a girl gone wild, a good girl gone wild\n\n[Verse 2]\nThe room is spinning (Spinning)\nIt must be the Tanqueray\nI'm about to go astray\nMy inhibition's gone away\nI feel like sinning (Sinning)\nYou got me in the zone\nDJ, play my favorite song\nTurn me on\n[Pre-Chorus]\nI got that burnin' hot desire\nAnd no one can put out my fire\nIt's coming right down through the wire\nHere it comes\nWhen I hear them 808 drums\nIt's got me singing\n\n[Chorus]\nHey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\nI'm like, hey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\n\n[Post-Chorus]\nGirls, they just wanna have some fun\nGet fired up like a smokin' gun\nOn the floor, 'til the daylight comes\nGirls, they just wanna have some fun\n\n[Bridge]\nI know, I know, I know I shouldn't act this way\nI know, I know, I know good girls don't misbehave\nMisbehave\nBut I'm a bad girl anyway, hey\nForgive me\n[Chorus]\nHey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\nI'm like, hey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\n\n[Post-Chorus]\nGirls, they just wanna have some fun\nGet fired up like a smokin' gun\nOn the floor, 'til the daylight comes\nGirls, they just wanna have some fun\n\n[Outro]\nI'm like a girl gone wild, a good girl gone wild\nI'm like a girl gone wild, a good girl gone wild", 'annotations': {'description': '&lt;p&gt;“Girl Gone Wild” was the second single released from Madonna’s twelfth album, &lt;a href="https://genius.com/albums/Madonna/Mdna" rel="noopener" data-api_path="/albums/14693"&gt;&lt;em&gt;MDNA&lt;/em&gt;&lt;/a&gt;. The upbeat EDM track is a return to one of Madonna’s favorite lyrical topics: escapism on the dance floor (with a dose of religious iconography via the song’s spoken intro).&lt;/p&gt;\n\n&lt;p&gt;The black and white &lt;a href="https://www.youtube.com/watch?v=tYkwziTrv5o" rel="noopener nofollow"&gt;music video&lt;/a&gt;, directed by fashion photographer duo &lt;a href="https://en.wikipedia.org/wiki/Mert_and_Marcus" rel="noopener nofollow"&gt;Mert and marcus&lt;/a&gt;, features Madonna and a number of male models in different looks, dancing with Ukrainian group &lt;a href="https://en.wikipedia.org/wiki/Kazaky" rel="noopener nofollow"&gt;Kazaky&lt;/a&gt;.  It received critical acclaim for the editing and the visuals, while reviewers noted that it took inspiration from Madonna’s older videos, such as “Erotica”, “Justify My Love”, “Human Nature” and “Vogue”.&lt;/p&gt;', 'producers': [{'name': 'Alle Benassi', 'url': 'https://genius.com/artists/Alle-benassi'}, {'name': 'Benny Benassi', 'url': 'https://genius.com/artists/Benny-benassi'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'writers': [{'name': 'Jenson Vaughan', 'url': 'https://genius.com/artists/Jenson-vaughan'}, {'name': 'Alle Benassi', 'url': 'https://genius.com/artists/Alle-benassi'}, {'name': 'Benny Benassi', 'url': 'https://genius.com/artists/Benny-benassi'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Sean-kingston-beautiful-girls-lyrics', 'lyrics': "[Intro: J.R. Rotem]\nJ.R., Sean Kingston\n\n[Chorus: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal\nWhen you say it's over\nDamn all these beautiful girls\nThey only wanna do you dirt\nThey'll have you suicidal, suicidal\nWhen they say it's over\n\n[Verse 1: Sean Kingston]\nSee, it started at the park\nUsed to chill after dark\nOh, when you took my heart\nThat's when we fell apart\n'Cause we both thought\nThat love last forever (Last forever)\nThey say we're too young\nTo get ourselves sprung\nOh, we didn't care\nWe made it very clear\nAnd they also said\nThat we couldn't last together (Last together)\n[Pre-Chorus: Sean Kingston]\nSee, it's very defined\nYou're one of a kind\nBut you mash up my mind\nYou haffi get declined\nOh Lord, my baby is drivin' me crazy\n\n[Chorus: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal\nWhen you say it's over\nDamn all these beautiful girls\nThey only wanna do you dirt\nThey'll have you suicidal, suicidal\nWhen they say it's over\n\n[Verse 2: Sean Kingston]\nIt was back in '99\nWatchin' movies all the time\nOh, when I went away for doin' my first crime\nAnd I never thought\nThat we was gonna see each other (See each other)\nAnd then I came out\nMami moved me down south\nOh I'm with my girl who I thought was my world\nIt came out to be\nThat she wasn't the girl for me (Girl for me)\n[Pre-Chorus: Sean Kingston]\nSee, it's very defined\nYou're one of a kind\nBut you mash up my mind\nYou haffi get declined\nOh Lord, my baby is drivin' me crazy\n\n[Chorus: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal\nWhen you say it's over\nDamn all these beautiful girls\nThey only wanna do you dirt\nThey'll have you suicidal, suicidal\nWhen they say it's over\n\n[Verse 3: Sean Kingston]\nNow we're fussin'\nAnd now we're fightin'\nPlease tell me why\nI'm feelin' slighted\nAnd I don't know\nHow to make it better (Make it better)\nYou're datin' other guys\nYou're tellin' me lies\nOh, I can't believe\nWhat I'm seein' with my eyes\nI'm losin' my mind\nAnd I don't think it's clever (Think it's clever)\n[Outro: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal, suicidal", 'annotations': {'description': '&lt;p&gt;Will Sean Kingston ever top his chart-smashing 2007 single? It rocketed to number 1 on the &lt;em&gt;US Billboard 100&lt;/em&gt;, and spring boarded the Jamaican singer into the pop stratosphere for a period of time.&lt;/p&gt;\n\n&lt;p&gt;It’s an incredibly simple track, but Kingston proves how important he is to the success of the melody in the &lt;a href="https://www.youtube.com/watch?v=MrTz5xjmso4" rel="noopener nofollow"&gt;video,&lt;/a&gt; where he intro’s the song by singing the hook acapella. Even without the playful bass line and jazzy groove, Kingston is catchy and memorable. Despite the mentions of suicide in the hook, it doesn’t appear to have a dark undertone. It’s a sunny song with Kingston lamenting his inability to recover from women ending their relationship with him.&lt;/p&gt;\n\n&lt;p&gt;In terms of one hit wonders, Kingston almost enters in a league of his own. The song reached number 1 in 7 countries, and it sold a staggering 2 million ringtones in the US alone.&lt;/p&gt;', 'producers': [{'name': 'Peter Harrison', 'url': 'https://genius.com/artists/Peter-harrison'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}], 'writers': [{'name': 'Peter Harrison', 'url': 'https://genius.com/artists/Peter-harrison'}, {'name': 'Mike Stoller', 'url': 'https://genius.com/artists/Mike-stoller'}, {'name': 'Jerry Leiber', 'url': 'https://genius.com/artists/Jerry-leiber'}, {'name': 'Ben E. King', 'url': 'https://genius.com/artists/Ben-e-king'}, {'name': 'Sean Kingston', 'url': 'https://genius.com/artists/Sean-kingston'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Queen-i-want-to-break-free-lyrics', 'lyrics': "[Verse 1]\nI want to break free\nI want to break free\nI want to break free from your lies\nYou're so self-satisfied, I don't need you\nI've got to break free\nGod knows, God knows I want to break free\n[Verse 2]\nI've fallen in love\nI've fallen in love for the first time\nAnd this time I know it's for real\nI've fallen in love, yeah\nGod knows, God knows I've fallen in love\n[Bridge]\nIt's strange but it's true, yeah\nI can't get over the way you love me like you do\nBut I have to be sure\nWhen I walk out that door\nOh, how I want to be free, baby\nOh, how I want to be free\nOh, how I want to break free\n\n[Verse 3]\nBut life still goes on\nI can't get used to living without, living without\nLiving without you by my side\nI don't want to live alone, hey\nGod knows, got to make it on my own\nSo baby, can't you see?\nI've got to break free\n[Outro]\nI've got to break free\nI want to break free, yeah\nI want, I want, I want, I want to break free", 'annotations': {'description': '&lt;p&gt;The second single from Queen’s 11th studio album &lt;a href="https://genius.com/albums/Queen/The-works" rel="noopener" data-api_path="/albums/68152"&gt;&lt;em&gt;The Works&lt;/em&gt;&lt;/a&gt;, “I Want To Break Free” gained notoriety primarily for its controversial music video. The video featured the band dressed as the cast of the popular soap opera &lt;em&gt;Coronation Street&lt;/em&gt; and has Freddie Mercury dancing with members of the Royal Ballet Theatre. Mercury plays a housewife who wants to “break free” from his constraining life.&lt;/p&gt;\n\n&lt;p&gt;Although music video is often believed to be Freddie Mercury’s idea, in an interview with &lt;a href="https://brianmay.com/brian/briannews/briannewsmar11a.html" rel="noopener nofollow"&gt;Q magazine March 2011&lt;/a&gt;, when Brian May was asked whether each band member’s character in the video was an accurate reflection of their personalities, he answered:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Of Course! Everybody thinks that was Freddie’s idea because it looks like something that he would love to do but it actually came from Roger’s girlfriend at the time, strangely enough. It was her idea to pastiche the Coronation Street women.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Freddie, although shocked that the others suggested dressing up in drag for the video, doesn’t deny that he was actually dying to dress up in drag, and it was something in the back of his mind.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/6xOhAHdF96E?modestbranding=1&amp;amp;start=294&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/LrOCwdFjZdQ?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;The soap opera parody was missed in the  United States, where the video was interpreted as a celebration of transvestism and subsequently banned from MTV, which may have led to the song’s lack of success in the US as compared to the rest of the world.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4676742925be5a83957b80b470e14602.300x300x1.jpg" alt="" width="300" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The musicians dressed as female characters from Coronation Street. Left to right: Roger Taylor (as Suzie Birchall), Brian May (Hilda Ogden), Freddie Mercury (Bet Lynch) and John Deacon (Ena Sharples).&lt;/p&gt;', 'producers': [{'name': 'Queen', 'url': 'https://genius.com/artists/Queen'}, {'name': 'Reinhold Mack', 'url': 'https://genius.com/artists/Reinhold-mack'}], 'writers': [{'name': 'John Deacon', 'url': 'https://genius.com/artists/John-deacon'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bastille-pompeii-lyrics', 'lyrics': "[Directed by Jesse John Jenkins]\n[Intro]\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\n\n[Verse 1]\nI was left to my own devices\nMany days fell away with nothing to show\n\n[Pre-Chorus]\nAnd the walls kept tumbling down in the city that we love\nGrey clouds roll over the hills, bringing darkness from above\n\n[Chorus]\nBut if you close your eyes\nDoes it almost feel like nothing changed at all?\nAnd if you close your eyes\nDoes it almost feel like you've been here before?\nHow am I going to be an optimist about this?\nHow am I going to be an optimist about this?\n[Verse 2]\nWe were caught up and lost in all of our vices\nIn your pose as the dust settled around us\n\n[Pre-Chorus]\nAnd the walls kept tumbling down in the city that we love\nGrey clouds roll over the hills, bringing darkness from above\n\n[Chorus]\nBut if you close your eyes\nDoes it almost feel like nothing changed at all?\nAnd if you close your eyes\nDoes it almost feel like you've been here before?\nHow am I going to be an optimist about this?\nHow am I going to be an optimist about this?\n\n[Bridge]\nOh, where do we begin, the rubble or our sins?\nOh, where do we begin, the rubble or our sins?\n\n[Pre-Chorus]\nAnd the walls kept tumbling down in the city that we love\n(Oh, where do we begin, the rubble or our sins?)\nGrey clouds roll over the hills bringing darkness from above\n(Oh, where do we begin, the rubble or our sins?)\n[Chorus]\nBut if you close your eyes\nDoes it almost feel like nothing changed at all?\nAnd if you close your eyes\nDoes it almost feel like you've been here before?\nHow am I going to be an optimist about this?\nHow am I going to be an optimist about this?\nIf you close your eyes\nDoes it almost feel like nothing changed at all?\n[Outro]\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu", 'annotations': {'description': '&lt;p&gt;“Pompeii” was the fourth song to be released from Bastille’s debut album &lt;a href="https://genius.com/albums/Bastille/Bad-blood" rel="noopener" data-api_path="/albums/30558"&gt;&lt;em&gt;Bad Blood&lt;/em&gt;&lt;/a&gt;. It has reached number 2 on the UK Singles Chart, topped the Scottish charts, and reached the number 5 on the Billboard Hot 100. &lt;a href="http://www.officialcharts.com/chart-news/the-top-10-most-streamed-songs-and-artists-of-all-time-revealed-__4249/" rel="noopener nofollow"&gt;According to the Official Charts Company&lt;/a&gt;, it was the UK’s most streamed song up to June 2014.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.youtube.com/watch?feature=player_embedded&amp;amp;v=qpRIPTKsC8w#t=19s" rel="noopener nofollow"&gt;In an interview with NME&lt;/a&gt;, Dan explains that it is indeed about Pompeii, and a conversation among some of its citizens as the smoke comes down:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s really about what happened in Pompeii and the city. Famously, the city was sort of dug up and people who were wiped out by the volcano were kind of discovered – or the negative space of their body was discovered – in the poses in which they died, and I just thought that was such an interesting image. And a really happy one as well. So the song is sort of imagining a conversation between two of those people.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;He also reacts to the huge success the song has been:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When I was writing “Pompeii”, I like honestly recorded it in my bedroom and it didn’t even occur to me – like, you know, we’ve been so taken aback and kind of surprised at how it’s done and never ever expected it to be like anywhere in the charts or anything so, yeah, it’s a massive surprise.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;a href="http://www.telegraph.co.uk/culture/music/rockandpopfeatures/10400588/Bastilles-storming-success.html" rel="noopener nofollow"&gt;In an interview with The Telegraph&lt;/a&gt;, Dan adds:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“It is essentially about fear of stasis and boredom. Being quite a shy, self-conscious person, I was afraid my life might get stuck.”&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Dan Smith', 'url': 'https://genius.com/artists/Dan-smith'}, {'name': 'Mark Crew', 'url': 'https://genius.com/artists/Mark-crew'}], 'writers': [{'name': 'Dan Smith', 'url': 'https://genius.com/artists/Dan-smith'}], 'labels': [{'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Joe-cocker-you-can-leave-your-hat-on-lyrics', 'lyrics': "Baby take off your coat\nReal slow\nTake off your shoes\nI'll take off your shoes\nBaby, take off your dress\nYes, yes, yes\n\nYou can leave your hat on\nYou can leave your hat on\nYou can leave your hat on\n\nGo over there, turn on the lights\nAll the lights\nCome back here, stand on that chair\nGet up woman, that's right\nRaise your arms up in the air\nAnd now shake 'em\n\nYou give me reason to live\nYou give me reason to live\nYou give me reason to live\nYou give me reason to live\n\nSweet darling\n(You can leave your hat on)\nJust leave your hat on, girl\nA little wild man\n(You can leave your hat on)\nLeave your hat on\n(You can leave your hat on)\n(You can leave your hat on)\nSuspicious minds are talkin'\nThey're tryin' to tear us apart\nThey don't believe in this love of mine\nThey don't know what love is\n\nThey don't know what love is\nThey don't know what love is\nThey don't know what love is\nI know what love is\n\nAnd baby, put it my way\n(You can leave your hat on)\nAnd just leave your hat on now\nThey don't wanna\n(You can leave your hat on)\nWon't you do that for me, babe?\n(You can leave your hat on)\nAnd just leave your hat on, girl\n(You can leave your hat on)", 'annotations': {'description': '&lt;p&gt;“You Can Leave Your Hat On” was written by Randy Newman in 1969.  It appears on the Joe Cocker album &lt;em&gt;Cocker&lt;/em&gt; (1986).&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/1c7e1a10ca6ec8bffdf99e7b74fd8648.320x320x1.jpg" alt="" width="320" height="320" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;This song became part of the soundtrack for the movie &lt;a href="http://www.imdb.com/title/tt0091635/" rel="noopener nofollow"&gt;&lt;em&gt;9 ½ Weeks&lt;/em&gt; (1986)&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;When Newman wrote the song he said he pictured the protagonist “as kind of a weak fellow”, but Cocker’s version is done with swagger, and it adds a lot to the sexuality of it.&lt;/p&gt;', 'producers': [{'name': 'Richie Zito', 'url': 'https://genius.com/artists/Richie-zito'}], 'writers': [{'name': 'Randy Newman', 'url': 'https://genius.com/artists/Randy-newman'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lady-gaga-applause-lyrics', 'lyrics': '[Verse 1]\nI stand here waiting for you to bang the gong\nTo crash the critic saying, "Is it right or is it wrong?"\nIf only fame had an IV, baby, could I bear\nBeing away from you? I found the vein, put it in here\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Verse 2]\nI\'ve overheard your theory, "Nostalgia\'s for geeks"\nI guess sir, if you say so, some of us just like to read\nOne second I\'m a Koons, then suddenly the Koons is me\nPop culture was in art, now art\'s in pop culture, in me\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Bridge]\nWoo... touch, touch\nWoo... touch, touch\nNow... woo-oh-oh-oh...\nWoo-oh-oh-oh...\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Outro]\nA-R-T-P-O-P', 'annotations': {'description': '&lt;p&gt;“Applause” is an EDM/electro-pop celebration of sticking it to the haters, doing what one loves, and embracing the thrill of the crowd. Bed-ridden and forced to cancel tour dates due to a 2013 hip injury, Gaga yearned for the love – * the applause* – of her fans, inspiring her to write this song.&lt;/p&gt;\n\n&lt;p&gt;The song is the lead single off of Lady Gaga’s &lt;em&gt;ARTPOP&lt;/em&gt;. It’s less robust than her previous lead singles, like &lt;a href="https://genius.com/Lady-gaga-bad-romance-lyrics" rel="noopener" data-api_path="/songs/1313"&gt;“Bad Romance”&lt;/a&gt; and &lt;a href="https://genius.com/Lady-gaga-born-this-way-lyrics" rel="noopener" data-api_path="/songs/4320"&gt;“Born This Way”&lt;/a&gt;, but what it lacks in length it displays in nightclub-ready energy and unapologetic campiness.&lt;/p&gt;\n\n&lt;p&gt;The song’s cover art is possibly &lt;a href="http://flavorwire.com/407489/the-cover-of-lady-gagas-new-single-applause-looks-a-whole-lot-like-david-bowies-scary-monsters" rel="noopener nofollow"&gt;Bowie-influenced.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/ec0c9d97237b28c537dc33b5edb3e8f6.607x469x1.png" alt="" width="607" height="469" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}], 'writers': [{'name': 'Steve Guess', 'url': 'https://genius.com/artists/Steve-guess'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}, {'name': 'Tchami', 'url': 'https://genius.com/artists/Tchami'}, {'name': 'Julien Arias', 'url': 'https://genius.com/artists/Julien-arias'}, {'name': 'Nicolas Mercier', 'url': 'https://genius.com/artists/Nicolas-mercier'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Live-band-selling-the-drama-lyrics', 'lyrics': "[Verse 1]\nAnd to love, the God\nAnd to fear, the flame\nAnd to burn, the crowd that has a name\n\n[Verse 2]\nAnd to right or wrong\nAnd to meek or strong\nIt is known, just scream it from the wall\n\n[Pre-Chorus]\nI've willed, I've walked\nI've read, I've talked\nI know, I know\nI've been here before\n\n[Chorus]\nHey, now we won't be raped\nHey, now we won't be scarred like that\nHey, now we won't be raped\nHey, now we won't be scarred like that\n\n[Verse 3]\nIt's the sun that burns\nIt's the wheel that turns\nIt's the way we sing that makes 'em dream\n[Verse 4]\nAnd to Christ, a cross\nAnd to me, a chair\nI will sit and earn the ransom from up here\n\n[Pre-Chorus]\nI've willed, I've walked\nI've read, I've talked\nI know, I know\nI've been here before\n\n[Chorus]\nHey, now we won't be raped\nHey, now we won't be scarred like that\nHey, now we won't be raped\nHey, now we won't be scarred like that, scarred like that\n(We won't, we won't, we won't, we won't)\n\n[Verse 5]\nAnd to love, a God\nAnd to fear, a flame\nAnd to burn, a love that has a name\n\n[Pre-Chorus]\nI've willed, I've walked\nI've read, I've talked\nI know, I know\nI've been here before\n[Chorus]\nHey, now we won't be raped\nHey, now we won't be scarred like that\nHey, now we won't be raped\nHey, now we won't be scarred like that, scarred like that\n\n[Outro]\nHey, now, no, no\nWe won't be scarred like that\nWow we won't be scarred like that", 'annotations': {'description': '&lt;p&gt;The title of this song refers to religion and spirituality, in both western and eastern guises. “Drama” refers to both the theatrics of organized religions and the Hindu cosmological concept of Lila (the universal “play” of Brahman). On the one hand, the song is about how some churches/institutions “sell” religion like a commodity. On the other, the singer questions whether the truth of Hindu lila is something that even &lt;em&gt;can&lt;/em&gt; be sold.&lt;/p&gt;', 'producers': [{'name': 'LIVE (Band)', 'url': 'https://genius.com/artists/Live-band'}, {'name': 'Jerry Harrison', 'url': 'https://genius.com/artists/Jerry-harrison'}], 'writers': [{'name': 'Ed Kowalczyk', 'url': 'https://genius.com/artists/Ed-kowalczyk'}], 'labels': [{'name': 'Radioactive Records', 'url': 'https://genius.com/artists/Radioactive-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Moby-bodyrock-lyrics', 'lyrics': "[Hook]\nRock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNo stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is...\n[Chorus]\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\n\n[Hook]\nRock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is\n[Chorus]\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\n\n[Instrumental Break]\n[Breakdown]\nRock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\n\n[Hook]\nToday is rock y'all\nNo stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is\n\n[Bridge]\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to set you freaking\n\n[Chorus]\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\n\n[Outro]\nRock rock the party\nWe rock the party\nCome on get down", 'annotations': {'description': '&lt;p&gt;“Bodyrock” was the third single released from Moby’s 1999 album &lt;em&gt;Play&lt;/em&gt;. It charted in the UK Top 40 and was eventually nominated for a Grammy for Best Rock Instrumental.&lt;/p&gt;\n\n&lt;p&gt;As with most of the commercially released singles from the album, “Bodyrock” is based around a sample; in this case it’s from &lt;a href="https://genius.com/artists/Spoonie-gee" rel="noopener" data-api_path="/artists/9763"&gt;Spoonie Gee’s&lt;/a&gt; &lt;a href="https://genius.com/Spoonie-gee-love-rap-lyrics" rel="noopener" data-api_path="/songs/939348"&gt;“Love Rap”&lt;/a&gt; and &lt;a href="https://genius.com/artists/Treacherous-three" rel="noopener" data-api_path="/artists/9762"&gt;Treacherous Three&lt;/a&gt;’s &lt;a href="https://genius.com/Treacherous-three-body-rock-lyrics" rel="noopener" data-api_path="/songs/52446"&gt;“Body Rock”&lt;/a&gt;, which Moby surrounds with old school drum loops, layers of electric guitar, synthesized strings, and piano.&lt;/p&gt;\n\n&lt;p&gt;A decade after releasing the song, Moby &lt;a href="http://www.rollingstone.com/music/news/play-10-years-later-mobys-track-by-track-guide-to-1999s-global-smash-20090702#ixzz3lTLYnTAC" rel="noopener nofollow"&gt;reflected&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Bodyrock” was the song both of my managers tried to get me to take off the record. They thought it was really tacky. They thought it sounded like a &lt;a href="https://genius.com/artists/Fatboy-slim" rel="noopener" data-api_path="/artists/2957"&gt;Fatboy Slim&lt;/a&gt; ripoff — which I guess it kind of did. I like it because the hip-hop sample was off the first mixtape I ever got, maybe in 1981, off of the Mr. Magic Show on WBLS. The guitar is directly inspired by &lt;a href="https://genius.com/Gang-of-four-what-we-all-want-lyrics" rel="noopener" data-api_path="/songs/874571"&gt;“What We All Want”&lt;/a&gt; by &lt;a href="https://genius.com/artists/Gang-of-four" rel="noopener" data-api_path="/artists/75518"&gt;Gang of Four&lt;/a&gt;. And I thought it was kind of funny to have an orchestral chorus on what is essentially a hip-hip song.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;sub&gt;Spoonie Gee and the Treacherous Three’s “Love Rap”:&lt;/sub&gt;&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/YfWfiP_x6WE?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;&lt;sub&gt;The American version of the “Bodyrock” video:&lt;/sub&gt;&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/QwG49y-RMe4?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Moby', 'url': 'https://genius.com/artists/Moby'}], 'writers': [{'name': 'Bobby Robinson', 'url': 'https://genius.com/artists/Bobby-robinson'}, {'name': 'Spoonie Gee', 'url': 'https://genius.com/artists/Spoonie-gee'}, {'name': 'Moby', 'url': 'https://genius.com/artists/Moby'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rednex-cotton-eye-joe-lyrics', 'lyrics': "[Intro]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\n\n[Chorus]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\n\n[Verse 1]\nHe came to town like a midwinter storm\nHe rode through the fields, so handsome and strong\nHis eyes was his tools and his smile was his gun\nBut all he had come for was havin' some fun\n[Chorus]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\n\n[Verse 2]\nHe brought disaster wherever he went\nThe hearts of the girls was to hell broken sent\nThey all ran away so nobody would know\nAnd left only men 'cause of Cotton-Eyed Joe\n\n[Chorus]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?", 'annotations': {'description': '&lt;p&gt;Cotton Eye Joe is an American folk song which was written in 1861. Rednex provides an EDM remix of it.&lt;/p&gt;', 'producers': [{'name': 'Pat Reiniz', 'url': 'https://genius.com/artists/Pat-reiniz'}], 'writers': [{'name': 'Oban', 'url': 'https://genius.com/artists/Oban'}, {'name': 'Pat Reiniz', 'url': 'https://genius.com/artists/Pat-reiniz'}, {'name': 'Jan Mikael Ericsson', 'url': 'https://genius.com/artists/Jan-mikael-ericsson'}], 'labels': [{'name': 'Battery Records', 'url': 'https://genius.com/artists/Battery-records'}, {'name': 'ZYX Music', 'url': 'https://genius.com/artists/Zyx-music'}, {'name': 'Internal Affairs', 'url': 'https://genius.com/artists/Internal-affairs'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Michael-jackson-dont-stop-til-you-get-enough-lyrics', 'lyrics': "[Spoken Intro]\nYou know, I was\nI was wondering, you know\nIf you could keep on\nBecause the force\nIt's got a lot of power\nAnd it make me feel like ah\nIt make me feel like… ooh!\n\n[Verse 1]\nLovely is the feelin' now\nFever, temperatures risin' now\nPower (Oh power) is the force, the vow\nThat makes it happen, it asks no questions why (Ooh)\nSo get closer (Closer now)\nTo my body now\nJust love me\n'Till you don't know how (Ooh)\n\n[Chorus]\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\n[Verse 2]\nTouch me and I feel on fire\nAin’t nothin' like a love desire (Ooh)\nI'm melting (I'm melting)\nLike hot candle wax\nSensation (Oh sensation)\nLovely where we're at (Ooh!)\nSo let love take us through the hours\nI won't be complainin' (Aah)\n'Cause this is love power (Ooh)\n\n[Chorus]\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\n\n[Instrumental Interlude]\nOoh!\nOh, baby\nKeep on\nKeep on\n[Verse 3]\nHeartbreak enemy despise\nEternal (Oh eternal)\nLove shines in my eyes (Ooh)\nSo let love take us through the hours (Oh, let love)\nI won't be complainin' (No, no) (Hoo!)\n'Cause your love is alright, alright (Ooh)\n\n[Chorus]\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Don't stop, baby)\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough (Oh, my baby)\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\n[Refrain]\nLovely is the feelin' now\nI won't be complainin' (Ooh, ooh)\nThe force is love power\n\n[Chorus / Outro]\nKeep on with the force don't stop\nDon't stop 'til you get enough\nKeep on with the force don't stop (Don't stop, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Don't, baby)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Love power, yeah)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Love power)\nDon't stop 'til you get enough\nKeep on with the force don't stop\n(Keep on with the power, would ya, ooh)\nDon't stop 'til you get enough\n(Don't stop 'til you get enough, ooh)\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Keep on, yeah)\nDon't stop 'til you get enough (Ah, ah now)\nKeep on with the force, don't stop (Yeah)\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Keep on, baby)\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Don't 'til you get enough)\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Alright, yeah)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on baby)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Don't stop)", 'annotations': {'description': "&lt;p&gt;In 1978, Michael Jackson starred as the scarecrow in &lt;em&gt;The Wiz&lt;/em&gt;. After filming, MIchael contacted the films musical directer to discuss a possible solo album. After reviewing hundreds of demos, “Don’t Stop ‘Til You Get Enough” was chosen along with several others to make up Michael’s album, &lt;em&gt;Off the Wall&lt;/em&gt;.“Don’t Stop 'Til You Get Enough” received criticism for the songs supposed “sexual referencing” lyrics.&lt;/p&gt;\n\n&lt;p&gt;Michael Jackson claimed people often misinterpret the song, saying the song was about never quitting, regardless of what your dream was. At that time, perhaps his dream was to succeed as a solo artist. And succeed he did. Michael Jackson won his first Grammy Award for this song, taking the title for Best R&amp;amp;B Vocal Performance, Male. This was Michael’s first #1 since “Ben” in 1972.&lt;/p&gt;", 'producers': [{'name': 'Quincy Jones', 'url': 'https://genius.com/artists/Quincy-jones'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'writers': [{'name': 'Greg Phillinganes', 'url': 'https://genius.com/artists/Greg-phillinganes'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bloodhound-gang-mope-lyrics', 'lyrics': '[Intro: Jimmy Pop, Evil Jared Hasselhoff, &amp; Falco sample]\nWe gonna drop this next bomb for a money makin\' playa that ain\'t with us no mo\'\nYeah, Notorious B.I.G.!\nHell no, we gonna do this for a gangbanging thug that never seen it comin\'\nYeah, 2Pac Shakur!\nNah, bitch, I\'m talkin\' \'bout motherfuckin\' Falco and shit\nWhat? Falco?\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\n\n[Verse 1: Jimmy Pop]\nTried to O.D. on the Cold-Eeze\nGolden Girls got me sweatin\' to the oldies\nHanging out like double-Ds, sip Long Island Iced Teas\nWrote to Mayor McCheese, "Send a Shamrock Shake, please!"\nThree o\' clock on the dot, time to cruise for eighth graders\nRather tape the Weather Channel so that I can watch it later\nReruns of Rerun! So, what\'s happening?\nDee\'s knocked up and Rog\'s on crack again\nDeepthroat a whole Nutty Buddy\nMake whoopie to a batch of Silly Putty\nMade a Spam and Colgate sandwich and ate it\nGo through National Geographic and draw panties on the natives\nSo I like to dance naked in front of my pets\nBut my cat was inattentive, so I sent him UPS\nPlaying spin the bottle with my mom\nI watch COPS with no pants on\n[Pre-Chorus: Jimmy Pop]\nMust\'ve blown a fuse, nothing\'s going on\nLamer than the Pope, climb the walls like King Kong\nBuggin\' out like Tori Spelling\'s eyes\nDeader than the parents on A Party of Five\nLuciano Pavarotti on a treadmill\nNot going nowhere, slim chance we will\nLess hip than Bo Jackson, bored like wood\nDick around like Frankie Goes to Hollywood\n\n[Chorus: Frankie Goes to Hollywood]\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\n\n[Verse 2: Jimmy Pop]\nNowhere to go, I can\'t wake up late\nJust sit around and wait for my Old Spice to activate\nStalemate jail-bait in my so-called-life imprisonment\nAmazing what a good breakfast pickles make, isn\'t it?\nI like to pretend I\'m speed reading\nNever lose the sight of the thrill of sneezing\nDon\'t need a shower today, just some Brut by Faberge\nSmell the ass of my jeans--clean, they\'ll do another day\nAnd I recycle; I sniff my own farts\nI dial the wrong number, hope a conversation starts\nI mean, I might as well be listening to Journey\nGivin\' myself a mullet, hook the Flowbee to the Kirby\nMake a prank call pretending I\'m a mime\nGet stuck in traffic just to pass the time\nSent a letter in the mail, in Braille, to Jonny Quest\n"Send me back my Etch-A-Sketch!"\n[Pre-Chorus: Jimmy Pop]\nMust\'ve blown a fuse, nothing\'s going on\nLamer than the Pope, climb the walls like King Kong\nBuggin\' out like Tori Spelling\'s eyes\nDeader than the parents on A Party of Five\nLuciano Pavarotti on a treadmill\nNot going nowhere, slim chance we will\nLess hip than Bo Jackson, bored like wood\nDick around like Frankie Goes To Hollywood\n\n[Chorus: Frankie Goes to Hollywood]\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\n\n[Post-Chorus: Jimmy Pop &amp; Frankie Goes to Hollywood]\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\n[Refrain: Jimmy Pop, Evil Jared Hasselhoff, &amp; Pac-Man]\nYo, yo, yo, yo, yo! What it is, motherfuckers?\nAw shit, here comes Pac-Man\nHey Pac-Man, what\'s up?\nMe, you bitches, I\'m high on crack! Wanna freebase?\nNo, Pac-Man, drugs are bad!\nNope, can\'t help you, mane\nPussies! Whoa! Holy shit!\n\n[Pre-Chorus: Jimmy Pop]\nMust\'ve blown a fuse, nothing\'s going on\nLamer than the Pope, climb the walls like King Kong\nBuggin\' out like Tori Spelling\'s eyes\nDeader than the parents on A Party of Five\nLuciano Pavarotti on a treadmill\nNot going nowhere, slim chance we will\nLess hip than Bo Jackson, bored like wood\nDick around like Frankie Goes To Hollywood\n\n[Chorus: Frankie Goes to Hollywood]\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\n[Outro: Homer Simpson]\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni', 'annotations': {'description': '&lt;p&gt;This song is about being bored, home alone with nothing better to do and doing random shit to pass the time.&lt;/p&gt;', 'producers': [{'name': 'Jimmy Pop', 'url': 'https://genius.com/artists/Jimmy-pop'}], 'writers': [{'name': 'David X. Cohen', 'url': 'https://genius.com/artists/David-x-cohen'}, {'name': 'Steve Tompkins', 'url': 'https://genius.com/artists/Steve-tompkins'}, {'name': 'John Swartzwelder', 'url': 'https://genius.com/artists/John-swartzwelder'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'Mark O’Toole', 'url': 'https://genius.com/artists/Mark-otoole'}, {'name': 'Holly Johnson', 'url': 'https://genius.com/artists/Holly-johnson'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}, {'name': 'Peter Gill', 'url': 'https://genius.com/artists/Peter-gill'}, {'name': 'Cliff Burton', 'url': 'https://genius.com/artists/Cliff-burton'}, {'name': 'Robert J. Bolland', 'url': 'https://genius.com/artists/Robert-j-bolland'}, {'name': 'Ferdi Bolland', 'url': 'https://genius.com/artists/Ferdi-bolland'}, {'name': 'Falco', 'url': 'https://genius.com/artists/Falco'}, {'name': 'Jimmy Pop', 'url': 'https://genius.com/artists/Jimmy-pop'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Daft-punk-instant-crush-lyrics', 'lyrics': '[Verse 1]\nI didn\'t want to be the one to forget\nI thought of everything I\'d never regret\nA little time with you is all that I get\nThat\'s all we need because it\'s all we can take\nOne thing I never see the same when you\'re \'round\nI don’t believe in him, his lips on the ground\nI wanna take you to that place in the Roche\nBut no one gives us any time anymore\nHe asks me once if I\'d look in on his dog\nYou made an offer for it, then you ran off\nI got this picture of us kids in my head\nAnd all I hear is the last thing that you said\n\n[Pre-Chorus]\n"I listened to your problems, now listen to mine"\nI didn\'t want to anymore, oh-oh-oh\n\n[Chorus]\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\nSome more again\n[Verse 2]\nIt didn\'t matter what they wanted to see\nHe thought he saw someone that looked just like me\nThe summer memory that just never dies\nWe worked too long and hard to give it no time\nHe sees right through me, it\'s so easy with lies\nCracks in the road that I would try and disguise\nHe runs his scissors at the seam in the wall\nHe cannot break it down or else he would fall\nOne thousand lonely stars hiding in the cold\nTake it, oh, I don\'t wanna sing anymore\n\n[Instrumental Break]\n\n[Pre-Chorus]\n"I listened to your problems, now listen to mine"\nI didn\'t want to anymore, oh-oh-oh\n\n[Chorus]\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a–\n[Bridge]\nI don\'t understand, don\'t get upset\nI\'m not with you\nWe\'re swimming around, it\'s all I do\nWhen I\'m with you\n\n[Chorus]\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\n[Produced by Daft Punk, Julian Casablancas, John "JR" Robinson, &amp; Nathan East]', 'annotations': {'description': '&lt;p&gt;“Instant Crush,” the fourth single off of &lt;em&gt;Random Access Memories&lt;/em&gt;, sees Daft Punk team up with Julian Casablancas from &lt;a href="https://genius.com/artists/The-strokes" rel="noopener" data-api_path="/artists/12524"&gt;The Strokes&lt;/a&gt; in a mid tempo song with bass driven mellow verses and uplifting synth based choruses.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/ea01f2ad3d31a0eb1c3da56d3f2c5d2f.500x332x1.jpg" alt="" width="500" height="332" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}, {'name': 'Daft Punk', 'url': 'https://genius.com/artists/Daft-punk'}], 'writers': [{'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}, {'name': 'Guy-Manuel de Homem-Christo', 'url': 'https://genius.com/artists/Guy-manuel-de-homem-christo'}, {'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}], 'labels': [{'name': 'Daft Life', 'url': 'https://genius.com/artists/Daft-life'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Clean-bandit-rockabye-lyrics', 'lyrics': '[Intro: Sean Paul]\nCall it love and devotion\nCall it a mom\'s adoration, foundation\nA special bond of creation, hah\nFor all the single moms out there\nGoing through frustration\nClean Bandit, Sean-da-Paul, Anne-Marie\nSing, make them hear\n\n[Verse 1: Anne-Marie &amp; Sean Paul]\nShe works at nights, by the water\nShe\'s gone astray, so far away\nFrom her father\'s daughter\nShe just wants a life for her baby\nAll on her own, no one will come\nShe\'s got to save him (Daily struggle)\n\n[Pre-Chorus 1: Anne-Marie &amp; Sean Paul]\nShe tells him, "Oh, love, no one\'s ever gonna hurt you, love."\n"I\'m gonna give you all of my love."\n"Nobody matters like you."\n(Stay up there, stay up there!)\nShe tells him, "Your life ain\'t gon\' be nothing like my life." (Straight!)\n"You\'re gonna grow and have a good life."\n"I\'m gonna do what I\'ve got to do."\n(Stay up there, stay up there!)\n[Chorus: Anne-Marie]\nSo, rockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\nSomebody\'s got you\nRockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\nAh, rockabye, no\n\n[Post-Chorus 1: Sean Paul &amp; Anne-Marie]\nRockabye, rocka-rocka-rocka-bye\n(Rockabye, yeah, yeah)\nRockabye, rocka-rocka-rocka-bye\n\n[Verse 2: Sean Paul &amp; Anne-Marie, Both]\nSingle mum, how\'re you doing out there?\nFacing the hard life, without no fear (Yeah!)\nJust so you know that you really care\n\'Cause any obstacle come, you\'re well prepared (Oh, no!)\nAnd no, mama, you never shed tear\n\'Cause you have to shed things year after year (Na, na, na, na)\nAnd you give the yout love beyond compare (Yeah!)\nYou find his school fee and the bus fare (Yeah!)\nMh, all when di pops disappear\nInna rum bar, can\'t find him nowhere\nSteadily your workflow, heavily you know\nSo your non-stop, no time, no time for ya dear\n[Bridge: Anne-Marie]\nNow she got a six-year-old\nTrying to keep him warm\nTrying to keep out the cold\nWhen he looks in her eyes\nHe don\'t know he is safe\n\n[Pre-Chorus 2: Anne-Marie]\nWhen she says, "Oh, love, no one\'s ever gonna hurt you, love."\n"I\'m gonna give you all of my love."\n"Nobody matters like you."\n\n[Chorus: Anne-Marie &amp; Sean Paul]\nSo, rockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\nSomebody\'s got you\nRockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\n(Badda-bang-bang-bang, alright then)\nAh, rockabye, no\n\n[Post-Chorus 2: Sean Paul &amp; Anne-Marie]\nRockabye, rocka-rocka-rocka-bye\n(Rockabye, yeah, yeah)\nRockabye, rocka-rocka-rocka-bye\nRockabye, don\'t bother cry\nLift up your head, lift it up to the sky, yo\nRockabye, don\'t bother cry\nAngels surround you, just dry your eye\n[Bridge: Anne-Marie]\nNow she got a six-year-old\nTrying to keep him warm\nTrying to keep out the cold\nWhen he looks in her eyes\nHe don\'t know he is safe when she says\n\n[Pre-Chorus 1: Anne-Marie &amp; Sean Paul]\nShe tells him, "Oh, love, no one\'s ever gonna hurt you, love."\n"I\'m gonna give you all of my love."\n"Nobody matters like you."\n(Stay up there, stay up there!)\nShe tells him, "Your life ain\'t gon\' be nothing like my life." (Straight!)\n"You\'re gonna grow and have a good life."\n"I\'m gonna do what I got to do.", yeah\n\n[Chorus: Anne-Marie &amp; Sean Paul]\nSo, rockabye, baby, rockabye\n(Rockabye, rocka-rocka-rocka-bye)\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\n(Rockabye, rocka-rocka-rocka-bye)\nSomebody\'s got you\nRockabye, baby, rockabye\n(Rockabye-rocka-rocka-rocka-bye)\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\n(Badda-bang-bang-bang, alright then)\nAh, rockabye\n\n[Post-Chorus 3: Sean Paul &amp; Anne-Marie]\nRockabye, don\'t bother cry\nLift up your head, lift it up to the sky (Ah, Rockabye!)\nRockabye, don\'t bother cry (Yeah!)\nAngels surround you, just dry your eye (Yeah, ah, rockabye!)\nRockabye, don\'t bother cry (No!)\nLift up your head, lift it up to the sky (Oh, Rockabye!)\nRockabye, don\'t bother cry\nAngels surround you, just dry your eye', 'annotations': {'description': '&lt;p&gt;“Rockabye” is a dancehall song about all of the single and struggling mothers in the world. The track is the second single released from &lt;a href="https://genius.com/artists/Clean-bandit" rel="noopener" data-api_path="/artists/106693"&gt;Clean Bandit’s&lt;/a&gt; second studio album &lt;a href="https://genius.com/albums/Clean-bandit/What-is-love" rel="noopener" data-api_path="/albums/375274"&gt;&lt;em&gt;What Is Love?&lt;/em&gt;,&lt;/a&gt; and their first single as a trio after violinist Neil Milan left the band earlier in the same week. It features guest vocals from Jamaican rapper &lt;a href="https://genius.com/artists/Sean-paul" rel="noopener" data-api_path="/artists/740"&gt;Sean Paul&lt;/a&gt; and English singer &lt;a href="https://genius.com/artists/Anne-marie" rel="noopener" data-api_path="/artists/296675"&gt;Anne-Marie.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The song’s lyrics describe how single mothers bear hardships to raise their children and give them the best possible life, and the upbeat music turns that theme into a motivational track.&lt;/p&gt;\n\n&lt;p&gt;“Rockabye” was leaked onto the internet prematurely on the 20th October and was officially released the day after.&lt;/p&gt;', 'producers': [{'name': 'Jack Patterson', 'url': 'https://genius.com/artists/Jack-patterson'}, {'name': 'Steve Mac', 'url': 'https://genius.com/artists/Steve-mac'}, {'name': 'Mark Ralph', 'url': 'https://genius.com/artists/Mark-ralph'}], 'writers': [{'name': 'Sean Paul', 'url': 'https://genius.com/artists/Sean-paul'}, {'name': 'Steve Mac', 'url': 'https://genius.com/artists/Steve-mac'}, {'name': 'Ina Wroldsen', 'url': 'https://genius.com/artists/Ina-wroldsen'}, {'name': 'Jack Patterson', 'url': 'https://genius.com/artists/Jack-patterson'}, {'name': 'Ammar Malik', 'url': 'https://genius.com/artists/Ammar-malik'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bob-sinclar-world-hold-on-children-of-the-sky-lyrics', 'lyrics': "Oh yeah, yeah…\nOpen up your heart, what do you feel\nOpen up your heart, what do you feel… is real\n\nThe big bang may be a million years away\nBut I can't think of a better time to say\n\nWorld, hold on\nInstead of messing with our future, open up inside\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nWorld, hold on\nInstead of messing with our future\nTell me no more lies\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nChildren of the sky…\nChildren of the sky…\n\nLook inside, you'll find a deeper love\nThe kind that only comes from high above\n\nIf you ever meet your inner child, don't cry\nTell them everything is gonna be alright\nWorld, hold on\nInstead of messing with our future, open up inside\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nWorld, hold on\nCome one, everybody in the universe, come on\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nChildren of the sky… alright\nOpen up your heart\nTell me, how do you feel\n\nListen now, tell them everything, right here right now\nAlright, everybody, here in the world\nYou are all the children, alright\n\nTogether now, unite, and fight… oooh\nOpen up you heart, no, peace, love for everyone\n\nOh, no no no no no, alright, to the four corners of the world\nSing it loud, sing it loud, sing it loud loud loud\nWorld hold on on\n\nSing it loud, sing it proud\nEverybody, yeah yeah yeah yeah, oooh\nDon't take no for an answer, no no, not today\nRight here,spread love, everybody join together now\nOne [race], one heart, love and unity, everybody sing\nYeah!\n\nWorld, hold on\nCome one, everybody in the universe, come on\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nWorld, hold on\nCome one, everybody in the universe, come on\nWorld, hold on\nOne day you will have to answer to the children of the sky", 'annotations': {'description': '', 'producers': [{'name': 'Michael Tordjman', 'url': 'https://genius.com/artists/Michael-tordjman'}, {'name': 'Bob Sinclar', 'url': 'https://genius.com/artists/Bob-sinclar'}], 'writers': [{'name': 'Steve Edwards', 'url': 'https://genius.com/artists/Steve-edwards'}, {'name': 'Michael Tordjman', 'url': 'https://genius.com/artists/Michael-tordjman'}, {'name': 'Bob Sinclar', 'url': 'https://genius.com/artists/Bob-sinclar'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Blur-girls-and-boys-lyrics', 'lyrics': "[Verse 1]\nStreets like a jungle\nSo call the police\nFollowing the herd\nDown to Greece\nOn holiday\nLove in the '90s\nIs paranoid\nOn sunny beaches\nTake your chances\nLooking for\n\n[Chorus]\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\n\n[Verse 2]\nAvoiding all work\n'Cause there's none available\nLike battery thinkers\nCount your thoughts\nOn one, two, three, four, five fingers\nNothing is wasted\nOnly reproduced\nYou get nasty blisters\nDu bist sehr schön\nBut we haven't been introduced\n[Chorus]\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone to really love\n\n[Bridge]\nOh, oh, oh, oh-oh, oh\nOh, oh, oh, oh-oh\n\n[Chorus]\nLooking for girls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone to really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone to really love\n[Outro]\nOh, oh, oh, oh-oh, oh\nOh, oh, oh, oh-oh", 'annotations': {'description': '&lt;p&gt;Peaking a #5 in the UK charts and considered a comeback hit in its day after poor sales of Blur’s second album &lt;em&gt;Modern Life Is Rubbish&lt;/em&gt;. It was named song of the year 1994 by NME and Melody Maker magazines.&lt;/p&gt;\n\n&lt;p&gt;The single’s cover art was taken from a condom wrapper, reflecting the song’s focus on sexual promiscuity on summer holidays in Europe. The music has a convergence of various pop and dance styles, summed up by bassist Alex James as “Disco drums, nasty guitars and &lt;a href="https://genius.com/artists/Duran-duran" rel="noopener" data-api_path="/artists/22720"&gt;Duran Duran&lt;/a&gt; bass", with the first being done by a drum machine.&lt;/p&gt;', 'producers': [{'name': 'Stephen Street', 'url': 'https://genius.com/artists/Stephen-street'}], 'writers': [{'name': 'Damon Albarn', 'url': 'https://genius.com/artists/Damon-albarn'}, {'name': 'Graham Coxon', 'url': 'https://genius.com/artists/Graham-coxon'}, {'name': 'Dave Rowntree', 'url': 'https://genius.com/artists/Dave-rowntree'}, {'name': 'Alex James', 'url': 'https://genius.com/artists/Alex-james'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Roxette-how-do-you-do-lyrics', 'lyrics': "I see you comb your hair and gimme that grin\nIt's makin me spin now, spinning within\nBefore I melt like snow, I say hello\nHow do you do!\n\nI love the way you undress now, baby begin\nDo your caress, honey, my heart's in a mess\nI love your blue eyed voice, like Tiny Tim shines through\nHow do you do!\n\nWell, here we are, crackin' jokes in the corner of our mouths\nAnd I feel like I'm laughin' in a dream\nIf I was young, I would wait outside your school\n'Cause your face is like the cover of a magazine\n\nHow do you do the things that you do?\nNo-one I know could ever keep up with you\nHow do you do!\nDid it ever make sense to you to say bye, bye, bye?\n\nI see you in that chair with perfect skin\nWell, how have you been, baby, livin' in sin?\nHey, I gotta know did you say hello? How do you do?\n\nWell, here we are, spending time in the louder part of town\nAnd it feels like everything's surreal\nWhen I get old I will wait outside your house\n'Cause your hands have got the power meant to heal\nHow do you do the things that you do?\nNo-one I know could ever keep up with you\nHow do you do!\nDid it ever make sense to you to say bye, bye, bye?", 'annotations': {'description': '', 'producers': [{'name': 'Clarence Öfwerman', 'url': 'https://genius.com/artists/Clarence-ofwerman'}], 'writers': [{'name': 'Per Gessle', 'url': 'https://genius.com/artists/Per-gessle'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Metallica-sad-but-true-lyrics', 'lyrics': "[Verse 1]\nHey (Hey), I'm your life, I'm the one who takes you there\nHey (Hey), I'm your life, I'm the one who cares\nThey (They), they betray, I'm your only true friend now\nThey (They), they'll betray, I'm forever there\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your dream, mind astray\nI'm your eyes while you're away\nI'm your pain while you repay\nYou know it's sad but true\nSad but true\n\n[Verse 2]\nYou (You), you're my mask, you're my cover, my shelter\nYou (You), you're my mask, you're the one who's blamed\nDo (Do), do my work, do my dirty work, scapegoat\nDo (Do), do my deeds for you're the one who's shamed\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your dream, mind astray\nI'm your eyes while you're away\nI'm your pain while you repay\nYou know it's sad but true\nSad but true\n[Guitar Solo]\n\n[Bridge]\nI'm your dream\nI'm your eyes\nI'm your pain\nI'm your dream (I'm your dream)\nI'm your eyes (I'm your eyes)\nI'm your pain (I'm your pain)\nYou know it's sad but true\n\n[Guitar Solo]\n\n[Verse 3]\nHate (Hate), I'm your hate, I'm your hate when you want love\nPay (Pay), pay the price, pay for nothing's fair\nHey (Hey), I'm your life, I'm the one who took you there\nHey (Hey), I'm your life, and I no longer care\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your truth, telling lies\nI'm your reasoned alibis\nI'm inside, open your eyes\nI'm you\nSad but true", 'annotations': {'description': '&lt;p&gt;The fifth and final single released from Metallica’s seminal &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;self-titled album&lt;/a&gt;, “Sad But True” is about a person’s darker side taking control.&lt;/p&gt;\n\n&lt;p&gt;Influenced by the &lt;a href="http://en.wikipedia.org/wiki/Magic_%281978_film%29" rel="noopener nofollow"&gt;1978 horror film &lt;em&gt;Magic&lt;/em&gt;&lt;/a&gt;, starring &lt;a href="http://en.wikipedia.org/wiki/Anthony_Hopkins" rel="noopener nofollow"&gt;Anthony Hopkins&lt;/a&gt;, the song is a monologue justifying the existence of this darker side, which in the film is symbolized by a foul-mouthed ventriloquist’s dummy.&lt;/p&gt;\n\n&lt;p&gt;The song has been interpreted as an allusion to addiction, a struggle Hetfield &lt;a href="http://www.rollingstone.com/music/news/metallicas-james-hetfield-playing-music-saves-my-life-20150220" rel="noopener nofollow"&gt;has been open about&lt;/a&gt;, having previously entered rehab for &lt;a href="http://www.nme.com/photos/20-things-you-probably-didn-t-know-about-metallica/122042#/photo/17" rel="noopener nofollow"&gt;“alcohol and other addictions”—another being chocolate.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The song was later sampled by &lt;a href="https://genius.com/artists/Kid-rock" rel="noopener" data-api_path="/artists/1566"&gt;Kid Rock&lt;/a&gt; on &lt;a href="https://genius.com/Kid-rock-american-bad-ass-lyrics" rel="noopener" data-api_path="/songs/26092"&gt;“American Badass.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'Bob Rock', 'url': 'https://genius.com/artists/Bob-rock'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}], 'writers': [{'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Stevie-wonder-i-just-called-to-say-i-love-you-lyrics', 'lyrics': "[Verse 1]\nNo New Year's Day to celebrate\nNo chocolate covered candy hearts to give away\nNo first of Spring, no song to sing\nIn fact here's just another ordinary day\nNo April rain, no flowers bloom\nNo wedding Saturday, within the month of June\nBut what it is, is something true\nMade up of these three words that I must say to you\n\n[Chorus]\nI just called to say I love you\nI just called to say how much I care\nI just called to say I love you\nAnd I mean it from the bottom of my heart\n\n[Verse 2]\nNo summer's high\nNo warm July\nNo harvest moon to light one tender August night\nNo autumn breeze\nNo falling leaves\nNot even time for birds to fly to southern skies\nNo Libra sun\nNo Halloween\nNo giving thanks to all the Christmas joy you bring\nBut what it is, though old so new\nTo fill your heart like no three words could ever do\n[Chorus]\nI just called to say I love you\nI just called to say how much I care\nI just called to say I love you\nAnd I mean it from the bottom of my heart\n\nI just called to say I love you\nI just called to say how much I care\nI just called to say I love you\nAnd I mean it from the bottom of my heart\n\n[Outro]\nOf my heart\nOf my heart", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/f3653840bff7ae610eb7e70634ad0920.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;This song was written, produced, and performed by Stevie Wonder for &lt;a href="https://www.imdb.com/name/nm0000698/" rel="noopener nofollow"&gt;Gene Wilder&lt;/a&gt;’s October 1984 romantic-comedy, &lt;a href="https://www.imdb.com/title/tt0088414/" rel="noopener nofollow"&gt;&lt;em&gt;The Woman in Red&lt;/em&gt;&lt;/a&gt;. The song won both the Golden Globe and Academy Award for Best Original Song, as well as earning itself three Grammy nominations. Furthermore, it peaked at number 1 on various international singles charts.&lt;/p&gt;', 'producers': [{'name': 'Stevie Wonder', 'url': 'https://genius.com/artists/Stevie-wonder'}], 'writers': [{'name': 'Stevie Wonder', 'url': 'https://genius.com/artists/Stevie-wonder'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Britney-spears-gimme-more-lyrics', 'lyrics': "[Intro: Britney Spears]\nIt's Britney, bitch\nI see you\nAnd I just wanna dance with you\n{Giggles}\n\n[Verse 1: Britney Spears]\nEvery time they turn the lights down\nJust wanna go that extra mile for you\nYour public display of affection (Oh-oh-oh)\nFeels like no one else in the room (But you)\n\n[Pre-Chorus: Britney Spears]\nWe can get down like there's no one around\nWe keep on rocking (We keep on rocking)\nWe keep on rocking (We keep on rocking)\nCameras are flashing\nWhile we're dirty dancing\nThey keep watching (They keep watching)\nKeep watching\nFeels like the crowd are saying\n\n[Chorus: Britney Spears]\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\n[Verse 2: Britney Spears]\nThe center of attention (Do you feel that?)\nEven when we're up against the wall\nYou got me in a crazy position (Yeah)\nIf you're on a mission (Uh-huh)\nYou got my permission (Oh)\n\n[Pre-Chorus: Britney Spears]\nWe can get down like there's no one around\nWe keep on rocking (Keep on rocking)\nWe keep on rocking (Oh)\nRocking (Uh-huh)\nCameras are flashing\nWhile we're dirty dancing\nThey keep watching (They keep watching)\nKeep watching\nFeels like the crowd are saying\n\n[Chorus: Britney Spears]\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\n[Bridge: Britney Spears]\n(Mo-mo-mo-mo-mo-mo....)\n(Ooh, ooh, ooh...)\nI just can't control myself\n(Mo-mo-mo-mo-mo-mo)\n(More!)\nOh!\nThey want more?\nWell, I'll give them more\n(Mo-mo-mo-mo-mo-mo)\nOw!\n(More!)\n\n[Chorus: Britney Spears]\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\n(Give me more!)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\nOo-oo-ooh!\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGive me more, yeah\nGimme (Mo-)\nGimme, gimme (More)\n[Post-Chorus: Britney Spears &amp; (Danja)]\nOh-oh-oh\nGimme more, gimme more\n(Mo-mo-mo-mo-mo-mo)\n(More)\nGimme more, gimme more, babe\n(Danja, Danja, Danja, Danja\nDanja, Danja, Danja, Danja)\nI just want more\n\n[Breakdown: Danja]\n(Ooh-oh-oh-oh-oh, ooh-oh-oh-oh-oh)\n(Ooh-oh-oh-oh-oh, ooh-oh-oh-oh-oh)\n(Ooh-oh-oh-oh-oh, ooh-oh-oh-oh-oh)\n(Ooh-oh-oh-oh-oh)\n(Mo-mo-mo-mo-mo-mo)\n(Ooh-oh-oh-oh-oh)\n\n[Interlude: Britney Spears &amp; (Danja)]\nGimme, gimme, gimme, gimme, gimme\nGimme, gimme, gimme, gimme, gimme\n(Danja, Danja, Danja, Danja)\nGimme, gimme, gimme, gimme, gimme\nGimme, gimme, gimme, gimme, gimme\n\n[Outro: Danja]\nBet you didn't see this one coming\nThe Incredible Lago (Mo-mo-mo-mo-mo-mo)\nThe legendary Miss Britney Spears, haha\nAnd the unstoppable Danja\nAh, you gonna have to remove me\n‘Cause I ain’t going nowhere\n(Mo-mo-mo-mo-mo-mo)\n(More)", 'annotations': {'description': '&lt;p&gt;“Gimme More” is the lead single of her fifth studio album, &lt;a href="http://rock.genius.com/albums/Britney-spears/Blackout" rel="noopener" data-api_path="/albums/40263"&gt;Blackout&lt;/a&gt;. It was released on August 31, 2007. The track received acclaim from critics, some of which praised the music and Spears’s breathy vocals.&lt;/p&gt;\n\n&lt;p&gt;The song also has an &lt;a href="https://www.youtube.com/watch?v=Jwvl60jw2cM" rel="noopener nofollow"&gt;alternate music video&lt;/a&gt;  for the single, which featured the iconic funeral scene.&lt;/p&gt;', 'producers': [{'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'writers': [{'name': 'Keri Hilson', 'url': 'https://genius.com/artists/Keri-hilson'}, {'name': 'Marcella Araica', 'url': 'https://genius.com/artists/Marcella-araica'}, {'name': 'Jim Beanz', 'url': 'https://genius.com/artists/Jim-beanz'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'labels': [{'name': 'Jive', 'url': 'https://genius.com/artists/Jive'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Juice-wrld-and-marshmello-come-and-go-lyrics', 'lyrics': "[Intro: Juice WRLD &amp; Roddy Ricch]\nWoah, uh\nOh, oh-oh, oh (Mello made it right, uh)\n\n[Verse 1]\nI try to be everything that I can\nBut sometimes, I come out as bein' nothin’\nI try to be everything that I can\nBut sometimes, I come out as bein' nothin'\nI pray to God that He make me a better man (Uh)\nMaybe one day, I’ma stand for somethin'\nI'm thankin' God that He made you part of the plan\nI guess I ain't go through all that Hell for nothin'\nI'm always fuckin' up and wreckin’ shit\nIt seems like I perfected it\nI offer you my love\nI hope you take it like some medicine\nTell me ain’t nobody better than me\nI think that there's better than me\nHope you see the better in me\nAlways end up betterin’ me\n\n[Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don’t always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\n[Post-Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\n\n[Verse 2]\nWe take drugs, then you hold me close\nThen I tell you how you make me whole\nSometimes, I feel you like bein' alone\nThen you tell me that I shoulda stayed in the room\nGuess I got it all wrong all along, my fault\nMy mistakes probably wipe all the rights I've done\nSayin' goodbye to bygones, those are bygones\nHead up, baby, stay strong, we gon' live long\n\n[Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\n[Post-Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go", 'annotations': {'description': '&lt;p&gt;“Come &amp;amp; Go” is the fourth promotional single from Juice WRLD’s posthumous studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Juice-wrld/Legends-never-die" rel="noopener" data-api_path="/albums/619876"&gt;Legends Never Die&lt;/a&gt;&lt;/em&gt;. On the Marshmello-produced beat, Juice contrasts much of music and focuses on the positive side of his love and relationships.&lt;/p&gt;\n\n&lt;p&gt;The track was &lt;a href="https://www.twitter.com/JuiceWorlddd/status/1068617470280417282" rel="noopener nofollow"&gt;first previewed&lt;/a&gt; via &lt;a href="https://www.twitter.com/JuiceWorlddd" rel="noopener nofollow"&gt;Juice’s Twitter&lt;/a&gt; on November 30, 2018. The video was captioned “Off my chest,” leading people to incorrectly speculate that was the title of the song. An early version of the track was leaked on August 18, 2019, and was eventually released on July 9, 2020, one day before &lt;em&gt;Legends Never Die&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=Dxm3cHrKcbA" rel="noopener nofollow"&gt;official music video&lt;/a&gt; was released on July 10, 2020. It features animation from &lt;a href="https://www.instagram.com/tristious/" rel="noopener nofollow"&gt;Tristan Zammit&lt;/a&gt;, whose animation was also featured in the music video for &lt;a href="https://genius.com/Juice-wrld-righteous-lyrics" rel="noopener" data-api_path="/songs/4673513"&gt;“Righteous,”&lt;/a&gt; the album’s lead single.&lt;/p&gt;', 'producers': [{'name': 'Marshmello', 'url': 'https://genius.com/artists/Marshmello'}], 'writers': [{'name': 'Juice WRLD', 'url': 'https://genius.com/artists/Juice-wrld'}, {'name': 'Marshmello', 'url': 'https://genius.com/artists/Marshmello'}], 'labels': [{'name': 'Grade A Productions', 'url': 'https://genius.com/artists/Grade-a-productions'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Daft-punk-one-more-time-lyrics', 'lyrics': "[Produced by Daft Punk]\n\n[Intro: Romanthony]\nOne more time\nOne more time\n\n[Chorus 1: Romanthony]\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah\nOne more time\n\n[Interlude]\n[Chorus 1: Romanthony]\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah\nDon't stop the dancing\nOne more time\n\n[Bridge: Romanthony]\nMmm, you know I'm just feeling\nCelebration tonight\nCelebrate\nDon't wait too late\nMmm, no\nWe don't stop\nYou can't stop\nWe're gonna celebrate\nOne more time\nOne more time\nOne more time\nCelebration\nYou know we're gonna do it right, tonight\nHey! Just feeling\nMusic's got me feeling the need\nNeed, yeah\nCome on, all right\nWe're gonna celebrate\nOne more time\nCelebrate and dance so free\nMusic's got me feeling so free\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\n[Chorus 2: Romanthony]\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\n[Pause]\n\n[Chorus 2: Romanthony]\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free", 'annotations': {'description': '&lt;p&gt;From Rolling Stone’s &lt;a href="https://www.rollingstone.com/music/music-album-reviews/discovery-251661/" rel="noopener nofollow"&gt;“Discovery” by Ben Ratliff&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Daft Punk’s single, ‘One More Time’, is that kind of song: a piece of superreligion with an invincible beat and a nailed-to-the-wall vocal by house singer Romanthony. It is stamina itself, an anthem to &lt;em&gt;keep on dancing&lt;/em&gt; that’s already a huge hit in clubs and on the radio. All those knowing listeners who bought Homework and signed on for the pair’s rascally, nudge-wink grooves now have to figure out what part of ‘One More Time’ is for them. Is there a subversive part of ‘One More Time?’ If so, where does it begin?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The music video serves as the intro to the animated version of the album &lt;a href="https://genius.com/albums/Daft-punk/Discovery" rel="noopener" data-api_path="/albums/27501"&gt;Discovery&lt;/a&gt;, &lt;a href="http://rock.genius.com/Daft-punk-interstella-5555-the-5tory-of-the-5ecret-5tar-5ystem-lyrics/" rel="noopener" data-api_path="/songs/576883"&gt;&lt;em&gt;Interstella 5555: The 5tory of the 5ecret 5tar 5ystem&lt;/em&gt;&lt;/a&gt;. &lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/FGBhQbmPwH8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Daft Punk', 'url': 'https://genius.com/artists/Daft-punk'}], 'writers': [{'name': 'Guy-Manuel de Homem-Christo', 'url': 'https://genius.com/artists/Guy-manuel-de-homem-christo'}, {'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}, {'name': 'Romanthony', 'url': 'https://genius.com/artists/Romanthony'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Jace-everett-bad-things-lyrics', 'lyrics': "When you came in, the air went out\nAnd every shadow filled up with doubt\nI don't know who you think you are\nBut before the night is through\nI wanna do bad things with you\n\nI'm the kind to sit up in his room\nHeart sick and eyes filled up with blue\nI don't know what you've done to me\nBut I know this much is true:\nI wanna do bad things with you\n\nOk...\n\nWhen you came in, the air went out\nAnd all those shadows there, didn't leave any doubt\n\nI don't know who you think you are\nBut before the night is through\nI wanna do bad things with you\nI wanna do real bad things with you\n(howl)\n\nI don't know what you've done to me\nBut I know this one thing is true:\nI wanna do bad things with you\nI wanna do real bad things with you", 'annotations': {'description': '&lt;p&gt;Originally released as a single in 2005, this song gained much wider exposure as the theme song for the HBO TV series &lt;em&gt;True Blood&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Greg Droman', 'url': 'https://genius.com/artists/Greg-droman'}, {'name': 'Mark Wright', 'url': 'https://genius.com/artists/Mark-wright'}], 'writers': [{'name': 'Jace Everett', 'url': 'https://genius.com/artists/Jace-everett'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Calvin-harris-outside-lyrics', 'lyrics': "[Verse 1]\nLook at what you've done\nStand still, fallin' away from me\nWhen it takes so long\nFire's out, what do you want to be?\n\n[Pre-Chorus]\nNow I'm holdin’ on\nMyself was never enough for me\nGotta be so strong\nThere's a power in what you do\nNow, every other day I'll be watching you\n\n[Chorus]\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\n\n[Verse 2]\nSo you give me no reason\nFor me to stay close to you\nTell me what lovers do\nHow are we still breathing?\nIt's never for us to choose\nI'll be the strength in you\n[Pre-Chorus]\nNow I'm holdin’ on\nMyself was never enough for me\nGotta be so strong\nThere's a power in what you do\nNow, every other day I'll be watching you\n\n[Chorus]\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\n\n[Outro]\nI'll show you what it feels like\nNow I'm on the outside\nI'll show you what it feels like\nShow you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside", 'annotations': {'description': '&lt;p&gt;With just over 10 days before the release of his fourth studio album “&lt;a href="https://genius.com/albums/calvin-harris/motion" rel="noopener" data-api_path="/albums/113798"&gt;Motion&lt;/a&gt;”, Calvin Harris releases his 5th single from the project. Here he teams up with fellow Brit, &lt;a href="https://genius.com/artists/Ellie-goulding" rel="noopener" data-api_path="/artists/1838"&gt;Ellie Goulding&lt;/a&gt; who of course he has collaborated with in the past on the smash hit “&lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;I Need Your Love&lt;/a&gt;”.&lt;/p&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Ellie Goulding', 'url': 'https://genius.com/artists/Ellie-goulding'}, {'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Van-halen-dont-tell-me-what-love-can-do-lyrics', 'lyrics': "It's ok, I'll do what I want\nIf I choose, I can take the fall\nThere's a choice\nIt's my destiny\nIn my hands\nYeah it's up to me\nI can drive\nI can shoot a gun in the streets\nScore me some heroin\nI can jump\nBe the sacrifice\nBear my cross just like Jesus Christ\nAnd I don't wanna hear what love can do\nNo, I ain't gonna tell ya what's right for you\nIs it right to take the easy way\nClose your eyes\nGet on your knees and pray\nNow you're saved by a higher voice\nGiving up, giving up, giving up your choice\nIf I'm wrong then I'll pay for it\nIf I'm right, yeah you're gonna hear about it\nBut I've tried, yeah I've tried for it\nI tried, I tried, 'til I'm satisfied\nAnd I\nI'm tired of hearing what love can do\nAnd I\nAin't gonna tell you what's right for you\nI've seen the damage done\nDown with the shotgun\nDon't stop the setting sun on my kingdom come\nOh\nIs it right to take the easy way\nI don't know\nI get down on my  knees and pray\nNow I'm saved by a higher voice\nGivin' up, givin' up, givin' up my choice\nIf I'm wrong then I'll pay for it\nIf I'm right, yeah you're gonna deal with it\nCause I've tried, yeah I tried for it\nI tried, I tried, even die for it\nNo I\nDon't wanna hear what love can do\nNo I\nI can't tell you what's right for you\nOh I\nTell you what love can do\nNo I\nCan't say but your time is through\nI've seen the damage done\nOh Lord, I've heard the shotgun\nI fought the setting sun on my kingdom come\nOh\nDon't tell me what love can do\nHey, hey, hey\nDon't tell me what love can do\nHey, hey, hey", 'annotations': {'description': '&lt;p&gt;The lyrics of this song were written about the tragic death of Kurt Cobain and how it probably could have been stopped if more people showed him compassion.&lt;br&gt;\nSammy Hagar talks about his inspiration in writing this song in his &lt;a href="https://read.amazon.com/kp/embed?asin=B0042FZVU8&amp;amp;preview=newtab&amp;amp;linkCode=kpe&amp;amp;ref_=cm_sw_r_kb_dp_C8Y2ET4ZBWP5VNM1T823" rel="noopener nofollow"&gt;autobiography&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Alex Van Halen', 'url': 'https://genius.com/artists/Alex-van-halen'}, {'name': 'Eddie Van Halen', 'url': 'https://genius.com/artists/Eddie-van-halen'}, {'name': 'Michael Anthony (Bassist)', 'url': 'https://genius.com/artists/Michael-anthony-bassist'}, {'name': 'Sammy Hagar', 'url': 'https://genius.com/artists/Sammy-hagar'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Counting-crows-mr-jones-lyrics', 'lyrics': '[Intro]\nShalalala la la la\nUh huh\n\n[Verse 1]\nI was down at the New Amsterdam\nStaring at this yellow-haired girl\nMr. Jones strikes up a conversation\nWith a black-haired flamenco dancer\nYou know she dances while his father plays guitar\nShe\'s suddenly beautiful\nAnd we all want something beautiful\nMan, I wish I was beautiful\nSo come dance this silence down through the morning\nShalalala la la la la, yeah..\nUh huh, yeah.. Cut up, Maria!\nShow me some of them Spanish dances\nAnd pass me a bottle, Mr. Jones\nBelieve in me, help me believe in anything\n\'Cause I wanna be someone who believes, yeah\n\n[Chorus for Verse 1]\nMr. Jones and me tell each other fairy tales\nAnd we stare at the beautiful women\n"She\'s looking at you. Ah, no, no, she\'s looking at me."\nSmiling in the bright lights, coming through in stereo\nWhen everybody loves you, you can never be lonely\n[Verse 2]\nWell, I\'m gonna paint my picture\nPaint myself in blue and red and black and gray\nAll of the beautiful colors are very, very meaningful\nYeah, well, you know gray is my favorite color\nI felt so symbolic yesterday\nIf I knew Picasso, I would buy myself a gray guitar and play\n\n[Chorus for Verse 2]\nMr. Jones and me look into the future\nYeah, we stare at the beautiful women\n"She\'s looking at you. I don\'t think so. She\'s looking at me."\nStanding in the spotlight, I bought myself a gray guitar\nWhen everybody loves me, I will never be lonely\n\nI\'ll never be lonely\nSaid I\'m never gonna be lonely\n\n[Verse 3]\nI want to be a lion\nYeah, everybody wants to pass as cats\nWe all want to be big, big stars, yeah\nBut we got different reasons for that\nBelieve in me, \'cause I don\'t believe in anything\nAnd I, I want to be someone to believe\nTo believe, to believe, yeah!\n[Chorus for Verse 3]\nMr. Jones and me, stumbling through the barrio\nYeah, we stare at the beautiful women\n"She\'s perfect for you, man, there\'s got to be somebody for me."\nI want to be Bob Dylan\nMr. Jones wishes he was someone just a little more funky\nWhen everybody loves you, ah son\nThat\'s just about as funky as you can be\n\n[Chorus]\nMr. Jones and me, staring at the video\nWhen I look at the television, I want to see me\nStaring right back at me\nWe all want to be big stars\nBut we don\'t know why, and we don\'t know how\nBut when everybody loves me\nI want to be just about as happy as I can be\n\n[Outro]\nMr. Jones and me, we\'re gonna be big stars', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/5db8580de7dc21f46b7f075d284e6fa9.300x258x1.jpg" alt="" width="300" height="258" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“It’s really a song about my friend Marty and I. We went out one night to watch his dad play, his dad was a Flamenco guitar player who lived in Spain, and he was in San Francisco in the Mission playing with his old Flamenco troupe. And after the gig we all went to this bar called the New Amsterdam in San Francisco on Columbus and we got completely drunk. And Marty and I sat at the bar staring at these two girls, wishing there was some way we could go talk to them, but we were too shy. We kept joking with each other that if we were big rock stars instead of such loser, low-budget musicians, this would be easy. I went home that night and I wrote a song about it”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;That is the literal meaning behind it, but the more subtle meaning has to do with dreams and what motivates us to do what we do.&lt;/p&gt;', 'producers': [{'name': 'T Bone Burnett', 'url': 'https://genius.com/artists/T-bone-burnett'}], 'writers': [{'name': 'David Bryson', 'url': 'https://genius.com/artists/David-bryson'}, {'name': 'Adam Duritz', 'url': 'https://genius.com/artists/Adam-duritz'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Madness-it-must-be-love-lyrics', 'lyrics': "[Verse 1]\nI never thought I'd miss you\nHalf as much as I do\nAnd I never thought I'd feel this way\nThe way I feel about you\n\n[Bridge]\nAs soon as I wake up every night every day\nI know that it's you I need\nTo take the blues away\n\n[Chorus]\nIt must be love, love, love\nIt must be love, love, love\nNothing more, nothing less\nLove is the best\n\n[Pre-Chorus]\nHow can it be that we can\nSay so much without words\nBless you and bless me\nBless the bees and the birds\n\n[Pre-Chorus]\nI've got to be near you every night, every day\nI couldn't be happy any other way\n[Chorus]\nIt must be love, love, love\nIt must be love, love, love\nNothing more, nothing less\nLove is the best\n\n[Pre-Chorus]\nAs soon as I wake up every night every day\nI know that it's you I need\nTo take the blues away\n\n[Outro]\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love...", 'annotations': {'description': '&lt;p&gt;It Must Be Love was originally written and recorded by Labi Siffre in 1971, but re-recorded by Madness in 1981. The Madness track reached #4 in the UK singles charts, staying in the charts for twelve weeks. It performed well in the US too, reaching #33 on the Billboard chart.&lt;/p&gt;\n\n&lt;p&gt;The track would go on to feature on the band’s #1 album, Complete Madness the following year&lt;/p&gt;', 'producers': [{'name': 'Alan Winstanley', 'url': 'https://genius.com/artists/Alan-winstanley'}, {'name': 'Clive Langer', 'url': 'https://genius.com/artists/Clive-langer'}], 'writers': [{'name': 'Labi Siffre', 'url': 'https://genius.com/artists/Labi-siffre'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Santana-smooth-lyrics', 'lyrics': '[Verse 1]\nMan, it\'s a hot one\nLike seven inches from the midday sun\nI hear you whisper and the words melt everyone\nBut you stay so cool\nMy muñequita, my Spanish Harlem Mona Lisa\nYou\'re my reason for reason, the step in my groove\n\n[Pre-Chorus]\nAnd if you say this life ain\'t good enough\nI would give my world to lift you up\nI could change my life to better suit your mood\nBecause you\'re so smooth\n\n[Chorus]\nAnd it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth\nGimme your heart, make it real, or else forget about it\n\n[Verse 2]\nI\'ll tell you one thing\nIf you would leave it would be a crying shame\nIn every breath and every word\nI hear your name calling me out\nOut from the barrio, you hear my rhythm on the radio\nYou feel the turning of the world so soft and slow, turnin\' you round and round\n[Pre-Chorus]\nAnd if you said, "This life ain\'t good enough"\nI\'d give my world to lift you up\nI could change my life to better suit your mood\nBecause you\'re so smooth, and\n\n[Chorus]\nOh, and it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth, yeah\nGimme your heart, make it real, or else forget about it, yeah\n\n[Guitar Solo]\n\n[Chorus]\nAnd it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth, yeah\nGimme your heart, make it real, or else forget about it, damn\n\n[Outro]\nOr else forget about it\nOh, or else forget about it\nOh, let\'s don\'t forget about it\n(Gimme your heart, make it real) Let\'s don\'t forget about it, hey\nLet\'s don\'t forget about it, no, oh, no, oh\nLet\'s don\'t forget about it, no, no, no, oh\nLet\'s don\'t forget about it, hey, no, no, oh\nLet\'s don\'t forget about it, hey, hey, hey', 'annotations': {'description': '&lt;p&gt;“Smooth” is a collaboration between Matchbox Twenty frontman Rob Thomas and Latin rock band Santana. Written by Thomas, and Itaal Shur, “Smooth” won three Grammys for “Song of the Year”, “Record of the Year”, and “Best Pop Collaboration with Vocals” in 2000. “Smooth” is a pinnacle of the tail end of the rock era, and a perfect example of a smooth transition from the classic rock sound (Santana) to modern adult contemporary music (Thomas).&lt;/p&gt;', 'producers': [{'name': 'Matt Serletic', 'url': 'https://genius.com/artists/Matt-serletic'}], 'writers': [{'name': 'Itaal Shur', 'url': 'https://genius.com/artists/Itaal-shur'}, {'name': 'Rob Thomas', 'url': 'https://genius.com/artists/Rob-thomas'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Toto-africa-lyrics', 'lyrics': '[Verse 1: David Paich]\nI hear the drums echoing tonight\nBut she hears only whispers of some quiet conversation\nShe\'s coming in, 12:30 flight\nHer moonlit wings reflect the stars that guide me towards salvation\nI stopped an old man along the way\nHoping to find some old forgotten words or ancient melodies\nHe turned to me as if to say\n"Hurry, boy, it\'s waiting there for you"\n\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nGonna take some time to do the things we never had\n\n[Verse 2: David Paich]\nThe wild dogs cry out in the night\nAs they grow restless longing for some solitary company\nI know that I must do what\'s right\nAs sure as Kilimanjaro rises like Olympus above the Serengeti\nI seek to cure what\'s deep inside\nFrightened of this thing that I\'ve become\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nGonna take some time to do the things we never had\n[Bridge]\nHurry, boy, she\'s waiting there for you\n\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nGonna take some time to do the things we never had', 'annotations': {'description': '&lt;p&gt;“Africa” is the third single from Toto’s 1982 album titled &lt;em&gt;&lt;a href="https://genius.com/albums/Toto/Toto-iv" rel="noopener" data-api_path="/albums/109163"&gt;Toto IV&lt;/a&gt;&lt;/em&gt;.  It is the group’s most popular song and &lt;a href="http://www.billboard.com/charts/hot-100/1983-02-05" rel="noopener nofollow"&gt;reached #1&lt;/a&gt; on &lt;em&gt;Billboard’s Hot 100&lt;/em&gt; in early 1983.&lt;/p&gt;\n\n&lt;p&gt;The lyrics comprise a heartfelt (if somewhat fantastical and stereotyped) vision of the beauty of Africa. There are undercurrents of embodying the continent of Africa in a female figure that is referenced throughout the song.&lt;/p&gt;\n\n&lt;p&gt;Africa is, of course, an enormous continent full of a variety of cultures, but the lyrics touch on what a white kid growing up  in  1970s America would have been exposed to in pop culture, &lt;a href="http://jeffporcaro.blogspot.com/2006/12/story-behind-africa.html" rel="noopener nofollow"&gt;as drummer Jeff Porcaro stated in an interview:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;… a white boy is trying to write a song on Africa, but since he’s never been there, he can only tell what he’s seen on TV or remembers in the past.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Toto', 'url': 'https://genius.com/artists/Toto'}], 'writers': [{'name': 'Jeff Porcaro', 'url': 'https://genius.com/artists/Jeff-porcaro'}, {'name': 'David Paich', 'url': 'https://genius.com/artists/David-paich'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-cranberries-salvation-lyrics', 'lyrics': "To all those people doing lines\nDon't do it, don't do it\nInject your soul with liberty\nIt's free, it's free\n\nTo all the kids with heroin eyes\nDon't do it, don't do it\nBecause it's not, not what it seems\nNo, no it's not, not what it seems\n\nSalvation, salvation, salvation is free\nSalvation, salvation, salvation is free\n\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh\nDo do do do do do do do\nDo do do doooo\nDo do do do do do do do\nDo do do doooo\n\nTo all those parents with sleepless nights\nSleepless nights\nTie your kids home to their beds\nClean their heads\n\nTo all the kids with heroin eyes\nDon't do it, don't do it\nBecause it's not, not what it seems\nNo, no it's not, not what it seems\n\nSalvation, salvation, salvation is free\nSalvation, salvation, salvation is free\n\nSalvation, salvation, salvation is free\nSalvation, salvation, salvation is free\n\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh", 'annotations': {'description': '&lt;p&gt;The biggest hit off of &lt;em&gt;To The Faithful Departed&lt;/em&gt; deals with addiction. Limerick in ‘96 was a cesspool of drugs that The Cranberries had bubbling all around them.&lt;/p&gt;\n\n&lt;p&gt;The song charted at #13 in the UK.&lt;/p&gt;', 'producers': [{'name': 'The Cranberries', 'url': 'https://genius.com/artists/The-cranberries'}, {'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Dolores O’Riordan', 'url': 'https://genius.com/artists/Dolores-oriordan'}, {'name': 'Noel Hogan', 'url': 'https://genius.com/artists/Noel-hogan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-romantics-one-in-a-million-lyrics', 'lyrics': "Something about you\nMakes me want to keep on loving you\nWhen I'm without you\nI feel I need you back in my heart\n\nI get a sensation\nI feel whenever I'm around you\nYou're my inspiration\nAnd I'm so glad I found you\n\nOne in a million, baby you're the one\nOne in a million, and you're second to none\nOne in a million, a million to one\nYou're one in a million\n\nWhen I first saw you\nI had a feeling right from the start\nIn love I was falling\nYou seemed to do things to my heart\n\nYour love and affection\nIs all I need to keep me satisfied\nYou leave an impression\nAnd baby I never want to leave you\n\nOne in a million, baby you're the one\nOne in a million, and you're second to none\nOne in a million, a million to one\nYou're one in a million\nSomething about you\nMakes me want to keep on loving you\nWhen I'm without you\nI feel I need you back in my heart\n\nI get a sensation\nI feel whenever I'm around you\nYou're my inspiration\nAnd I'm so glad I found you\n\nOne in a million, baby you're the one\nOne in a million, and you're second to none\nOne in a million, a million to one\nYou're one in a million\n\nYou're one in a million\nOne in a million and you're second to none\nOne in a million, wow, one in a million\nBaby you know you are one", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Depeche-mode-its-no-good-lyrics', 'lyrics': "[Verse 1]\nI'm gonna take my time\nI have all the time in the world\nTo make you mine\nIt is written in the stars above\nThe gods decree\nYou'll be right here by my side\nRight next to me\nYou can run but you cannot hide\n\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\n\n[Verse 2]\nI'll be fine\nI'll be waiting patiently\nTill you see the signs\nAnd come running to my open arms\nWhen will you realise?\nDo we have to wait till our worlds collide?\nOpen up your eyes\nYou can't turn back the tide\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\n\n[Interlude]\n\n[Verse 3]\nI'm going to take my time\nI have all the time in the world\nTo make you mine\nIt is written in the stars above\n\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good", 'annotations': {'description': '&lt;p&gt;The meaning of “It’s No Good” is a bit vain. It’s about someone lusting over their crush, denying that the feeling isn’t mutual. It can be assumed that he was rejected, and he’s grieving, hitting the first stage, denial.&lt;/p&gt;', 'producers': [{'name': 'Tim Simenon', 'url': 'https://genius.com/artists/Tim-simenon'}], 'writers': [{'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/William-scream-and-shout-lyrics', 'lyrics': '[Intro: will.i.am]\nBring the action\n\n[Pre-Chorus: Tulisa, Tulisa &amp; will.i.am]\nWhen you hear this in the club, you\'re gonna turn this shit up\nYou\'re gonna turn this shit up, you\'re gonna turn this shit up\nWhen we up in the club, all eyes on us\nAll eyes on us, all eyes on us\nSee the boys in the club, they watchin\' us\nThey watchin\' us, they watchin\' us\nEverybody in the club, all eyes on us\nAll eyes on us, all eyes on us\n\n[Chorus: will.i.am, will.i.am &amp; Britney Spears, Britney Spears]\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nYou are now-now rockin\' with will.i.am and Britney, bitch\n\n[Post-Chorus: will.i.am]\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\nBring the action\n[Verse: will.i.am]\nRock and roll, everybody, let\'s lose control\nOn the bottom, we let it go, goin\' fast we ain\'t goin\' slow\nNo no, ay, yo, hear the beat, now let\'s hit the floor\nDrink it up and then drink some more\nLight it up and let\'s let it blow\nBlow blow, ay, yo, rock it out, rockin\' now\nIf you know what we talkin\' \'bout\nTurn it up and burn down the house\nHou-house, ay, yo, turn it up and don\'t turn it down\nHere we go, we gon\' shake the ground\n\'Cause everywhere that we go, we (Bring the action)\n\n[Pre-Chorus: Tulisa, Tulisa &amp; will.i.am, will.i.am]\nWhen you hear this in the club, you\'re gonna turn this shit up\nYou\'re gonna turn this shit up, you\'re gonna turn this shit up\nWhen we up in the club, all eyes on us\nAll eyes on us, all eyes on us\nYou see them girls in the club? They lookin\' at us\nThey lookin\' at us, they lookin\' at us\nEverybody in the club, all eyes on us\nAll eyes on us, all eyes on us\n\n[Chorus: will.i.am, will.i.am &amp; Britney Spears, Britney Spears]\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nYou are now-now rockin\' with will.i.am and Britney, bitch\n[Post-Chorus: will.i.am]\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\n\n[Bridge: will.i.am]\nIt goes on and on and on and on\nWhen me and you party together\nI wish this night would last forever\n\'Cause I was feelin\' down, now I\'m feelin\' better\nAnd maybe it goes on and on and on and on\nWhen me and you party together\nI wish this night would last forever\nForever-forever-forever-forever-forever\n\n[Chorus: will.i.am, will.i.am &amp; Britney Spears, Britney Spears]\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nYou are now-now rockin\' with will.i.am and Britney, bitch', 'annotations': {'description': '&lt;p&gt;On “Scream &amp;amp; Shout,” a robotized, vaguely British-sounding Britney Spears joins will.i.am for a bumping EDM dance party. The up-tempo track reached #3 on the Billboard Hot 100 and became the first song to top the newly launched Dance/Electronic Songs chart.&lt;/p&gt;', 'producers': [{'name': 'Basto', 'url': 'https://genius.com/artists/Basto'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Basto', 'url': 'https://genius.com/artists/Basto'}, {'name': 'Tulisa', 'url': 'https://genius.com/artists/Tulisa'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Jean Baptiste', 'url': 'https://genius.com/artists/Jean-baptiste'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rihanna-we-found-love-lyrics', 'lyrics': "[Video Intro: Agyness Deyn]\nIt's like you're screaming, and no one can hear\nYou almost feel ashamed, that someone could be that important\nThat without them, you feel like nothing\nNo one will ever understand how much it hurts\nYou feel hopeless, like nothing can save you\nAnd when it's over and it's gone\nYou almost wish you could have all that bad stuff back\nSo that you could have the good\n\n[Verse 1: Rihanna]\nYellow diamonds in the light\nAnd we're standing side by side\nAs your shadow crosses mine\nWhat it takes to come alive\n\n[Pre-Chorus: Rihanna]\nIt's the way I'm feeling, I just can't deny\nBut I've gotta let it go\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n[Verse 2: Rihanna]\nShine a light through an open door\nLove and life, I will divide\nTurn away 'cause I need you more\nFeel the heartbeat in my mind\n\n[Pre-Chorus: Rihanna]\nIt's the way I'm feeling, I just can't deny\nBut I've gotta let it go\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n\n[Bridge: Rihanna]\nYellow diamonds in the light\nAnd we're standing side by side\nAs your shadow crosses mine\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place", 'annotations': {'description': '&lt;p&gt;This is a single off Rihanna’s sixth studio album &lt;em&gt;Talk that Talk.&lt;/em&gt; It was also included on &lt;em&gt;18 Months,&lt;/em&gt; the third album from Scottish electronic artist and this song’s producer Calvin Harris, who penned the lyrics as well.&lt;/p&gt;\n\n&lt;p&gt;This song became one of the bestselling singles of all time, and Rihanna’s longest running single, outlasting her smash hit “Umbrella” on top of the Billboard Hot 100 charts. This was Harris\' first time on the Hot 100, and became a huge boon to his career. He’d been releasing music since 2007. Harris &lt;a href="https://www.thesun.co.uk/archives/news/1010674/calvin-harris-rihanna-is-the-best-thing-that-could-have-happened-to-me/" rel="noopener nofollow"&gt;said:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It changed absolutely everything. Career-wise it was the best thing that could ever have happened. For example, in America my tune ‘Feel So Close’ came out about three months before. But when ‘We Found Love’ came out, the radio started playing ‘Feel So Close’ like it was the single after. Then that did really well, it charted well and sold a lot of copies."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Harris was able to tap Rihanna for the song after he opening for her on a leg of her Loud tour in 2011. When Rihanna announced the collaboration to Twitter fans, the &lt;a href="http://www.capitalfm.com/artists/rihanna/news/fans-calvin-harris-single/" rel="noopener nofollow"&gt;Rihanna Navy jumped on Harris,&lt;/a&gt; ensuring he would produce a hit. Luckily he didn’t disappoint.&lt;/p&gt;\n\n&lt;p&gt;The original version of the song was recorded by UK singer Leona Lewis. She told &lt;a href="http://www.nme.com/news/calvin-harris/84798" rel="noopener nofollow"&gt;NME&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was a bit annoying to see how big a hit it was but if I’d released it maybe it wouldn’t have done as well.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The music video, directed by Melissa Matsoukas,  depicts two lovers are in an unsustainable relationship based on passion and drugs, more like an addiction than a healthy interest. The video features a lot of drug usage and a Chris Brown lookalike, which was controversial, given their real-life abusive relationship. Matsoukas addressed the rumors about the controversial video in an interview with &lt;a href="http://www.mtv.com/news/1672957/rihanna-we-found-love-melina-matsoukas/" rel="noopener nofollow"&gt;&lt;em&gt;MTV&lt;/em&gt;&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Again, it goes back to a story that we all can relate to. It’s not Rihanna’s story; it’s her story in the video, and she’s acting. But everybody’s [as well]. Obviously, there’s a lot of comparisons to her real life , and that’s not at all the intention.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Madonna-american-life-lyrics', 'lyrics': "[Intro]\nDo I have to change my name?\nWill it get me far?\nShould I lose some weight?\nAm I gonna be a star?\n\n[Verse 1]\nI tried to be a boy\nI tried to be a girl\nI tried to be a mess\nI tried to be the best\nI guess I did it wrong\nThat's why I wrote this song\nThis type of modern life, is it for me?\nThis type of modern life, is it for free?\n\n[Verse 2]\nSo, I went into a bar\nLooking for sympathy\nA little company\nI tried to find a friend\nIt's more easily said\nIt's always been the same\nThis type of modern life, is not for me\nThis type of modern life, is not for free\n[Chorus]\nAmerican Life (American Life)\nI live the American Dream (American Dream)\nYou are the best thing I've seen\nYou are not just a dream (American Life)\n\n[Verse 3]\nI tried to stay ahead\nI tried to stay on top\nI tried to play the part\nBut somehow I forgot\nJust what I did it for\nAnd why I wanted more\nThis type of modern life, is it for me?\nThis type of modern life, is it for free?\n\n[Refrain]\nDo I have to change my name?\nWill it get me far?\nShould I lose some weight?\nAm I gonna be a star?\n\n[Chorus]\nAmerican Life (American Life)\nI live the American Dream (American Dream)\nYou are the best thing I've seen\nYou are not just a dream (American Life)\n[Verse 4]\nI tried to be a boy\nTried to be a girl\nTried to be a mess\nTried to be the best\nTried to find a friend\nTried to stay ahead\nI tried to stay on top\nFuck it\n\n[Refrain]\nDo I have to change my name?\nWill it get me far?\nShould I lose some weight?\nAm I gonna be a star?\n\n[Break]\nA- fuck it\nA- fuck it\nA- fuck it\nA- fuck it\n\n[Verse 5]\nI'm drinking a soy latte\nI get a double shoté\nIt goes right through my body, and you know I'm satisfied\nI drive my Mini Cooper, and I'm feeling super-dooper\nYo, they tell I'm a trooper, and you know I'm satisfied\nI do yoga and pilates, and the room is full of hotties\nSo I'm checking out the bodies, and you know I'm satisfied\nI'm digging on the isotopes, this metaphysics shit is dope\nAnd if all this can give me hope, you know I'm satisfied\nI got a lawyer and a manager, an agent and a chef\nThree nannies, an assistant, and a driver, and a jet\nA trainer, and a butler, and a bodyguard, or five\nA gardener and a stylist, do you think I'm satisfied?\nI'd like to express my extreme point of view\nI'm not a Christian and I'm not a Jew\nI'm just living out the American dream\nAnd I just realized that nothing is what it seems\n[Outro]\nDo I have to change my name? (American Life)\nAm I gonna be a star? (I live the American Dream)\nDo I have to change my name? (American Life)\nAm I gonna be a star? (I live the American Dream)\nDo I have to change my name?\n(American Life) (I live the American Dream)\n(American Life) (I live the American Dream)\n(American Life) (I live the American Dream)\n(American Life)", 'annotations': {'description': '&lt;p&gt;“American Life” is the lead single and title-track of Madonna’s &lt;a href="https://genius.com/albums/Madonna/American-life" rel="noopener" data-api_path="/albums/70141"&gt;ninth studio album&lt;/a&gt;. A pop, techno and folk song, its lyrics feature political and religious views from the singer, who questions the shallowness of modern life and the illusion of the &lt;a href="https://en.wikipedia.org/wiki/American_Dream" rel="noopener nofollow"&gt;American Dream&lt;/a&gt;, specially during the presidency of &lt;a href="https://en.wikipedia.org/wiki/George_W._Bush" rel="noopener nofollow"&gt;George W. Bush&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;By touching sore spots of American society, “American Life” enraged American listeners and was heavily criticized by reviewers, which led the single to &lt;a href="https://www.billboard.com/music/madonna/chart-history/HSI/song/433578" rel="noopener nofollow"&gt;peak at #37&lt;/a&gt; on the Billboard Hot 100. However, the single did well outside the US, reaching the top of the charts in Canada, Denmark, Italy, Japan and Switzerland, and #2 in the UK.&lt;/p&gt;\n\n&lt;p&gt;Two music videos were shot for the song, both by Swedish director &lt;a href="https://en.wikipedia.org/wiki/Jonas_%C3%85kerlund" rel="noopener nofollow"&gt;Jonas Åkerlund&lt;/a&gt;, who has worked with Madonna before. The &lt;a href="https://www.youtube.com/watch?v=1CWXjk40yWE" rel="noopener nofollow"&gt;first version&lt;/a&gt; featured the singer at a military-themed fashion show, with an amused audience applauding the bloodshed of the war; the video ended with Madonna throwing a hand grenade at George W. Bush. Prior to its release, the video caused controversy regarding its political, racial and religious implications, leading Madonna to &lt;a href="http://www.mtv.com/news/articles/1469995/20030214/madonna.jhtml" rel="noopener nofollow"&gt;release a statement&lt;/a&gt; explaining its concept:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I feel lucky to be an American citizen for many reasons – one of which is the right to express myself freely, especially in my work. I understand that there have been reports about my upcoming video ‘American Life’ in the media – much of which is inaccurate. I am not Anti-Bush. I am not pro-Iraq. I am pro peace. I have written a song and created a video which expresses my feelings about our culture and values and the illusions of what many people believe is the American dream – the perfect life. As an artist, I hope that this provokes thought and dialogue. I don’t expect everyone to agree with my point of view.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After the &lt;a href="https://en.wikipedia.org/wiki/2003_invasion_of_Iraq" rel="noopener nofollow"&gt;2003 invasion of Iraq&lt;/a&gt; started, Madonna cancelled the release of the original music video, because of the political climate of the country at the time, and released &lt;a href="https://www.youtube.com/watch?v=LYduJw5LyFM" rel="noopener nofollow"&gt;another version&lt;/a&gt;, much softer, featuring her in front of a backdrop of flags from around the world. She explained:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I have decided not to release my new video. It was filmed before the war started and I do not believe it is appropriate to air it at this time. Due to the volatile state of the world and out of sensitivity and respect to the armed forces, who I support and pray for, I do not want to risk offending anyone who might misinterpret the meaning of this video.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mirwais Ahmadzaï', 'url': 'https://genius.com/artists/Mirwais-ahmadzai'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'writers': [{'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}, {'name': 'Mirwais Ahmadzaï', 'url': 'https://genius.com/artists/Mirwais-ahmadzai'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Adele-set-fire-to-the-rain-lyrics', 'lyrics': "[Produced by Fraser T Smith]\n\n[Verse 1]\nI let it fall, my heart\nAnd as it fell, you rose to claim it\nIt was dark, and I was over\nUntil you kissed my lips and you saved me\nMy hands, they were strong\nBut my knees were far too weak\nTo stand in your arms\nWithout falling to your feet\n\n[Pre-Chorus]\nBut there's a side to you\nThat I never knew, never knew\nAll the things you'd say\nThey were never true, never true\nAnd the games you'd play\nYou would always win, always win\n\n[Chorus]\nBut I set fire to the rain\nWatched it pour as I touched your face\nWell, it burned while I cried\n'Cause I heard it screamin' out your name\nYour name\n[Verse 2]\nWhen I lay with you\nI could stay there, close my eyes\nFeel you here forever\nYou and me together, nothing is better\n\n[Pre-Chorus]\n'Cause there's a side to you\nThat I never knew, never knew\nAll the things you'd say\nThey were never true, never true\nAnd the games you'd play\nYou would always win, always win\n\n[Chorus]\nBut I set fire to the rain\nWatched it pour as I touched your face\nWell, it burned while I cried\n'Cause I heard it screamin' out your name\nYour name\nI set fire to the rain\nAnd I threw us into the flames\nWhen it fell, somethin' died\n'Cause I knew that that was the last time\nThe last time\n[Bridge]\nSometimes, I wake up by the door\nThat heart you caught must be waitin' for you\nEven now, when we're already over\nI can't help myself from lookin' for you\n\n[Chorus]\nI set fire to the rain\nWatched it pour as I touched your face\nWell, it burned while I cried\n'Cause I heard it screamin' out your name\nYour name\nI set fire to the rain\nAnd I threw us into the flames\nWhen it fell, somethin' died\n'Cause I knew that that was the last time\nThe last time\n\n[Outro]\nOh\nOh, no\nLet it burn\nOh\nLet it burn\nLet it burn", 'annotations': {'description': '&lt;p&gt;“Set Fire To The Rain” talks about a relationship coming to an end. Girl meets guy, he is wonderful and she falls really quickly. He tells her all of these amazing things, but really they were all a lie and now she is left with a broken heart. He continually tries to play games with her and no matter hard she fights, she will never win. Nothing she can do will fix the relationship.&lt;/p&gt;\n\n&lt;p&gt;As hard as she doesn’t want to let him go, she breaks it off in order to save herself for further heartbreak. The pain of breaking off a relationship with someone who means so much but is two-sided and not good to be with.&lt;/p&gt;\n\n&lt;p&gt;The title is an allusion to James Taylor’s &lt;a href="https://genius.com/James-taylor-fire-and-rain-lyrics" rel="noopener" data-api_path="/songs/108489"&gt;“Fire and Rain,”&lt;/a&gt; but Adele approaches the same themes with a thug-feminist perspective.&lt;/p&gt;\n\n&lt;p&gt;In the US, the song hit #1, becoming her third consecutive number one from the album. She wouldn’t reach such heights again until her comeback single &lt;a href="https://genius.com/Adele-hello-lyrics" rel="noopener" data-api_path="/songs/2332455"&gt;“Hello”&lt;/a&gt; debuted at number one with a shocking &lt;em&gt;1.12 million copies sold&lt;/em&gt; in one week – the largest ever recorded in the US.&lt;/p&gt;', 'producers': [{'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}], 'writers': [{'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Adele', 'url': 'https://genius.com/artists/Adele'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Justin-bieber-yummy-lyrics', 'lyrics': "[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nSay\u2005the\u2005word, on my\u2005way\nYeah, babe, yeah, babe, yeah, babe\nAny\u2005night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe\nIn the mornin' or the late\nSay the word, on my way\n\n[Verse 1]\nBona fide stallion\nAin't in no stable, no, you stay on the run\nAin't on the side, you're number one\nYeah, every time I come around, you get it done\n\n[Pre-Chorus]\nFifty-fifty, love the way you split it\nHundred racks, help me spend it, babe\nLight a match, get litty, babe\nThat jet set, watch the sunset kinda, yeah, yeah\nRollin' eyes back in my head, make my toes curl, yeah, yeah\n[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe\nAny night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe\nIn the mornin' or the late\nSay the word, on my way\n\n[Verse 2]\nStandin' up, keep me on the rise\nLost control of myself, I'm compromised\nYou're incriminating, no disguise\nAnd you ain't never runnin' low on supplies\n\n[Pre-Chorus]\nFifty-fifty, love the way you split it\nHundred racks, help me spend it, babe\nLight a match, get litty, babe\nThat jet set, watch the sunset kinda, yeah, yeah\nRollin' eyes back in my head, make my toes curl, yeah, yeah\n[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy (You stay flexin' on me)\nYeah, you got that yummy-yum (Yeah, yeah)\nThat yummy-yum, that yummy-yummy\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nAny night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nIn the mornin' or the late\nSay the word, on my way\n\n[Bridge]\nHop in the Lambo', I'm on my way\nDrew House slippers on with a smile on my face\nI'm elated that you are my lady\nYou got the yum, yum, yum, yum\nYou got the yum, yum-yum, woah\nWoah-ooh\n\n[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nAny night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nIn the mornin' or the late\nSay the word, on my way", 'annotations': {'description': '&lt;p&gt;“Yummy” is the lead single to Justin Bieber’s fifth studio album, &lt;a href="https://genius.com/albums/Justin-bieber/Changes" rel="noopener" data-api_path="/albums/583715"&gt;&lt;em&gt;Changes&lt;/em&gt;&lt;/a&gt;, and his first solo release since his fourth studio album, &lt;a href="https://genius.com/albums/Justin-bieber/Purpose" rel="noopener" data-api_path="/albums/132311"&gt;&lt;em&gt;Purpose&lt;/em&gt;&lt;/a&gt;, released on November 13, 2015. Its release was accompanied by a &lt;a href="https://youtu.be/EaMed9sUPVo" rel="noopener nofollow"&gt;lyric video&lt;/a&gt;, and an &lt;a href="https://youtu.be/8EJ3zbKTWQ8" rel="noopener nofollow"&gt;official music video&lt;/a&gt; that released at 12:00 PM EST on January 4th, 2020.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.merriam-webster.com/dictionary/yummy" rel="noopener nofollow"&gt;Yummy&lt;/a&gt; is a term used to describe something or someone that you find very attractive or appealing. Justin uses this term to describe his wife, &lt;a href="https://www.instagram.com/haileybieber/?hl=en" rel="noopener nofollow"&gt;Hailey Bieber&lt;/a&gt;, to which he is known for &lt;a href="https://www.narcity.com/gossip/fans-are-gushing-over-justin-bieber-publicly-serenading-his-new-wife-hailey-baldwin-in-london-video" rel="noopener nofollow"&gt;publicly gushing&lt;/a&gt; over. Whether it’s &lt;a href="https://www.instagram.com/p/B36MXitntbq/?utm_source=ig_embed" rel="noopener nofollow"&gt;commenting&lt;/a&gt; on photos of her, or &lt;a href="https://www.instagram.com/p/BwAXtOeHFms/?utm_source=ig_embed" rel="noopener nofollow"&gt;writing a poem&lt;/a&gt; for her, Justin always shows just how much he loves his wife.&lt;/p&gt;\n\n&lt;p&gt;The song, along with its release date, was announced on December 24, 2019, &lt;a href="https://www.youtube.com/watch?v=Qa6ShFwhNWU" rel="noopener nofollow"&gt;via a trailer&lt;/a&gt;, for his album on YouTube, which also played a snippet from the track.&lt;/p&gt;\n\n&lt;p&gt;Bieber continued teasing the track all day on January 2, 2020, the day before the track’s release. He tweeted &lt;a href="https://twitter.com/justinbieber/status/1212782112123707392" rel="noopener nofollow"&gt;a snippet&lt;/a&gt; from the track’s apparent music video, as well as &lt;a href="https://twitter.com/justinbieber/status/1212948427186655232" rel="noopener nofollow"&gt;another teaser&lt;/a&gt; of the track’s instrumental version.&lt;/p&gt;', 'producers': [{'name': 'Sasha Sirota', 'url': 'https://genius.com/artists/Sasha-sirota'}, {'name': 'Kid Culture', 'url': 'https://genius.com/artists/Kid-culture'}, {'name': 'Poo Bear', 'url': 'https://genius.com/artists/Poo-bear'}], 'writers': [{'name': 'Ashley Joi Sadler', 'url': 'https://genius.com/artists/Ashley-joi-sadler'}, {'name': 'Ashley Boyd', 'url': 'https://genius.com/artists/Ashley-boyd'}, {'name': 'Kid Culture', 'url': 'https://genius.com/artists/Kid-culture'}, {'name': 'Poo Bear', 'url': 'https://genius.com/artists/Poo-bear'}, {'name': 'Justin Bieber', 'url': 'https://genius.com/artists/Justin-bieber'}, {'name': 'Sasha Sirota', 'url': 'https://genius.com/artists/Sasha-sirota'}], 'labels': [{'name': 'RBMG', 'url': 'https://genius.com/artists/Rbmg'}, {'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Evanescence-going-under-lyrics', 'lyrics': "[Verse 1]\nNow I will tell you what I've done for you\nFifty thousand tears I've cried\nScreaming, deceiving and bleeding for you\nAnd you still won't hear me (Going under)\n\n[Verse 2]\nDon't want your hand this time, I'll save myself\nMaybe I'll wake up for once (Wake up for once)\nNot tormented, daily defeated by you\nJust when I thought I'd reached the bottom\n\n[Pre-Chorus]\nI'm dying again\n\n[Chorus]\nI'm going under (Going under)\nDrowning in you (Drowning in you)\nI'm falling forever (Falling forever)\nI've got to break through\nI'm going under\n\n[Verse 3]\nBlurring and stirring the truth and the lies\n(So I don't know what's real)\nSo I don't know what's real and what's not\n(Don't know what's real and what's not)\nAlways confusing the thoughts in my head (Oh)\nSo I can't trust myself anymore\n[Pre-Chorus]\nI'm dying again\n\n[Chorus]\nI'm going under (Going under)\nDrowning in you (Drowning in you)\nI'm falling forever (Falling forever)\nI've got to break through\nI'm\n\n[Bridge]\nSo go on and scream\nScream at me, I'm so far away (So far away)\nI won't be broken again (Again)\nI've got to breathe, I can't keep going under\n\n[Guitar Solo]\n\n[Pre-Chorus]\nI'm dying again\n\n[Chorus]\nI'm going under (Going under)\nDrowning in you (Drowning in you)\nI'm falling forever (Falling forever)\nI've got to break through\nI'm\n[Outro]\nGoing under (Going under)\nI'm going under (Drowning in you)\nI'm going under", 'annotations': {'description': '&lt;p&gt;In &lt;a href="https://genius.com/artists/Amy-lee" rel="noopener" data-api_path="/artists/30669"&gt;Amy Lee&lt;/a&gt;’s own words, “Going Under” is:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;[…] about coming out of a bad relationship, and when you’re at the end of your rope, when you’re at the point where you realize something has to change, that you can’t go on living in the situation that you’re in.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;It was initially going to be &lt;a href="https://genius.com/artists/Evanescence" rel="noopener" data-api_path="/artists/17912"&gt;Evanescence&lt;/a&gt;’s first single on their debut album, &lt;em&gt;&lt;a href="https://genius.com/albums/Evanescence/Fallen" rel="noopener" data-api_path="/albums/15242"&gt;Fallen&lt;/a&gt;&lt;/em&gt;. However, the release of the &lt;em&gt;Daredevil&lt;/em&gt; soundtrack eclipsed the decision, resulting in the release of &lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;Bring Me To Life&lt;/a&gt; first.&lt;/p&gt;\n\n&lt;p&gt;The music video for the song was directed by Philipp Stölzl and it was filmed in May 2003 in Germany. It shows Lee performing on a concert along with the band, while fans are turning into zombies. She designed both the dresses she wears in the video. It ranked at #4 on the list of &lt;a href="http://www.billboard.com/articles/columns/pop-shop/952337/the-15-scariest-music-videos-ever" rel="noopener nofollow"&gt;“The 15 Scariest Music Videos Ever”&lt;/a&gt; published by &lt;em&gt;Billboard&lt;/em&gt;. Evanescence additionally added the song to the set-list on their &lt;strong&gt;Fallen and The Open Door Tour&lt;/strong&gt;.&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'David Hodges', 'url': 'https://genius.com/artists/David-hodges'}, {'name': 'Ben Moody', 'url': 'https://genius.com/artists/Ben-moody'}, {'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pet-shop-boys-domino-dancing-lyrics', 'lyrics': "[Intro: The Voice in Fashion]\n(All day, all day)\n\n[Interlude]\n\n[Verse 1: Neil Tennant]\nI don't know why, I don't know how\nI thought I loved you, but I'm not sure now\nI've seen you look at strangers too many times\nThe love you want is of a different kind\n\n[Verse 2: Neil Tennant]\nRemember when we felt the sun?\nA love like paradise, how hot it burned\nA threat of distant thunder, the sky was red\nAnd when you walked, you always turned every head\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n[Interlude]\n\n[Verse 3: Neil Tennant]\nI thought that when we fought I was to blame\nBut now I know you play a different game\nI've watched you dance with danger, still wanting more\nAdd another number to the score\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n\n[Bridge: Neil Tennant]\nWhen you look around you wonder\nDo you play to win?\nOr are you just a bad loser?\n\n[Interlude]\n\n[Refrain: The Voice in Fashion]\n(All day, all day)\n(All day, all day)\n[Interlude]\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n(All day, all day)\n(All day, all day)\n\n[Verse 4: Neil Tennant]\nI don't know why, I don't know how\nI thought I loved you, but I'm not sure now\nI hear the thunder crashing, the sky is dark\nAnd now a storm is breaking within my heart\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n[Refrain: The Voice in Fashion]\n(All day, all day)\n(All day, all day)\n\n[Interlude]\n\n[Refrain: The Voice in Fashion]\n(All day, all day)\n(All day, all day)\n(Domino dancing)\n(All day, all day)\n(All day, all day)\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n\n[Outro: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)", 'annotations': {'description': '&lt;p&gt;Neil says that the title of this song was inspired during a stay on the Caribbean island of St. Lucia. “In the evening there was nothing to do except play dominoes; this friend of ours [their personal assistant and Chris’s roommate, the late Pete Andreas] always used to beat us, and he used to do this celebratory dance.” Despite this prosaic origin, “domino dancing” became Neil’s metaphor for a love relationship breaking down because of jealousy. As he once described it, he “created a scenario of, you know, a guy going out with a beautiful girl and all the guys are looking at her on the beach in her bikini or whatever and they’re all dropping dead before her because she’s so gorgeous and so consequently he gets jealous and the relationship collapses….”&lt;/p&gt;\n\n&lt;p&gt;Neil and Chris had traveled to Miami specifically to work with Exposé producer Lewis A. Martineé, whose work they admired, most notably with his highly successful “girl group” Exposé. This track, which exemplifies the ‘eighties electro-Latino musical subgenre commonly known as “freestyle,” was the result.&lt;/p&gt;\n\n&lt;p&gt;Continuing with the Latino theme, the accompanying video is set in Puerto Rico—at director Eric Watson’s suggestion—and became notorious for its thinly veiled homoeroticism, despite a heterosexual veneer.&lt;/p&gt;\n\n&lt;p&gt;(The final scenes of two shirtless young men—even more obviously posited as “sex objects” than the lovely young woman who served as the ostensible object of their competing desires—tussling among the crashing waves on a beach were frequently cited as evidence by critics.)&lt;/p&gt;\n\n&lt;p&gt;Since “Domino Dancing” proved to be the Pet Shop Boys\' final Top 40 hit in the United States, it has been widely speculated that this video may have had something to do with their declining U.S. popularity thereafter.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ae02d5c2b9a58a946173cf07f45c2651.550x583x1.jpg" alt="" width="550" height="583" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Lewis Martineé', 'url': 'https://genius.com/artists/Lewis-martinee'}], 'writers': [{'name': 'Chris Lowe', 'url': 'https://genius.com/artists/Chris-lowe'}, {'name': 'Neil Tennant', 'url': 'https://genius.com/artists/Neil-tennant'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rihanna-disturbia-lyrics', 'lyrics': "[Intro]\nBum bum be-dum, bum bum be-dum bum\n(What's wrong with me?)\nBum bum be-dum, bum bum be-dum bum\n(Why do I feel like this?)\nBum bum be-dum, bum bum be-dum bum\n(I'm goin' crazy now)\nBum bum be-dum, bum bum be-dum bum\n\n[Verse 1]\nNo more gas, in the red (Can't even get it started)\nNothin' heard, nothin' said (Can't even speak about it)\nAll my life on my head (Don't wanna think about it)\nFeels like I'm goin' insane, yeah\n\n[Pre-Chorus]\nIt's a thief in the night to come and grab you (Ah)\nIt can creep up inside you and consume you (Ah)\nA disease of the mind, it can control you (Ah)\nIt's too close for comfort, ah\n\n[Chorus]\nPut on your brake lights\nYou're in the city of wonder\nAin't gon' play nice\nWatch out, you might just go under\nBetter think twice\nYour train of thought will be altered\nSo if you must falter, be wise\n[Post-Chorus]\nYour mind's in disturbia\nIt's like the darkness is the light\nDisturbia, am I scarin' you tonight?\nYour mind's in disturbia, ain't used to what you like\nDisturbia, disturbia\n\n[Refrain]\nBum bum be-dum, bum bum be-dum bum\nBum bum be-dum, bum bum be-dum bum\nBum bum be-dum, bum bum be-dum bum\nBum bum be-dum, bum bum be-dum bum\n\n[Verse 2]\nFaded pictures on the wall\nIt's like they talkin' to me\nDisconnected, no one calls\nThe phone don't even ring\nI gotta get out or figure this shit out\nIt's too close for comfort, oh\n\n[Pre-Chorus]\nIt's a thief in the night to come and grab you (Ooh)\nIt can creep up inside you and consume you (Ooh)\nA disease of the mind, it can control you (Ooh)\nI feel like a monster, oh\n[Chorus]\nPut on your brake lights\nYou're in the city of wonder (City lights)\nAin't gon' play nice (Oh)\nWatch out, you might just go under\nBetter think twice (Think twice)\nYour train of thought will be altered\nSo if you must falter, be wise (Be wise)\n\n[Post-Chorus]\nYour mind's in disturbia\nIt's like the darkness is the light\nDisturbia, am I scarin' you tonight? (Oh)\nDisturbia, ain't used to what you like (Oh, what you like)\nDisturbia, disturbia (Ah)\n\n[Refrain]\nBum bum be-dum, bum bum be-dum bum (Ba-da-da-da-de-da)\nBum bum be-dum, bum bum be-dum bum (Ba-da-da-da-de-da)\nBum bum be-dum, bum bum be-dum bum (Disturbia)\nBum bum be-dum, bum bum be-dum bum (Oh, oh)\n\n[Bridge]\nRelease me from this curse I'm in\nTryin' to remain tame, but I'm strugglin'\nIf you can't go, oh-oh-oh-oh-oh\nI think I'm gonna ah-ah-ah-ah-ah\n[Chorus]\nPut on your brake lights\nYou're in the city of wonder (Woo, yeah)\nAin't gon' play nice\nWatch out, you might just go under (Better think twice)\nBetter think twice\nYour train of thought will be altered\nSo if you must falter, be wise (If you must falter, be wise)\n\n[Post-Chorus]\nYour mind's in disturbia\nIt's like the darkness is the light (Ah, yeah, disturbia)\nDisturbia, am I scarin' you tonight? (Ah, yeah, disturbia)\nDisturbia, ain't used to what you like (Disturbia, ah)\nDisturbia, disturbia (Oh woah)\n\n[Refrain]\nBum bum be-dum, bum bum be-dum bum (Bum-ba-de-da-da)\nBum bum be-dum, bum bum be-dum bum (Bum-ba-de-da-da)\nBum bum be-dum, bum bum be-dum bum (Oh)\nBum bum be-dum, bum bum be-dum bum (Oh)", 'annotations': {'description': '&lt;p&gt;“Disturbia” was written by Rihanna’s then-boyfriend and fellow recording artist, &lt;a href="https://genius.com/artists/Chris-brown" rel="noopener" data-api_path="/artists/438"&gt;Chris Brown&lt;/a&gt; (alongside his team, the Graffiti Artizts), and was originally intended for his re-release of 2007’s &lt;a href="https://genius.com/albums/Chris-brown/Exclusive" rel="noopener" data-api_path="/albums/1550"&gt;&lt;em&gt;Exclusive&lt;/em&gt;&lt;/a&gt;. His vocals also can be heard in the background of the song.&lt;/p&gt;\n\n&lt;p&gt;Although he still earns royalties for the highly successful record, he apparently &lt;a href="https://genius.com/387569/Chris-brown-famous-girl/I-was-wrong-for-writing-disturbia" rel="noopener" data-api_path="/referents/387569"&gt;regrets writing it&lt;/a&gt; for her, for reasons he has yet to reveal.&lt;/p&gt;\n\n&lt;p&gt;In &lt;a href="http://usatoday30.usatoday.com/life/music/news/2008-08-14-chris-brown_N.htm" rel="noopener nofollow"&gt;an interview with &lt;em&gt;USA Today&lt;/em&gt;&lt;/a&gt;, Chris spoke on giving the song to Rihanna:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s fun being creative and even if you have a concept in your head to write about, you can write it and give it and give it to someone else because it might not personally fit you, but it might be an idea you have.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Brian Kennedy', 'url': 'https://genius.com/artists/Brian-kennedy'}], 'writers': [{'name': 'Rob Allen', 'url': 'https://genius.com/artists/Rob-allen'}, {'name': 'Andre Merritt', 'url': 'https://genius.com/artists/Andre-merritt'}, {'name': 'Brian Kennedy', 'url': 'https://genius.com/artists/Brian-kennedy'}, {'name': 'Chris Brown', 'url': 'https://genius.com/artists/Chris-brown'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/More_Than_a_Feeling', 'track_name': 'More Than a Feeling', 'artist': 'http://dbpedia.org/resource/Boston_(band)', 'artist_name': 'Boston', 'wiki': 'http://en.wikipedia.org/wiki/More_Than_a_Feeling', 'hometown': 'http://dbpedia.org/resource/Boston', 'abstract': '"More Than a Feeling" is a song by the American rock band Boston. Written by Tom Scholz, it was released as the lead single from their eponymous debut album on Epic Records in September 1976, with "Smokin\'" on the b-side. The single peaked at number five on the Billboard Hot 100. The track is now a staple of classic rock, and in 2008, it was named the 39th best hard rock song of all time by VH1. It was included in the Rock and Roll Hall of Fame\'s list of the 500 Songs That Shaped Rock and Roll and is ranked No. 212 on Rolling Stone\'s 500 Greatest Songs of All Time.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/What's_This_Life_For", 'track_name': "What's This Life For", 'artist': 'http://dbpedia.org/resource/Creed_(band)', 'artist_name': 'Creed', 'wiki': "http://en.wikipedia.org/wiki/What's_This_Life_For", 'hometown': 'http://dbpedia.org/resource/Tallahassee,_Florida', 'abstract': '"What\'s This Life For" is a song by American rock band Creed. It is the third single and ninth track off their 1997 debut album, My Own Prison. The song reached number one on the Billboard Hot Mainstream Rock Tracks chart in the U.S., becoming their first number one hit on this chart. It remained on top for six weeks.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Beverly_Hills_(song)', 'track_name': 'Beverly Hills', 'artist': 'http://dbpedia.org/resource/Weezer', 'artist_name': 'Weezer', 'wiki': 'http://en.wikipedia.org/wiki/Beverly_Hills_(song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Beverly Hills" is a song by American rock band Weezer. It is the first single from the band\'s fifth album, Make Believe. "Beverly Hills" was released to US radio on March 28, 2005. The song features Stephanie Eitel of Agent Sparks on the chorus on backup vocals, performing the "gimme, gimme" hook.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Say_It_Right', 'track_name': 'Say It Right', 'artist': 'http://dbpedia.org/resource/Nelly_Furtado', 'artist_name': 'Nelly Furtado', 'wiki': 'http://en.wikipedia.org/wiki/Say_It_Right', 'abstract': '"Say It Right" is a song by Canadian singer Nelly Furtado from her third studio album, Loose (2006). Written by Furtado, Tim "Timbaland" Mosley and Nate "Danja" Hills, Furtado credited the Eurythmics song "Here Comes the Rain Again" as her inspiration. The song was released as the album\'s third single in North America and Australia and as the fourth single in certain European and Asian countries. It was released digitally in the United Kingdom in March 2007. It was the album\'s fifth single in Latin America. "Say It Right" attained worldwide success, topping the charts in more than seven countries, including the United States, France, New Zealand, and many European countries. The accompanying music video for the song, directed by Rankin &amp; Chris, portrays Furtado singing in various costumes and in various locations. The song has been performed on a number of live appearances by Furtado, including her third headlining Get Loose Tour. It received a Grammy Award nomination for Best Female Pop Vocal Performance at the 2008 Grammy Awards but lost to Amy Winehouse\'s "Rehab".'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Why'd_You_Only_Call_Me_When_You're_High%3F", 'track_name': "Why'd You Only Call Me When You're High?", 'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': "http://en.wikipedia.org/wiki/Why'd_You_Only_Call_Me_When_You're_High%3F", 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': '"Why\'d You Only Call Me When You\'re High?" is a song by English indie rock band Arctic Monkeys. It was released as the third single from their fifth studio album, AM, on 11 August 2013. It was written by the group\'s lead vocalist Alex Turner while its production was handled by James Ford. Upon its release, many critics compared the composition of "Why\'d You Only Call Me When You\'re High?" with works by different artists. On 30 August 2013, an audio track of the single\'s B-side, "Stop the World I Wanna Get Off with You", was released onto Arctic Monkeys\' official YouTube channel. An accompanying music video was shot for the song by Nabil Elderkin and released in July 2013. The band has performed the song multiple times at different venues and also on their AM Tour. In October 2020 and January 2021, the song went viral on TikTok, also appearing on the Spotify “Viral Hits” playlist.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/I'm_a_Believer", 'track_name': "I'm a Believer", 'artist': 'http://dbpedia.org/resource/Smash_Mouth', 'artist_name': 'Smash Mouth', 'wiki': "http://en.wikipedia.org/wiki/I'm_a_Believer", 'hometown': 'http://dbpedia.org/resource/San_Jose,_California', 'abstract': '"I\'m a Believer" is a song written by Neil Diamond and recorded by the Monkees in 1966 with the lead vocals by Micky Dolenz. The single, produced by Jeff Barry, hit the number-one spot on the U.S. Billboard Hot 100 chart for the week ending December 31, 1966, and remained there for seven weeks, becoming the last No. 1 hit of 1966 and the biggest-selling single for all of 1967. Billboard ranked the record as the No. 5 song for 1967. Because of 1,051,280 advance orders, it went Gold within two days of release. It is one of the fewer than forty all-time singles to have sold more than 10 million physical copies worldwide. While originally published by Screen Gems-Columbia Music (BMI), it is now published by Stonebridge Music/EMI Foray Music (SESAC), with administration passed to Sony/ATV Music Publishing and Universal Music Publishing Group. The song was No. 1 in the UK Singles Chart for four weeks in January and February 1967 and reached the top spot in numerous countries, including Australia, New Zealand, Canada, and Ireland. Billboard described the song as \'an easy-go dance mover\' that \'will hit with immediate impact\'. The song appeared in four consecutive episodes of the television series The Monkees in December 1966.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Throne_(song)', 'track_name': 'Throne', 'artist': 'http://dbpedia.org/resource/Bring_Me_the_Horizon', 'artist_name': 'Bring Me the Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Throne_(song)', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': '"Throne" is a song by British rock band Bring Me the Horizon. Produced by keyboardist Jordan Fish and vocalist Oliver Sykes, it was featured on the band\'s 2015 fifth studio album That\'s the Spirit and released as the third single from the album on 24 July 2015. The single topped the UK Rock &amp; Metal Singles Chart and the US Billboard Mainstream Rock chart, and reached number 51 on the UK Singles Chart and number 12 on the Billboard Hot Rock Songs chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Breathe_(The_Prodigy_song)', 'track_name': 'Breathe', 'artist': 'http://dbpedia.org/resource/The_Prodigy', 'artist_name': 'The Prodigy', 'wiki': 'http://en.wikipedia.org/wiki/Breathe_(The_Prodigy_song)', 'hometown': 'http://dbpedia.org/resource/Braintree,_Essex', 'abstract': '"Breathe" is a song by English band the Prodigy, released in November 1996 as the second single from the album The Fat of the Land. It became the group\'s second consecutive number-one in the United Kingdom and also topped the charts in the Czech Republic, Denmark, Finland, Hungary, Ireland, Norway, and Sweden. The song features a drum break from the song "Johnny the Fox Meets Jimmy the Weed" of the group Thin Lizzy. The whiplashing sword sound effect is a sample of the song "Da Mystery of Chessboxin", by Wu-Tang Clan. As in "Firestarter", Jim Davies played the guitar in the song. In 2003, Q Magazine ranked "Breathe" at number 321 in their list of the "1001 Best Songs Ever".'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Boys_Don't_Cry_(The_Cure_song)", 'track_name': "Boys Don't Cry", 'artist': 'http://dbpedia.org/resource/The_Cure', 'artist_name': 'The Cure', 'wiki': "http://en.wikipedia.org/wiki/Boys_Don't_Cry_(The_Cure_song)", 'hometown': 'http://dbpedia.org/resource/Crawley', 'abstract': '"Boys Don\'t Cry" is a song by English rock band The Cure. It was released in the UK as a stand-alone single in June 1979, and was included as the title track on Boys Don\'t Cry, the American equivalent to Three Imaginary Boys.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Words_as_Weapons_(Seether_song)', 'track_name': 'Words as Weapons', 'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Words_as_Weapons_(Seether_song)', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'abstract': '"Words as Weapons" is a song by South African rock band Seether. It was released on 1 May 2014, as the lead single from their sixth studio album Isolate and Medicate.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Unskinny_Bop', 'track_name': 'Unskinny Bop', 'artist': 'http://dbpedia.org/resource/Poison_(American_band)', 'artist_name': 'Poison', 'wiki': 'http://en.wikipedia.org/wiki/Unskinny_Bop', 'hometown': 'http://dbpedia.org/resource/Mechanicsburg,_Pennsylvania', 'abstract': '"Unskinny Bop" is a song by American glam metal band Poison, which was released as the first single from their 1990 Flesh &amp; Blood album. The song peaked at number 3 on the US Billboard Hot 100, number 5 on the Mainstream rock charts, number 15 in the UK and #7 on the Australian charts. This made it the band\'s second highest success, after "Every Rose Has Its Thorn."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Special_(song)', 'track_name': 'Special', 'artist': 'http://dbpedia.org/resource/Garbage_(band)', 'artist_name': 'Garbage', 'wiki': 'http://en.wikipedia.org/wiki/Special_(song)', 'hometown': 'http://dbpedia.org/resource/Madison,_Wisconsin', 'abstract': '"Special" is song by American rock band Garbage from their second studio album, Version 2.0 (1998). It was released as the album\'s third single. The track contains a vocal interpolation of a lyric taken from "Talk of the Town" by the Pretenders. Commercially, "Special" reached number 15 in the United Kingdom, number 52 on the US Billboard Hot 100, and number 54 in Australia. The song received nominations for Best Rock Song and Best Rock Performance by a Duo or Group at the 2000 Grammy Awards, and winning a Wisconsin Area Music Industry award for Song of the Year and a Citation of Achievement from the BMI Pop Awards. The sci-fi-inspired music video for "Special" also received nominations from music industry award panels, winning a D&amp;AD Award, a MTV Video Music Award, and a VH1 Visionary Video award. In 2007, "Special" was remastered and included on Garbage\'s greatest hits album Absolute Garbage.'}</t>
   </si>
   <si>
     <t>{'track': 'http://dbpedia.org/resource/Would%3F', 'track_name': 'Would?', 'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Would%3F', 'hometown': 'http://dbpedia.org/resource/Seattle', 'abstract': '"Would?" is a song by Alice in Chains, written by guitarist and vocalist Jerry Cantrell as a tribute to his friend Andrew Wood, lead vocalist of Mother Love Bone, who died in 1990. Cantrell sings the verses of the song, while Layne Staley sings the chorus. The song first appeared on the soundtrack to the 1992 film Singles—where the members of Alice in Chains make a cameo appearance—and later appeared on the band\'s second studio album Dirt, also released in 1992. "Would?" was released as a single and peaked at No. 31 on Billboard\'s Mainstream Rock Tracks chart in 1992, at No. 19 in 1996, and in 2019 the song peaked at No. 15 on the Hot Rock Songs chart after it was featured in the trailer for the season 2 of the Netflix show The Punisher. The song was included on the compilation albums Nothing Safe: Best of the Box (1999), Music Bank (1999), Greatest Hits (2001), and The Essential Alice in Chains (2006). An acoustic version performed on Alice in Chains\' MTV Unplugged in 1996 was released in a live album and DVD. In 2009, "Would?" was named the 88th Best Hard Rock Song of All Time by VH1.'}</t>
   </si>
   <si>
-    <t>{'track': 'http://dbpedia.org/resource/Roots_Bloody_Roots', 'track_name': 'Roots Bloody Roots', 'artist': 'http://dbpedia.org/resource/Sepultura', 'artist_name': 'Sepultura', 'wiki': 'http://en.wikipedia.org/wiki/Roots_Bloody_Roots', 'hometown': 'http://dbpedia.org/resource/Minas_Gerais', 'abstract': '"Roots Bloody Roots" is a song by Brazilian metal band Sepultura. It was released in February 1996 as the lead single from their sixth album Roots. The song is the band\'s best known and remains a concert staple to this day, usually being performed on encores. A music video was filmed for the single which features the band performing in a catacomb as well as on the streets with a tribe of percussionists. This video can be found on the VHS We Are What We Are, which was later released on DVD as part of Chaos DVD. The song also appears in live form on the band\'s live releases Under a Pale Grey Sky and Live in Sao Paulo. Another live version appears on the limited edition digipak version of the band\'s 2000 album Nation. Former Sepultura frontman Max Cavalera has also played the song live numerous times with his other bands Soulfly and Cavalera Conspiracy. Recordings of their version can be found on the limited edition versions of the albums Soulfly and Prophecy and as iTunes bonus track on Conquer, as well as on the DVD The Song Remains Insane, plus on the bonus DVDs of Omen and Archangel.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Down_with_the_Sickness', 'track_name': 'Down with the Sickness', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Down_with_the_Sickness', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Down with the Sickness" is a song by American heavy metal band Disturbed. It was recorded in 1999 and released as the second single from the band\'s debut studio album, The Sickness. "Down with the Sickness" is one of Disturbed\'s best-known songs and is a concert staple, usually played as the last song. This was Disturbed\'s first single to be certified platinum in the United States by the Recording Industry Association of America.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/1000hp', 'track_name': '1000hp', 'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/1000hp', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'abstract': '"1000hp" ("1000 Horse Power") is the lead single and title track from Godsmack\'s studio album of the same name. It was released on June 9, 2014, and was made available for digital download on Amazon and iTunes on June 10. The single reached number one on the Billboard Hot Mainstream Rock Tracks, making it the band\'s seventh number one single on the chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Overkill_(Motörhead_song)', 'track_name': 'Overkill', 'artist': 'http://dbpedia.org/resource/Motörhead', 'artist_name': 'Motörhead', 'wiki': 'http://en.wikipedia.org/wiki/Overkill_(Motörhead_song)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"Overkill" is a song by English rock band Motörhead. It was released in 7" and 12" vinyl pressings in 1979. It is backed with B-side "Too Late Too Late" which appears on the CD re-issues of the Overkill album. Early copies came with an "Overkill" badge. The single reached number 39 on the UK Singles Chart. On 9 March 1979, the band played this song on the BBC TV show Top of the Pops to support the release of the single. The song was a live favourite and was frequently featured at Motörhead concerts, often in an extended version. The artwork on the sleeve was created by Joe Petagno, based on his design for the album\'s cover. The song is featured as a track in the video game SSX on Tour, and was re-recorded by Motörhead to be a playable track in the rhythm game Guitar Hero World Tour. The track is notable for Phil "Philthy Animal" Taylor\'s use of two bass drums. "Overkill" was used as the closing song for Motörhead\'s final tour, making it the last song the band ever played live. On 13 April 2019, Motörhead re-released the original single edit of Overkill along with "Bomber" on picture disc as a celebration of the album\'s 40th anniversaries on Record Store Day. The single edit was made available digitally on 8 March 2019.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Cirice', 'track_name': 'Cirice', 'artist': 'http://dbpedia.org/resource/Ghost_(Swedish_band)', 'artist_name': 'Ghost', 'wiki': 'http://en.wikipedia.org/wiki/Cirice', 'hometown': 'http://dbpedia.org/resource/Linköping', 'abstract': '"Cirice" (/səˈriːs/ sə-REES, Old English: [ˈtʃiritʃe]; \'church\') is a song by the Swedish rock band Ghost. The track was released as the lead single from the group\'s third studio album Meliora. The song peaked at number 4 on the Mainstream Rock Songs chart, and won the Grammy Award for Best Metal Performance in 2016. "Cirice" is featured in the video game Rock Band VR\'s setlist.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Du_hast', 'track_name': 'Du hast', 'artist': 'http://dbpedia.org/resource/Rammstein', 'artist_name': 'Rammstein', 'wiki': 'http://en.wikipedia.org/wiki/Du_hast', 'hometown': 'http://dbpedia.org/resource/Berlin', 'abstract': '"Du hast" (German: You Have) is a song by German Neue Deutsche Härte band Rammstein. It was released as the second single from their second album Sehnsucht (1997). It has appeared on numerous soundtracks for films, most notably The Matrix: Music from the Motion Picture, How High, and the home video CKY2K. It is featured in the music video games Guitar Hero 5 and Rock Band 3. The song\'s title is a play on the homophones du hasst ("you hate") and du hast ("you have").'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Dig_(Mudvayne_song)', 'track_name': 'Dig', 'artist': 'http://dbpedia.org/resource/Mudvayne', 'artist_name': 'Mudvayne', 'wiki': 'http://en.wikipedia.org/wiki/Dig_(Mudvayne_song)', 'hometown': 'http://dbpedia.org/resource/Peoria,_Illinois', 'abstract': '"Dig" is the debut single by the American heavy metal band Mudvayne from the band\'s debut studio album L.D. 50. A music video was released for the song on April 10, 2000 and it later won the first ever MTV2 Award. It is also one of the band\'s most well-known songs, being certified gold in the United States. A live version of the song taken from the Tattoo the Earth tour appears on the live album Tattoo the Earth: The First Crusade. The song also appeared on the compilation album WWF Tough Enough.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/My_Own_Summer_(Shove_It)', 'track_name': 'My Own Summer (Shove It)', 'artist': 'http://dbpedia.org/resource/Deftones', 'artist_name': 'Deftones', 'wiki': 'http://en.wikipedia.org/wiki/My_Own_Summer_(Shove_It)', 'hometown': 'http://dbpedia.org/resource/Sacramento,_California', 'abstract': '"My Own Summer (Shove It)" is a single by American alternative metal band Deftones, their first to be taken from the album Around the Fur. It was released in 1997 by Maverick Records. It was Deftones\' first charting single, reaching number 29 in the UK Singles Chart. The song has been described as alternative metal and nu metal.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Beautiful_People_(song)', 'track_name': 'The Beautiful People', 'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/The_Beautiful_People_(song)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'abstract': '"The Beautiful People" is a song by American rock band Marilyn Manson. It was released as the lead single from the band\'s second studio album, Antichrist Superstar, in September 1996. Classified as alternative metal, the song was written by frontman Marilyn Manson and Twiggy Ramirez, and was produced by Trent Reznor, Dave Ogilvie and Manson. The title of the song comes from Marylin Bender\'s 1967 book The Beautiful People, which exposed the world of scandal within the "jet-set" lifestyle of the 1960s, and the culture of beauty as it pertained to fashion and politics. In the context of the album\'s concept, the song refers to the privileged class of elites whom the titular character, a populist demagogue called Antichrist Superstar, fulminate against. Lyrically, it discusses what Manson refers to as "the culture of beauty". The single peaked at number 26 on the US Modern Rock Tracks chart and remains known as one of Marilyn Manson\'s most famous and most successful original songs; in a 2004 review, Richard Banks of the BBC called the track "still the most impressive" in the band\'s catalogue, and in 2006 it was ranked at number 28 on VH1\'s 40 Greatest Metal Songs.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Sonne_(Rammstein_song)', 'track_name': 'Sonne', 'artist': 'http://dbpedia.org/resource/Rammstein', 'artist_name': 'Rammstein', 'wiki': 'http://en.wikipedia.org/wiki/Sonne_(Rammstein_song)', 'hometown': 'http://dbpedia.org/resource/Berlin', 'abstract': '"Sonne" (German for "Sun") is a song by German Neue Deutsche Härte band Rammstein. It was released in February 2001, as the first single from their album Mutter. According to Till Lindemann, the song was originally written as an entrance song for the boxer Vitali Klitschko, whose surname was also the working title of the song. The female vocal comes from Spectrasonic\'s "symphony of voices" music library.The music video for the band\'s 2019 single "Deutschland" features a piano-based version of "Sonne" in the ending credits.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/My_Curse_(song)', 'track_name': 'My Curse', 'artist': 'http://dbpedia.org/resource/Killswitch_Engage', 'artist_name': 'Killswitch Engage', 'wiki': 'http://en.wikipedia.org/wiki/My_Curse_(song)', 'hometown': 'http://dbpedia.org/resource/Westfield,_Massachusetts', 'abstract': '"My Curse" is a song by American metalcore band Killswitch Engage, the song is released as the first single from their fourth album As Daylight Dies. It reached #21 on the Mainstream Rock Tracks chart, surpassing the band\'s last breakthrough single "The End of Heartache". The music video was directed by Lex Halaby, who has also directed videos for Hoobastank and Mudvayne. It is also one of the band\'s most well known songs.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Strife_(song)', 'track_name': 'Strife', 'artist': 'http://dbpedia.org/resource/Trivium_(band)', 'artist_name': 'Trivium', 'wiki': 'http://en.wikipedia.org/wiki/Strife_(song)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': '"Strife" is a song by American heavy metal band Trivium. It was released as the second single from the band\'s sixth studio album Vengeance Falls.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Psychosocial_(song)', 'track_name': 'Psychosocial', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Psychosocial_(song)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'abstract': '"Psychosocial" is a song by American heavy metal band Slipknot. It was released as the second single and fourth track from their fourth studio album, All Hope Is Gone. The song entered airplay on June 26, 2008 and was originally planned for release as a digital single on July 1 but was delayed and released on July 8. Slipknot performed "Psychosocial" live for the first time on July 9, 2008, at the White River Amphitheatre in Auburn, Washington. In 2008, the song was featured on the soundtrack to Marvel\'s Punisher: War Zone. The song was also nominated for \'Best Metal Performance\' for the 51st Grammy Awards, but lost to Metallica\'s "My Apocalypse", and was nominated for the Kerrang! Award for Best Single. "Psychosocial", along with two other Slipknot songs, "Duality" and "Sulfur," was released as downloadable content for Rock Band and Rock Band 2 on December 8, 2009. It is also featured as a playable track in Guitar Hero: Warriors of Rock.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Bodies_(Drowning_Pool_song)', 'track_name': 'Bodies', 'artist': 'http://dbpedia.org/resource/Drowning_Pool', 'artist_name': 'Drowning Pool', 'wiki': 'http://en.wikipedia.org/wiki/Bodies_(Drowning_Pool_song)', 'hometown': 'http://dbpedia.org/resource/Dallas', 'abstract': '"Bodies" is a song by the American rock band Drowning Pool and also is the lead single from their debut album Sinner. Released in May 2001, "Bodies" is Drowning Pool\'s signature song and has been featured in various films, TV programs, and advertisements since its release. It was also the theme song for the 2001 WWF SummerSlam pay-per-view event, as well as that of the ECW brand in 2006 to early 2008. During 2001, the song became popular, but the song was taken off radio stations after the September 11 attacks because it was considered inappropriate in the wake of the terrorist attack. An early version of "Bodies" appeared in their EP Pieces of Nothing, omitting the lyrics in the bridge and featuring a significantly greater amount of screaming.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Stricken_(song)', 'track_name': 'Stricken', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Stricken_(song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Stricken" is a song by the American heavy metal band Disturbed. The song was released on July 25, 2005 as the second single from their third studio album Ten Thousand Fists. "Stricken" was certified gold in the United States by the Recording Industry Association of America on August 18, 2008 for selling 500,000 copies. It is one of the first of Disturbed\'s songs to include a guitar solo. The song is featured in Guitar Hero III and Guitar Hero Live in addition to the Disturbed track pack in Guitar Hero 5. The song is also a part of the Rock Band downloadable content catalog. The song was also featured in the Project Gotham Racing 4. The musical video for the song was filmed in an abandoned hospital in which some scenes from the 1984 horror film A Nightmare on Elm Street were filmed. "Stricken" was used as official theme for WWE\'s PPV New Year\'s Revolution, in 2006.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Dragula_(song)', 'track_name': 'Dragula', 'artist': 'http://dbpedia.org/resource/Rob_Zombie', 'artist_name': 'Rob Zombie', 'wiki': 'http://en.wikipedia.org/wiki/Dragula_(song)', 'abstract': '"Dragula" is a song and debut single co-written and recorded by American rock musician Rob Zombie. It was released in August 1998 as the lead single from his solo debut Hellbilly Deluxe. Since its release it has become Zombie\'s most recognizable song as a solo artist. It is also his best-selling song, and had sold over 717,000 copies in the U.S. by 2010. The song is based on the drag racer "DRAG-U-LA" from the sitcom The Munsters. The audio clip "superstition, fear and jealousy" heard at the beginning of the song is a sample of dialogue from the 1960 horror film The City of the Dead (also known as Horror Hotel), and is spoken by Christopher Lee. The song also appears on Rob Zombie\'s Past, Present &amp; Future, the greatest hits album The Best of Rob Zombie. The original single included a big beat remix of the song by Charlie Clouser, entitled the "Hot Rod Herman" remix (in reference to the Munsters episode), which is contained on American Made Music to Strip By (under the name Si Non Oscillas, Noli Tintinnare Mix). Additionally, it appeared on the soundtracks for video games, films and TV shows.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/You_Want_a_Battle%3F_(Here's_a_War)", 'track_name': "You Want a Battle? (Here's a War)", 'artist': 'http://dbpedia.org/resource/Bullet_for_My_Valentine', 'artist_name': 'Bullet for My Valentine', 'wiki': "http://en.wikipedia.org/wiki/You_Want_a_Battle%3F_(Here's_a_War)", 'hometown': 'http://dbpedia.org/resource/Bridgend', 'abstract': '"You Want a Battle? (Here\'s a War)" is a song by Welsh heavy metal band Bullet for My Valentine. It was released on 29 June 2015 as the second single from the album Venom.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Blind_(Korn_song)', 'track_name': 'Blind', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Blind_(Korn_song)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Blind" is a song by American nu metal band Korn for their self-titled debut album. It was released as the album\'s first single in August 1994.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Walk_(Pantera_song)', 'track_name': 'Walk', 'artist': 'http://dbpedia.org/resource/Pantera', 'artist_name': 'Pantera', 'wiki': 'http://en.wikipedia.org/wiki/Walk_(Pantera_song)', 'hometown': 'http://dbpedia.org/resource/Arlington,_Texas', 'abstract': '"Walk" is a song by American heavy metal band Pantera from their sixth album Vulgar Display of Power. A live performance of "Walk" is included on Official Live: 101 Proof, and the studio version is also on the band\'s greatest hits album, The Best of Pantera: Far Beyond the Great Southern Cowboys\' Vulgar Hits!.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/B.Y.O.B._(song)', 'track_name': 'B.Y.O.B.', 'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/B.Y.O.B._(song)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'abstract': '"B.Y.O.B." ("Bring Your Own Bombs") is a song by Armenian-American alternative metal band System of a Down. It was released in March 2005 as the lead single from their fourth album Mezmerize. Like their earlier song "Boom!", it was written in protest against the Iraq War. The song reached number 27 on the US Billboard Hot 100, the band\'s highest peak to date on the chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Falling_Away_from_Me', 'track_name': 'Falling Away from Me', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Falling_Away_from_Me', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Falling Away from Me" is a song by American band Korn. It was released as the first single from their fourth album Issues, debuting in an episode of Comedy Central\'s animated series South Park, entitled "Korn\'s Groovy Pirate Ghost Mystery". The song went on to become one of Korn\'s most popular singles, with an anti-child abuse themed video topping MTV\'s Total Request Live for ten days.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Twisted_Transistor', 'track_name': 'Twisted Transistor', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Twisted_Transistor', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Twisted Transistor" is a song written and recorded by American nu metal band Korn for their seventh studio album, See You on the Other Side. It was released as the album\'s first single in September 2005.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Politics_(song)', 'track_name': 'Politics', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Politics_(song)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Politics" is a song by the American nu metal band Korn and The Matrix for Korn\'s seventh studio album, See You on the Other Side. It was released as the album\'s third single in August 2006 instead of the previous choice, "Love Song", and is the last Korn single to feature David Silveria on drums.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Right_Now_(Korn_song)', 'track_name': 'Right Now', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Right_Now_(Korn_song)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Right Now" is a song written and recorded by American nu metal band Korn for their sixth studio album, Take a Look in the Mirror. It was released as the album\'s official first single in October 2003. It is usually used as an opening to Korn\'s concerts.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Did_My_Time', 'track_name': 'Did My Time', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Did_My_Time', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Did My Time" is a song written and recorded by American nu metal band Korn for the film, Lara Croft Tomb Raider: The Cradle of Life. It was released as a single in July 2003 in support of the film, and was later featured on the band\'s sixth studio album, Take a Look in the Mirror.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Y'All_Want_a_Single", 'track_name': "Y'All Want a Single", 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': "http://en.wikipedia.org/wiki/Y'All_Want_a_Single", 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Y\'All Want a Single" is a song written and recorded by American nu metal band Korn for their sixth studio album, Take a Look in the Mirror. It was released as the album\'s third single in March 2004, chosen by fans through a poll on the band\'s official forum.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Freak_on_a_Leash', 'track_name': 'Freak on a Leash', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Freak_on_a_Leash', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Freak on a Leash" is a song by the American nu metal band Korn, featured on the group\'s 1998 studio album, Follow the Leader. Prior to the album\'s release, Korn had an instrumental section of the song, described as a "noisy guitar break." The section was taken out of the song after they learned that radio stations disliked it. After Follow the Leader\'s release, the song was released as a single on February 25, 1999, and since then, it has been re-released over ten times. The song uses dissonance, distortion, various guitar effects, and a heavy, aggressive style. The "Freak on a Leash" music video was released on February 5, 1999. Directed by Todd McFarlane in Los Angeles, California, the video explores both animations and live performances mixed together. As a result, the band released a music video that won three awards and was retired from Total Request Live. The single peaked at number six on the Alternative Songs chart, 10 on the Mainstream Rock Songs chart, and 24 on the UK Singles Chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Got_the_Life', 'track_name': 'Got the Life', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Got_the_Life', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Got the Life" is a song written and recorded by American band Korn for their third studio album, Follow the Leader which was released as the album\'s second single on November 23, 1998. It was recorded in April 1998 at NRG Recording Studios. The band decided they would release the song as a promotional single after each member found that there was something "special" about the song. The single had "phenomenal success", and its music video was requested more than any other video on MTV\'s TRL, making it the first officially "retired" music video. "Got the Life" did not receive much attention in the music press; however, the song was rewarded a gold certification in Australia by the Australian Recording Industry Association. It peaked at number one on the Canadian RPM Rock/Alternative Chart chart, as well as number fifteen on the US Billboard Mainstream Rock Tracks chart and number seventeen on the US Billboard Modern Rock Tracks chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Get_Up!_(Korn_song)', 'track_name': 'Get Up!', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Get_Up!_(Korn_song)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Get Up!" is a song written and recorded by Korn, featuring the production of American producer Skrillex that appears on their tenth studio album, The Path of Totality. It was released as the album\'s lead single on May 6, 2011. Since its release it has sold over 200,000 downloads in the United States. It was debuted live at Coachella with Skrillex. The song is also included on Roadrunner Record\'s XXX: Three Decades of Roadrunner box set on disc four.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Warrior_(Disturbed_song)', 'track_name': 'Warrior', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Warrior_(Disturbed_song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Warrior" is a song by American heavy metal band Disturbed. It was released on 3 March 2011, as the fourth single from their album Asylum.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Animal_(Disturbed_song)', 'track_name': 'The Animal', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/The_Animal_(Disturbed_song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"The Animal" is a song by American heavy metal band Disturbed. It was released on October 4, 2010, as the third single from their studio album, Asylum. According to vocalist David Draiman, "The Animal" was heavily inspired by the movie The Wolfman (2010).'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Indestructible_(Disturbed_song)', 'track_name': 'Indestructible', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Indestructible_(Disturbed_song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Indestructible" is a song by American heavy metal band Disturbed, released as the third single from their studio album of the same name. The single peaked at No. 2 on the Hot Mainstream Rock Tracks chart and No. 10 on the Hot Modern Rock Tracks chart. The music video for the song appeared on Disturbed\'s website on August 20, 2008, and the single was released on September 29, 2008. "Indestructible" is meant to encourage troops going into battle, and boost their morale. It is also meant to represent Disturbed\'s success in the music industry. It is one of Disturbed\'s best known songs. The song appeared in the video game Midnight Club: Los Angeles.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Inside_the_Fire_(song)', 'track_name': 'Inside the Fire', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Inside_the_Fire_(song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Inside the Fire" (alternatively known as "Devon") is a song by American heavy metal band Disturbed. The song was released as the lead single from the band\'s fourth studio album, Indestructible (2008), on March 25, 2008 as a digital download. The song features suicidal themes, and, in May 2008, a music video was unveiled for the song. However, due to the involvement of suicidal themes in the uncensored music video, an edited version of the song and music video was released, in which these themes are absent. On March 24, 2008, "Inside the Fire" debuted on more than sixty radio stations, quickly showing up on many significant music charts and reaching number 73 on the Billboard Hot 100 chart, and number one on the Hot Mainstream Rock Chart. The single became nominated for a Grammy Award in the "Best Hard Rock Performance" category. The song was featured in Madden NFL 09.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Ten_Thousand_Fists_(song)', 'track_name': 'Ten Thousand Fists', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Ten_Thousand_Fists_(song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Ten Thousand Fists" is a song by American heavy metal band Disturbed. It was released on December 28, 2006 as the fifth single from their studio album, Ten Thousand Fists. The track is used in the video game Madden NFL 06.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Land_of_Confusion', 'track_name': 'Land of Confusion', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Land_of_Confusion', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Land of Confusion" is a song by the English rock band Genesis from their 1986 album Invisible Touch. The song was the third track on the album and was the third track released as a single, reaching No. 4 in the U.S. and No. 14 in the UK in late 1986. It also reached No. 8 in the Netherlands. The music was written by the band, while the lyrics were written by guitarist Mike Rutherford. The song\'s video featured puppets from the 1980s UK sketch show Spitting Image.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Pain_(Three_Days_Grace_song)', 'track_name': 'Pain', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Pain_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"Pain" is the second single from rock band Three Days Grace\'s 2006 album, One-X.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Animal_I_Have_Become', 'track_name': 'Animal I Have Become', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Animal_I_Have_Become', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"Animal I Have Become" is the first single from Three Days Grace\'s second studio album, One-X. Unlike most singles, it was not released in stores, and only had one track. The song spent seven weeks at No. 1 on the US Mainstream Rock Tracks chart and two weeks at No. 1 on the US Modern Rock Tracks chart. Adam Gontier has stated that while he was addicted to the painkiller OxyContin, he was abusive and angry and had no idea who he was anymore. He wrote "Animal I Have Become" while in rehab for his addiction. The song alongside "Riot" are used in the video game, WWE SmackDown vs. Raw 2007. It is the band\'s first single with their fourth member Barry Stock.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Never_Too_Late_(Three_Days_Grace_song)', 'track_name': 'Never Too Late', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Never_Too_Late_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"Never Too Late" is a song by the band Three Days Grace. It is the third single from the band\'s second album One-X.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Riot_(Three_Days_Grace_song)', 'track_name': 'Riot', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Riot_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"Riot" is the fourth and final single from the album One-X by Three Days Grace. The song is about protesting against the negative things in life and was inspired by vocalist Adam Gontier\'s anger when he was in rehab for OxyContin addiction. The song was also featured in the video game WWE SmackDown vs. Raw 2007 as an edited version. It is one of only a few songs by the band to feature profanity. During radio play, the line "If you feel so filthy, so dirty, so fucked up", "fucked" is replaced with "messed", and in the WWE SmackDown vs. Raw 2007 video game, the word "fuck" in that line is backmasked so that it sounds somewhat like "if you feel so filthy, so dirty, so huffed up". It charted at number 65 in Canada, and number 12 and 21 on the US Mainstream Rock and Modern Rock charts respectively. To date, this is the band\'s only single to miss the top ten on the former chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Break_(Three_Days_Grace_song)', 'track_name': 'Break', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Break_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"Break" is the lead single from Three Days Grace\'s third album, Life Starts Now. It was released three weeks before the release of Life Starts Now.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Good_Life_(Three_Days_Grace_song)', 'track_name': 'The Good Life', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/The_Good_Life_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"The Good Life" is a song and the second single from Three Days Grace\'s 2009 album Life Starts Now. It was released for radio airplay on February 9, 2010. It charted at number 85 on the Canadian Hot 100 before becoming a single. The song also was featured on ESPN\'s Winter X Games XIV, and was used during the Professional Motocross Freestyle show Nuclear Cowboyz. "The Good Life" was the featured song for the 2010 ACC Men\'s Basketball Tournament, and also during the 2010 NFL Draft. The song was also performed during a concert of Three Days Grace along series of concerts during the 2010 Winter Olympics in Vancouver on February 15, 2010. The song hit number one on the Mainstream Rock Tracks and Rock Songs chart and number four on the Alternative Songs chart matching "Break". This is the most recent Three Days Grace song to hit the top 10 on the Alternative Songs chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Polyamorous_(song)', 'track_name': 'Polyamorous', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Polyamorous_(song)', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': '"Polyamorous" is a song by American rock band Breaking Benjamin. It was released in July 2002 as the lead single from their debut album Saturate. The song reached number 31 on the US Billboard Alternative Songs chart and number 19 on the Mainstream Rock Tracks chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Diary_of_Jane', 'track_name': 'The Diary of Jane', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/The_Diary_of_Jane', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': '"The Diary of Jane" is a song by American rock band Breaking Benjamin. It was released in June 2006 as the lead single from their third album, Phobia. The song, one of their most notable and successful, is the fastest-added single ever in the history of Hollywood Records. It gained a massive amount of radio play throughout the United States and reached number one under three rock charts. The single was certified 4× Platinum in the United States on February 3, 2021 and Silver in the United Kingdom on July 17, 2020, making it their most successful single in terms of sales internationally.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Breath_(Breaking_Benjamin_song)', 'track_name': 'Breath', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Breath_(Breaking_Benjamin_song)', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': '"Breath" is a song by American rock band Breaking Benjamin. It was released in January 2007 as the second single from their third album, Phobia. It was the band\'s fourth charted song on the US Hot 100 overall, and the second from Phobia. Although "Breath" failed to capture the pop success of "The Diary of Jane" at No. 50 where "Breath" hit No. 84 on the Billboard Hot 100, it was more successful on the rock charts where it hit No. 1 on the US Mainstream Rock Tracks chart, making it Breaking Benjamin\'s first number-one hit, staying there for seven weeks where "The Diary of Jane" hit No. 2 and it also hit No. 3 on the US Modern Rock Tracks chart, tying with "So Cold" as their highest-charting single on the chart where "The Diary of Jane" hit No. 4. The single was certified platinum by the RIAA in 2015.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/I_Will_Not_Bow', 'track_name': 'I Will Not Bow', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/I_Will_Not_Bow', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': '"I Will Not Bow" is a song by American rock band Breaking Benjamin. It was released in August 2009 as the lead single from their fourth album Dear Agony. It was featured in the ending credits of the Bruce Willis film Surrogates. The song was not written specifically for the film, but according to drummer Chad Szeliga, "Ben sent a few songs to our record label, Hollywood Records," which is owned by Disney, who then decided they "wanted a Breaking Benjamin song for this movie." The song was also being used heavily on MLB Network as lead-in and lead-out music during the 2010 MLB postseason.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Blow_Me_Away', 'track_name': 'Blow Me Away', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Blow_Me_Away', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': '"Blow Me Away" is a song by American rock band Breaking Benjamin. The song is a non-album single because it was written in 2004 specifically for the Halo 2 Original Soundtrack. It was later released in 2010 as a digital single. In 2011, a remixed version of the song was released on Shallow Bay: The Best of Breaking Benjamin, featuring vocals of Sydnee Duran from Valora. Written by vocalist and guitarist Benjamin Burnley and then-drummer Jeremy Hummel, the song is described as featuring "hard rock roots, ... a vocal-centric aesthetic, heavy electric rhythm guitars", and "an aggressive male vocalist".'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Bleeding_(song)', 'track_name': 'The Bleeding', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/The_Bleeding_(song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"The Bleeding" is a song by American heavy metal band Five Finger Death Punch. It is the lead single from the band\'s first album The Way of the Fist (2007), released through Firm Music.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Never_Enough_(Five_Finger_Death_Punch_song)', 'track_name': 'Never Enough', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Never_Enough_(Five_Finger_Death_Punch_song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"Never Enough" is a song by American heavy metal band Five Finger Death Punch. It was included as a bonus track on the re-release of their debut album, The Way of the Fist. It was also made available on the band\'s website to anyone who had purchased the a copy of the original release of the album. It was released as the second single from The Way of the Fist on July 15, 2008. The song peaked at number nine on the Billboard Mainstream Rock Tracks chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Under_and_Over_It', 'track_name': 'Under and Over It', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Under_and_Over_It', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"Under and Over It" (initialized as "UAOI") is a song by American heavy metal band Five Finger Death Punch. It was released as the first single from their third album American Capitalist, and their tenth single overall. The song was released on July 27, 2011, and from July–November 2011, it was ranked as the number one song on SiriusXM\'s Octane (hard rock) channel\'s weekly countdown. "Under and Over It" reached number 77 on the Billboard Hot 100, and was their only entry on the chart until "Blue on Black" reached number 66.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Pride_(Five_Finger_Death_Punch_song)', 'track_name': 'The Pride', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/The_Pride_(Five_Finger_Death_Punch_song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"The Pride" is a song by American heavy metal band Five Finger Death Punch. It is the third track from their third album American Capitalist, the fifth single from the album, and is the fourteenth single overall from the band.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Coming_Down_(Five_Finger_Death_Punch_song)', 'track_name': 'Coming Down', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Coming_Down_(Five_Finger_Death_Punch_song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"Coming Down" is a song by American heavy metal band Five Finger Death Punch. The song was released as the fourth single from their third album, American Capitalist, and their thirteenth single overall. On the week of September 1, the song ranked first on the Billboard Hot Mainstream Rock Tracks chart (their first-ever number one single) and fourteenth on the Billboard Rock Songs chart. The music video premiered on Vevo on June 12, 2012. The song won a 2012 RadioContraband Rock Radio Award for Song of the Year.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Back_for_More_(Five_Finger_Death_Punch_song)', 'track_name': 'Back for More', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Back_for_More_(Five_Finger_Death_Punch_song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"Back for More" is a song by American heavy metal band Five Finger Death Punch. It was released as the second single from their third album, American Capitalist. In October 2011, the song ranked third on the Billboard Hard Rock Digital Songs chart and 20th on the Billboard Rock Digital Songs chart. The song is included on the soundtrack for the video game Madden NFL 12.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Lift_Me_Up_(Five_Finger_Death_Punch_song)', 'track_name': 'Lift Me Up', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Lift_Me_Up_(Five_Finger_Death_Punch_song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"Lift Me Up" is the first single from The Wrong Side of Heaven and the Righteous Side of Hell, Volume 1, the fourth studio album from Five Finger Death Punch, and is the fifteenth single overall from the band. The song features Rob Halford, lead vocalist for Judas Priest. Halford joined the band at the Revolver Golden Gods Awards on May 2, 2013 to premiere the tune, with lead singer Ivan Moody referring to himself as being "the guest (vocalist)" on the song. The song was number one in the Internet music app Spotify in its first week of release over pop songs from Mariah Carey, Daft Punk, Fergie, and others. The list represents the most viral tracks on Spotify based on the number of people who shared it divided by the number who listened to it from Monday, May 13, to Sunday, May 19, via Facebook, Tumblr, Twitter and Spotify. In April 2014, the song won a Revolver Golden Gods Award for "Song of the Year."'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Huntington Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dwyer_Middle_School', 'place': 'http://sws.geonames.org/5358705/', 'postal_code': '92648', 'geo_link': 'http://www.geonames.org/5346952/ethel-dwyer-middle-school.html', 'lat': '33.69277777777778', 'long': '-118.00027777777778', 'population': '189992'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Arlington, Texas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Arlington%2C_Texas', 'place': 'http://sws.geonames.org/4671240/', 'postal_code': '76015', 'geo_link': 'http://www.geonames.org/4671240/arlington.html', 'lat': '32.705', 'long': '-97.12277777777778', 'population': '365438'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
+    <t>{'track': 'http://dbpedia.org/resource/Monsters_(Shinedown_song)', 'track_name': 'Monsters', 'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Monsters_(Shinedown_song)', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'abstract': '"Monsters" is a song by American rock band Shinedown. It was their third single off of their sixth studio album Attention Attention. It reached the top of the Billboard Mainstream Rock Songs chart in June 2019. Upon reaching number one on the Mainstream Rock, Shinedown moved into second place for the most Mainstream Rock number ones with fourteen songs. "Monsters" was nominated for iHeartRadio\'s rock song of the year award.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Hit_Me_with_Your_Best_Shot', 'track_name': 'Hit Me with Your Best Shot', 'artist': 'http://dbpedia.org/resource/Pat_Benatar', 'artist_name': 'Pat Benatar', 'wiki': 'http://en.wikipedia.org/wiki/Hit_Me_with_Your_Best_Shot', 'abstract': '"Hit Me with Your Best Shot" is a song recorded by American rock singer Pat Benatar and written by Eddie Schwartz. In 1980, it was released as the second single from her second album Crimes of Passion, which became her biggest-selling album. It hit No. 7 in Cash Box, and reached No. 9 on the Billboard Hot 100, becoming her first Top 10 hit in the US. It was particularly popular at album-rock radio stations, peaking at number 1 on the US Tunecaster Rock Tracks chart. It was also a Top 10 hit in Canada, although the only other country in which it charted was Australia where it reached the Top 40. "Hit Me with Your Best Shot" sold well over a million copies in the U.S., achieving a gold certification by the RIAA. The song is one of Benatar\'s most recognizable tracks. Heard at many baseball and soccer games, the song has been featured on many compilation albums, including both multi-artist works as well as those just focusing on Benatar (such as 10 Great Songs and Greatest Hits).'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Livin'_on_the_Edge", 'track_name': "Livin' on the Edge", 'artist': 'http://dbpedia.org/resource/Aerosmith', 'artist_name': 'Aerosmith', 'wiki': "http://en.wikipedia.org/wiki/Livin'_on_the_Edge", 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'abstract': '"Livin\' on the Edge" is a song by American hard rock band Aerosmith. The song was written by Steven Tyler, Joe Perry, and Mark Hudson. It was released in 1993 as the first single from the band\'s commercially successful album Get a Grip. The single reached number 18 on the Billboard Hot 100 chart, number three on the Cash Box Top 100, and number one on the Billboard Album Rock Tracks chart, where it remained for nine weeks, making it Aerosmith\'s most successful single on that chart. In the UK, the song peaked at number 19 on the British pop chart in April 1993.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/N_2_Gether_Now', 'track_name': 'N 2 Gether Now', 'artist': 'http://dbpedia.org/resource/Limp_Bizkit', 'artist_name': 'Limp Bizkit', 'wiki': 'http://en.wikipedia.org/wiki/N_2_Gether_Now', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'abstract': '"N 2 Gether Now" is a hip hop song by the American band Limp Bizkit and the rapper Method Man. It was the third single released from their second studio album, Significant Other. The single was released with their last single "Break Stuff". The song does not include the instrumentalist members Sam Rivers and Wes Borland.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/I'm_Yours_(Jason_Mraz_song)", 'track_name': "I'm Yours", 'artist': 'http://dbpedia.org/resource/Jason_Mraz', 'artist_name': 'Jason Mraz', 'wiki': "http://en.wikipedia.org/wiki/I'm_Yours_(Jason_Mraz_song)", 'abstract': '"I\'m Yours" is a song by American singer-songwriter Jason Mraz, released in 2008 as the first single from his third studio album We Sing. We Dance. We Steal Things.. The song was originally released on a limited edition EP called Extra Credit as a demo in 2005 to promote his second studio album Mr. A–Z. It was performed in his 2004 and 2005 gigs and already became a crowd favorite before its release. "I\'m Yours" was nominated for Song of the Year and Best Male Pop Vocal Performance at the 51st Grammy Awards. It was also used for the Australian Seven Network\'s promotion of the season premiere of Packed to the Rafters. "I\'m Yours" was immensely successful in the US on the Billboard charts. At 76 weeks on the Hot 100, it held the record for most weeks spent on the chart, breaking the previous record of 69 weeks set by LeAnn Rimes\' song "How Do I Live" in 1998; this record has since been broken by The Weeknd\'s "Blinding Lights", which spent 90 weeks on the chart, Imagine Dragons\' "Radioactive", which spent 87 weeks on the chart, and Awolnation\'s "Sail", which spent 79 weeks on the chart. As of January 2013, it is the tenth best-selling digital song of all time in the US, selling over 6 million downloads, and 12.2 million worldwide. It remains Mraz\'s biggest US hit single to date. It was the only song to crack Billboard\'s top 600 of all time despite never cracking the top 5. Mraz first launched the song from the La Costa Resort and Spa in Carlsbad, California, at Michele Clark\'s Sunset Sessions in 2008. He also sang a version on Sesame Street titled "Outdoors" and released a successful remixed version featuring Lil Wayne and Jah Cure.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sexy_and_I_Know_It', 'track_name': 'Sexy and I Know It', 'artist': 'http://dbpedia.org/resource/LMFAO', 'artist_name': 'LMFAO', 'wiki': 'http://en.wikipedia.org/wiki/Sexy_and_I_Know_It', 'hometown': 'http://dbpedia.org/resource/Pacific_Palisades,_Los_Angeles', 'abstract': '"Sexy and I Know It" is a hit song by American duo LMFAO from their second studio album, Sorry for Party Rocking. It was released as the third single from the album on September 16, 2011. The song was written by Stefan Kendal Gordy, GoonRock, Erin Beck, George M. Robertson and Kenneth Oliver, and it was produced by Party Rock. It went to number one on the Billboard Hot 100 on January 7, 2012, and remained there for two weeks. The song became LMFAO\'s second number one hit on the Billboard Hot 100 in the United States (after "Party Rock Anthem"), making them the first duo to have two successive number-one singles since Outkast\'s "Hey Ya!" (2003) and "The Way You Move" (2004). The song also reached number one in Australia, Canada, Israel and New Zealand, and charted within the top ten in nearly every country in which it charted.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Breaking_the_Law', 'track_name': 'Breaking the Law', 'artist': 'http://dbpedia.org/resource/Judas_Priest', 'artist_name': 'Judas Priest', 'wiki': 'http://en.wikipedia.org/wiki/Breaking_the_Law', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': '"Breaking the Law" is a song by English heavy metal band Judas Priest, originally released on their 1980 album British Steel. The song is one of the band\'s better known singles, and is readily recognized by its opening guitar riff.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Give_In_to_Me', 'track_name': 'Give In to Me', 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Give_In_to_Me', 'abstract': '"Give In to Me" is the tenth track on Michael Jackson\'s 1991 studio album, Dangerous. The single peaked at number one in Ireland and in New Zealand for four consecutive weeks, and at number two on the UK Singles Chart. Stylistically, "Give In to Me" is a hard rock ballad that featured Guns N\' Roses guitarist Slash, who also had solos on "D.S.", "Morphine" and "Privacy". Some suggest that the song, also considered a heavy metal ballad, has an aggressive sexual flavor. The single was released in Europe, Australia and New Zealand only. The single release\'s B-sides include the album versions of "Dirty Diana" and "Beat It".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/This_Is_the_Last_Time', 'track_name': 'This Is the Last Time', 'artist': 'http://dbpedia.org/resource/Keane_(band)', 'artist_name': 'Keane', 'wiki': 'http://en.wikipedia.org/wiki/This_Is_the_Last_Time', 'abstract': '"This Is the Last Time" is a song performed and composed by British rock band Keane, released on 13 October 2003 as the fourth commercial single from their debut album, Hopes and Fears (2004). It was first released with Fierce Panda Records and later in 2004 as a different version with Island Records. It was released as track two of the international version, but track nine on the British version. The single reached number 18 on the UK chart in November 2004.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Stressed_Out', 'track_name': 'Stressed Out', 'artist': 'http://dbpedia.org/resource/Twenty_One_Pilots', 'artist_name': 'Twenty One Pilots', 'wiki': 'http://en.wikipedia.org/wiki/Stressed_Out', 'hometown': 'http://dbpedia.org/resource/Columbus,_Ohio', 'abstract': '"Stressed Out" is a song written and recorded by American musical duo Twenty One Pilots from their fourth studio album, Blurryface (2015). The track was produced by Mike Elizondo and recorded in Los Angeles, California and London, England. "Stressed Out" was first released as a promotional single through Fueled by Ramen on April 28, 2015. The song later impacted Contemporary hit radio stations as the album\'s fourth official single on November 10, 2015. Elizondo initially took issue with the nature of the song\'s lyrical content. However, he relaxed after lead vocalist and songwriter Tyler Joseph explained the larger album concept. "Stressed Out" is a midtempo alternative hip hop and rap rock song that contains a throwback to rock music and psychedelic pop with clear pop sensibilities. The track is built from synths and a Caribbean-style keyboard line alongside rapping vocals by Joseph. Lyrically, "Stressed Out" is about the harsh end of adolescence. The song is an ode that harbors a downbeat atmosphere and lyrics speaking on transitioning from adolescence to adulthood and nostalgia for the innocence of childhood. They touch on insecurities and address millennial angst while discussing life challenges. Throughout the song, Joseph personifies the album\'s titular character, "Blurryface." His self-deprecating lyrics express self-doubt and anxiety, stressing over personal issues ranging from his music to the idea of growing older becoming an adult. With the single, Twenty One Pilots became the very first rock act to have a song reach a billion streams on Spotify. Upon its release, "Stressed Out" received favorable reviews from contemporary music critics. The song was a sleeper hit, peaking at number two on the US Billboard Hot 100, giving the group their first top-10 hit in the United States. The song topped the US Billboard Hot Rock Songs for a record 23 weeks. It also peaked at number one on the Billboard airplay charts: Adult Top 40, Rock Airplay, and Mainstream Top 40. "Stressed Out" was certified Diamond by the Recording Industry Association of America (RIAA), for sales of over 10,000,000 copies. The song peaked within the top five of record charts in Russia, Mexico, Australia, Austria, the Belgium Flanders chart, Canada, Czech Republic, Ecuador, France, Germany, Ireland, Israel, the Netherlands, New Zealand, Portugal, Slovakia, and Switzerland. An accompanying music video for the single was directed by Eshleman and mostly filmed at drummer Josh Dun\'s home in Columbus, Ohio. It features a mixture of surrealistic visuals and existential scenes while portraying the duo riding three-wheelers for a playdate and attempting to relive their childhood. In the music video, black paint can be seen on the neck and hands of Tyler Joseph, referencing the character Blurryface. At the 59th Annual Grammy Awards, "Stressed Out" was nominated for Record of the Year and Best Pop Duo/Group Performance, winning the latter. The duo performed the song on their 2016 Emotional Roadshow World Tour and for the Late Night with Seth Meyers.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Closer_(The_Chainsmokers_song)', 'track_name': 'Closer', 'artist': 'http://dbpedia.org/resource/The_Chainsmokers', 'artist_name': 'The Chainsmokers', 'wiki': 'http://en.wikipedia.org/wiki/Closer_(The_Chainsmokers_song)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': '"Closer" is a song by American DJ duo the Chainsmokers featuring American singer Halsey. Andrew Taggart (one half of the Chainsmokers) also provides his vocals in the song. It was released on July 29, 2016, through Disruptor Records and Columbia Records. The song was written by Taggart, Halsey, Shaun Frank, Freddy Kennett, Isaac Slade and Joe King, while the production was handled by the Chainsmokers. Musically, it is a future bass and pop song with a "retro" style synthesizer in the chorus. In the United States, "Closer" became both the Chainsmokers\' and Halsey\'s first number one single on the Billboard Hot 100. The song stayed at the top spot for 12 consecutive weeks. This is the highest EDM song that cracked the Billboard Decade-End in the 2010s according to Billboard. The Chainsmokers became the first act to have four songs ("Closer" being the fourth) that top the Dance/Electronic Songs chart, passing Calvin Harris, who held the previous record with three. Outside of the United States, "Closer" topped the charts in more than ten countries including Australia, Canada, New Zealand, Ireland and the United Kingdom, making it both the Chainsmokers\' and Halsey\'s first number-one single in all six countries. The song went on to become the first song to spend 26 weeks in the top five of the Billboard Hot 100 chart. It also became only the second song in the history of the Hot 100 chart to spend 32 weeks in the top ten of the chart. The song was performed live for the first time at the Coachella Valley Music and Arts Festival in April 2016. Halsey and the Chainsmokers performed the track live at the 2016 MTV Video Music Awards as well as a remix of the song at the 2016 American Music Awards. Its music video was released on October 23, 2016. It received a nomination for Best Pop Duo/Group Performance at the 2017 Grammy Awards. In 2018, the song received a diamond certification by the RIAA for selling 10 million units in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Saturday_Night_(Whigfield_song)', 'track_name': 'Saturday Night', 'artist': 'http://dbpedia.org/resource/Whigfield', 'artist_name': 'Whigfield', 'wiki': 'http://en.wikipedia.org/wiki/Saturday_Night_(Whigfield_song)', 'abstract': '"Saturday Night" is a song by Italian Eurodance project Whigfield, fronted by Danish-born Sannie Charlotte Carlson. It was first released in 1992 in Italy and November 1993 in Spain through Prodisc. In 1994, it was released in the rest of Europe, and experienced worldwide success. The song is written by Italian producers Larry Pignagnoli and Davide Riva, and produced by Pignagnoli. In 1994, the song was included on Carlson\'s debut album, Whigfield. The single entered at number one on the UK Singles Chart, making Whigfield the first artist to enter at the top in the UK with their debut single, dethroning Wet Wet Wet\'s 15-week chart-topper "Love Is All Around". As of October 2015, "Saturday Night" has sold a total of 1.18 million copies in the UK. It also reached number one in Germany, Ireland, Spain and Switzerland, and it became a top-10 hit in Austria, Denmark, France, Iceland, Italy, the Netherlands, Norway and Sweden. In Spain the single spent 11 weeks at the top position. Outside Europe, it peaked at number three in Zimbabwe, number 19 on the US Billboard Hot Dance Club Play chart and number 78 in Australia. NME magazine ranked "Saturday Night" at number 15 in their list of the 50 best songs of 1994. It was also nominated for Best Single, while Whigfield was nominated for Best New Act on the 7th annual Smash Hits Awards in 1995.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Intergalactic_(song)', 'track_name': 'Intergalactic', 'artist': 'http://dbpedia.org/resource/Beastie_Boys', 'artist_name': 'Beastie Boys', 'wiki': 'http://en.wikipedia.org/wiki/Intergalactic_(song)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': '"Intergalactic" is a song by American rap rock group Beastie Boys. "Intergalactic" was released as the first single from their fifth studio album, Hello Nasty, on June 22, 1998. The single reached number 28 on the US Billboard Hot 100, making it the band\'s third top-40 single, and reached number five on the UK Singles Chart, where it remains the band\'s biggest hit. It received a Grammy Award for Best Rap Performance by a Duo or Group in 1999.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Where_Is_My_Mind%3F', 'track_name': 'Where Is My Mind?', 'artist': 'http://dbpedia.org/resource/Pixies_(band)', 'artist_name': 'Pixies', 'wiki': 'http://en.wikipedia.org/wiki/Where_Is_My_Mind%3F', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'abstract': '"Where Is My Mind?" is a song by the American alternative rock band Pixies, and it is the seventh track on the band\'s 1988 debut album Surfer Rosa. Although the song was never released as a single, it is one of the band\'s signature songs, inspiring a multitude of covers. The song was featured on the 2021 version of Rolling Stone\'s 500 Greatest Songs of All Time, ranked at No. 493.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Right_Action', 'track_name': 'Right Action', 'artist': 'http://dbpedia.org/resource/Franz_Ferdinand_(band)', 'artist_name': 'Franz Ferdinand', 'wiki': 'http://en.wikipedia.org/wiki/Right_Action', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'abstract': '"Right Action" is a song by Scottish indie rock band Franz Ferdinand. It was released as the lead single from their fourth studio album, Right Thoughts, Right Words, Right Action, on 27 June 2013 in the United States and 18 August 2013 in the United Kingdom. It has been described as having a catchy, funk-like guitar sound. A music video of the song, directed by Jonas Odell, was released online on 7 July and features the band performing in an environment similar to their previous video "Take Me Out" (which was also directed by Odell) as the song\'s lyrics also appear on the screen. The song had moderate commercial success reaching number 39 on the UK Indie Chart, number 28 on the Billboard Alternative Songs chart in the United States and Number 22 in the Billboard Japan Hot 100 Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Self_Esteem_(song)', 'track_name': 'Self Esteem', 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': 'http://en.wikipedia.org/wiki/Self_Esteem_(song)', 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'abstract': '"Self Esteem" is a song by the American punk rock band The Offspring. It is the eighth track and second single from their third studio album, Smash. The song was a worldwide hit, reaching number one in Iceland, Norway and Sweden. "Self Esteem" was nominated for the 1995 MTV Europe Music Awards for Best Song. The song also appears as the third track on their Greatest Hits (2005).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Back_to_Black_(song)', 'track_name': 'Back to Black', 'artist': 'http://dbpedia.org/resource/Amy_Winehouse', 'artist_name': 'Amy Winehouse', 'wiki': 'http://en.wikipedia.org/wiki/Back_to_Black_(song)', 'abstract': '"Back to Black" is a song by English singer and songwriter Amy Winehouse from her second and final studio album of the same name (2006). It was released by Island Records on 30 April 2007 as the album\'s third single. The song was written by Winehouse and Mark Ronson, and produced by the latter. "Back to Black" was inspired by Winehouse\'s relationship with Blake Fielder-Civil, who had left her for an ex-girlfriend. "Back to Black" received universal acclaim by music critics, who generally praised its throwback sound to girl groups from the 1960s. It was included on several compiled year and decade-end lists of the best in music and was further considered to be one of Winehouse\'s signature songs. The single peaked at number eight on the UK Singles Chart in the United Kingdom and is Winehouse\'s third best-selling single in that country. Many artists recorded covers of the song; most notably, Beyoncé and André 3000 covered it for the soundtrack of the 2013 film adaptation of the novel The Great Gatsby (1925). A documentary film based on the life and death of Winehouse, Amy (2015) features a videoed tape of Winehouse recording the song with Mark Ronson, in March 2006 and an a cappella melody was featured on the film\'s soundtrack.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/The_Kids_Aren't_Alright", 'track_name': "The Kids Aren't Alright", 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': "http://en.wikipedia.org/wiki/The_Kids_Aren't_Alright", 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'abstract': '"The Kids Aren\'t Alright" is a song by the Offspring. It is the fifth track from the band\'s fifth studio album, Americana (1998), and was released as its third single. It became another top 10 hit on the US Modern Rock Tracks chart. Despite not being as commercially successful as its predecessors, "The Kids Aren\'t Alright" remains the most-listened to Offspring song amongst Last.fm users, and still receives some radio play. The song was played over the end credits of Woodstock 99: Peace, Love, and Rage. The song was used in the opening scene of the film The Faculty and appears on the soundtrack album. It is also available as downloadable content for the Rock Band video game series. Q reported that the song\'s title is an allusion to the Who song "The Kids Are Alright" (from My Generation). The magazine also argued that the track "borrows heavily" from "Electricity" by Orchestral Manoeuvres in the Dark (OMD), and pointed to NOFX\'s punk rock cover of "Electricity" as evidence.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Lithium_(Nirvana_song)', 'track_name': 'Lithium', 'artist': 'http://dbpedia.org/resource/Nirvana_(band)', 'artist_name': 'Nirvana', 'wiki': 'http://en.wikipedia.org/wiki/Lithium_(Nirvana_song)', 'hometown': 'http://dbpedia.org/resource/Aberdeen,_Washington', 'abstract': '"Lithium" is a song by the American rock band Nirvana, written by vocalist and guitarist, Kurt Cobain. It appears as the fifth track on the band\'s second album Nevermind, released by DGC Records in September 1991. "Lithium" was released as the album\'s third single in July 1992, peaking at number 64 on the US Billboard Hot 100 and number 11 on the UK Singles Chart. It was also a number 1 hit in Finland and a top 5 hit in Ireland and Portugal. The accompanying music video, directed by American filmmaker Kevin Kerslake, is a compilation of live footage.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Last_Train_to_London', 'track_name': 'Last Train to London', 'artist': 'http://dbpedia.org/resource/Electric_Light_Orchestra', 'artist_name': 'Electric Light Orchestra', 'wiki': 'http://en.wikipedia.org/wiki/Last_Train_to_London', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': '"Last Train to London" is a song from the rock band Electric Light Orchestra (ELO), the fifth track from their album Discovery. The song was released in 1979 in the UK as a double A-side single with "Confusion". It peaked at number 8 in the UK Singles Chart. However, in the US the two songs charted separately, with "Confusion" in late 1979 followed by "Last Train to London" in early 1980. It peaked at number 39 on the Billboard Hot 100. Billboard Magazine described the song as having a "catchy pop melody with Beatlesque vocal qualities and a smooth layered sound." In Spain the single was released with the Spanish title "Último tren a Londres". There was a certain period when it seemed we spent years on trains going back and forth from Birmingham to the various TV and radio stations in London. —\u2009Discovery remaster (2001), Jeff Lynne'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Rat_in_Mi_Kitchen', 'track_name': 'Rat in Mi Kitchen', 'artist': 'http://dbpedia.org/resource/UB40', 'artist_name': 'UB40', 'wiki': 'http://en.wikipedia.org/wiki/Rat_in_Mi_Kitchen', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': '"Rat in Mi Kitchen" is a song and single written and performed by British group, UB40. It features Herb Alpert on trumpet and was the sixth track on their album Rat in the Kitchen. Released in 1986, it reached Number 12 on the UK charts in 1987, staying for seven weeks. Although it is attributed to the whole group, like many UB40 songs, the song was written by Astro. At the time lead singer Ali Campbell had just moved into a new home in Balsall Heath, Birmingham and was troubled by rodents. When asked by Astro if he had any ideas for new songs he replied, "Oh God, I don\'t care about the album for a minute, I\'ve got a rat in the kitchen!" Astro, who sings lead vocals on the song, wrote the track in response.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Cantaloop_(Flip_Fantasia)', 'track_name': 'Cantaloop (Flip Fantasia)', 'artist': 'http://dbpedia.org/resource/Us3', 'artist_name': 'Us3', 'wiki': 'http://en.wikipedia.org/wiki/Cantaloop_(Flip_Fantasia)', 'abstract': '"Cantaloop (Flip Fantasia)" is a song by British jazz-rap group Us3. It was originally released in October 1992 as the lead single from their debut album, Hand On the Torch. The song was recorded as a demo a year before the group\'s first release and features a sample of Herbie Hancock\'s song "Cantaloupe Island". It did not chart in their native UK, but in the US, "Cantaloop (Flip Fantasia)" reached No. 9 on the Billboard Hot 100, becoming the group\'s only top 40 single. It was subsequently re-released in UK where it peaked at No. 23. "Cantaloop" was certified gold by the Recording Industry Association of America (RIAA) on March 25, 1994 for selling over 500,000 copies.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Wanna_Be_Startin'_Somethin'", 'track_name': "Wanna Be Startin' Somethin'", 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': "http://en.wikipedia.org/wiki/Wanna_Be_Startin'_Somethin'", 'abstract': '"Wanna Be Startin\' Somethin\'" is a song by American singer Michael Jackson recorded for his sixth studio album Thriller (1982). It is the opening track of the album and was released as its fourth single on May 8, 1983, by Epic Records. It was written by Jackson and produced by Jackson and Quincy Jones. The lyrics pertain to strangers spreading rumors to start an argument for no good reason. "Wanna Be Startin\' Somethin\'" evokes the disco sound of Jackson\'s previous studio album, Off the Wall, released in 1979. The song is characterized by a complex rhythm arrangement and a distinctive horn arrangement. "Wanna Be Startin\' Somethin\'" became Jackson\'s fourth consecutive top 10 single from Thriller on the Billboard Hot 100, peaking at number five. The song also topped the charts in Canada as well as the Netherlands and charted within the top 20 and top 30 in several countries. It was generally well received by contemporary music critics. As part of the release of Thriller 25, a remix of "Wanna Be Startin\' Somethin\'", entitled "Wanna Be Startin\' Somethin\' 2008 with Akon", was recorded with Akon, and released as the second single from the album. The remix was commercially successful, mainly charting within the top 10 in six countries, as well as the top 20 in several territories worldwide and top 40 in Canada. It was more successful internationally than in the United States, having peaked on the Billboard Hot 100 at number 81, which was the song\'s lowest charting position. Unlike previous singles from Thriller, "Wanna Be Startin\' Somethin\'" did not have a music video to accompany it but was performed by Jackson on world concert tours as both a member of The Jacksons and as a solo artist. Following Jackson\'s death in June 2009, the song re-entered music charts worldwide. "Wanna Be Startin\' Somethin\'" has been covered and sampled by multiple recording artists since its release, notably by Rihanna in her 2007 song "Don\'t Stop the Music", who was sued as a result. Aside from Thriller, the song appears on multiple compilation and greatest hits albums by Jackson.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Wake_Me_Up_(Avicii_song)', 'track_name': 'Wake Me Up', 'artist': 'http://dbpedia.org/resource/Avicii', 'artist_name': 'Avicii', 'wiki': 'http://en.wikipedia.org/wiki/Wake_Me_Up_(Avicii_song)', 'abstract': '"Wake Me Up" is a song by Swedish DJ and record producer Avicii, released as the lead single from his debut studio album True, released on CD by PRMD Music and Island Records on 17 June 2013. "Wake Me Up" was written by Avicii, Mike Einziger, and American soul singer Aloe Blacc. Aloe Blacc also provides vocals for the track and Mike Einziger of Incubus provides acoustic guitar. Peter Dyer also provides keyboard on the song. Avicii introduced "Wake Me Up!" for the first time live on stage at the Ultra Music Festival in Miami. The experimental rendering (it was accompanied by a live band with instruments and vocalists, including Blacc, Einziger and Incubus members Ben Kenney on bass and José Pasillas on drums) reportedly confused and angered a section of the electronic dance festival community. Subsequently, Avicii achieved critical and commercial success with the release of the single worldwide. Avicii\'s \'Wake Me Up\' has been named as the highest charting dance track of the decade (2010-2019), sitting at No. 13 in the 100-strong list from the official UK Singles Chart. It is the only song to crack the Billboard Decade-End without making the top 3 during any week. "Wake Me Up" peaked at number one in much of Europe and charted well in various countries. The song has been described as a "summer anthem" by Variance Magazine and, throughout the 2013 festival season, Avicii included it as part of the opening or closing sequence of his sets at EDC Las Vegas, EDC London, Tomorrowland, Creamfields, Electric Zoo and the iTunes Festival. Due to the success of the song, Blacc later released an acoustic version of "Wake Me Up" in his solo EP Wake Me Up. It was also released as a promotional stand-alone single on Interscope Records, made available online for downloads via iTunes. A separate music video was also made. The Blacc single also charted in its own right in various charts.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Call_Me_When_You're_Sober", 'track_name': "Call Me When You're Sober", 'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': "http://en.wikipedia.org/wiki/Call_Me_When_You're_Sober", 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'abstract': '"Call Me When You\'re Sober" is a song by American rock band Evanescence recorded for their second studio album, The Open Door. Wind-up Records released it as the album\'s lead single on September 4, 2006; this release was preceded by the song\'s Internet leak and its earlier distribution to radio stations on July 31. The track was written by group members Amy Lee and Terry Balsamo, while Dave Fortman handled its production. Lee revealed that the song was inspired by an unsuccessful relationship with Shaun Morgan, lead singer of the band Seether. The track is an alternative metal, symphonic rock, and electropop piano ballad about a woman terminating a relationship with a love interest who suffers from an addiction. It received a polarized response from music critics; although some praised its radio appeal and the use of numerous musical styles and instruments paired with Lee\'s laudable vocal performance, others felt that it was not a worthy comeback song and found it inferior to previous songs by the band. "Call Me When You\'re Sober" was commercially successful in the US, where it peaked at number ten on the main Billboard Hot 100 and number four on the Alternative Songs chart in addition to entering the top ten of several Billboard component charts. It was a success elsewhere as well, peaking within the top ten on various charts internationally, including the UK, Australia, Finland and New Zealand. The single was certified platinum by the Recording Industry Association of America (RIAA) and gold by the Australian Recording Industry Association (ARIA). An accompanying music video for the song was directed by Marc Webb and filmed in Hollywood; it draws inspiration from the fairy tale "Little Red Riding Hood". It features British actor Oliver Goodwill as the Big Bad Wolf, trying to seduce Lee. The video was noted to contain metaphorical undertones as opposed to the song\'s literal lyrics. "Call Me When You\'re Sober" was part of the set lists during three of Evanescence\'s worldwide tours; The Open Door Tour (2006–07), the Evanescence Tour (2011–12) and the band\'s fourth worldwide tour (2016–17). It has been covered by American Idol contestant Gina Glocksen and used in several video games, including Rock Band.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Baker_Street_(song)', 'track_name': 'Baker Street', 'artist': 'http://dbpedia.org/resource/Undercover_(dance_group)', 'artist_name': 'Undercover', 'wiki': 'http://en.wikipedia.org/wiki/Baker_Street_(song)', 'abstract': '"Baker Street" is a song written and recorded by Scottish singer-songwriter Gerry Rafferty. Released as a single in 1978, it reached No. 1 in Cash Box and No. 2 on the Billboard Hot 100, where it held its Billboard position for six weeks, blocked from the top spot by Andy Gibb\'s "Shadow Dancing". It spent four weeks at No. 1 in Canada, No. 1 in Australia and South Africa, hit No. 3 in the United Kingdom, and the top 10 in the Netherlands. Rafferty received the 1978 Ivor Novello Award for Best Song Musically and Lyrically. The arrangement is known for its saxophone riff. In October 2010, the song was recognised by BMI for surpassing five million performances worldwide. It was awarded Gold Certification on two occasions, on 1 April 1978 and 22 July 2013 by the BPI in the UK.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Don't_Lie", 'track_name': "Don't Lie", 'artist': 'http://dbpedia.org/resource/Black_Eyed_Peas', 'artist_name': 'Black Eyed Peas', 'wiki': "http://en.wikipedia.org/wiki/Don't_Lie", 'abstract': '"Don\'t Lie" is a song performed by American recording group the Black Eyed Peas, taken from their fourth studio album, Monkey Business (2005). It was released as the second single from the album on June 29, 2005, after the successful "Don\'t Phunk with My Heart". "Don\'t Lie" was written by the band together with American production duo Peters &amp; Peters while band member will.i.am headed its production. It contains a vocal sample of Slick Rick\'s 1988 song "The Ruler\'s Back", from the album The Great Adventures of Slick Rick. The song was produced as a pop-oriented hip hop song with a Latin-tinged beat. The lyrics feature the protagonist apologizing for lies made during his relationship with another woman. Critical reception for the song was generally positive, with many praising its lyrics, noting that they diverge from the dangerous and hedonistic lyrics in hip-hop music. "Don\'t Lie" was commercially successful worldwide, nearly replicating the success of the album\'s previous single. It peaked at number fourteen on the Billboard Hot 100 and became their fifth top 40 hit on the chart. The song reached the top ten in several countries including Australia, Denmark, Italy and the United Kingdom. The music video for "Don\'t Lie" is set in Brazil.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Too_Shy', 'track_name': 'Too Shy', 'artist': 'http://dbpedia.org/resource/Kajagoogoo', 'artist_name': 'Kajagoogoo', 'wiki': 'http://en.wikipedia.org/wiki/Too_Shy', 'hometown': 'http://dbpedia.org/resource/Leighton_Buzzard', 'abstract': '"Too Shy" is a song written and recorded by English band Kajagoogoo, released in January 1983. The first single from their debut album White Feathers, the song was an immediate hit and reached number one on the UK Singles Chart for two weeks. It was also very successful in other European countries and Japan, spending five weeks at number one in Germany, also reaching number one in Belgium and Ireland, as well as reaching number two in France and Switzerland, and number four in Sweden, Austria and the Netherlands. Assisted by heavy rotation on MTV, the song later became a success in the United States, peaking at number 5 on the Billboard Hot 100. "Too Shy" is Kajagoogoo\'s only significant hit in the US, where the band is widely regarded as a one-hit wonder. In the UK, however, Kajagoogoo had further hits, including two more top 10 singles: "Ooh to Be Ah" and "Big Apple", both in 1983.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Another_Brick_in_the_Wall', 'track_name': 'Another Brick in the Wall', 'artist': 'http://dbpedia.org/resource/Pink_Floyd', 'artist_name': 'Pink Floyd', 'wiki': 'http://en.wikipedia.org/wiki/Another_Brick_in_the_Wall', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"Another Brick in the Wall" is a three-part composition on Pink Floyd\'s 1979 rock opera The Wall, written by bassist Roger Waters. "Part 2", a protest song against rigid and abusive schooling, features a children\'s choir. At the suggestion of producer Bob Ezrin, Pink Floyd added elements of disco. "Part 2" was released as a single, Pink Floyd\'s first in the UK since "Point Me at the Sky" (1968). It sold over four million copies worldwide. It was nominated for a Grammy Award and was number 384 on Rolling Stone\'s list of "The 500 Greatest Songs of All Time".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Boulevard_of_Broken_Dreams_(Green_Day_song)', 'track_name': 'Boulevard of Broken Dreams', 'artist': 'http://dbpedia.org/resource/Green_Day', 'artist_name': 'Green Day', 'wiki': 'http://en.wikipedia.org/wiki/Boulevard_of_Broken_Dreams_(Green_Day_song)', 'abstract': '"Boulevard of Broken Dreams" is a song by American rock band Green Day. It is the fourth track from their seventh studio album American Idiot (2004). Reprise Records released "Boulevard of Broken Dreams" as the second single from American Idiot on November 29, 2004. The song\'s lyrics were written by lead singer Billie Joe Armstrong, and the music was composed by the band. Production was handled by Rob Cavallo and Green Day. The song speaks from the point of view of American Idiot\'s main character, "Jesus of Suburbia", and is a moderate midtempo song characterized by somber and bleak lyrics. This is in contrast to the previous track on the album, "Holiday", which illustrates Jesus of Suburbia\'s high of being in The City. MTV\'s Green Day Makes a Video described "Holiday" as a party, and "Boulevard of Broken Dreams" as the subsequent hangover. The song was ranked number one on Rolling Stone\'s Reader\'s Choice: Singles of the Decade list in 2009 and number 65 on the 100 Best Songs of the Decade list in the same year. It has sold over 2 million copies in the United States as of 2010. The single peaked at number two on the Billboard Hot 100, behind "Candy Shop" by 50 Cent and Olivia, making it Green Day\'s most successful song in the United States. The song was the ninth-highest-selling single of the 2000–2009 decade with worldwide sales exceeding 5 million copies. As of 2021, "Boulevard of Broken Dreams" is the only song to win both the Grammy Award for Record of the Year and MTV Video Music Award for Video of the Year. It remains one of Green Day\'s signature songs.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sweet_Dreams_(Are_Made_of_This)', 'track_name': 'Sweet Dreams (Are Made of This)', 'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Sweet_Dreams_(Are_Made_of_This)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'abstract': '"Sweet Dreams (Are Made of This)" is a song by British new wave music duo Eurythmics. It is the title track of their album of the same name (1983) and was released as the fourth and final single from the album in early 1983. The song became their breakthrough hit, establishing the duo worldwide. Its music video helped to propel the song to number two on the UK Singles Chart and number one on the US Billboard Hot 100. It was the first single released by Eurythmics in the US. Recorded by the Eurythmics in a small project studio, the song\'s success heralded a trend of musicians abandoning larger recording studios for home recording methods. After the song\'s rise, the duo\'s previous single, "Love Is a Stranger", was re-released and also became a worldwide hit. On Rolling Stone\'s The 500 Greatest Songs of All Time issue in 2003, "Sweet Dreams (Are Made of This)" was ranked number 356. In 2020, the song was inducted into the Grammy Hall of Fame. Eurythmics have regularly performed the song in all their live sets since 1982, and it is often performed by Annie Lennox on her solo tours. In 1991, the song was remixed and reissued to promote Eurythmics\' Greatest Hits album. It re-charted in the UK, reaching number 48, and was also a moderate hit in dance clubs. Another remix by Steve Angello was released in France in 2006, along with the track "I\'ve Got a Life" (peaking at number 10).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Englishman_in_New_York', 'track_name': 'Englishman in New York', 'artist': 'http://dbpedia.org/resource/Sting_(musician)', 'artist_name': 'Sting', 'wiki': 'http://en.wikipedia.org/wiki/Englishman_in_New_York', 'abstract': '"Englishman in New York" is a song by English singer Sting, from his second studio album ...Nothing Like the Sun, released in October 1987. Branford Marsalis played soprano saxophone on the track, while the drums were played by Manu Katché and the percussion by Mino Cinélu. The single was released in February 1988 as the third single from the album, but only reached #51 on the UK Singles Chart. In the US, "Englishman in New York" peaked at #84 on the Billboard Hot 100 chart in April 1988 and reached #32 on the Billboard Mainstream Rock chart that same month. However, the single was more successful in continental Europe, becoming a hit in several countries, reaching the Top 40 (and sometimes the Top 20) in France, Netherlands, Spain, Belgium, etc. "Englishman in New York" was also a Top 20 hit in Ireland. In South Africa, it peaked at no. 9. In 1990, just prior to the release of his third studio album The Soul Cages, Sting\'s record label licensed Dutch DJ and producer Ben Liebrand to remix "Englishman in New York" and subsequently released it as a single. The remix played around with the introduction and some of the instrumentation, but the essence of the song remained the same. The new version was commercially successful, reaching number 15 in the UK charts in mid-1990. In 2010, Sting re-recorded the song in an orchestral version for his album Symphonicities. "Englishman/African In New York", a reworking of the song recorded with African artist Shirazee was released as a non-album digital-only single on 19 March 2021. Shirazee had previously covered the song as "African in New York" with Sting\'s approval. Sting and Shirazee released a music video and performed the song on ABC\'s Good Morning America.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/What_I've_Done", 'track_name': "What I've Done", 'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': "http://en.wikipedia.org/wiki/What_I've_Done", 'abstract': '"What I\'ve Done" is a song by American rock band Linkin Park. It was released as the first single from their third studio album, Minutes to Midnight (2007), and is the sixth track. The song is composed in the key of G minor. The song was released as a radio single on April 1, 2007, as a digital download on April 2, and as a CD single on April 30. The live version of "What I\'ve Done" from Road to Revolution: Live at Milton Keynes was nominated for Best Hard Rock Performance at the 52nd Grammy Awards, but did not win. It also serves as the main theme of the 2007 science fiction film Transformers and also appears on Transformers: The Album (2007). Being certified five times platinum by the RIAA, it is the band\'s most commercially successful single in terms of pure sales, and reached number 7 on the Billboard Hot 100. "What I\'ve Done" was featured in the video game Guitar Hero World Tour. In January 2011, it was released in a Linkin Park DLC pack for Rock Band 3. The song is also a B-side to the UK single of "Iridescent". An instrumental version of the song is currently used by Sky UK as background music for their interactive services.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Promiscuous_(song)', 'track_name': 'Promiscuous', 'artist': 'http://dbpedia.org/resource/Nelly_Furtado', 'artist_name': 'Nelly Furtado', 'wiki': 'http://en.wikipedia.org/wiki/Promiscuous_(song)', 'abstract': '"Promiscuous" is a song by Canadian singer Nelly Furtado from her third studio album, Loose (2006), featuring Timbaland. The song was written by Furtado, Anthony Motz, Timbaland, and Nate "Danja" Hills. The song\'s lyrics, penned by Furtado and Timothy "Attitude" Clayton, feature a conversation between a man and woman who call each other promiscuous. The song was released as the second single from the album in early 2006. The song was well received by music critics, with some critics calling it the highlight of the album. "Promiscuous" was an international success and became Furtado\'s first number-one single in the US. It was the first number one by a Canadian female artist since 1998\'s "I\'m Your Angel" by R. Kelly and Celine Dion on the Billboard Hot 100 chart. The song also topped the chart in New Zealand and peaked in the top ten on many charts across Europe. The accompanying music video was directed by Little X, and features Furtado and Timbaland, in what Furtado describes as a "verbal Ping-Pong game". Cameo appearances are made by Keri Hilson, Justin Timberlake, and Bria Myles. The song won \'Best Pop Single of the Year\' at the 2006 Billboard Music Awards and received a nomination for the \'Best Pop Collaboration with Vocals\' at the 49th Grammy Awards, losing to Tony Bennett and Stevie Wonder\'s "For Once in My Life".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/So_Lonely', 'track_name': 'So Lonely', 'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/So_Lonely', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"So Lonely" is a song by English rock band The Police, released as the third and final single in November 1978 from their debut studio album Outlandos d\'Amour (1978), and again in February 1980 as a re-release. The song uses a reggae style, and featured Sting on lead vocals. "So Lonely" has since been covered by a variety of artists, such as Limbeck and The Militia Group. The song is known for a famous mondegreen where the title is often misheard as "Sue Lawley", a broadcaster famous for presenting Desert Island Discs on BBC Radio 4 from 1988 to 2006.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Black_Velvet_(song)', 'track_name': 'Black Velvet', 'artist': 'http://dbpedia.org/resource/Alannah_Myles', 'artist_name': 'Alannah Myles', 'wiki': 'http://en.wikipedia.org/wiki/Black_Velvet_(song)', 'abstract': '"Black Velvet" is a song written by Canadian songwriters Christopher Ward and David Tyson, and recorded by Canadian singer-songwriter Alannah Myles. It was released in January 1990 as one of four singles from Myles\' 1989 eponymous album from Atlantic Records. It became a number-one hit for two weeks on the Billboard Hot 100 charts in 1990 and reached number one on the Album Rock Tracks chart, as well as number ten in her native Canada and number two on the UK Singles Chart. The song also reached number one in Norway, Sweden, and Switzerland and was a major success in several other countries. It contains blues verses with a rock chorus. Myles won the 1991 Grammy for Best Female Rock Vocal Performance for the song and the 1990 Juno Award for Single of the Year. Since its release, the power ballad has received substantial airplay, receiving a "Millionaire Award" from ASCAP in 2005 for more than four million radio plays.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sleep_Now_in_the_Fire', 'track_name': 'Sleep Now in the Fire', 'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Sleep_Now_in_the_Fire', 'abstract': '"Sleep Now in the Fire" is a song by American rock band Rage Against the Machine from their 1999 album The Battle of Los Angeles. At the end of the song, a short sample of Korean artist Uhm Jung-hwa\'s 1998 song "Poison" can be heard — it was captured from a local Korean radio station broadcast through Morello\'s amplifier.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Someday_(Sugar_Ray_song)', 'track_name': 'Someday', 'artist': 'http://dbpedia.org/resource/Sugar_Ray', 'artist_name': 'Sugar Ray', 'wiki': 'http://en.wikipedia.org/wiki/Someday_(Sugar_Ray_song)', 'hometown': 'http://dbpedia.org/resource/Newport_Beach,_California', 'abstract': '"Someday" is a song by American rock band Sugar Ray. First serviced to American radio in June 1999, the song was released on September 7, 1999, as the second single from the band\'s third album, 14:59 (1999). The song reached number seven on both the US Billboard Hot 100 and the Billboard Modern Rock Tracks chart, as well as number four on Canada\'s RPM Top Singles chart and number 25 in New Zealand.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Beautiful_Girls_(Sean_Kingston_song)', 'track_name': 'Beautiful Girls', 'artist': 'http://dbpedia.org/resource/Sean_Kingston', 'artist_name': 'Sean Kingston', 'wiki': 'http://en.wikipedia.org/wiki/Beautiful_Girls_(Sean_Kingston_song)', 'hometown': 'http://dbpedia.org/resource/Kingston,_Jamaica', 'abstract': '"Beautiful Girls" is the debut single by reggae-influenced musician Sean Kingston from his eponymous debut; it was first released in 2007, when Kingston was 17. The song samples Ben E. King\'s classic "Stand by Me". The song is about a boy who feels “suicidal” (or "in denial" in the edited version) over being unable to be with a "beautiful girl". It is Kingston\'s signature song. Rapper Lil Mama and actors Kenny Vibert and Lil\' JJ are featured in the music video directed by Marcus Raboy.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/I_Want_to_Break_Free', 'track_name': 'I Want to Break Free', 'artist': 'http://dbpedia.org/resource/Queen_(band)', 'artist_name': 'Queen', 'wiki': 'http://en.wikipedia.org/wiki/I_Want_to_Break_Free', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"I Want to Break Free" is a song by the British rock band Queen, written by their bass guitarist John Deacon. It appears on the album The Works (1984), and was released in three versions: album, single and extended. It came to be included in most live concerts by the group, in several videos and in The Freddie Mercury Tribute Concert where it was sung by Lisa Stansfield. The song is largely known for its music video for which all the band members dressed in drag, a concept proposed by drummer Roger Taylor, which parodied the long-running ITV soap opera Coronation Street. The second part of the video included a composition rehearsed and performed with the Royal Ballet and choreographed by Wayne Eagling. Whereas the parody was acclaimed in the United Kingdom, where cross-dressing is a popular trope in British comedy, it received controversy in the United States. After its release in 1984, the song was well received in Europe and South America and is regarded as an anthem of the fight against oppression. The single reached only number 45 on the US Billboard Hot 100, but reached number three in the UK and was certified silver with over 200,000 copies sold. It also topped the charts of Austria, Belgium, and the Netherlands. The song features on the band\'s compilation album, Greatest Hits II.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Pompeii_(song)', 'track_name': 'Pompeii', 'artist': 'http://dbpedia.org/resource/Bastille_(band)', 'artist_name': 'Bastille', 'wiki': 'http://en.wikipedia.org/wiki/Pompeii_(song)', 'abstract': '"Pompeii" is a song by British band Bastille. It is the fourth single from their debut studio album Bad Blood and was released on 11 January 2013. The song\'s title and lyrics refer to the Roman town of the same name that was destroyed and buried in the eruption of Mount Vesuvius in AD 79. "Pompeii" became the band\'s breakthrough hit, peaking at number two on the UK Singles Chart and became the eleventh best-selling song that year and, until June 2014, was the country\'s most streamed single of all time. It was also successful worldwide, reaching the top ten in fifteen countries, including the United States where it peaked at number five on the Billboard Hot 100, becoming Bastille\'s most successful single to date, until "Happier" reached number two on both the UK and US charts in October 2018 and February 2019 respectively. The song was nominated for British Single of the Year at the 2014 BRIT Awards. A mashup of the song with Rudimental and Ella Eyre\'s "Waiting All Night" was performed live by Rudimental, Eyre and Bastille at the aforementioned ceremony, which reached number 21 in the UK. It was also performed at the 2014 iHeartRadio Music Awards, where it was nominated for Alternative Rock Song of the Year.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/You_Can_Leave_Your_Hat_On', 'track_name': 'You Can Leave Your Hat On', 'artist': 'http://dbpedia.org/resource/Joe_Cocker', 'artist_name': 'Joe Cocker', 'wiki': 'http://en.wikipedia.org/wiki/You_Can_Leave_Your_Hat_On', 'abstract': '"You Can Leave Your Hat On" is a song written by Randy Newman and appearing on his 1972 album Sail Away. According to a retrospective AllMusic review by Mark Deming, the song is a "potent mid-tempo rock tune" and a "witty and willfully perverse bit of erotic absurdity". Newman later admitted the song was, "too low for me to sing it. I can\'t rock it too hard, which maybe I should have...or maybe not."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Applause_(Lady_Gaga_song)', 'track_name': 'Applause', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Applause_(Lady_Gaga_song)', 'abstract': '"Applause" is a song by American singer Lady Gaga from her third studio album, Artpop (2013). It was released as the album\'s lead single through Interscope Records on August 12, 2013. Written and produced by Gaga, DJ White Shadow, Dino Zisis and Nick Monson, additional songwriters included Martin Bresso, Nicolas Mercier, Julien Arias and William Grigahcine. "Applause" was inspired by the cheering of her fans, which kept her motivated during the months she toured with the Born This Way Ball in pain, before cancelling it due to a hip injury, and pays respect to the art of performance. It is an electropop, dance-pop and Eurodance song built around synthesizers and hi-NRG beats, with lyrics addressing how Gaga is dependent upon her fans\' adoration and how she lives to perform. The song received generally positive reviews from music critics, who felt its chorus was catchy and favorably compared it to the material featured on Gaga\'s debut album, The Fame (2008). "Applause" achieved commercial success in a number of nations, topping the charts in Hungary, Lebanon, South Korea, and Spain while peaking within the top 10 in Belgium, Bulgaria, Canada, Finland, France, Germany, Ireland, Israel, Italy, Japan, New Zealand, Norway, Poland, Scotland, the United Kingdom, and the United States as well as the top 20 in Australia, the Czech Republic, the Netherlands, Slovakia, and Sweden. It was also certified multi-platinum in Canada, Sweden and the United States. An accompanying music video directed by fashion photography duo Inez and Vinoodh was released on August 19, 2013, and broadcast on jumbotrons across Times Square. The video received positive reviews from critics, who saw it as a profile of Gaga herself and noted references to German Expressionist cinema and Andy Warhol. To promote the record, Gaga opened the 2013 MTV Video Music Awards with a performance of the song in which she represented her career through several on-stage wardrobe changes. She also performed it live on Good Morning America, Saturday Night Live, her tours ArtRave: The Artpop Ball and the Joanne World Tour, and residency shows Lady Gaga Live at Roseland Ballroom and Enigma.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Selling_the_Drama', 'track_name': 'Selling the Drama', 'artist': 'http://dbpedia.org/resource/Live_(band)', 'artist_name': 'Live', 'wiki': 'http://en.wikipedia.org/wiki/Selling_the_Drama', 'hometown': 'http://dbpedia.org/resource/York,_Pennsylvania', 'abstract': '"Selling the Drama" is the first single from Live\'s 1994 album, Throwing Copper. It reached number one on the US Billboard Modern Rock Tracks chart, becoming their first of three singles to reach the top of this chart. The song also reached number 43 on the Billboard Hot 100, number 49 in Australia, number 41 in Canada and number 30 in the United Kingdom. It achieved its highest peak in the Netherlands, peaking at number 15 on both the Dutch Top 40 and Single Top 100 charts. Live\'s performance of "Selling the Drama" at Woodstock \'94 was their featured song on the Woodstock \'94 double album.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Killing_Me_Softly_with_His_Song', 'track_name': 'Killing Me Softly with His Song', 'artist': 'http://dbpedia.org/resource/Fugees', 'artist_name': 'Fugees', 'wiki': 'http://en.wikipedia.org/wiki/Killing_Me_Softly_with_His_Song', 'hometown': 'http://dbpedia.org/resource/South_Orange,_New_Jersey', 'abstract': '"Killing Me Softly with His Song" is a song composed by Charles Fox with lyrics by Norman Gimbel. The lyrics were written in collaboration with Lori Lieberman after she was inspired by a Don McLean performance in late 1971. Lieberman released her version of the song in 1972, but it did not chart. In 1973 it became a number-one hit in the United States, Australia and Canada for Roberta Flack, also reaching number six in the UK Singles Chart. In 1996, Fugees recorded the song with Lauryn Hill on lead vocals, their version became a number-one hit in twenty countries. The version by Flack won the 1974 Grammy for Record of the Year and Best Female Pop Vocal Performance, and the version by Fugees won the 1997 Grammy for Best R&amp;B Performance by a Duo or Group with Vocal. The song has been covered by many other artists. Both versions by the Fugees and Roberta Flack were placed on the 2021 revised list of Rolling Stone\'s 500 Greatest Songs of All Time. After decades of confirming Lieberman\'s contribution, Fox and Gimbel changed their story about the song\'s origins to downplay her role. Gimbel threatened McLean with a lawsuit in 2008, demanding he remove from his website an assertion that McLean was the inspiration for "Killing Me Softly," but McLean responded by showing Gimbel his own words confirming the inspiration, published in 1973.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Bodyrock_(song)', 'track_name': 'Bodyrock', 'artist': 'http://dbpedia.org/resource/Moby', 'artist_name': 'Moby', 'wiki': 'http://en.wikipedia.org/wiki/Bodyrock_(song)', 'abstract': '"Bodyrock" is a song by American electronica musician Moby. It was released as the third single from his fifth studio album Play on July 12, 1999. Heavily inspired by hip hop music, the song incorporates vocal samples from "Love Rap" by Spoonie Gee and the Treacherous Three. The single peaked at number 38 on the UK Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Cotton_Eye_Joe_(Rednex_song)', 'track_name': 'Cotton Eye Joe', 'artist': 'http://dbpedia.org/resource/Rednex', 'artist_name': 'Rednex', 'wiki': 'http://en.wikipedia.org/wiki/Cotton_Eye_Joe_(Rednex_song)', 'hometown': 'http://dbpedia.org/resource/Sweden', 'abstract': '"Cotton Eye Joe" is a song by Swedish Eurodance group Rednex from their debut studio album, Sex &amp; Violins (1995). Based on the traditional American folk song "Cotton-Eyed Joe", it combines the group\'s style with traditional American instruments such as banjos and fiddles. The vocal verses are performed by Annika Ljungberg, while the "Cotton Eye Joe" chorus is sung by Göran Danielsson, who never appears in the video. In 2002, "Cotton Eye Joe" was remixed in a dance version, and was released from Rednex\'s greatest hits album, The Best of the West.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Don't_Stop_'Til_You_Get_Enough", 'track_name': "Don't Stop 'Til You Get Enough", 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': "http://en.wikipedia.org/wiki/Don't_Stop_'Til_You_Get_Enough", 'abstract': '"Don\'t Stop \'Til You Get Enough" is a single written and recorded by American singer Michael Jackson. Released under Epic Records on July 10, 1979, the song is the first track on Jackson\'s fifth studio album Off the Wall (1979). It was the first solo recording over which Jackson had creative control. "Don\'t Stop \'Til You Get Enough" was Jackson\'s second single to hit number one on the Billboard Hot 100 chart, following "Ben" and his first solo number-one hit on the Billboard Soul Singles chart. It remained at number one for six weeks on Billboard Soul Singles chart. It is certified 3x Platinum by the Recording Industry Association of America (RIAA). The song was also worldwide success, reaching number one in nine other countries. "Don\'t Stop \'Til You Get Enough" was well received by contemporary music critics and is widely regarded as one of the greatest and most iconic disco songs of all time. An accompanying music video for "Don\'t Stop \'Til You Get Enough" was released in October 1979. The video shows Jackson dancing, as well as being shown in an innovative triplicate, in different color backgrounds. The song also won Jackson his first Grammy Award and American Music Awards. "Don\'t Stop \'Til You Get Enough" is considered to be the first song to showcase Jackson\'s talent as a solo artist, both as a singer and songwriter.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Mope', 'track_name': 'Mope', 'artist': 'http://dbpedia.org/resource/Bloodhound_Gang', 'artist_name': 'Bloodhound Gang', 'wiki': 'http://en.wikipedia.org/wiki/Mope', 'hometown': 'http://dbpedia.org/resource/Collegeville,_Pennsylvania', 'abstract': '"Mope" is the fourth single released from American music band the Bloodhound Gang\'s 1999 album Hooray for Boobies. A music video for the single was released in June 2000.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Instant_Crush', 'track_name': 'Instant Crush', 'artist': 'http://dbpedia.org/resource/Daft_Punk', 'artist_name': 'Daft Punk', 'wiki': 'http://en.wikipedia.org/wiki/Instant_Crush', 'hometown': 'http://dbpedia.org/resource/Paris', 'abstract': '"Instant Crush" is a song written, produced, and performed by French electronic music duo Daft Punk and American musician Julian Casablancas. It was released as the fourth single from Daft Punk\'s fourth studio album, Random Access Memories (2013), on 22 November 2013. It was number 58 on Rolling Stone magazine\'s 100 Best Songs of 2013 list.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Rockabye_(song)', 'track_name': 'Rockabye', 'artist': 'http://dbpedia.org/resource/Clean_Bandit', 'artist_name': 'Clean Bandit', 'wiki': 'http://en.wikipedia.org/wiki/Rockabye_(song)', 'hometown': 'http://dbpedia.org/resource/Cambridge', 'abstract': '"Rockabye" is a song by British electronic group Clean Bandit, featuring English singer Anne-Marie as main vocalist together with Jamaican dancehall singer Sean Paul. It was released on 21 October 2016 and was their first single since Neil Amin-Smith\'s departure from the group and it serves as the second single from their second studio album, What Is Love? (2018). The song is about hardships of single mothers and alludes to the nursery rhyme and lullaby, Rock-a-bye Baby. "Rockabye" is included on the deluxe edition of Anne-Marie\'s debut studio album, Speak Your Mind. The song became the UK Christmas number one for 2016 on 23 December 2016. It is the first song in chart history to become Christmas number one after already being at the top of the charts for six weeks. In total, the song spent 9 weeks at the summit of the UK Singles Chart while also topping the charts in over 20 other countries.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Girls_&amp;_Boys_(Blur_song)', 'track_name': 'Girls &amp; Boys', 'artist': 'http://dbpedia.org/resource/Blur_(band)', 'artist_name': 'Blur', 'wiki': 'http://en.wikipedia.org/wiki/Girls_&amp;_Boys_(Blur_song)', 'abstract': '"Girls &amp; Boys" is a 1994 song by British rock band Blur. It was released as the lead single from the group\'s third album, Parklife. Charting at number five on the UK Singles Chart, "Girls &amp; Boys" was Blur\'s first top 5 hit and their most successful single until "Country House" reached number one the following year. The single surpassed their previous commercial peak "There\'s No Other Way" by three spots on the UK Singles Chart, and saw the group achieve greater worldwide success. In the US, the track reached number 59 on the Billboard Hot 100 singles chart, becoming the band\'s second single to hit the chart after "There\'s No Other Way". It also reached number four on the Modern Rock songs chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/How_Do_You_Do!', 'track_name': 'How Do You Do!', 'artist': 'http://dbpedia.org/resource/Roxette', 'artist_name': 'Roxette', 'wiki': 'http://en.wikipedia.org/wiki/How_Do_You_Do!', 'hometown': 'http://dbpedia.org/resource/Sweden', 'abstract': '"How Do You Do!" is a pop rock song by Swedish pop duo Roxette. It was released as the lead single from their fourth studio album Tourism on 3 July 1992. The music video was broadcast in the halftime of the UEFA Euro 1992 Final. The track was a commercial success upon release, topping the national singles charts in Norway and Spain. It also peaked at number two in several countries, including Austria, Belgium, Finland, Germany, the Netherlands, Sweden and Switzerland. It was held off the top spot in many of these territories by Dr. Alban\'s "It\'s My Life". The single was backed by several remixes created by Swedish production duo BomKrash, which consisted of Jacob Hellner and Carl-Michael Herlöfsson.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sad_but_True', 'track_name': 'Sad but True', 'artist': 'http://dbpedia.org/resource/Metallica', 'artist_name': 'Metallica', 'wiki': 'http://en.wikipedia.org/wiki/Sad_but_True', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'abstract': '"Sad but True" is a song by American heavy metal band Metallica. It was released in February 1993 as the fifth and final single from their eponymous fifth album, Metallica. The music video for the single was released in October 1992.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/I_Just_Called_to_Say_I_Love_You', 'track_name': 'I Just Called to Say I Love You', 'artist': 'http://dbpedia.org/resource/Stevie_Wonder', 'artist_name': 'Stevie Wonder', 'wiki': 'http://en.wikipedia.org/wiki/I_Just_Called_to_Say_I_Love_You', 'abstract': '"I Just Called to Say I Love You" is a ballad written, produced, and performed by American R&amp;B singer and songwriter Stevie Wonder. It was a major international hit, and remains Wonder\'s best-selling single to date, having topped a record 19 charts. The song was the lead single from the 1984 soundtrack album The Woman in Red, along with two other songs by Wonder, and scored number one on the Billboard Hot 100 for three weeks from October 13 to October 27, 1984. It also became his tenth number-one on the R&amp;B chart, and his fourth on the adult contemporary chart; it spent three weeks at the top of both charts, and for the same weeks as on the Hot 100. The song also became Wonder\'s only solo UK number-one success, staying at the top for six weeks, in the process also becoming Motown Records\' biggest-selling single in the UK, a distinction it still held as of 2018. In addition, the song won both a Golden Globe and an Academy Award for Best Original Song. The song also received three nominations at the 27th Grammy Awards for Best Male Pop Vocal Performance, Song of the Year, and Best Pop Instrumental Performance. The song\'s lyrics have Wonder surprising his love interest with an unexpected telephone call. Throughout the song, Wonder lists events in a yearly calendar that might prompt someone to call a loved one. Yet he explains no special annual event such as New Year\'s Day or Halloween spurred the call. He simply wants to tell her he loves her from the bottom of his heart. There was a dispute among Wonder, his former writing partner Lee Garrett, and Lloyd Chiate as to who actually wrote the song. Chiate claimed in a lawsuit that he and Garrett wrote the song years before its 1984 release. However, a jury ultimately sided with Wonder.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Gimme_More', 'track_name': 'Gimme More', 'artist': 'http://dbpedia.org/resource/Britney_Spears', 'artist_name': 'Britney Spears', 'wiki': 'http://en.wikipedia.org/wiki/Gimme_More', 'abstract': '"Gimme More" is a song by American singer Britney Spears. It was released on August 31, 2007, by Jive Records, as the lead single from Spears\' fifth studio album, Blackout (2007). "Gimme More" was recorded in 2006 during Spears\' second pregnancy and was one of the first solo productions by Danja. The song opens with an intro in which Spears utters the phrase "It\'s Britney, bitch". Musically, "Gimme More" is a dance-pop, electropop and EDM-pop song with breathy vocals. The track closes with a speak-sing outro by Danja. The song received critical acclaim and peaked at number three on the US Billboard Hot 100, becoming her second highest-peaking single at the time. It also peaked at the top of the charts in Canada, also charting with top-five positions in 14 countries. It is often considered one of the best pop songs of all time. The accompanying music video premiered on October 5, 2007. It displayed Spears as a stripper and featured a break from Spears\'s highly choreographed music videos. The video received mixed to negative reviews from critics, who panned Spears\'s pole dancing as well as the lack of storyline. An alternate cut was leaked on July 18, 2011. Spears first performed "Gimme More" at the 2007 MTV Video Music Awards on September 9, 2007, wearing a black, jewel-encrusted bikini. The performance was panned by many critics, who commented extensively on her "singing", dancing and wardrobe, with one deeming it as "one of the worst to grace the MTV Awards". On September 10, 2007, Cara Cunningham uploaded a video on YouTube in response to the criticism titled "Leave Britney Alone!", which made her an Internet celebrity and attracted attention from the media. Spears has also performed "Gimme More" at the Femme Fatale Tour (2011) and Britney: Piece of Me (2013). "Gimme More" has been covered and sampled by many artists, including Miley Cyrus, Sia, and Marié Digby.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/One_More_Time_(Daft_Punk_song)', 'track_name': 'One More Time', 'artist': 'http://dbpedia.org/resource/Daft_Punk', 'artist_name': 'Daft Punk', 'wiki': 'http://en.wikipedia.org/wiki/One_More_Time_(Daft_Punk_song)', 'hometown': 'http://dbpedia.org/resource/Paris', 'abstract': '"One More Time" is a song by French electronic music duo Daft Punk, released as a single from their second album, Discovery (2001), on 13 November 2000. It is a French house song featuring a stylistically autotuned vocal performance by Romanthony. The music video of the song forms part of the 2003 anime film, Interstella 5555: The 5tory of the 5ecret 5tar 5ystem. "One More Time" was a commercial success, charting at number one on the French Singles Chart, number two on the UK Singles Chart, and number 61 on the US Billboard Hot 100. "One More Time" was listed at number five on Pitchfork\'s top 500 songs of the 2000s, with the magazine writing that it "distill[s] 25 years of pop and house into five and a half minutes of first-time joy." Rolling Stone listed it at number 33 of their top 100 songs of the decade (2000–2009) as well as number 307 on its amended "The 500 Greatest Songs of All Time" list in May 2010. It was voted by Mixmag readers as the greatest dance record of all time. Also, "One More Time" was ranked at number 11 on The Village Voice\'s Pazz &amp; Jop annual year-end critics\' poll. The song was uploaded on YouTube by Daft Punk on 24 February 2009.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Bad_Things_(Jace_Everett_song)', 'track_name': 'Bad Things', 'artist': 'http://dbpedia.org/resource/Jace_Everett', 'artist_name': 'Jace Everett', 'wiki': 'http://en.wikipedia.org/wiki/Bad_Things_(Jace_Everett_song)', 'abstract': '"Bad Things" is a song written and recorded by American country music singer Jace Everett. It is included on his only album for Epic Records Nashville, the self-titled Jace Everett. Although released as a single in 2005, it did not chart on the Hot Country Songs charts that year. The song charted in the United Kingdom, Norway, and Sweden in 2009 after it was selected as the theme song for the HBO series True Blood.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Outside_(Calvin_Harris_song)', 'track_name': 'Outside', 'artist': 'http://dbpedia.org/resource/Calvin_Harris', 'artist_name': 'Calvin Harris', 'wiki': 'http://en.wikipedia.org/wiki/Outside_(Calvin_Harris_song)', 'abstract': '"Outside" is a song by Scottish DJ and record producer Calvin Harris, featuring English singer Ellie Goulding, from Harris\'s fourth studio album, Motion (2014). It was released on 20 October 2014 as the album\'s fourth single. The song also appears on the deluxe edition of Goulding\'s third studio album, Delirium (2015). "Outside" marks the second collaboration between Harris and Goulding, following the single "I Need Your Love" (2013).'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Don't_Tell_Me_(What_Love_Can_Do)", 'track_name': "Don't Tell Me (What Love Can Do)", 'artist': 'http://dbpedia.org/resource/Van_Halen', 'artist_name': 'Van Halen', 'wiki': "http://en.wikipedia.org/wiki/Don't_Tell_Me_(What_Love_Can_Do)", 'hometown': 'http://dbpedia.org/resource/Pasadena,_California', 'abstract': '"Don\'t Tell Me (What Love Can Do)" is a song by American hard rock band Van Halen from their 1995 album Balance. It is one of five singles issued for the album, and was the only one to reach #1 on the Billboard Album Rock Tracks chart, where it stayed for three weeks. Chuck Klosterman of Vulture.com ranked it the 67th-best Van Halen song, calling it "the best song off the worst Van Halen album that isn’t Van Halen III."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Mr._Jones_(Counting_Crows_song)', 'track_name': 'Mr. Jones', 'artist': 'http://dbpedia.org/resource/Counting_Crows', 'artist_name': 'Counting Crows', 'wiki': 'http://en.wikipedia.org/wiki/Mr._Jones_(Counting_Crows_song)', 'hometown': 'http://dbpedia.org/resource/Berkeley,_California', 'abstract': '"Mr. Jones" is a song by American alternative rock band Counting Crows. It was released in December 1993 as the lead single from their debut album, August and Everything After (1993). It was the band\'s first radio hit and has been described as their breakout single. "Mr. Jones" reached number five on the Billboard Hot 100, and is to date their highest-charting single in the US. Internationally, the song peaked at number one in Canada and number seven in France.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/It_Must_Be_Love_(Labi_Siffre_song)', 'track_name': 'It Must Be Love', 'artist': 'http://dbpedia.org/resource/Madness_(band)', 'artist_name': 'Madness', 'wiki': 'http://en.wikipedia.org/wiki/It_Must_Be_Love_(Labi_Siffre_song)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"It Must Be Love" is a song written and originally recorded and released in 1971 by English singer Labi Siffre on his 1972 album Crying Laughing Loving Lying. It was also recorded by ska/pop band Madness in 1981.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Smooth_(Santana_song)', 'track_name': 'Smooth', 'artist': 'http://dbpedia.org/resource/Santana_(band)', 'artist_name': 'Santana', 'wiki': 'http://en.wikipedia.org/wiki/Smooth_(Santana_song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Smooth" is a collaboration between Latin rock band Santana and Matchbox Twenty vocalist Rob Thomas. The song was written by Itaal Shur and Thomas, produced by Matt Serletic, and sung by Thomas. In the United States, it topped the Billboard Hot 100 for 12 weeks; it was the final number-one hit of the 1990s and the first number-one hit of the 2000s. "Smooth" is the only song to appear on two decade-end Billboard charts. In 2018 "Smooth" was ranked the second most successful song ever in Billboard\'s 60th anniversary all-time top 100 songs. It won three Grammy Awards: Record of the Year, Song of the Year, and Best Pop Collaboration with Vocals. The song reached number one in Canada and the top 10 in Australia, Austria, Ireland and the United Kingdom.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Africa_(Toto_song)', 'track_name': 'Africa', 'artist': 'http://dbpedia.org/resource/Toto_(band)', 'artist_name': 'Toto', 'wiki': 'http://en.wikipedia.org/wiki/Africa_(Toto_song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Africa" is a song by American rock band Toto, the tenth and final track on their fourth studio album Toto IV (1982). It was released as a single in the US through Columbia Records in October 1982, the album\'s third single overall and second in Europe. The song was written by band members David Paich and Jeff Porcaro, produced by the band, and mixed by Grammy-winning engineer Elliot Scheiner. Critics praised its composition and Toto\'s performances. The song reached number one on the United States\' Billboard Hot 100 chart, the band\'s only Billboard number one, and number one on the Canadian charts. It also peaked in the top ten in the United Kingdom, Ireland, Netherlands, New Zealand, and Switzerland. The song was accompanied by a music video, which premiered in 1983, and was directed by Steve Barron, who collaborated previously with the group for "Rosanna". The video features Toto in a library, as they perform and showcase various aspects of African culture. While popular in the 1980s and 1990s, with the song being certified gold by the RIAA in 1991, "Africa" saw a resurgence in popularity via social media during the mid- to late 2010s, including a fan-requested cover by American rock band Weezer which peaked at number 51 on the Billboard Hot 100. It has since been certified six times platinum.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Salvation_(The_Cranberries_song)', 'track_name': 'Salvation', 'artist': 'http://dbpedia.org/resource/The_Cranberries', 'artist_name': 'The Cranberries', 'wiki': 'http://en.wikipedia.org/wiki/Salvation_(The_Cranberries_song)', 'hometown': 'http://dbpedia.org/resource/Limerick', 'abstract': '"Salvation" is the lead single from Irish rock band the Cranberries\' third studio album, To the Faithful Departed (1996). Released on 8 April 1996, the single reached number one on the US Billboard Modern Rock Tracks chart for four weeks and was a chart hit in Europe and Australia, peaking at number four in Iceland, number six in Italy, number seven in New Zealand, and number eight in Australia and Ireland.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/It's_No_Good", 'track_name': "It's No Good", 'artist': 'http://dbpedia.org/resource/Depeche_Mode', 'artist_name': 'Depeche Mode', 'wiki': "http://en.wikipedia.org/wiki/It's_No_Good", 'hometown': 'http://dbpedia.org/resource/Basildon', 'abstract': '"It\'s No Good" a song by English electronic music band Depeche Mode, released on 31 March 1997 as the second single from their ninth studio album, Ultra (1997). It was commercially successful, reaching number-one in Denmark, Spain, Sweden and on the US Billboard Hot Dance Club Play chart. Additionally, it managed to climb into the Top 10 in Finland, Germany, Iceland, Italy, Scotland and the UK, where it peaked at number five. On 15 May 1997, the band went on The Tonight Show with Jay Leno and performed the song, a recording made available at the official Depeche Mode website. The B-side is an instrumental, called "Slowblow". It was the last actual B-side from the Ultra era, making the album the only one by Depeche Mode to not have a non-remix/non-live vocal B-side track (Although if you exclude non-exclusive songs, Black Celebration can count as well).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Scream_&amp;_Shout', 'track_name': 'Scream &amp; Shout', 'artist': 'http://dbpedia.org/resource/Will.i.am', 'artist_name': 'will.i.am', 'wiki': 'http://en.wikipedia.org/wiki/Scream_&amp;_Shout', 'abstract': '"Scream &amp; Shout" is a song by American singers will.i.am and Britney Spears, taken from the former\'s fourth studio album #willpower (2013). It was released on November 20, 2012, by Interscope Records as the second single from the album, and sent to mainstream radio in the United States on November 27. The song was written by will.i.am, Jef Martens, JAYLIEN Tulisa, Jean Baptiste and was produced by Martens under the alias Lazy Jay, with additional production by will.i.am. "Scream &amp; Shout" is an upbeat dance pop song; its lyrics are about having a good time on a night out. It includes a reference to the lyric "Britney, bitch" from Spears\' 2007 single "Gimme More". "Scream &amp; Shout" received mixed reviews from music critics. Some critics described the song as a dark club track, but others criticized the use of Auto-Tune on the vocals. The song was a commercial success worldwide, topping the charts in over 24 countries and reached the top five in Australia, Czech Republic, Russia, Slovakia, South Korea and Sweden. In the United States, the song peaked at number three on the Billboard Hot 100 and became the first number one song of the newly established Dance/Electronic Songs chart. In the United Kingdom, "Scream &amp; Shout" became will.i.am\'s second consecutive number one single, Spears\' sixth number one and her first chart-topper since "Everytime". An accompanying music video directed by Ben Mor was shot in October 2012, and premiered in the U.S. during a live episode of The X Factor on November 28. The theme of the music video is multiplicity, and critics complimented its futuristic setting. "Scream &amp; Shout" also served as the theme song for a television commercial for Beats by Dr. Dre Color headphones. A remixed version of the song, featuring rappers Hit-Boy, Waka Flocka Flame, Lil Wayne and Sean Combs, was uploaded to will.i.am\'s official YouTube account on January 25, 2013, after it was leaked on the internet earlier the same day. A music video for this version was filmed in January 2013 and released on February 14.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/We_Found_Love', 'track_name': 'We Found Love', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/We_Found_Love', 'abstract': '"We Found Love" is a song by Barbadian singer Rihanna from her sixth studio album, Talk That Talk (2011). It was written and produced by, and features Scottish DJ Calvin Harris; the song was also featured on his third album 18 Months (2012). "We Found Love" premiered on September 22, 2011, on the Capital FM radio station in the United Kingdom, and was made available to download on the same day as the lead single from Talk That Talk. "We Found Love" is an uptempo electro house song, with elements of dance-pop, techno and Europop. The song\'s lyrics speak of a couple who "found love in a hopeless place". The song topped the US Billboard Hot 100 for ten non-consecutive weeks, becoming the longest running number-one single of 2011. The single also surpassed "Umbrella" and became Rihanna\'s longest running number one single. It was the singer\'s eleventh song to top the Hot 100, placing her in third place among female recording artists amassing the most number one singles. Outside of the United States, "We Found Love" topped the charts in 25 other countries, including Canada, France, Germany, New Zealand, the Republic of Ireland, Russia, Scotland, Switzerland, and the United Kingdom. According to Billboard it is the 27th most successful single of all time in the US. As of 2015, the single has sold 10.5 million copies worldwide, thus being one of the best selling singles of all time. The song\'s accompanying music video, directed by Melina Matsoukas, depicts the singer as a drug-abusing thrill-seeker in a relationship that quickly spirals downward into addiction and violence. The video won a Grammy for "Best Short Form Music Video" at the 55th Annual Grammy Awards and "Video of the Year" at the 2012 MTV Video Music Awards. The song has been performed on both the UK and US versions of The X Factor, as well as at the 2012 Grammy Awards and the 2012 BRIT Awards. Multiple recording artists have covered "We Found Love" including British artists Coldplay and Jessie J.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Set_Fire_to_the_Rain', 'track_name': 'Set Fire to the Rain', 'artist': 'http://dbpedia.org/resource/Adele', 'artist_name': 'Adele', 'wiki': 'http://en.wikipedia.org/wiki/Set_Fire_to_the_Rain', 'abstract': '"Set Fire to the Rain" is a song recorded by English singer-songwriter Adele for her second studio album, 21. The song was Adele\'s third consecutive US number-one single from 21 and reached the top ten in most of other foreign markets. The song was voted by readers of Billboard as their favorite number one hit of 2012. The song\'s live rendition from the DVD Live at the Royal Albert Hall won the Grammy Award for Best Pop Solo Performance at the 55th Annual Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Yummy_(Justin_Bieber_song)', 'track_name': 'Yummy', 'artist': 'http://dbpedia.org/resource/Justin_Bieber', 'artist_name': 'Justin Bieber', 'wiki': 'http://en.wikipedia.org/wiki/Yummy_(Justin_Bieber_song)', 'abstract': '"Yummy" is a song by Canadian singer Justin Bieber. It was released on January 3, 2020, along with a lyric video through Def Jam Recordings, as the lead single from his fifth studio album, Changes. The song is Bieber\'s first single as a solo artist to be released in almost four years, following his March 2016 single, "Company", a song from his 2015 album Purpose. Bieber joined the video-sharing social networking service TikTok on the day of the song\'s release. "Yummy" received mixed reviews from music critics, some of whom complimented on Bieber\'s vocal performance while others criticized the song\'s production, its songwriting, and Bieber\'s delivery. The song debuted at number two on the US Billboard Hot 100, while reaching the top five in Australia, Canada, the United Kingdom and various other countries, and hitting number one in New Zealand. The song\'s official music video was released on January 4, 2020.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Going_Under', 'track_name': 'Going Under', 'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Going_Under', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'abstract': '"Going Under" is a song by American rock band Evanescence. Recorded for their debut studio album, Fallen (2003), Wind-up Records released it as the album\'s second single on September 9, 2003. The song was written by Evanescence members Amy Lee, David Hodges and Ben Moody while its production was handled by Dave Fortman. The song contains rock and heavy metal elements and its instrumentation consists of drums and guitars built around Lee\'s soprano vocals. Lyrically, "Going Under" was written about an emotionally difficult past relationship. It received mostly positive reviews from music critics, most of whom praised its anthemic chorus and Lee\'s vocal performance. "Going Under" peaked at number five on the US Billboard Alternative Songs chart, charted in the top ten in Brazil, Italy, New Zealand and the UK and the top forty in various other European countries and Australia. It obtained a platinum certification in the latter country by the Australian Recording Industry Association (ARIA). A music video for the song was directed by Philipp Stölzl and it was filmed in May 2003 in Berlin. It features the band performing the song live, while spectators from the audience turn into zombies and water in which lead singer Lee drowns, illustrating the song\'s lyrics of sinking. The singer designed both of the dresses she wears in the video. Evanescence performed the song live during the set list of their concert tours in support of Fallen (2003-2004) and The Open Door (2006-2007) as well as the Evanescence Tour (2011-2012) in support of their self-titled third studio album. They also performed it during several of their televised appearances, such as the 2003 Teen Choice Awards, the 2003 American Music Awards and the Jimmy Kimmel Live! show in 2011.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Domino_Dancing', 'track_name': 'Domino Dancing', 'artist': 'http://dbpedia.org/resource/Pet_Shop_Boys', 'artist_name': 'Pet Shop Boys', 'wiki': 'http://en.wikipedia.org/wiki/Domino_Dancing', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"Domino Dancing" is a song by English synth-pop duo Pet Shop Boys, released as the lead single from their third studio album, Introspective (1988). It reached number seven on the UK Singles Chart and topped the charts in Finland, Poland and Spain.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Disturbia_(song)', 'track_name': 'Disturbia', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/Disturbia_(song)', 'abstract': '"Disturbia" is a song recorded by Barbadian singer Rihanna for Good Girl Gone Bad: Reloaded (2008), a re-release of her third studio album Good Girl Gone Bad (2007). It was written by Andre Merritt, Chris Brown, Brian Kennedy and Rob. A!, with the production of the song helmed by Kennedy. The song was released as the third single from the reloaded edition of the album, and seventh overall. "Disturbia" was sent to US contemporary hit radio on June 17, 2008, and was released as a CD single in the United Kingdom on July 22, 2008. "Disturbia" is an uptempo dance-pop and electropop song with a "sizzling" beat. Lyrically, the song is about the experiences of anguish, anxiety, and confusion. The song received positive reviews from music critics, who generally praised its dark musical tone, lyrics and beat, and noted that it is reminiscent of Rihanna\'s previous single, "Don\'t Stop the Music" (2007). "Disturbia" earned Rihanna an award for Best International Song at the 2009 NRJ Music Awards and a nomination for Best Dance Recording at the 2009 Grammy Awards. "Disturbia" was a commercial success, and peaked at number one in Belgium (Flanders) and New Zealand and became a top-ten hit in more than twenty countries including Australia, Canada, and the United Kingdom. The song topped the US Billboard Hot 100 chart for two consecutive weeks, and became Rihanna\'s third number-one single from Good Girl Gone Bad and fourth overall on the Hot 100. The accompanying music video for "Disturbia" was directed by Anthony Mandler, which portrays Rihanna in various locations such as in a prison cell and gas chamber. "Disturbia" has regularly featured on the set lists of Rihanna\'s tours and live performances since its release.'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Boston', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Boston', 'place': 'http://sws.geonames.org/4930956/', 'postal_code': '02210', 'geo_link': 'http://www.geonames.org/4930956/boston.html', 'lat': '42.35805555555555', 'long': '-71.06361111111111', 'population': '617594'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Tallahassee, Florida', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%BB%D0%BB%D0%B0%D1%85%D0%B0%D1%81%D1%81%D0%B8', 'place': 'http://sws.geonames.org/4174715/', 'postal_code': '32314', 'geo_link': 'http://www.geonames.org/4174715/tallahassee.html', 'lat': '30.455', 'long': '-84.25333333333333', 'population': '181376'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Jose, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/George_Miner_Elementary_School', 'place': 'http://sws.geonames.org/5392171/', 'postal_code': '95159', 'geo_link': 'http://www.geonames.org/5351939/george-miner-elementary-school.html', 'lat': '37.333333333333336', 'long': '-121.9', 'population': '945942'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Braintree, Essex', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Braintree%2C_Essex', 'place': 'http://sws.geonames.org/2654938/', 'geo_link': 'http://www.geonames.org/2654938/braintree.html', 'lat': '51.878', 'long': '0.55', 'population': '46765'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Crawley', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Crawley', 'place': 'http://sws.geonames.org/7298686/', 'geo_link': 'http://www.geonames.org/7298686/crawley.html', 'lat': '51.10916666666667', 'long': '-0.1872222222222222'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Pretoria', 'country_code': 'ZA', 'wiki': 'http://en.wikipedia.org/wiki/Pretoria', 'place': 'http://sws.geonames.org/964137/', 'geo_link': 'http://www.geonames.org/964137/pretoria.html', 'lat': '-25.746111111111112', 'long': '28.188055555555554', 'population': '1619438'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Mechanicsburg, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Mechanicsburg%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5200657/', 'postal_code': '17050', 'geo_link': 'http://www.geonames.org/5200657/mechanicsburg.html', 'lat': '40.21222222222222', 'long': '-77.00611111111111', 'population': '8981'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Madison, Wisconsin', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Madison%2C_Wisconsin', 'place': 'http://sws.geonames.org/5261457/', 'postal_code': '53725', 'geo_link': 'http://www.geonames.org/5261457/madison.html', 'lat': '43.06666666666667', 'long': '-89.4', 'population': '233209'}</t>
   </si>
   <si>
     <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Minas Gerais', 'country_code': 'BR', 'wiki': 'http://en.wikipedia.org/wiki/Minas_Gerais', 'place': 'http://sws.geonames.org/3457153/', 'geo_link': 'http://www.geonames.org/3457153/minas-gerais.html', 'lat': '-18', 'long': '-43.95', 'population': '19595309'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lawrence, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lawrence%2C_Massachusetts', 'place': 'http://sws.geonames.org/4941720/', 'postal_code': '01841', 'geo_link': 'http://www.geonames.org/4941720/lawrence.html', 'lat': '42.706944444444446', 'long': '-71.16361111111111', 'population': '76377'}</t>
+    <t>{'place_name': 'Jacksonville, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jacksonville%2C_Florida', 'place': 'http://sws.geonames.org/4160021/', 'postal_code': '32232', 'geo_link': 'http://www.geonames.org/4160021/jacksonville.html', 'lat': '30.336944444444445', 'long': '-81.6613888888889', 'population': '821784'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Pacific Palisades, Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Pacific_Palisades%2C_Los_Angeles', 'place': 'http://sws.geonames.org/5380378/', 'postal_code': '90272', 'geo_link': 'http://www.geonames.org/5380378/pacific-palisades.html', 'lat': '34.04806', 'long': '-118.52556'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Columbus, Ohio', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D0%BB%D1%83%D0%BC%D0%B1%D1%83%D1%81_%28%D0%9E%D0%B3%D0%B0%D0%B9%D0%BE%29', 'place': 'http://sws.geonames.org/4509177/', 'postal_code': '43232', 'geo_link': 'http://www.geonames.org/4509177/columbus.html', 'lat': '39.983333333333334', 'long': '-82.98333333333333', 'population': '787033'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Aberdeen, Washington', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Aberdeen%2C_Washington', 'place': 'http://sws.geonames.org/5785243/', 'postal_code': '98520', 'geo_link': 'http://www.geonames.org/5785243/aberdeen.html', 'lat': '46.975833333333334', 'long': '-123.81861111111111', 'population': '16896'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Leighton Buzzard', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Leighton_Buzzard', 'place': 'http://sws.geonames.org/2644652/', 'geo_link': 'http://www.geonames.org/2644652/leighton-buzzard.html', 'lat': '51.9165', 'long': '-0.6617', 'population': '33467'}</t>
   </si>
   <si>
     <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Linköping', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Link%C3%B6ping', 'place': 'http://sws.geonames.org/2694762/', 'geo_link': 'http://www.geonames.org/2694762/linkoeping.html', 'lat': '58.41583333333333', 'long': '15.625277777777777', 'population': '96732'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Berlin', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Berlin', 'place': 'http://sws.geonames.org/6547383/', 'postal_code': '10967', 'geo_link': 'http://www.geonames.org/2950157/land-berlin.html', 'lat': '52.5', 'long': '13.145833333333334', 'population': '3426354'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peoria, Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Peoria%2C_Illinois', 'place': 'http://sws.geonames.org/4905687/', 'postal_code': '61638', 'geo_link': 'http://www.geonames.org/4905687/peoria.html', 'lat': '40.72083333333333', 'long': '-89.60944444444445', 'population': '115007'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sacramento, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%B8%D0%BD%D1%81%D1%82%D0%B2%D0%BE', 'place': 'http://sws.geonames.org/5389489/', 'postal_code': '94258', 'geo_link': 'http://www.geonames.org/5389489/sacramento.html', 'lat': '38.55555555555556', 'long': '-121.46888888888888', 'population': '466488'}</t>
-  </si>
-  <si>
     <t>{'place_name': 'Fort Lauderdale, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Fort_Lauderdale%2C_Florida', 'place': 'http://sws.geonames.org/4155966/', 'postal_code': '33320', 'geo_link': 'http://www.geonames.org/4155966/fort-lauderdale.html', 'lat': '26.133333333333333', 'long': '-80.15', 'population': '165521'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Westfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Westfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4955190/', 'postal_code': '01085', 'geo_link': 'http://www.geonames.org/4955190/westfield.html', 'lat': '42.125', 'long': '-72.75', 'population': '41094'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Dallas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dallas', 'place': 'http://sws.geonames.org/4684888/', 'postal_code': '75221', 'geo_link': 'http://www.geonames.org/4684888/dallas.html', 'lat': '32.77583333333333', 'long': '-96.79666666666667', 'population': '1197816'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bridgend', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bridgend', 'place': 'http://sws.geonames.org/2654755/', 'geo_link': 'http://www.geonames.org/2654755/bridgend.html', 'lat': '51.5072', 'long': '-3.5784', 'population': '39429'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Wilkes-Barre, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wilkes-Barre%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5219488/', 'geo_link': 'http://www.geonames.org/5219488/wilkes-barre.html', 'lat': '41.24444444444445', 'long': '-75.87805555555556', 'population': '41498'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
+    <t>{'place_name': 'Newport Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newport_Beach%2C_California', 'place': 'http://sws.geonames.org/5376889/', 'geo_link': 'http://www.geonames.org/5376889/newport-beach.html', 'lat': '33.61666666666667', 'long': '-117.8975'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Kingston, Jamaica', 'country_code': 'JM', 'wiki': 'http://en.wikipedia.org/wiki/Kingston,_Jamaica', 'place': 'http://sws.geonames.org/3489854/', 'geo_link': 'http://www.geonames.org/3489854/kingston.html', 'lat': '17.983333333333334', 'long': '-76.8', 'population': '937700'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'York, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/York%2C_Pennsylvania', 'place': 'http://sws.geonames.org/4562407/', 'postal_code': '17402', 'geo_link': 'http://www.geonames.org/4562407/york.html', 'lat': '39.96277777777778', 'long': '-76.72805555555556', 'population': '43718'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'South Orange, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/South_Orange%2C_New_Jersey', 'place': 'http://sws.geonames.org/7259012/', 'geo_link': 'http://www.geonames.org/7259012/south-orange.html', 'lat': '40.748811', 'long': '-74.261513'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Collegeville, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Collegeville%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5184966/', 'postal_code': '19426', 'geo_link': 'http://www.geonames.org/5184966/collegeville.html', 'lat': '40.18555555555555', 'long': '-75.45833333333333', 'population': '5089'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Paris', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Paris', 'place': 'http://sws.geonames.org/2988507/', 'postal_code': '75000', 'geo_link': 'http://www.geonames.org/2968815/paris.html', 'lat': '48.8567', 'long': '2.3508', 'population': '2257981'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Cambridge', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Cambridge', 'place': 'http://sws.geonames.org/2653940/', 'geo_link': 'http://www.geonames.org/2653940/cambridgeshire.html', 'lat': '52.205', 'long': '0.119', 'population': '752900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Pasadena, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9F%D0%B0%D1%81%D0%B0%D0%B4%D0%B8%D0%BD%D0%B0_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5381396/', 'postal_code': '91117', 'geo_link': 'http://www.geonames.org/5381396/pasadena.html', 'lat': '34.15611111111111', 'long': '-118.13194444444444', 'population': '137122'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Berkeley, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%91%D0%B5%D1%80%D0%BA%D0%BB%D0%B8', 'place': 'http://sws.geonames.org/5327684/', 'postal_code': '94707', 'geo_link': 'http://www.geonames.org/5327684/berkeley.html', 'lat': '37.87166666666667', 'long': '-122.27277777777778', 'population': '112580'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Limerick', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Limerick', 'place': 'http://sws.geonames.org/7778675/', 'geo_link': 'http://www.geonames.org/2962943/luimneach.html', 'lat': '52.6653', 'long': '-8.6238', 'population': '57106'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Basildon', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Basildon', 'place': 'http://sws.geonames.org/2656194/', 'geo_link': 'http://www.geonames.org/2656194/basildon.html', 'lat': '51.5761', 'long': '0.4886', 'population': '101362'}</t>
   </si>
 </sst>
 </file>
@@ -1740,28 +2268,22 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H2" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="I2">
-        <v>3.936329126358032</v>
+        <v>5.420347213745117</v>
       </c>
       <c r="J2">
-        <v>1.671716451644897</v>
+        <v>11.09140729904175</v>
       </c>
       <c r="K2">
-        <v>0.09373116493225098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1775,28 +2297,28 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>393</v>
       </c>
       <c r="G3" t="s">
-        <v>358</v>
+        <v>489</v>
       </c>
       <c r="H3" t="s">
-        <v>416</v>
+        <v>575</v>
       </c>
       <c r="I3">
-        <v>3.342957735061646</v>
+        <v>13.24685120582581</v>
       </c>
       <c r="J3">
-        <v>1.53088641166687</v>
+        <v>1.359054088592529</v>
       </c>
       <c r="K3">
-        <v>0.09372925758361816</v>
+        <v>0.1093661785125732</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1810,28 +2332,28 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="G4" t="s">
-        <v>359</v>
+        <v>490</v>
       </c>
       <c r="H4" t="s">
-        <v>417</v>
+        <v>576</v>
       </c>
       <c r="I4">
-        <v>2.98344087600708</v>
+        <v>3.561389923095703</v>
       </c>
       <c r="J4">
-        <v>1.18743371963501</v>
+        <v>22.35432028770447</v>
       </c>
       <c r="K4">
-        <v>0.1093688011169434</v>
+        <v>0.09372878074645996</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1845,28 +2367,28 @@
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="G5" t="s">
-        <v>360</v>
+        <v>491</v>
       </c>
       <c r="H5" t="s">
-        <v>418</v>
+        <v>577</v>
       </c>
       <c r="I5">
-        <v>5.686594009399414</v>
+        <v>4.31151294708252</v>
       </c>
       <c r="J5">
-        <v>1.999758243560791</v>
+        <v>1.21872878074646</v>
       </c>
       <c r="K5">
-        <v>0.1093554496765137</v>
+        <v>0.06222248077392578</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1880,28 +2402,22 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" t="s">
-        <v>361</v>
-      </c>
-      <c r="H6" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="I6">
-        <v>4.514290332794189</v>
+        <v>6.310773372650146</v>
       </c>
       <c r="J6">
-        <v>1.609229564666748</v>
+        <v>13.18461298942566</v>
       </c>
       <c r="K6">
-        <v>0.1093480587005615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1915,28 +2431,19 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H7" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="I7">
-        <v>4.717668294906616</v>
+        <v>0.4219355583190918</v>
       </c>
       <c r="J7">
-        <v>1.390296936035156</v>
+        <v>11.38800573348999</v>
       </c>
       <c r="K7">
-        <v>0.09372878074645996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1950,25 +2457,25 @@
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>307</v>
+      </c>
+      <c r="F8" t="s">
+        <v>397</v>
       </c>
       <c r="G8" t="s">
-        <v>363</v>
-      </c>
-      <c r="H8" t="s">
-        <v>421</v>
+        <v>492</v>
       </c>
       <c r="I8">
-        <v>0.4686381816864014</v>
+        <v>4.79624080657959</v>
       </c>
       <c r="J8">
-        <v>1.765439033508301</v>
+        <v>6.779515981674194</v>
       </c>
       <c r="K8">
-        <v>0.09349560737609863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1982,28 +2489,28 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>398</v>
       </c>
       <c r="G9" t="s">
-        <v>364</v>
+        <v>493</v>
       </c>
       <c r="H9" t="s">
-        <v>422</v>
+        <v>578</v>
       </c>
       <c r="I9">
-        <v>4.045669794082642</v>
+        <v>4.170837640762329</v>
       </c>
       <c r="J9">
-        <v>1.577978610992432</v>
+        <v>1.640471458435059</v>
       </c>
       <c r="K9">
-        <v>0.06250262260437012</v>
+        <v>0.09351229667663574</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2017,28 +2524,28 @@
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
+        <v>399</v>
       </c>
       <c r="G10" t="s">
-        <v>365</v>
+        <v>494</v>
       </c>
       <c r="H10" t="s">
-        <v>423</v>
+        <v>579</v>
       </c>
       <c r="I10">
-        <v>3.249001741409302</v>
+        <v>4.529956102371216</v>
       </c>
       <c r="J10">
-        <v>1.359285831451416</v>
+        <v>1.406182527542114</v>
       </c>
       <c r="K10">
-        <v>0.1093542575836182</v>
+        <v>0.109342098236084</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2052,22 +2559,28 @@
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" t="s">
+        <v>578</v>
       </c>
       <c r="I11">
-        <v>9.013495683670044</v>
+        <v>3.670725584030151</v>
       </c>
       <c r="J11">
-        <v>13.57490921020508</v>
+        <v>1.327966213226318</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1094729900360107</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2081,28 +2594,28 @@
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>401</v>
       </c>
       <c r="G12" t="s">
-        <v>366</v>
+        <v>496</v>
       </c>
       <c r="H12" t="s">
-        <v>424</v>
+        <v>580</v>
       </c>
       <c r="I12">
-        <v>3.358349561691284</v>
+        <v>5.201664686203003</v>
       </c>
       <c r="J12">
-        <v>1.453015804290771</v>
+        <v>1.328043937683105</v>
       </c>
       <c r="K12">
-        <v>0.1093506813049316</v>
+        <v>0.1249690055847168</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2116,28 +2629,22 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G13" t="s">
-        <v>367</v>
-      </c>
-      <c r="H13" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="I13">
-        <v>4.842374324798584</v>
+        <v>2.686631441116333</v>
       </c>
       <c r="J13">
-        <v>1.171825170516968</v>
+        <v>12.91904997825623</v>
       </c>
       <c r="K13">
-        <v>0.1093487739562988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2151,28 +2658,28 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>403</v>
       </c>
       <c r="G14" t="s">
-        <v>368</v>
+        <v>497</v>
       </c>
       <c r="H14" t="s">
-        <v>426</v>
+        <v>581</v>
       </c>
       <c r="I14">
-        <v>4.498706340789795</v>
+        <v>4.280006408691406</v>
       </c>
       <c r="J14">
-        <v>1.218703985214233</v>
+        <v>1.312215089797974</v>
       </c>
       <c r="K14">
-        <v>0.1093344688415527</v>
+        <v>0.09393644332885742</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2186,28 +2693,28 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>272</v>
+        <v>404</v>
       </c>
       <c r="G15" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="H15" t="s">
-        <v>427</v>
+        <v>582</v>
       </c>
       <c r="I15">
-        <v>4.014443635940552</v>
+        <v>3.124260425567627</v>
       </c>
       <c r="J15">
-        <v>1.577985763549805</v>
+        <v>1.499642848968506</v>
       </c>
       <c r="K15">
-        <v>0.1249701976776123</v>
+        <v>0.1093542575836182</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2221,22 +2728,28 @@
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="F16" t="s">
-        <v>273</v>
+        <v>405</v>
+      </c>
+      <c r="G16" t="s">
+        <v>499</v>
+      </c>
+      <c r="H16" t="s">
+        <v>583</v>
       </c>
       <c r="I16">
-        <v>3.905089139938354</v>
+        <v>4.061309099197388</v>
       </c>
       <c r="J16">
-        <v>14.66863918304443</v>
+        <v>1.390525341033936</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1249673366546631</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2250,22 +2763,28 @@
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
-        <v>274</v>
+        <v>406</v>
+      </c>
+      <c r="G17" t="s">
+        <v>500</v>
+      </c>
+      <c r="H17" t="s">
+        <v>584</v>
       </c>
       <c r="I17">
-        <v>4.123787879943848</v>
+        <v>3.202136754989624</v>
       </c>
       <c r="J17">
-        <v>12.96592092514038</v>
+        <v>1.249670505523682</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1096165180206299</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2279,28 +2798,28 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="F18" t="s">
-        <v>275</v>
+        <v>407</v>
       </c>
       <c r="G18" t="s">
-        <v>370</v>
+        <v>501</v>
       </c>
       <c r="H18" t="s">
-        <v>428</v>
+        <v>585</v>
       </c>
       <c r="I18">
-        <v>5.373493909835815</v>
+        <v>5.82674765586853</v>
       </c>
       <c r="J18">
-        <v>1.312428951263428</v>
+        <v>1.421525955200195</v>
       </c>
       <c r="K18">
-        <v>0.09372377395629883</v>
+        <v>0.09373807907104492</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2314,28 +2833,28 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
-        <v>276</v>
+        <v>408</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>502</v>
       </c>
       <c r="H19" t="s">
-        <v>425</v>
+        <v>586</v>
       </c>
       <c r="I19">
-        <v>3.187248468399048</v>
+        <v>2.718140602111816</v>
       </c>
       <c r="J19">
-        <v>1.249724864959717</v>
+        <v>1.249939203262329</v>
       </c>
       <c r="K19">
-        <v>0.09394383430480957</v>
+        <v>0.0934598445892334</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2349,28 +2868,25 @@
         <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="F20" t="s">
-        <v>277</v>
+        <v>409</v>
       </c>
       <c r="G20" t="s">
-        <v>372</v>
-      </c>
-      <c r="H20" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="I20">
-        <v>4.342486381530762</v>
+        <v>5.68592381477356</v>
       </c>
       <c r="J20">
-        <v>1.484259128570557</v>
+        <v>27.43124628067017</v>
       </c>
       <c r="K20">
-        <v>0.09372782707214355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2384,28 +2900,28 @@
         <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="F21" t="s">
-        <v>278</v>
+        <v>410</v>
       </c>
       <c r="G21" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="H21" t="s">
-        <v>430</v>
+        <v>587</v>
       </c>
       <c r="I21">
-        <v>4.186481714248657</v>
+        <v>2.702251434326172</v>
       </c>
       <c r="J21">
-        <v>1.671714782714844</v>
+        <v>1.156095743179321</v>
       </c>
       <c r="K21">
-        <v>0.1247653961181641</v>
+        <v>0.1094620227813721</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2419,28 +2935,28 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="G22" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="H22" t="s">
-        <v>415</v>
+        <v>586</v>
       </c>
       <c r="I22">
-        <v>3.108405828475952</v>
+        <v>4.85797905921936</v>
       </c>
       <c r="J22">
-        <v>1.484265089035034</v>
+        <v>1.03124213218689</v>
       </c>
       <c r="K22">
-        <v>0.2343125343322754</v>
+        <v>0.07810330390930176</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2454,28 +2970,25 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="F23" t="s">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="G23" t="s">
-        <v>375</v>
-      </c>
-      <c r="H23" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="I23">
-        <v>7.169949054718018</v>
+        <v>4.186466932296753</v>
       </c>
       <c r="J23">
-        <v>1.609227895736694</v>
+        <v>2.171369552612305</v>
       </c>
       <c r="K23">
-        <v>0.07810163497924805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2489,28 +3002,28 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>281</v>
+        <v>413</v>
       </c>
       <c r="G24" t="s">
-        <v>376</v>
+        <v>507</v>
       </c>
       <c r="H24" t="s">
-        <v>421</v>
+        <v>588</v>
       </c>
       <c r="I24">
-        <v>4.670752763748169</v>
+        <v>5.170424938201904</v>
       </c>
       <c r="J24">
-        <v>1.749820947647095</v>
+        <v>22.19814300537109</v>
       </c>
       <c r="K24">
-        <v>0.1091327667236328</v>
+        <v>0.09372210502624512</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2524,25 +3037,28 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E25" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="F25" t="s">
-        <v>282</v>
+        <v>414</v>
       </c>
       <c r="G25" t="s">
-        <v>377</v>
+        <v>508</v>
+      </c>
+      <c r="H25" t="s">
+        <v>589</v>
       </c>
       <c r="I25">
-        <v>5.576803207397461</v>
+        <v>7.216804265975952</v>
       </c>
       <c r="J25">
-        <v>0.6717252731323242</v>
+        <v>1.187217950820923</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.09396910667419434</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2556,28 +3072,25 @@
         <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E26" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="F26" t="s">
-        <v>283</v>
+        <v>415</v>
       </c>
       <c r="G26" t="s">
-        <v>378</v>
-      </c>
-      <c r="H26" t="s">
-        <v>432</v>
+        <v>509</v>
       </c>
       <c r="I26">
-        <v>4.217577695846558</v>
+        <v>5.076912403106689</v>
       </c>
       <c r="J26">
-        <v>6.857982158660889</v>
+        <v>1.624627828598022</v>
       </c>
       <c r="K26">
-        <v>0.2030179500579834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2591,28 +3104,25 @@
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="F27" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
       <c r="G27" t="s">
-        <v>379</v>
-      </c>
-      <c r="H27" t="s">
-        <v>433</v>
+        <v>510</v>
       </c>
       <c r="I27">
-        <v>4.123792886734009</v>
+        <v>3.467928409576416</v>
       </c>
       <c r="J27">
-        <v>1.374915838241577</v>
+        <v>6.15479564666748</v>
       </c>
       <c r="K27">
-        <v>0.09372115135192871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2626,28 +3136,22 @@
         <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
-      </c>
-      <c r="G28" t="s">
-        <v>380</v>
-      </c>
-      <c r="H28" t="s">
         <v>417</v>
       </c>
       <c r="I28">
-        <v>3.998820304870605</v>
+        <v>3.249203681945801</v>
       </c>
       <c r="J28">
-        <v>1.437400102615356</v>
+        <v>11.91908240318298</v>
       </c>
       <c r="K28">
-        <v>0.093719482421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2661,28 +3165,28 @@
         <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="F29" t="s">
-        <v>286</v>
+        <v>418</v>
       </c>
       <c r="G29" t="s">
-        <v>381</v>
+        <v>511</v>
       </c>
       <c r="H29" t="s">
-        <v>418</v>
+        <v>590</v>
       </c>
       <c r="I29">
-        <v>6.060832738876343</v>
+        <v>6.904384136199951</v>
       </c>
       <c r="J29">
-        <v>1.281179904937744</v>
+        <v>1.202811002731323</v>
       </c>
       <c r="K29">
-        <v>0.09372854232788086</v>
+        <v>0.1096148490905762</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2696,28 +3200,28 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>419</v>
       </c>
       <c r="G30" t="s">
-        <v>382</v>
+        <v>512</v>
       </c>
       <c r="H30" t="s">
-        <v>433</v>
+        <v>591</v>
       </c>
       <c r="I30">
-        <v>5.529701709747314</v>
+        <v>9.278784513473511</v>
       </c>
       <c r="J30">
-        <v>1.359317541122437</v>
+        <v>1.452858924865723</v>
       </c>
       <c r="K30">
-        <v>0.0937044620513916</v>
+        <v>0.09388232231140137</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2731,28 +3235,22 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
-      </c>
-      <c r="G31" t="s">
-        <v>383</v>
-      </c>
-      <c r="H31" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="I31">
-        <v>4.514326333999634</v>
+        <v>4.98296332359314</v>
       </c>
       <c r="J31">
-        <v>1.171866178512573</v>
+        <v>13.57518243789673</v>
       </c>
       <c r="K31">
-        <v>0.1093106269836426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2766,28 +3264,25 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="F32" t="s">
-        <v>289</v>
+        <v>421</v>
       </c>
       <c r="G32" t="s">
-        <v>384</v>
-      </c>
-      <c r="H32" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="I32">
-        <v>3.280246496200562</v>
+        <v>7.013737440109253</v>
       </c>
       <c r="J32">
-        <v>1.171833276748657</v>
+        <v>5.515270471572876</v>
       </c>
       <c r="K32">
-        <v>0.1093480587005615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2801,22 +3296,28 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E33" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>422</v>
+      </c>
+      <c r="G33" t="s">
+        <v>514</v>
+      </c>
+      <c r="H33" t="s">
+        <v>591</v>
       </c>
       <c r="I33">
-        <v>3.264854907989502</v>
+        <v>5.248523712158203</v>
       </c>
       <c r="J33">
-        <v>11.85656452178955</v>
+        <v>1.234048843383789</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.09399199485778809</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2830,22 +3331,28 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>423</v>
+      </c>
+      <c r="G34" t="s">
+        <v>515</v>
+      </c>
+      <c r="H34" t="s">
+        <v>587</v>
       </c>
       <c r="I34">
-        <v>3.811364650726318</v>
+        <v>10.66911792755127</v>
       </c>
       <c r="J34">
-        <v>13.40398621559143</v>
+        <v>0.999769926071167</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.109574556350708</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2859,22 +3366,28 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>424</v>
+      </c>
+      <c r="G35" t="s">
+        <v>516</v>
+      </c>
+      <c r="H35" t="s">
+        <v>592</v>
       </c>
       <c r="I35">
-        <v>3.811599969863892</v>
+        <v>9.51314115524292</v>
       </c>
       <c r="J35">
-        <v>12.70012068748474</v>
+        <v>1.281183004379272</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.1093490123748779</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2888,22 +3401,28 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>425</v>
+      </c>
+      <c r="G36" t="s">
+        <v>517</v>
+      </c>
+      <c r="H36" t="s">
+        <v>593</v>
       </c>
       <c r="I36">
-        <v>2.608518123626709</v>
+        <v>2.76497220993042</v>
       </c>
       <c r="J36">
-        <v>19.19881987571716</v>
+        <v>1.062335014343262</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.109264612197876</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2917,28 +3436,25 @@
         <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>426</v>
       </c>
       <c r="G37" t="s">
-        <v>385</v>
-      </c>
-      <c r="H37" t="s">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="I37">
-        <v>6.279506921768188</v>
+        <v>3.780128955841064</v>
       </c>
       <c r="J37">
-        <v>1.577989339828491</v>
+        <v>2.265320539474487</v>
       </c>
       <c r="K37">
-        <v>0.09376001358032227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2952,22 +3468,28 @@
         <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>427</v>
+      </c>
+      <c r="G38" t="s">
+        <v>519</v>
+      </c>
+      <c r="H38" t="s">
+        <v>593</v>
       </c>
       <c r="I38">
-        <v>4.592427968978882</v>
+        <v>4.936103820800781</v>
       </c>
       <c r="J38">
-        <v>13.54389882087708</v>
+        <v>1.218689203262329</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.09372735023498535</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2981,28 +3503,28 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E39" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>428</v>
       </c>
       <c r="G39" t="s">
-        <v>386</v>
+        <v>520</v>
       </c>
       <c r="H39" t="s">
-        <v>433</v>
+        <v>594</v>
       </c>
       <c r="I39">
-        <v>5.248682975769043</v>
+        <v>6.357639312744141</v>
       </c>
       <c r="J39">
-        <v>2.093254804611206</v>
+        <v>22.21372509002686</v>
       </c>
       <c r="K39">
-        <v>0.2187747955322266</v>
+        <v>0.1093502044677734</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3016,28 +3538,22 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="E40" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
-      </c>
-      <c r="G40" t="s">
-        <v>387</v>
-      </c>
-      <c r="H40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I40">
-        <v>3.592666149139404</v>
+        <v>5.342217445373535</v>
       </c>
       <c r="J40">
-        <v>1.359288930892944</v>
+        <v>11.60686564445496</v>
       </c>
       <c r="K40">
-        <v>0.1093487739562988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3051,28 +3567,28 @@
         <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>430</v>
       </c>
       <c r="G41" t="s">
-        <v>388</v>
+        <v>521</v>
       </c>
       <c r="H41" t="s">
-        <v>433</v>
+        <v>589</v>
       </c>
       <c r="I41">
-        <v>7.357399940490723</v>
+        <v>3.592883110046387</v>
       </c>
       <c r="J41">
-        <v>1.296800851821899</v>
+        <v>1.421574115753174</v>
       </c>
       <c r="K41">
-        <v>0.1093523502349854</v>
+        <v>0.1406059265136719</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3086,28 +3602,28 @@
         <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>431</v>
       </c>
       <c r="G42" t="s">
-        <v>389</v>
+        <v>522</v>
       </c>
       <c r="H42" t="s">
-        <v>433</v>
+        <v>589</v>
       </c>
       <c r="I42">
-        <v>4.170659065246582</v>
+        <v>3.546038866043091</v>
       </c>
       <c r="J42">
-        <v>1.390523910522461</v>
+        <v>1.28098726272583</v>
       </c>
       <c r="K42">
-        <v>0.09373331069946289</v>
+        <v>0.09368729591369629</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3121,28 +3637,25 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E43" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>432</v>
       </c>
       <c r="G43" t="s">
-        <v>390</v>
-      </c>
-      <c r="H43" t="s">
-        <v>433</v>
+        <v>523</v>
       </c>
       <c r="I43">
-        <v>3.842576503753662</v>
+        <v>4.687015295028687</v>
       </c>
       <c r="J43">
-        <v>1.218491792678833</v>
+        <v>1.171831846237183</v>
       </c>
       <c r="K43">
-        <v>0.09395623207092285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3156,19 +3669,22 @@
         <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="E44" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>433</v>
+      </c>
+      <c r="G44" t="s">
+        <v>524</v>
       </c>
       <c r="I44">
-        <v>3.905829668045044</v>
+        <v>4.983198642730713</v>
       </c>
       <c r="J44">
-        <v>12.10674738883972</v>
+        <v>1.593371391296387</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3185,19 +3701,22 @@
         <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>342</v>
       </c>
       <c r="F45" t="s">
-        <v>302</v>
+        <v>434</v>
+      </c>
+      <c r="G45" t="s">
+        <v>525</v>
       </c>
       <c r="I45">
-        <v>3.342724561691284</v>
+        <v>7.216813564300537</v>
       </c>
       <c r="J45">
-        <v>13.63763475418091</v>
+        <v>1.984136343002319</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3214,28 +3733,28 @@
         <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>343</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>435</v>
       </c>
       <c r="G46" t="s">
-        <v>391</v>
+        <v>526</v>
       </c>
       <c r="H46" t="s">
-        <v>421</v>
+        <v>595</v>
       </c>
       <c r="I46">
-        <v>3.135275363922119</v>
+        <v>3.561642169952393</v>
       </c>
       <c r="J46">
-        <v>1.316816568374634</v>
+        <v>1.296830892562866</v>
       </c>
       <c r="K46">
-        <v>0.09372806549072266</v>
+        <v>0.109102725982666</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3249,28 +3768,22 @@
         <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="G47" t="s">
-        <v>392</v>
-      </c>
-      <c r="H47" t="s">
-        <v>421</v>
+        <v>527</v>
       </c>
       <c r="I47">
-        <v>3.951920509338379</v>
+        <v>0.484532356262207</v>
       </c>
       <c r="J47">
-        <v>1.218726634979248</v>
+        <v>1.374640941619873</v>
       </c>
       <c r="K47">
-        <v>0.07811188697814941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3284,28 +3797,22 @@
         <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="F48" t="s">
-        <v>305</v>
-      </c>
-      <c r="G48" t="s">
-        <v>393</v>
-      </c>
-      <c r="H48" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="I48">
-        <v>4.748608112335205</v>
+        <v>3.233376502990723</v>
       </c>
       <c r="J48">
-        <v>1.54677414894104</v>
+        <v>10.99739074707031</v>
       </c>
       <c r="K48">
-        <v>0.09373188018798828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3319,28 +3826,25 @@
         <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>346</v>
       </c>
       <c r="F49" t="s">
-        <v>306</v>
+        <v>437</v>
       </c>
       <c r="G49" t="s">
-        <v>394</v>
-      </c>
-      <c r="H49" t="s">
-        <v>421</v>
+        <v>528</v>
       </c>
       <c r="I49">
-        <v>3.467656135559082</v>
+        <v>4.85799503326416</v>
       </c>
       <c r="J49">
-        <v>1.531154870986938</v>
+        <v>6.88923168182373</v>
       </c>
       <c r="K49">
-        <v>0.09373068809509277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3354,28 +3858,28 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
-        <v>240</v>
+        <v>347</v>
       </c>
       <c r="F50" t="s">
-        <v>307</v>
+        <v>438</v>
       </c>
       <c r="G50" t="s">
-        <v>395</v>
+        <v>529</v>
       </c>
       <c r="H50" t="s">
-        <v>421</v>
+        <v>596</v>
       </c>
       <c r="I50">
-        <v>4.264345169067383</v>
+        <v>3.577049732208252</v>
       </c>
       <c r="J50">
-        <v>1.453051805496216</v>
+        <v>1.234312295913696</v>
       </c>
       <c r="K50">
-        <v>0.09373211860656738</v>
+        <v>0.1249656677246094</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3389,28 +3893,28 @@
         <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c r="F51" t="s">
-        <v>308</v>
+        <v>439</v>
       </c>
       <c r="G51" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="H51" t="s">
-        <v>421</v>
+        <v>597</v>
       </c>
       <c r="I51">
-        <v>2.82745885848999</v>
+        <v>4.483081817626953</v>
       </c>
       <c r="J51">
-        <v>1.718612909317017</v>
+        <v>2.796448230743408</v>
       </c>
       <c r="K51">
-        <v>0.09345650672912598</v>
+        <v>0.1093478202819824</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3424,19 +3928,22 @@
         <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="E52" t="s">
-        <v>257</v>
+        <v>349</v>
       </c>
       <c r="F52" t="s">
-        <v>309</v>
+        <v>440</v>
+      </c>
+      <c r="G52" t="s">
+        <v>531</v>
       </c>
       <c r="I52">
-        <v>3.780379772186279</v>
+        <v>3.6866295337677</v>
       </c>
       <c r="J52">
-        <v>13.23125648498535</v>
+        <v>7.295154333114624</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3453,25 +3960,28 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="E53" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
+        <v>441</v>
       </c>
       <c r="G53" t="s">
-        <v>397</v>
+        <v>532</v>
+      </c>
+      <c r="H53" t="s">
+        <v>598</v>
       </c>
       <c r="I53">
-        <v>2.655349969863892</v>
+        <v>3.342957019805908</v>
       </c>
       <c r="J53">
-        <v>1.468631982803345</v>
+        <v>1.281174659729004</v>
       </c>
       <c r="K53">
-        <v>0.1093571186065674</v>
+        <v>0.09349870681762695</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3485,25 +3995,25 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>351</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>442</v>
       </c>
       <c r="G54" t="s">
-        <v>398</v>
+        <v>533</v>
       </c>
       <c r="I54">
-        <v>2.702255249023438</v>
+        <v>2.889698028564453</v>
       </c>
       <c r="J54">
-        <v>1.781095504760742</v>
+        <v>2.062253713607788</v>
       </c>
       <c r="K54">
-        <v>0.06248641014099121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3517,25 +4027,25 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="E55" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="F55" t="s">
-        <v>312</v>
+        <v>443</v>
       </c>
       <c r="G55" t="s">
-        <v>399</v>
+        <v>534</v>
       </c>
       <c r="I55">
-        <v>4.280232906341553</v>
+        <v>5.357876300811768</v>
       </c>
       <c r="J55">
-        <v>2.593368530273438</v>
+        <v>8.232662677764893</v>
       </c>
       <c r="K55">
-        <v>0.09346437454223633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3549,25 +4059,25 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E56" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="F56" t="s">
-        <v>313</v>
+        <v>444</v>
       </c>
       <c r="G56" t="s">
-        <v>400</v>
+        <v>535</v>
       </c>
       <c r="I56">
-        <v>3.186479091644287</v>
+        <v>3.327068328857422</v>
       </c>
       <c r="J56">
-        <v>1.531149864196777</v>
+        <v>7.467255830764771</v>
       </c>
       <c r="K56">
-        <v>0.09373259544372559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3581,22 +4091,28 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="E57" t="s">
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="F57" t="s">
-        <v>314</v>
+        <v>445</v>
+      </c>
+      <c r="G57" t="s">
+        <v>536</v>
+      </c>
+      <c r="H57" t="s">
+        <v>597</v>
       </c>
       <c r="I57">
-        <v>3.592613220214844</v>
+        <v>2.811610221862793</v>
       </c>
       <c r="J57">
-        <v>20.94845819473267</v>
+        <v>22.49586844444275</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.1093435287475586</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3610,19 +4126,22 @@
         <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
-        <v>257</v>
+        <v>354</v>
       </c>
       <c r="F58" t="s">
-        <v>315</v>
+        <v>446</v>
+      </c>
+      <c r="G58" t="s">
+        <v>537</v>
       </c>
       <c r="I58">
-        <v>3.4991614818573</v>
+        <v>3.108383417129517</v>
       </c>
       <c r="J58">
-        <v>18.82435178756714</v>
+        <v>21.79297232627869</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3639,19 +4158,22 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>257</v>
+        <v>355</v>
       </c>
       <c r="F59" t="s">
-        <v>316</v>
+        <v>447</v>
+      </c>
+      <c r="G59" t="s">
+        <v>538</v>
       </c>
       <c r="I59">
-        <v>3.061541557312012</v>
+        <v>4.45198655128479</v>
       </c>
       <c r="J59">
-        <v>13.62204551696777</v>
+        <v>7.843962430953979</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3668,22 +4190,28 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="E60" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="F60" t="s">
-        <v>317</v>
+        <v>448</v>
+      </c>
+      <c r="G60" t="s">
+        <v>539</v>
+      </c>
+      <c r="H60" t="s">
+        <v>599</v>
       </c>
       <c r="I60">
-        <v>2.670977354049683</v>
+        <v>3.233609914779663</v>
       </c>
       <c r="J60">
-        <v>12.66910862922668</v>
+        <v>1.390527248382568</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>0.09349465370178223</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3697,25 +4225,22 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="F61" t="s">
-        <v>318</v>
-      </c>
-      <c r="G61" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="I61">
-        <v>3.545806646347046</v>
+        <v>4.561749219894409</v>
       </c>
       <c r="J61">
-        <v>3.077666282653809</v>
+        <v>35.9771203994751</v>
       </c>
       <c r="K61">
-        <v>0.09372615814208984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3729,25 +4254,22 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="F62" t="s">
-        <v>319</v>
-      </c>
-      <c r="G62" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="I62">
-        <v>3.077129364013672</v>
+        <v>4.843067169189453</v>
       </c>
       <c r="J62">
-        <v>1.702698707580566</v>
+        <v>11.59224367141724</v>
       </c>
       <c r="K62">
-        <v>0.09398508071899414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3761,22 +4283,28 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="F63" t="s">
-        <v>320</v>
+        <v>451</v>
+      </c>
+      <c r="G63" t="s">
+        <v>540</v>
+      </c>
+      <c r="H63" t="s">
+        <v>600</v>
       </c>
       <c r="I63">
-        <v>3.717592239379883</v>
+        <v>5.701542615890503</v>
       </c>
       <c r="J63">
-        <v>18.54276871681213</v>
+        <v>0.9372463226318359</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.1096115112304688</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3790,28 +4318,28 @@
         <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="F64" t="s">
-        <v>321</v>
+        <v>452</v>
       </c>
       <c r="G64" t="s">
-        <v>403</v>
+        <v>541</v>
       </c>
       <c r="H64" t="s">
-        <v>434</v>
+        <v>597</v>
       </c>
       <c r="I64">
-        <v>3.311482429504395</v>
+        <v>3.29586386680603</v>
       </c>
       <c r="J64">
-        <v>1.468669891357422</v>
+        <v>1.265559434890747</v>
       </c>
       <c r="K64">
-        <v>0.1093490123748779</v>
+        <v>0.124969482421875</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3825,19 +4353,22 @@
         <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>258</v>
+        <v>361</v>
       </c>
       <c r="F65" t="s">
-        <v>322</v>
+        <v>453</v>
+      </c>
+      <c r="G65" t="s">
+        <v>542</v>
       </c>
       <c r="I65">
-        <v>3.405178070068359</v>
+        <v>4.014445066452026</v>
       </c>
       <c r="J65">
-        <v>14.65301847457886</v>
+        <v>1.203072547912598</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3854,19 +4385,22 @@
         <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="E66" t="s">
-        <v>258</v>
+        <v>362</v>
       </c>
       <c r="F66" t="s">
-        <v>323</v>
+        <v>454</v>
+      </c>
+      <c r="G66" t="s">
+        <v>543</v>
       </c>
       <c r="I66">
-        <v>3.327337980270386</v>
+        <v>3.436453819274902</v>
       </c>
       <c r="J66">
-        <v>13.84113192558289</v>
+        <v>1.453012228012085</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3883,19 +4417,22 @@
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>363</v>
       </c>
       <c r="F67" t="s">
-        <v>324</v>
+        <v>455</v>
+      </c>
+      <c r="G67" t="s">
+        <v>544</v>
       </c>
       <c r="I67">
-        <v>3.155240535736084</v>
+        <v>5.560953378677368</v>
       </c>
       <c r="J67">
-        <v>14.871746301651</v>
+        <v>2.155973434448242</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3912,28 +4449,28 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>258</v>
+        <v>364</v>
       </c>
       <c r="F68" t="s">
-        <v>325</v>
+        <v>456</v>
       </c>
       <c r="G68" t="s">
-        <v>404</v>
+        <v>545</v>
       </c>
       <c r="H68" t="s">
-        <v>434</v>
+        <v>601</v>
       </c>
       <c r="I68">
-        <v>2.811567306518555</v>
+        <v>3.233376026153564</v>
       </c>
       <c r="J68">
-        <v>1.109379291534424</v>
+        <v>1.140590906143188</v>
       </c>
       <c r="K68">
-        <v>0.1093504428863525</v>
+        <v>0.09372711181640625</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3947,28 +4484,25 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
-      </c>
-      <c r="F69" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="G69" t="s">
-        <v>405</v>
+        <v>546</v>
       </c>
       <c r="H69" t="s">
-        <v>434</v>
+        <v>602</v>
       </c>
       <c r="I69">
-        <v>3.436419725418091</v>
+        <v>0.4217796325683594</v>
       </c>
       <c r="J69">
-        <v>1.68737006187439</v>
+        <v>1.296802520751953</v>
       </c>
       <c r="K69">
-        <v>0.06248354911804199</v>
+        <v>0.07810378074645996</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3982,19 +4516,22 @@
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>366</v>
       </c>
       <c r="F70" t="s">
-        <v>327</v>
+        <v>457</v>
+      </c>
+      <c r="G70" t="s">
+        <v>547</v>
       </c>
       <c r="I70">
-        <v>3.342995405197144</v>
+        <v>3.858464956283569</v>
       </c>
       <c r="J70">
-        <v>12.60639119148254</v>
+        <v>2.155502319335938</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4011,22 +4548,28 @@
         <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>258</v>
+        <v>367</v>
       </c>
       <c r="F71" t="s">
-        <v>328</v>
+        <v>458</v>
+      </c>
+      <c r="G71" t="s">
+        <v>548</v>
+      </c>
+      <c r="H71" t="s">
+        <v>603</v>
       </c>
       <c r="I71">
-        <v>3.092944622039795</v>
+        <v>4.281746387481689</v>
       </c>
       <c r="J71">
-        <v>17.79270768165588</v>
+        <v>22.37035846710205</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>0.09430360794067383</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4040,19 +4583,22 @@
         <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E72" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="F72" t="s">
-        <v>329</v>
+        <v>459</v>
+      </c>
+      <c r="G72" t="s">
+        <v>549</v>
       </c>
       <c r="I72">
-        <v>3.170966386795044</v>
+        <v>5.29538369178772</v>
       </c>
       <c r="J72">
-        <v>16.91803240776062</v>
+        <v>1.74981951713562</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4069,22 +4615,28 @@
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>258</v>
+        <v>368</v>
       </c>
       <c r="F73" t="s">
-        <v>330</v>
+        <v>460</v>
+      </c>
+      <c r="G73" t="s">
+        <v>550</v>
+      </c>
+      <c r="H73" t="s">
+        <v>604</v>
       </c>
       <c r="I73">
-        <v>3.108372449874878</v>
+        <v>3.483319520950317</v>
       </c>
       <c r="J73">
-        <v>12.8722231388092</v>
+        <v>1.218695878982544</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>0.1405916213989258</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4098,28 +4650,28 @@
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="F74" t="s">
-        <v>331</v>
+        <v>461</v>
       </c>
       <c r="G74" t="s">
-        <v>406</v>
+        <v>551</v>
       </c>
       <c r="H74" t="s">
-        <v>434</v>
+        <v>605</v>
       </c>
       <c r="I74">
-        <v>3.671465158462524</v>
+        <v>2.874085664749146</v>
       </c>
       <c r="J74">
-        <v>1.499911069869995</v>
+        <v>7.248306035995483</v>
       </c>
       <c r="K74">
-        <v>0.1405775547027588</v>
+        <v>0.09394288063049316</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4133,28 +4685,28 @@
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>258</v>
+        <v>370</v>
       </c>
       <c r="F75" t="s">
-        <v>332</v>
+        <v>462</v>
       </c>
       <c r="G75" t="s">
-        <v>407</v>
+        <v>552</v>
       </c>
       <c r="H75" t="s">
-        <v>434</v>
+        <v>606</v>
       </c>
       <c r="I75">
-        <v>3.217716455459595</v>
+        <v>3.967577457427979</v>
       </c>
       <c r="J75">
-        <v>2.18695855140686</v>
+        <v>1.406148195266724</v>
       </c>
       <c r="K75">
-        <v>0.09398937225341797</v>
+        <v>0.07811307907104492</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4168,19 +4720,19 @@
         <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="F76" t="s">
-        <v>333</v>
+        <v>463</v>
       </c>
       <c r="I76">
-        <v>3.170895338058472</v>
+        <v>4.15503454208374</v>
       </c>
       <c r="J76">
-        <v>13.3564817905426</v>
+        <v>14.15313076972961</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4197,19 +4749,22 @@
         <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="E77" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
       <c r="F77" t="s">
-        <v>334</v>
+        <v>464</v>
+      </c>
+      <c r="G77" t="s">
+        <v>553</v>
       </c>
       <c r="I77">
-        <v>3.170854568481445</v>
+        <v>4.545759201049805</v>
       </c>
       <c r="J77">
-        <v>13.20024132728577</v>
+        <v>1.375419616699219</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -4226,28 +4781,28 @@
         <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="E78" t="s">
-        <v>259</v>
+        <v>373</v>
       </c>
       <c r="F78" t="s">
-        <v>335</v>
+        <v>465</v>
       </c>
       <c r="G78" t="s">
-        <v>408</v>
+        <v>554</v>
       </c>
       <c r="H78" t="s">
-        <v>435</v>
+        <v>603</v>
       </c>
       <c r="I78">
-        <v>3.045890092849731</v>
+        <v>3.7957603931427</v>
       </c>
       <c r="J78">
-        <v>1.296579599380493</v>
+        <v>1.296602964401245</v>
       </c>
       <c r="K78">
-        <v>0.1096024513244629</v>
+        <v>0.1251869201660156</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4261,22 +4816,28 @@
         <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="E79" t="s">
-        <v>259</v>
+        <v>374</v>
       </c>
       <c r="F79" t="s">
-        <v>336</v>
+        <v>466</v>
+      </c>
+      <c r="G79" t="s">
+        <v>555</v>
+      </c>
+      <c r="H79" t="s">
+        <v>607</v>
       </c>
       <c r="I79">
-        <v>3.405174970626831</v>
+        <v>5.779638528823853</v>
       </c>
       <c r="J79">
-        <v>12.26299405097961</v>
+        <v>22.46467709541321</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>0.10933518409729</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4290,19 +4851,22 @@
         <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s">
-        <v>259</v>
+        <v>375</v>
       </c>
       <c r="F80" t="s">
-        <v>337</v>
+        <v>467</v>
+      </c>
+      <c r="G80" t="s">
+        <v>556</v>
       </c>
       <c r="I80">
-        <v>3.623875856399536</v>
+        <v>3.233540296554565</v>
       </c>
       <c r="J80">
-        <v>12.52855443954468</v>
+        <v>2.095685482025146</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4319,19 +4883,22 @@
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="E81" t="s">
-        <v>259</v>
+        <v>376</v>
       </c>
       <c r="F81" t="s">
-        <v>338</v>
+        <v>468</v>
+      </c>
+      <c r="G81" t="s">
+        <v>557</v>
       </c>
       <c r="I81">
-        <v>3.217720746994019</v>
+        <v>6.138940095901489</v>
       </c>
       <c r="J81">
-        <v>11.96618843078613</v>
+        <v>2.09348726272583</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4348,28 +4915,22 @@
         <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="E82" t="s">
-        <v>259</v>
+        <v>377</v>
       </c>
       <c r="F82" t="s">
-        <v>339</v>
-      </c>
-      <c r="G82" t="s">
-        <v>409</v>
-      </c>
-      <c r="H82" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="I82">
-        <v>3.030535459518433</v>
+        <v>5.032291650772095</v>
       </c>
       <c r="J82">
-        <v>1.187490224838257</v>
+        <v>11.9661557674408</v>
       </c>
       <c r="K82">
-        <v>0.09345459938049316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4383,22 +4944,28 @@
         <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="E83" t="s">
-        <v>259</v>
+        <v>369</v>
       </c>
       <c r="F83" t="s">
-        <v>340</v>
+        <v>470</v>
+      </c>
+      <c r="G83" t="s">
+        <v>558</v>
+      </c>
+      <c r="H83" t="s">
+        <v>605</v>
       </c>
       <c r="I83">
-        <v>3.092750787734985</v>
+        <v>4.529944896697998</v>
       </c>
       <c r="J83">
-        <v>11.52879238128662</v>
+        <v>6.233132362365723</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>0.09372758865356445</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4412,28 +4979,25 @@
         <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="E84" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="F84" t="s">
-        <v>341</v>
+        <v>471</v>
       </c>
       <c r="G84" t="s">
-        <v>410</v>
-      </c>
-      <c r="H84" t="s">
-        <v>435</v>
+        <v>559</v>
       </c>
       <c r="I84">
-        <v>4.295849800109863</v>
+        <v>2.921182870864868</v>
       </c>
       <c r="J84">
-        <v>1.140622138977051</v>
+        <v>0.8123111724853516</v>
       </c>
       <c r="K84">
-        <v>0.1090924739837646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4447,28 +5011,25 @@
         <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="E85" t="s">
-        <v>259</v>
+        <v>379</v>
       </c>
       <c r="F85" t="s">
-        <v>342</v>
+        <v>472</v>
       </c>
       <c r="G85" t="s">
-        <v>411</v>
-      </c>
-      <c r="H85" t="s">
-        <v>435</v>
+        <v>560</v>
       </c>
       <c r="I85">
-        <v>3.717603921890259</v>
+        <v>4.49870753288269</v>
       </c>
       <c r="J85">
-        <v>1.172569751739502</v>
+        <v>1.984137296676636</v>
       </c>
       <c r="K85">
-        <v>0.1093485355377197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4482,28 +5043,28 @@
         <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="F86" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="G86" t="s">
-        <v>412</v>
+        <v>561</v>
       </c>
       <c r="H86" t="s">
-        <v>435</v>
+        <v>608</v>
       </c>
       <c r="I86">
-        <v>3.655418872833252</v>
+        <v>3.561652660369873</v>
       </c>
       <c r="J86">
-        <v>1.109136581420898</v>
+        <v>1.171821594238281</v>
       </c>
       <c r="K86">
-        <v>0.0937037467956543</v>
+        <v>0.1247491836547852</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4517,22 +5078,28 @@
         <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="E87" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="F87" t="s">
-        <v>344</v>
+        <v>474</v>
+      </c>
+      <c r="G87" t="s">
+        <v>562</v>
+      </c>
+      <c r="H87" t="s">
+        <v>609</v>
       </c>
       <c r="I87">
-        <v>3.373933792114258</v>
+        <v>3.342690706253052</v>
       </c>
       <c r="J87">
-        <v>13.82509112358093</v>
+        <v>1.234313488006592</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>0.09372830390930176</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4546,22 +5113,28 @@
         <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="E88" t="s">
-        <v>259</v>
+        <v>382</v>
       </c>
       <c r="F88" t="s">
-        <v>345</v>
+        <v>475</v>
+      </c>
+      <c r="G88" t="s">
+        <v>563</v>
+      </c>
+      <c r="H88" t="s">
+        <v>597</v>
       </c>
       <c r="I88">
-        <v>3.139616966247559</v>
+        <v>5.107931137084961</v>
       </c>
       <c r="J88">
-        <v>13.45020937919617</v>
+        <v>1.718611001968384</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>0.1249711513519287</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4575,28 +5148,28 @@
         <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="E89" t="s">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="F89" t="s">
-        <v>346</v>
+        <v>476</v>
       </c>
       <c r="G89" t="s">
-        <v>413</v>
+        <v>564</v>
       </c>
       <c r="H89" t="s">
-        <v>435</v>
+        <v>577</v>
       </c>
       <c r="I89">
-        <v>3.373934984207153</v>
+        <v>6.451600551605225</v>
       </c>
       <c r="J89">
-        <v>1.515533447265625</v>
+        <v>1.328051805496216</v>
       </c>
       <c r="K89">
-        <v>0.109349250793457</v>
+        <v>0.109112024307251</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4610,22 +5183,28 @@
         <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="E90" t="s">
-        <v>259</v>
+        <v>384</v>
       </c>
       <c r="F90" t="s">
-        <v>347</v>
+        <v>477</v>
+      </c>
+      <c r="G90" t="s">
+        <v>565</v>
+      </c>
+      <c r="H90" t="s">
+        <v>577</v>
       </c>
       <c r="I90">
-        <v>2.905586719512939</v>
+        <v>10.16945266723633</v>
       </c>
       <c r="J90">
-        <v>14.29350519180298</v>
+        <v>1.391229152679443</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>0.1091752052307129</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4639,22 +5218,28 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="E91" t="s">
-        <v>259</v>
+        <v>385</v>
       </c>
       <c r="F91" t="s">
-        <v>348</v>
+        <v>478</v>
+      </c>
+      <c r="G91" t="s">
+        <v>566</v>
+      </c>
+      <c r="H91" t="s">
+        <v>610</v>
       </c>
       <c r="I91">
-        <v>3.34269118309021</v>
+        <v>3.499164581298828</v>
       </c>
       <c r="J91">
-        <v>13.04402375221252</v>
+        <v>1.48429536819458</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>0.1090826988220215</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4668,28 +5253,22 @@
         <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="E92" t="s">
-        <v>259</v>
+        <v>386</v>
       </c>
       <c r="F92" t="s">
-        <v>349</v>
-      </c>
-      <c r="G92" t="s">
-        <v>414</v>
-      </c>
-      <c r="H92" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="I92">
-        <v>3.842574119567871</v>
+        <v>3.405206680297852</v>
       </c>
       <c r="J92">
-        <v>1.531159639358521</v>
+        <v>13.23148441314697</v>
       </c>
       <c r="K92">
-        <v>0.09372401237487793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4703,22 +5282,28 @@
         <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="E93" t="s">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="F93" t="s">
-        <v>350</v>
+        <v>480</v>
+      </c>
+      <c r="G93" t="s">
+        <v>567</v>
+      </c>
+      <c r="H93" t="s">
+        <v>611</v>
       </c>
       <c r="I93">
-        <v>2.624220371246338</v>
+        <v>4.373970508575439</v>
       </c>
       <c r="J93">
-        <v>13.85625648498535</v>
+        <v>1.374907493591309</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.1091165542602539</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4732,19 +5317,22 @@
         <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="F94" t="s">
-        <v>351</v>
+        <v>481</v>
+      </c>
+      <c r="G94" t="s">
+        <v>568</v>
       </c>
       <c r="I94">
-        <v>3.155233144760132</v>
+        <v>4.655151605606079</v>
       </c>
       <c r="J94">
-        <v>31.83674120903015</v>
+        <v>21.82377195358276</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -4761,19 +5349,22 @@
         <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="E95" t="s">
-        <v>259</v>
+        <v>388</v>
       </c>
       <c r="F95" t="s">
-        <v>352</v>
+        <v>482</v>
+      </c>
+      <c r="G95" t="s">
+        <v>569</v>
       </c>
       <c r="I95">
-        <v>3.577226877212524</v>
+        <v>3.717612981796265</v>
       </c>
       <c r="J95">
-        <v>13.12195229530334</v>
+        <v>1.67318868637085</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -4790,19 +5381,19 @@
         <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="E96" t="s">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="F96" t="s">
-        <v>353</v>
+        <v>483</v>
       </c>
       <c r="I96">
-        <v>4.233136892318726</v>
+        <v>3.124242305755615</v>
       </c>
       <c r="J96">
-        <v>11.77873039245605</v>
+        <v>11.55978441238403</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -4819,19 +5410,22 @@
         <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="E97" t="s">
-        <v>259</v>
+        <v>389</v>
       </c>
       <c r="F97" t="s">
-        <v>354</v>
+        <v>484</v>
+      </c>
+      <c r="G97" t="s">
+        <v>570</v>
       </c>
       <c r="I97">
-        <v>3.405181646347046</v>
+        <v>3.389660596847534</v>
       </c>
       <c r="J97">
-        <v>13.26272249221802</v>
+        <v>22.60419607162476</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -4848,19 +5442,22 @@
         <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="E98" t="s">
-        <v>259</v>
+        <v>390</v>
       </c>
       <c r="F98" t="s">
-        <v>355</v>
+        <v>485</v>
+      </c>
+      <c r="G98" t="s">
+        <v>571</v>
       </c>
       <c r="I98">
-        <v>4.030029535293579</v>
+        <v>6.576416015625</v>
       </c>
       <c r="J98">
-        <v>12.46606945991516</v>
+        <v>23.35249519348145</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4874,25 +5471,31 @@
         <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="E99" t="s">
-        <v>259</v>
+        <v>343</v>
       </c>
       <c r="F99" t="s">
-        <v>353</v>
+        <v>486</v>
+      </c>
+      <c r="G99" t="s">
+        <v>572</v>
+      </c>
+      <c r="H99" t="s">
+        <v>595</v>
       </c>
       <c r="I99">
-        <v>1.968023300170898</v>
+        <v>2.936534404754639</v>
       </c>
       <c r="J99">
-        <v>0.1720952987670898</v>
+        <v>2.32784628868103</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>0.07810568809509277</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4903,25 +5506,31 @@
         <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="E100" t="s">
-        <v>259</v>
+        <v>391</v>
       </c>
       <c r="F100" t="s">
-        <v>355</v>
+        <v>487</v>
+      </c>
+      <c r="G100" t="s">
+        <v>573</v>
+      </c>
+      <c r="H100" t="s">
+        <v>597</v>
       </c>
       <c r="I100">
-        <v>2.358550548553467</v>
+        <v>5.451549768447876</v>
       </c>
       <c r="J100">
-        <v>0.1252374649047852</v>
+        <v>22.52709054946899</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1.077871322631836</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4932,22 +5541,25 @@
         <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="E101" t="s">
-        <v>259</v>
+        <v>388</v>
       </c>
       <c r="F101" t="s">
-        <v>356</v>
+        <v>488</v>
+      </c>
+      <c r="G101" t="s">
+        <v>574</v>
       </c>
       <c r="I101">
-        <v>3.592629432678223</v>
+        <v>5.139353036880493</v>
       </c>
       <c r="J101">
-        <v>13.24713826179504</v>
+        <v>2.094680309295654</v>
       </c>
       <c r="K101">
         <v>0</v>

--- a/lod_analysis/excels/tracks.xlsx
+++ b/lod_analysis/excels/tracks.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fabio\Basso\Università\5° Anno 2021-2022 (Magistrale AI)\Sistemi Informativi e Web Semantico\Progetto SIWS\Music World 2.0\lod_analysis\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D2907-089C-48F9-B118-433B8B085C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="36" yWindow="0" windowWidth="23004" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1855,8 +1861,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1915,15 +1921,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1965,7 +1979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1997,9 +2011,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2031,6 +2063,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2206,26 +2256,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D84" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="1" max="10" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2277,7 +2320,7 @@
         <v>392</v>
       </c>
       <c r="I2">
-        <v>5.420347213745117</v>
+        <v>5.4203472137451172</v>
       </c>
       <c r="J2">
         <v>11.09140729904175</v>
@@ -2286,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2312,16 +2355,16 @@
         <v>575</v>
       </c>
       <c r="I3">
-        <v>13.24685120582581</v>
+        <v>13.246851205825809</v>
       </c>
       <c r="J3">
-        <v>1.359054088592529</v>
+        <v>1.3590540885925291</v>
       </c>
       <c r="K3">
         <v>0.1093661785125732</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2347,16 +2390,16 @@
         <v>576</v>
       </c>
       <c r="I4">
-        <v>3.561389923095703</v>
+        <v>3.5613899230957031</v>
       </c>
       <c r="J4">
-        <v>22.35432028770447</v>
+        <v>22.354320287704471</v>
       </c>
       <c r="K4">
-        <v>0.09372878074645996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>9.3728780746459961E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2382,16 +2425,16 @@
         <v>577</v>
       </c>
       <c r="I5">
-        <v>4.31151294708252</v>
+        <v>4.3115129470825204</v>
       </c>
       <c r="J5">
         <v>1.21872878074646</v>
       </c>
       <c r="K5">
-        <v>0.06222248077392578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>6.2222480773925781E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2411,16 +2454,16 @@
         <v>396</v>
       </c>
       <c r="I6">
-        <v>6.310773372650146</v>
+        <v>6.3107733726501456</v>
       </c>
       <c r="J6">
-        <v>13.18461298942566</v>
+        <v>13.184612989425659</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2446,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2469,16 +2512,16 @@
         <v>492</v>
       </c>
       <c r="I8">
-        <v>4.79624080657959</v>
+        <v>4.7962408065795898</v>
       </c>
       <c r="J8">
-        <v>6.779515981674194</v>
+        <v>6.7795159816741943</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2504,16 +2547,16 @@
         <v>578</v>
       </c>
       <c r="I9">
-        <v>4.170837640762329</v>
+        <v>4.1708376407623291</v>
       </c>
       <c r="J9">
         <v>1.640471458435059</v>
       </c>
       <c r="K9">
-        <v>0.09351229667663574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>9.3512296676635742E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2539,7 +2582,7 @@
         <v>579</v>
       </c>
       <c r="I10">
-        <v>4.529956102371216</v>
+        <v>4.5299561023712158</v>
       </c>
       <c r="J10">
         <v>1.406182527542114</v>
@@ -2548,7 +2591,7 @@
         <v>0.109342098236084</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2574,16 +2617,16 @@
         <v>578</v>
       </c>
       <c r="I11">
-        <v>3.670725584030151</v>
+        <v>3.6707255840301509</v>
       </c>
       <c r="J11">
-        <v>1.327966213226318</v>
+        <v>1.3279662132263179</v>
       </c>
       <c r="K11">
         <v>0.1094729900360107</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2609,7 +2652,7 @@
         <v>580</v>
       </c>
       <c r="I12">
-        <v>5.201664686203003</v>
+        <v>5.2016646862030029</v>
       </c>
       <c r="J12">
         <v>1.328043937683105</v>
@@ -2618,7 +2661,7 @@
         <v>0.1249690055847168</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2641,13 +2684,13 @@
         <v>2.686631441116333</v>
       </c>
       <c r="J13">
-        <v>12.91904997825623</v>
+        <v>12.919049978256229</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2673,16 +2716,16 @@
         <v>581</v>
       </c>
       <c r="I14">
-        <v>4.280006408691406</v>
+        <v>4.2800064086914063</v>
       </c>
       <c r="J14">
-        <v>1.312215089797974</v>
+        <v>1.3122150897979741</v>
       </c>
       <c r="K14">
-        <v>0.09393644332885742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>9.3936443328857422E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2711,13 +2754,13 @@
         <v>3.124260425567627</v>
       </c>
       <c r="J15">
-        <v>1.499642848968506</v>
+        <v>1.4996428489685061</v>
       </c>
       <c r="K15">
-        <v>0.1093542575836182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0.10935425758361821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2743,7 +2786,7 @@
         <v>583</v>
       </c>
       <c r="I16">
-        <v>4.061309099197388</v>
+        <v>4.0613090991973877</v>
       </c>
       <c r="J16">
         <v>1.390525341033936</v>
@@ -2752,7 +2795,7 @@
         <v>0.1249673366546631</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2781,13 +2824,13 @@
         <v>3.202136754989624</v>
       </c>
       <c r="J17">
-        <v>1.249670505523682</v>
+        <v>1.2496705055236821</v>
       </c>
       <c r="K17">
         <v>0.1096165180206299</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2813,16 +2856,16 @@
         <v>585</v>
       </c>
       <c r="I18">
-        <v>5.82674765586853</v>
+        <v>5.8267476558685303</v>
       </c>
       <c r="J18">
-        <v>1.421525955200195</v>
+        <v>1.4215259552001951</v>
       </c>
       <c r="K18">
-        <v>0.09373807907104492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>9.3738079071044922E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2851,13 +2894,13 @@
         <v>2.718140602111816</v>
       </c>
       <c r="J19">
-        <v>1.249939203262329</v>
+        <v>1.2499392032623291</v>
       </c>
       <c r="K19">
-        <v>0.0934598445892334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>9.3459844589233398E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2880,7 +2923,7 @@
         <v>503</v>
       </c>
       <c r="I20">
-        <v>5.68592381477356</v>
+        <v>5.6859238147735596</v>
       </c>
       <c r="J20">
         <v>27.43124628067017</v>
@@ -2889,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2915,16 +2958,16 @@
         <v>587</v>
       </c>
       <c r="I21">
-        <v>2.702251434326172</v>
+        <v>2.7022514343261719</v>
       </c>
       <c r="J21">
-        <v>1.156095743179321</v>
+        <v>1.1560957431793211</v>
       </c>
       <c r="K21">
         <v>0.1094620227813721</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2950,16 +2993,16 @@
         <v>586</v>
       </c>
       <c r="I22">
-        <v>4.85797905921936</v>
+        <v>4.8579790592193604</v>
       </c>
       <c r="J22">
-        <v>1.03124213218689</v>
+        <v>1.0312421321868901</v>
       </c>
       <c r="K22">
-        <v>0.07810330390930176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>7.8103303909301758E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2982,16 +3025,16 @@
         <v>506</v>
       </c>
       <c r="I23">
-        <v>4.186466932296753</v>
+        <v>4.1864669322967529</v>
       </c>
       <c r="J23">
-        <v>2.171369552612305</v>
+        <v>2.1713695526123051</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3017,16 +3060,16 @@
         <v>588</v>
       </c>
       <c r="I24">
-        <v>5.170424938201904</v>
+        <v>5.1704249382019043</v>
       </c>
       <c r="J24">
         <v>22.19814300537109</v>
       </c>
       <c r="K24">
-        <v>0.09372210502624512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>9.3722105026245117E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3052,16 +3095,16 @@
         <v>589</v>
       </c>
       <c r="I25">
-        <v>7.216804265975952</v>
+        <v>7.2168042659759521</v>
       </c>
       <c r="J25">
-        <v>1.187217950820923</v>
+        <v>1.1872179508209231</v>
       </c>
       <c r="K25">
-        <v>0.09396910667419434</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>9.3969106674194336E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3084,7 +3127,7 @@
         <v>509</v>
       </c>
       <c r="I26">
-        <v>5.076912403106689</v>
+        <v>5.0769124031066886</v>
       </c>
       <c r="J26">
         <v>1.624627828598022</v>
@@ -3093,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3119,13 +3162,13 @@
         <v>3.467928409576416</v>
       </c>
       <c r="J27">
-        <v>6.15479564666748</v>
+        <v>6.1547956466674796</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3145,7 +3188,7 @@
         <v>417</v>
       </c>
       <c r="I28">
-        <v>3.249203681945801</v>
+        <v>3.2492036819458008</v>
       </c>
       <c r="J28">
         <v>11.91908240318298</v>
@@ -3154,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3180,7 +3223,7 @@
         <v>590</v>
       </c>
       <c r="I29">
-        <v>6.904384136199951</v>
+        <v>6.9043841361999512</v>
       </c>
       <c r="J29">
         <v>1.202811002731323</v>
@@ -3189,7 +3232,7 @@
         <v>0.1096148490905762</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3215,16 +3258,16 @@
         <v>591</v>
       </c>
       <c r="I30">
-        <v>9.278784513473511</v>
+        <v>9.2787845134735107</v>
       </c>
       <c r="J30">
-        <v>1.452858924865723</v>
+        <v>1.4528589248657231</v>
       </c>
       <c r="K30">
-        <v>0.09388232231140137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>9.3882322311401367E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3244,7 +3287,7 @@
         <v>420</v>
       </c>
       <c r="I31">
-        <v>4.98296332359314</v>
+        <v>4.9829633235931396</v>
       </c>
       <c r="J31">
         <v>13.57518243789673</v>
@@ -3253,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3276,7 +3319,7 @@
         <v>513</v>
       </c>
       <c r="I32">
-        <v>7.013737440109253</v>
+        <v>7.0137374401092529</v>
       </c>
       <c r="J32">
         <v>5.515270471572876</v>
@@ -3285,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3311,16 +3354,16 @@
         <v>591</v>
       </c>
       <c r="I33">
-        <v>5.248523712158203</v>
+        <v>5.2485237121582031</v>
       </c>
       <c r="J33">
-        <v>1.234048843383789</v>
+        <v>1.2340488433837891</v>
       </c>
       <c r="K33">
-        <v>0.09399199485778809</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>9.3991994857788086E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3349,13 +3392,13 @@
         <v>10.66911792755127</v>
       </c>
       <c r="J34">
-        <v>0.999769926071167</v>
+        <v>0.99976992607116699</v>
       </c>
       <c r="K34">
-        <v>0.109574556350708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.10957455635070799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3381,7 +3424,7 @@
         <v>592</v>
       </c>
       <c r="I35">
-        <v>9.51314115524292</v>
+        <v>9.5131411552429199</v>
       </c>
       <c r="J35">
         <v>1.281183004379272</v>
@@ -3390,7 +3433,7 @@
         <v>0.1093490123748779</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3416,16 +3459,16 @@
         <v>593</v>
       </c>
       <c r="I36">
-        <v>2.76497220993042</v>
+        <v>2.7649722099304199</v>
       </c>
       <c r="J36">
-        <v>1.062335014343262</v>
+        <v>1.0623350143432619</v>
       </c>
       <c r="K36">
         <v>0.109264612197876</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3451,13 +3494,13 @@
         <v>3.780128955841064</v>
       </c>
       <c r="J37">
-        <v>2.265320539474487</v>
+        <v>2.2653205394744869</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3483,16 +3526,16 @@
         <v>593</v>
       </c>
       <c r="I38">
-        <v>4.936103820800781</v>
+        <v>4.9361038208007813</v>
       </c>
       <c r="J38">
-        <v>1.218689203262329</v>
+        <v>1.2186892032623291</v>
       </c>
       <c r="K38">
-        <v>0.09372735023498535</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>9.3727350234985352E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3518,16 +3561,16 @@
         <v>594</v>
       </c>
       <c r="I39">
-        <v>6.357639312744141</v>
+        <v>6.3576393127441406</v>
       </c>
       <c r="J39">
-        <v>22.21372509002686</v>
+        <v>22.213725090026859</v>
       </c>
       <c r="K39">
         <v>0.1093502044677734</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3547,7 +3590,7 @@
         <v>429</v>
       </c>
       <c r="I40">
-        <v>5.342217445373535</v>
+        <v>5.3422174453735352</v>
       </c>
       <c r="J40">
         <v>11.60686564445496</v>
@@ -3556,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3582,16 +3625,16 @@
         <v>589</v>
       </c>
       <c r="I41">
-        <v>3.592883110046387</v>
+        <v>3.5928831100463872</v>
       </c>
       <c r="J41">
-        <v>1.421574115753174</v>
+        <v>1.4215741157531741</v>
       </c>
       <c r="K41">
         <v>0.1406059265136719</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3617,16 +3660,16 @@
         <v>589</v>
       </c>
       <c r="I42">
-        <v>3.546038866043091</v>
+        <v>3.5460388660430908</v>
       </c>
       <c r="J42">
-        <v>1.28098726272583</v>
+        <v>1.2809872627258301</v>
       </c>
       <c r="K42">
-        <v>0.09368729591369629</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>9.3687295913696289E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3649,16 +3692,16 @@
         <v>523</v>
       </c>
       <c r="I43">
-        <v>4.687015295028687</v>
+        <v>4.6870152950286874</v>
       </c>
       <c r="J43">
-        <v>1.171831846237183</v>
+        <v>1.1718318462371831</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3681,16 +3724,16 @@
         <v>524</v>
       </c>
       <c r="I44">
-        <v>4.983198642730713</v>
+        <v>4.9831986427307129</v>
       </c>
       <c r="J44">
-        <v>1.593371391296387</v>
+        <v>1.5933713912963869</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3713,16 +3756,16 @@
         <v>525</v>
       </c>
       <c r="I45">
-        <v>7.216813564300537</v>
+        <v>7.2168135643005371</v>
       </c>
       <c r="J45">
-        <v>1.984136343002319</v>
+        <v>1.9841363430023189</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3757,7 +3800,7 @@
         <v>0.109102725982666</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3777,7 +3820,7 @@
         <v>527</v>
       </c>
       <c r="I47">
-        <v>0.484532356262207</v>
+        <v>0.48453235626220698</v>
       </c>
       <c r="J47">
         <v>1.374640941619873</v>
@@ -3786,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3806,16 +3849,16 @@
         <v>436</v>
       </c>
       <c r="I48">
-        <v>3.233376502990723</v>
+        <v>3.2333765029907231</v>
       </c>
       <c r="J48">
-        <v>10.99739074707031</v>
+        <v>10.997390747070311</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3838,16 +3881,16 @@
         <v>528</v>
       </c>
       <c r="I49">
-        <v>4.85799503326416</v>
+        <v>4.8579950332641602</v>
       </c>
       <c r="J49">
-        <v>6.88923168182373</v>
+        <v>6.8892316818237296</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3876,13 +3919,13 @@
         <v>3.577049732208252</v>
       </c>
       <c r="J50">
-        <v>1.234312295913696</v>
+        <v>1.2343122959136961</v>
       </c>
       <c r="K50">
         <v>0.1249656677246094</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3908,16 +3951,16 @@
         <v>597</v>
       </c>
       <c r="I51">
-        <v>4.483081817626953</v>
+        <v>4.4830818176269531</v>
       </c>
       <c r="J51">
-        <v>2.796448230743408</v>
+        <v>2.7964482307434082</v>
       </c>
       <c r="K51">
-        <v>0.1093478202819824</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>0.10934782028198239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3940,7 +3983,7 @@
         <v>531</v>
       </c>
       <c r="I52">
-        <v>3.6866295337677</v>
+        <v>3.6866295337677002</v>
       </c>
       <c r="J52">
         <v>7.295154333114624</v>
@@ -3949,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3975,16 +4018,16 @@
         <v>598</v>
       </c>
       <c r="I53">
-        <v>3.342957019805908</v>
+        <v>3.3429570198059082</v>
       </c>
       <c r="J53">
-        <v>1.281174659729004</v>
+        <v>1.2811746597290039</v>
       </c>
       <c r="K53">
-        <v>0.09349870681762695</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>9.3498706817626953E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4007,16 +4050,16 @@
         <v>533</v>
       </c>
       <c r="I54">
-        <v>2.889698028564453</v>
+        <v>2.8896980285644531</v>
       </c>
       <c r="J54">
-        <v>2.062253713607788</v>
+        <v>2.0622537136077881</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4039,16 +4082,16 @@
         <v>534</v>
       </c>
       <c r="I55">
-        <v>5.357876300811768</v>
+        <v>5.3578763008117676</v>
       </c>
       <c r="J55">
-        <v>8.232662677764893</v>
+        <v>8.2326626777648926</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4071,16 +4114,16 @@
         <v>535</v>
       </c>
       <c r="I56">
-        <v>3.327068328857422</v>
+        <v>3.3270683288574219</v>
       </c>
       <c r="J56">
-        <v>7.467255830764771</v>
+        <v>7.4672558307647714</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4109,13 +4152,13 @@
         <v>2.811610221862793</v>
       </c>
       <c r="J57">
-        <v>22.49586844444275</v>
+        <v>22.495868444442749</v>
       </c>
       <c r="K57">
-        <v>0.1093435287475586</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>0.10934352874755859</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4147,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4173,13 +4216,13 @@
         <v>4.45198655128479</v>
       </c>
       <c r="J59">
-        <v>7.843962430953979</v>
+        <v>7.8439624309539786</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4205,16 +4248,16 @@
         <v>599</v>
       </c>
       <c r="I60">
-        <v>3.233609914779663</v>
+        <v>3.2336099147796631</v>
       </c>
       <c r="J60">
-        <v>1.390527248382568</v>
+        <v>1.3905272483825679</v>
       </c>
       <c r="K60">
-        <v>0.09349465370178223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>9.3494653701782227E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4234,16 +4277,16 @@
         <v>449</v>
       </c>
       <c r="I61">
-        <v>4.561749219894409</v>
+        <v>4.5617492198944092</v>
       </c>
       <c r="J61">
-        <v>35.9771203994751</v>
+        <v>35.977120399475098</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4263,7 +4306,7 @@
         <v>450</v>
       </c>
       <c r="I62">
-        <v>4.843067169189453</v>
+        <v>4.8430671691894531</v>
       </c>
       <c r="J62">
         <v>11.59224367141724</v>
@@ -4272,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4298,16 +4341,16 @@
         <v>600</v>
       </c>
       <c r="I63">
-        <v>5.701542615890503</v>
+        <v>5.7015426158905029</v>
       </c>
       <c r="J63">
-        <v>0.9372463226318359</v>
+        <v>0.93724632263183594</v>
       </c>
       <c r="K63">
-        <v>0.1096115112304688</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>0.10961151123046881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4333,16 +4376,16 @@
         <v>597</v>
       </c>
       <c r="I64">
-        <v>3.29586386680603</v>
+        <v>3.2958638668060298</v>
       </c>
       <c r="J64">
-        <v>1.265559434890747</v>
+        <v>1.2655594348907471</v>
       </c>
       <c r="K64">
         <v>0.124969482421875</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4365,16 +4408,16 @@
         <v>542</v>
       </c>
       <c r="I65">
-        <v>4.014445066452026</v>
+        <v>4.0144450664520264</v>
       </c>
       <c r="J65">
-        <v>1.203072547912598</v>
+        <v>1.2030725479125981</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4397,7 +4440,7 @@
         <v>543</v>
       </c>
       <c r="I66">
-        <v>3.436453819274902</v>
+        <v>3.4364538192749019</v>
       </c>
       <c r="J66">
         <v>1.453012228012085</v>
@@ -4406,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4429,16 +4472,16 @@
         <v>544</v>
       </c>
       <c r="I67">
-        <v>5.560953378677368</v>
+        <v>5.5609533786773682</v>
       </c>
       <c r="J67">
-        <v>2.155973434448242</v>
+        <v>2.1559734344482422</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4470,10 +4513,10 @@
         <v>1.140590906143188</v>
       </c>
       <c r="K68">
-        <v>0.09372711181640625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>9.372711181640625E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4496,16 +4539,16 @@
         <v>602</v>
       </c>
       <c r="I69">
-        <v>0.4217796325683594</v>
+        <v>0.42177963256835938</v>
       </c>
       <c r="J69">
-        <v>1.296802520751953</v>
+        <v>1.2968025207519529</v>
       </c>
       <c r="K69">
-        <v>0.07810378074645996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>7.8103780746459961E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4528,16 +4571,16 @@
         <v>547</v>
       </c>
       <c r="I70">
-        <v>3.858464956283569</v>
+        <v>3.8584649562835689</v>
       </c>
       <c r="J70">
-        <v>2.155502319335938</v>
+        <v>2.1555023193359379</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4563,16 +4606,16 @@
         <v>603</v>
       </c>
       <c r="I71">
-        <v>4.281746387481689</v>
+        <v>4.2817463874816886</v>
       </c>
       <c r="J71">
-        <v>22.37035846710205</v>
+        <v>22.370358467102051</v>
       </c>
       <c r="K71">
-        <v>0.09430360794067383</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>9.4303607940673828E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4595,16 +4638,16 @@
         <v>549</v>
       </c>
       <c r="I72">
-        <v>5.29538369178772</v>
+        <v>5.2953836917877197</v>
       </c>
       <c r="J72">
-        <v>1.74981951713562</v>
+        <v>1.7498195171356199</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4630,16 +4673,16 @@
         <v>604</v>
       </c>
       <c r="I73">
-        <v>3.483319520950317</v>
+        <v>3.4833195209503169</v>
       </c>
       <c r="J73">
-        <v>1.218695878982544</v>
+        <v>1.2186958789825439</v>
       </c>
       <c r="K73">
-        <v>0.1405916213989258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>0.14059162139892581</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4668,13 +4711,13 @@
         <v>2.874085664749146</v>
       </c>
       <c r="J74">
-        <v>7.248306035995483</v>
+        <v>7.2483060359954834</v>
       </c>
       <c r="K74">
-        <v>0.09394288063049316</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>9.3942880630493164E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4703,13 +4746,13 @@
         <v>3.967577457427979</v>
       </c>
       <c r="J75">
-        <v>1.406148195266724</v>
+        <v>1.4061481952667241</v>
       </c>
       <c r="K75">
-        <v>0.07811307907104492</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>7.8113079071044922E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4729,16 +4772,16 @@
         <v>463</v>
       </c>
       <c r="I76">
-        <v>4.15503454208374</v>
+        <v>4.1550345420837402</v>
       </c>
       <c r="J76">
-        <v>14.15313076972961</v>
+        <v>14.153130769729611</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4761,7 +4804,7 @@
         <v>553</v>
       </c>
       <c r="I77">
-        <v>4.545759201049805</v>
+        <v>4.5457592010498047</v>
       </c>
       <c r="J77">
         <v>1.375419616699219</v>
@@ -4770,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4796,16 +4839,16 @@
         <v>603</v>
       </c>
       <c r="I78">
-        <v>3.7957603931427</v>
+        <v>3.7957603931427002</v>
       </c>
       <c r="J78">
-        <v>1.296602964401245</v>
+        <v>1.2966029644012449</v>
       </c>
       <c r="K78">
         <v>0.1251869201660156</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4831,16 +4874,16 @@
         <v>607</v>
       </c>
       <c r="I79">
-        <v>5.779638528823853</v>
+        <v>5.7796385288238534</v>
       </c>
       <c r="J79">
-        <v>22.46467709541321</v>
+        <v>22.464677095413212</v>
       </c>
       <c r="K79">
         <v>0.10933518409729</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4872,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4895,16 +4938,16 @@
         <v>557</v>
       </c>
       <c r="I81">
-        <v>6.138940095901489</v>
+        <v>6.1389400959014893</v>
       </c>
       <c r="J81">
-        <v>2.09348726272583</v>
+        <v>2.0934872627258301</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4924,16 +4967,16 @@
         <v>469</v>
       </c>
       <c r="I82">
-        <v>5.032291650772095</v>
+        <v>5.0322916507720947</v>
       </c>
       <c r="J82">
-        <v>11.9661557674408</v>
+        <v>11.966155767440799</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4962,13 +5005,13 @@
         <v>4.529944896697998</v>
       </c>
       <c r="J83">
-        <v>6.233132362365723</v>
+        <v>6.2331323623657227</v>
       </c>
       <c r="K83">
-        <v>0.09372758865356445</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>9.3727588653564453E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4991,16 +5034,16 @@
         <v>559</v>
       </c>
       <c r="I84">
-        <v>2.921182870864868</v>
+        <v>2.9211828708648682</v>
       </c>
       <c r="J84">
-        <v>0.8123111724853516</v>
+        <v>0.81231117248535156</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5023,7 +5066,7 @@
         <v>560</v>
       </c>
       <c r="I85">
-        <v>4.49870753288269</v>
+        <v>4.4987075328826904</v>
       </c>
       <c r="J85">
         <v>1.984137296676636</v>
@@ -5032,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5067,7 +5110,7 @@
         <v>0.1247491836547852</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5093,16 +5136,16 @@
         <v>609</v>
       </c>
       <c r="I87">
-        <v>3.342690706253052</v>
+        <v>3.3426907062530522</v>
       </c>
       <c r="J87">
         <v>1.234313488006592</v>
       </c>
       <c r="K87">
-        <v>0.09372830390930176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>9.3728303909301758E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5128,7 +5171,7 @@
         <v>597</v>
       </c>
       <c r="I88">
-        <v>5.107931137084961</v>
+        <v>5.1079311370849609</v>
       </c>
       <c r="J88">
         <v>1.718611001968384</v>
@@ -5137,7 +5180,7 @@
         <v>0.1249711513519287</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5163,7 +5206,7 @@
         <v>577</v>
       </c>
       <c r="I89">
-        <v>6.451600551605225</v>
+        <v>6.4516005516052246</v>
       </c>
       <c r="J89">
         <v>1.328051805496216</v>
@@ -5172,7 +5215,7 @@
         <v>0.109112024307251</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5201,13 +5244,13 @@
         <v>10.16945266723633</v>
       </c>
       <c r="J90">
-        <v>1.391229152679443</v>
+        <v>1.3912291526794429</v>
       </c>
       <c r="K90">
         <v>0.1091752052307129</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5233,16 +5276,16 @@
         <v>610</v>
       </c>
       <c r="I91">
-        <v>3.499164581298828</v>
+        <v>3.4991645812988281</v>
       </c>
       <c r="J91">
-        <v>1.48429536819458</v>
+        <v>1.4842953681945801</v>
       </c>
       <c r="K91">
         <v>0.1090826988220215</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5265,13 +5308,13 @@
         <v>3.405206680297852</v>
       </c>
       <c r="J92">
-        <v>13.23148441314697</v>
+        <v>13.231484413146971</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5297,16 +5340,16 @@
         <v>611</v>
       </c>
       <c r="I93">
-        <v>4.373970508575439</v>
+        <v>4.3739705085754386</v>
       </c>
       <c r="J93">
         <v>1.374907493591309</v>
       </c>
       <c r="K93">
-        <v>0.1091165542602539</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>0.10911655426025391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5329,7 +5372,7 @@
         <v>568</v>
       </c>
       <c r="I94">
-        <v>4.655151605606079</v>
+        <v>4.6551516056060791</v>
       </c>
       <c r="J94">
         <v>21.82377195358276</v>
@@ -5338,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5361,16 +5404,16 @@
         <v>569</v>
       </c>
       <c r="I95">
-        <v>3.717612981796265</v>
+        <v>3.7176129817962651</v>
       </c>
       <c r="J95">
-        <v>1.67318868637085</v>
+        <v>1.6731886863708501</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5390,7 +5433,7 @@
         <v>483</v>
       </c>
       <c r="I96">
-        <v>3.124242305755615</v>
+        <v>3.1242423057556148</v>
       </c>
       <c r="J96">
         <v>11.55978441238403</v>
@@ -5399,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5422,16 +5465,16 @@
         <v>570</v>
       </c>
       <c r="I97">
-        <v>3.389660596847534</v>
+        <v>3.3896605968475342</v>
       </c>
       <c r="J97">
-        <v>22.60419607162476</v>
+        <v>22.604196071624759</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5457,13 +5500,13 @@
         <v>6.576416015625</v>
       </c>
       <c r="J98">
-        <v>23.35249519348145</v>
+        <v>23.352495193481449</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5489,16 +5532,16 @@
         <v>595</v>
       </c>
       <c r="I99">
-        <v>2.936534404754639</v>
+        <v>2.9365344047546391</v>
       </c>
       <c r="J99">
-        <v>2.32784628868103</v>
+        <v>2.3278462886810298</v>
       </c>
       <c r="K99">
-        <v>0.07810568809509277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>7.8105688095092773E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5527,13 +5570,13 @@
         <v>5.451549768447876</v>
       </c>
       <c r="J100">
-        <v>22.52709054946899</v>
+        <v>22.527090549468991</v>
       </c>
       <c r="K100">
-        <v>1.077871322631836</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>0.12945619999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5556,10 +5599,10 @@
         <v>574</v>
       </c>
       <c r="I101">
-        <v>5.139353036880493</v>
+        <v>5.1393530368804932</v>
       </c>
       <c r="J101">
-        <v>2.094680309295654</v>
+        <v>2.0946803092956539</v>
       </c>
       <c r="K101">
         <v>0</v>
